--- a/Output/SDTM_Results.xlsx
+++ b/Output/SDTM_Results.xlsx
@@ -2811,7 +2811,11 @@
           <t>TI</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr"/>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="D2" s="9" t="inlineStr">
         <is>
           <t>&lt;p&gt;have had a diagnosis of either:&lt;/p&gt;\n&lt;ul&gt;\n  &lt;li&gt;\n    &lt;p&gt;[1a] T1DM based on the World Health Organization (WHO) diagnostic criteria, and have been on the following daily insulin therapy for at least 1 year&lt;/p&gt;\n    &lt;ul&gt;\n      &lt;p&gt;[A] multiple daily injection of long-acting insulin analog (either insulin glargine [U-100 or U-300] or insulin degludec [U-100]) and rapid-acting insulin analog (insulin lispro, insulin aspart, or insulin glulisine), or&lt;/p&gt;\n      &lt;p&gt;[B] continuous subcutaneous insulin infusion (CSII)&lt;/p&gt;    \n    &lt;/ul&gt;\n  &lt;/li&gt;\n  &lt;p&gt;Or&lt;/p&gt;\n  &lt;li&gt;\n    &lt;p&gt;[1b] T2DM based on the WHO diagnostic criteria, and have received the&lt;/p&gt;\n    &lt;p&gt;following daily insulin therapy with or without oral anti-hyperglycemic medications (OAMs) for at least 1 year&lt;/p&gt;\n    &lt;ul&gt;\n      &lt;p&gt;[A] insulin: long-acting insulin analog (either insulin glargine [U-100 or U-300] or insulin degludec [U-100]) alone, or in combination with rapid-acting insulin analog (insulin lispro, insulin aspart, or insulin glulisine) or CSII&lt;/p&gt;\n      &lt;p&gt;[B] OAM: up to 3 of the following OAMs in accordance with local regulations: metformin, dipeptidyl peptidase-4 inhibitor, sodium glucose cotransporter 2 inhibitor, sulfonylurea (should not be more than half of maximum approved doses), glinides, alpha-glucosidase inhibitor, or thiazolidine&lt;/p&gt;\n    &lt;/ul&gt;\n  &lt;/li&gt;\n&lt;/ul&gt;</t>
@@ -2841,15 +2845,19 @@
     <row r="3" ht="29" customHeight="1">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>DOMAIN</t>
+          <t> </t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>Domain Abbreviation</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr"/>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
           <t>&lt;p&gt;male patients: agree to use an effective method of contraception for the duration of the study and for 28 days following the last study treatment&lt;/p&gt;</t>
@@ -2872,22 +2880,26 @@
       </c>
       <c r="H3" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4" ht="29" customHeight="1">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>IETESTCD</t>
+          <t> </t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>Incl/Excl Criterion Short Name</t>
-        </is>
-      </c>
-      <c r="C4" s="9" t="inlineStr"/>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
           <t>&lt;ul&gt;\n  &lt;li&gt;\n    [3a] women of childbearing potential who are abstinent (if this is complete\n    abstinence, as their preferred and usual lifestyle) or in a same sex\n    relationship (as part of their preferred and usual lifestyle) must agree to\n    either remain abstinent or stay in a same sex relationship without sexual\n    relationships with males. Periodic abstinence (eg, calendar, ovulation,\n    symptothermal, post-ovulation methods), declaration of abstinence just for\n    the duration of a trial, and withdrawal are not acceptable methods of\n    contraception.\n  &lt;/li&gt;\n  &lt;li&gt;\n    [3b] otherwise, women of childbearing potential participating must agree to use\n    one highly effective method (less than 1% failure rate) of contraception, or a\n    combination of 2 effective methods of contraception for the entirety of the\n    study.\n    &lt;ul&gt;\n      &lt;li&gt;[A] women of childbearing potential participating must test negative for\n        pregnancy prior to initiation of treatment as indicated by a negative serum\n        pregnancy test at the screening visit followed by a negative urine\n        pregnancy test within 24 hours prior to exposure.&lt;/li&gt;\n      &lt;li&gt;[B] either one highly effective method of contraception or a combination\n        of 2 effective methods of contraception will be used. The patient may\n        choose to use a double barrier method of contraception. Barrier protection\n        methods without concomitant use of a spermicide are not a reliable or\n        acceptable method. Thus, each barrier method must include use of a\n        spermicide. It should be noted that the use of male and female condoms\n        as a double barrier method is not considered acceptable due to the high\n        failure rate when these methods are combined.&lt;/li&gt;\n    &lt;/ul&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    [3c] women not of childbearing potential may participate, and include those who are:\n    &lt;ul&gt;\n      &lt;li&gt;\n        [A] infertile due to surgical sterilization (hysterectomy, bilateral\n        oophorectomy, or tubal ligation), congenital anomaly such as mullerian\n        agenesis\n      &lt;/li&gt;\n      &lt;li&gt;\n        Or\n        [B] postmenopausal, defined as either:\n        &lt;ul&gt;\n          &lt;li&gt;[i] a woman at least 50 years of age with an intact uterus, not on hormone therapy, who has had either:\n          &lt;/li&gt;\n          &lt;ul&gt;\n            &lt;li&gt;[a] cessation of menses for at least 1 year, or&lt;/li&gt;\n            &lt;li&gt;[b] at least 6 months of spontaneous amenorrhea with a follicle-stimulating hormone &gt;40 mIU/mL; or&lt;/li&gt;\n          &lt;/ul&gt;\n          &lt;li&gt;[ii] a woman 55 or older not on hormone therapy, who has had at least 6 months of spontaneous amenorrhea,\n            or&lt;/li&gt;\n          &lt;li&gt;[iii] a woman at least 55 years of age with a diagnosis of menopause prior to starting hormone replacement\n            therapy&lt;/li&gt;\n        &lt;/ul&gt;\n      &lt;/li&gt;\n    &lt;/ul&gt;\n  &lt;/li&gt;\n&lt;/ul&gt;</t>
@@ -2908,20 +2920,28 @@
           <t> </t>
         </is>
       </c>
-      <c r="H4" s="33" t="n"/>
+      <c r="H4" s="33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="87" customHeight="1">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>IETEST</t>
+          <t> </t>
         </is>
       </c>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>Inclusion/Exclusion Criterion</t>
-        </is>
-      </c>
-      <c r="C5" s="9" t="inlineStr"/>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="D5" s="9" t="inlineStr">
         <is>
           <t>&lt;p&gt;are between 18 and 64 years old for T1DM, or between 20 and 70 years old for T2DM at the time of informed consent&lt;/p&gt;</t>
@@ -2942,20 +2962,28 @@
           <t> </t>
         </is>
       </c>
-      <c r="H5" s="33" t="n"/>
+      <c r="H5" s="33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="43.5" customHeight="1">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>IECAT</t>
+          <t> </t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>Inclusion/Exclusion Category</t>
-        </is>
-      </c>
-      <c r="C6" s="9" t="inlineStr"/>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
           <t>&lt;p&gt;have a body mass index of 18.5 to 30.0 kg/m 2 for T1DM, or 18.5 to 35.0 kg/m 2 for T2DM at the time of screening&lt;/p&gt;</t>
@@ -2976,20 +3004,28 @@
           <t> </t>
         </is>
       </c>
-      <c r="H6" s="33" t="n"/>
+      <c r="H6" s="33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="43.5" customHeight="1">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t>IESCAT</t>
+          <t> </t>
         </is>
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>Inclusion/Exclusion Subcategory</t>
-        </is>
-      </c>
-      <c r="C7" s="9" t="inlineStr"/>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="D7" s="9" t="inlineStr">
         <is>
           <t>&lt;p&gt;have a hemoglobin A1c value ≤10% at the time of screening&lt;/p&gt;</t>
@@ -3010,20 +3046,28 @@
           <t> </t>
         </is>
       </c>
-      <c r="H7" s="33" t="n"/>
+      <c r="H7" s="33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="29" customHeight="1">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t>TIRL</t>
+          <t> </t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>Inclusion/Exclusion Criterion Rule</t>
-        </is>
-      </c>
-      <c r="C8" s="9" t="inlineStr"/>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
           <t>&lt;p&gt;have clinical laboratory test results within normal reference range (except for glycemic parameters) for the population or investigative site, or results with acceptable deviations that are judged to be not clinically significant by the investigator&lt;/p&gt;</t>
@@ -3044,20 +3088,28 @@
           <t> </t>
         </is>
       </c>
-      <c r="H8" s="33" t="n"/>
+      <c r="H8" s="33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t>TIVERS</t>
+          <t> </t>
         </is>
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>Protocol Criteria Versions</t>
-        </is>
-      </c>
-      <c r="C9" s="9" t="inlineStr"/>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="D9" s="9" t="inlineStr">
         <is>
           <t>&lt;p&gt;have venous access sufficient to allow for blood sampling and administration of insulin for IV administration as per the protocol&lt;/p&gt;</t>
@@ -3078,10 +3130,28 @@
           <t> </t>
         </is>
       </c>
-      <c r="H9" s="33" t="n"/>
+      <c r="H9" s="33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>&lt;p&gt;are reliable and willing to make themselves available for the duration of the study and are willing to follow study procedures&lt;/p&gt;</t>
@@ -3102,8 +3172,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>10</t>
@@ -3129,8 +3214,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>11</t>
@@ -3156,8 +3256,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>12</t>
@@ -3183,8 +3298,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>13</t>
@@ -3210,8 +3340,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>14</t>
@@ -3237,8 +3382,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>15</t>
@@ -3264,8 +3424,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>16</t>
@@ -3291,8 +3466,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>17</t>
@@ -3318,8 +3508,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>18</t>
@@ -3345,8 +3550,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>19</t>
@@ -3372,8 +3592,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>20</t>
@@ -3399,8 +3634,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>21</t>
@@ -3426,8 +3676,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>22</t>
@@ -3453,8 +3718,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>23</t>
@@ -3480,8 +3760,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>24</t>
@@ -3507,8 +3802,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>25</t>
@@ -3534,8 +3844,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>26</t>
@@ -3561,8 +3886,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
           <t>27</t>
@@ -3588,8 +3928,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>28</t>
@@ -3615,8 +3970,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>29</t>
@@ -3642,8 +4012,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>30</t>
@@ -3669,8 +4054,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>31</t>
@@ -3696,8 +4096,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>32</t>
@@ -3723,8 +4138,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>33</t>
@@ -3750,8 +4180,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>34</t>
@@ -3777,8 +4222,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr">
         <is>
           <t>35</t>
@@ -3804,8 +4264,23 @@
           <t> </t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>36</t>
@@ -3829,6 +4304,11 @@
       <c r="G37" t="inlineStr">
         <is>
           <t> </t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/Output/SDTM_Results.xlsx
+++ b/Output/SDTM_Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-10380" yWindow="-19830" windowWidth="31995" windowHeight="17895" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" state="visible" r:id="rId1"/>
@@ -397,6 +397,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -404,9 +407,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -991,7 +991,7 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+    <sheetView zoomScale="87" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1448,7 +1448,7 @@
       <c r="C1" s="50" t="n"/>
       <c r="D1" s="50" t="n"/>
       <c r="E1" s="51" t="n"/>
-      <c r="F1" s="45" t="inlineStr">
+      <c r="F1" s="42" t="inlineStr">
         <is>
           <t>USDM</t>
         </is>
@@ -2034,7 +2034,7 @@
       <c r="C1" s="50" t="n"/>
       <c r="D1" s="50" t="n"/>
       <c r="E1" s="51" t="n"/>
-      <c r="F1" s="45" t="inlineStr">
+      <c r="F1" s="42" t="inlineStr">
         <is>
           <t>USDM</t>
         </is>
@@ -2803,7 +2803,7 @@
     <row r="2" ht="72.5" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
@@ -2845,7 +2845,7 @@
     <row r="3" ht="29" customHeight="1">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
@@ -2887,7 +2887,7 @@
     <row r="4" ht="29" customHeight="1">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
@@ -2929,7 +2929,7 @@
     <row r="5" ht="87" customHeight="1">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B5" s="9" t="inlineStr">
@@ -2971,7 +2971,7 @@
     <row r="6" ht="43.5" customHeight="1">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
@@ -3013,7 +3013,7 @@
     <row r="7" ht="43.5" customHeight="1">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B7" s="9" t="inlineStr">
@@ -3055,7 +3055,7 @@
     <row r="8" ht="29" customHeight="1">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr">
@@ -3097,7 +3097,7 @@
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B9" s="9" t="inlineStr">
@@ -3139,7 +3139,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3181,7 +3181,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3223,7 +3223,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3265,7 +3265,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3307,7 +3307,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3349,7 +3349,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3391,7 +3391,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3433,7 +3433,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3475,7 +3475,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3517,7 +3517,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3559,7 +3559,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3601,7 +3601,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3643,7 +3643,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3685,7 +3685,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3727,7 +3727,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3769,7 +3769,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3811,7 +3811,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3853,7 +3853,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3895,7 +3895,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3937,7 +3937,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3979,7 +3979,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4021,7 +4021,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4063,7 +4063,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4105,7 +4105,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4147,7 +4147,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4189,7 +4189,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4231,7 +4231,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4273,7 +4273,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t> </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4323,7 +4323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:K3"/>
@@ -4399,7 +4399,11 @@
       </c>
     </row>
     <row r="2" ht="93" customHeight="1">
-      <c r="A2" s="9" t="n"/>
+      <c r="A2" s="9" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4437,7 +4441,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="n"/>
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4475,7 +4483,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="n"/>
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4511,7 +4523,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="n"/>
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
       <c r="B5" s="9" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4547,7 +4563,11 @@
       </c>
     </row>
     <row r="6" ht="43.5" customHeight="1">
-      <c r="A6" s="9" t="n"/>
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4573,7 +4593,7 @@
       </c>
       <c r="G6" s="32" t="inlineStr">
         <is>
-          <t>.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H6" s="33" t="inlineStr">
@@ -4583,573 +4603,632 @@
       </c>
     </row>
     <row r="7" ht="29" customHeight="1">
-      <c r="A7" s="9" t="n"/>
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
       <c r="C7" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>StudyIntervention_2</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>DOSE</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="inlineStr">
+        <is>
+          <t>Dose Level; Dose per Administration</t>
+        </is>
+      </c>
+      <c r="G7" s="32" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H7" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="9" t="inlineStr">
+      <c r="D8" s="9" t="inlineStr">
         <is>
           <t>StudyIntervention_1</t>
         </is>
       </c>
-      <c r="E7" s="9" t="inlineStr">
+      <c r="E8" s="9" t="inlineStr">
         <is>
           <t>DOSFRQ</t>
         </is>
       </c>
-      <c r="F7" s="12" t="inlineStr">
+      <c r="F8" s="12" t="inlineStr">
         <is>
           <t>Dosing Frequency</t>
         </is>
       </c>
-      <c r="G7" s="32" t="inlineStr">
+      <c r="G8" s="32" t="inlineStr">
         <is>
           <t>Once</t>
         </is>
       </c>
-      <c r="H7" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="H8" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>C64576</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>http://www.cdisc.org</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="9" t="n"/>
-      <c r="B8" s="9" t="inlineStr">
+    <row r="9" ht="29" customHeight="1">
+      <c r="A9" s="9" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C9" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="inlineStr">
+      <c r="D9" s="9" t="inlineStr">
         <is>
           <t>StudyIntervention_2</t>
         </is>
       </c>
-      <c r="E8" s="9" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>DOSFRQ</t>
         </is>
       </c>
-      <c r="F8" s="12" t="inlineStr">
+      <c r="F9" s="12" t="inlineStr">
         <is>
           <t>Dosing Frequency</t>
         </is>
       </c>
-      <c r="G8" s="32" t="inlineStr">
+      <c r="G9" s="32" t="inlineStr">
         <is>
           <t>Once</t>
         </is>
       </c>
-      <c r="H8" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="H9" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>C64576</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>http://www.cdisc.org</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="29" customHeight="1">
-      <c r="A9" s="9" t="n"/>
-      <c r="B9" s="9" t="inlineStr">
+    <row r="10" ht="29" customHeight="1">
+      <c r="A10" s="9" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B10" s="9" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C10" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>StudyIntervention_1</t>
         </is>
       </c>
-      <c r="E9" s="9" t="inlineStr">
+      <c r="E10" s="9" t="inlineStr">
         <is>
           <t>DOSU</t>
         </is>
       </c>
-      <c r="F9" s="12" t="inlineStr">
+      <c r="F10" s="12" t="inlineStr">
         <is>
           <t>Dose Units</t>
         </is>
       </c>
-      <c r="G9" s="32" t="inlineStr">
+      <c r="G10" s="32" t="inlineStr">
         <is>
           <t>Milligram</t>
         </is>
       </c>
-      <c r="H9" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="H10" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>C28253</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>http://www.cdisc.org</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="29" customHeight="1">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="9" t="inlineStr">
+    <row r="11" ht="29" customHeight="1">
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C11" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="9" t="inlineStr">
+      <c r="D11" s="9" t="inlineStr">
         <is>
           <t>StudyIntervention_2</t>
         </is>
       </c>
-      <c r="E10" s="9" t="inlineStr">
+      <c r="E11" s="9" t="inlineStr">
         <is>
           <t>DOSU</t>
         </is>
       </c>
-      <c r="F10" s="12" t="inlineStr">
+      <c r="F11" s="12" t="inlineStr">
         <is>
           <t>Dose Units</t>
         </is>
       </c>
-      <c r="G10" s="32" t="inlineStr">
+      <c r="G11" s="32" t="inlineStr">
         <is>
           <t>Milligram</t>
         </is>
       </c>
-      <c r="H10" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="H11" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>C28253</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>http://www.cdisc.org</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="29" customHeight="1">
-      <c r="A11" s="9" t="n"/>
-      <c r="B11" s="9" t="inlineStr">
+    <row r="12" ht="43.5" customHeight="1">
+      <c r="A12" s="9" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B12" s="9" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E11" s="9" t="inlineStr">
+      <c r="C12" s="9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E12" s="9" t="inlineStr">
         <is>
           <t>INDIC</t>
         </is>
       </c>
-      <c r="F11" s="12" t="inlineStr">
+      <c r="F12" s="12" t="inlineStr">
         <is>
           <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
         </is>
       </c>
-      <c r="G11" s="32" t="inlineStr">
+      <c r="G12" s="32" t="inlineStr">
         <is>
           <t>'T1DM', 'T2DM'</t>
         </is>
       </c>
-      <c r="H11" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="43.5" customHeight="1">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="9" t="inlineStr">
+      <c r="H12" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C12" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E12" s="9" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>INTMODEL</t>
         </is>
       </c>
-      <c r="F12" s="12" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Intervention Model</t>
         </is>
       </c>
-      <c r="G12" s="32" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Parallel Study</t>
         </is>
       </c>
-      <c r="H12" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>C82639</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>//www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C14" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>StudyIntervention_1</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>INTTYPE</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Intervention Type</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Pharmacologic Substance</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>C1909</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>http://www.cdisc.org</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C15" t="n">
         <v>2</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>StudyIntervention_2</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>INTTYPE</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Intervention Type</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Pharmacologic Substance</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>C1909</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>http://www.cdisc.org</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>NARMS</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Planned Number of Arms</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>NCOHORT</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Number of Groups/Cohorts</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C18" t="n">
         <v>1</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Objective_5</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>OBJEXP</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Trial Exploratory Objective</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Explore the formation of anti-glucagon antibodies to glucagon</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C19" t="n">
         <v>2</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Objective_6</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>OBJEXP</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Trial Exploratory Objective</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>To evaluate the recovery from clinical symptoms of hypoglycemia</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Objective_1</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>OBJPRIM</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Study Primary Objective; Trial Primary Objective</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
           <t> </t>
@@ -5157,6 +5236,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>TS</t>
@@ -5167,121 +5251,144 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>Objective_1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>OBJPRIM</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Study Primary Objective; Trial Primary Objective</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>Objective_2</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>OBJSEC</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>2</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Objective_3</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>OBJSEC</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="C23" t="n">
         <v>3</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Objective_4</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>OBJSEC</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>OUTMSEXP</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Exploratory Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
           <t> </t>
@@ -5289,6 +5396,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>TS</t>
@@ -5300,505 +5412,689 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
+          <t>OUTMSEXP</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Exploratory Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>OUTMSSEC</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Secondary Outcome Measure</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ,  ,</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ,  , </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>PLANSUB</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>75.0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="C27" t="n">
         <v>1</v>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>StudyIntervention_1</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>PTRTDUR</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Planned Treatment Duration</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>1 Day</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="C28" t="n">
         <v>2</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>StudyIntervention_2</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>PTRTDUR</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Planned Treatment Duration</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>1 Day</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="C29" t="n">
         <v>1</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>StudyIntervention_1</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>ROUTE</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Route of Administration</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Nasal Route of Administration</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>C38284</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>http://www.cdisc.org</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="B29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="C30" t="n">
         <v>2</v>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>StudyIntervention_2</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>ROUTE</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Route of Administration</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Intramuscular Route of Administration</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>C28161</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>http://www.cdisc.org</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="B30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>SPONSOR</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Eli Lilly Japan K.K</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>STYPE</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Study Type; Study Type Classification</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Interventional Study</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>C98388</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>//www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="B31" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>TBLIND</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Open Label Study</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>C49659</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>//www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="B32" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Code_129</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>TINDTP</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Trial Intent Type</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>'Basic Research', 'Device Feasibility Study'</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>'C15714', 'C139174'</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>www.cdisc.org', 'http://www.cdisc.org'</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>'2024-09-27', '2024-09-27'</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="inlineStr">
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Basic Research</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>C15714</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Code_130</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>TINDTP</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Trial Intent Type</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Device Feasibility Study</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>C139174</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
         <v>1</v>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>StudyIntervention_1</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>TRT</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Investigational Therapy or Treatment</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>LY900018</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="C37" t="n">
         <v>2</v>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>StudyIntervention_2</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>TRT</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Investigational Therapy or Treatment</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>GlucaGen</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Code_131</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>TTYPE</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Trial Scope; Trial Type</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Efficacy Study</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>C49666</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
@@ -5817,8 +6113,8 @@
   </sheetPr>
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="109" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="F47" zoomScale="109" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -6892,7 +7188,7 @@
       </c>
       <c r="J21" s="29" t="inlineStr">
         <is>
-          <t>www.cdisc.org</t>
+          <t>//www.cdisc.org</t>
         </is>
       </c>
       <c r="K21" s="29" t="inlineStr">
@@ -8218,6 +8514,11 @@
       </c>
       <c r="G48" s="28" t="inlineStr">
         <is>
+          <t>Eli Lilly Japan K.K</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
@@ -8369,7 +8670,7 @@
       </c>
       <c r="J51" s="31" t="inlineStr">
         <is>
-          <t>www.cdisc.org</t>
+          <t>//www.cdisc.org</t>
         </is>
       </c>
       <c r="K51" s="31" t="inlineStr">
@@ -8418,7 +8719,7 @@
       </c>
       <c r="J52" s="28" t="inlineStr">
         <is>
-          <t>www.cdisc.org</t>
+          <t>//www.cdisc.org</t>
         </is>
       </c>
       <c r="K52" s="28" t="inlineStr">
@@ -8544,7 +8845,7 @@
       </c>
       <c r="G55" s="28" t="inlineStr">
         <is>
-          <t>'Basic Research', 'Device Feasibility Study'</t>
+          <t>{'Code_129': 'Basic Research' , 'Code_130': 'Device Feasibility Study'}</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -8554,17 +8855,17 @@
       </c>
       <c r="I55" s="28" t="inlineStr">
         <is>
-          <t>'C15714', 'C139174'</t>
+          <t>{'Code_129': 'C15714' , 'Code_130': 'C139174'}</t>
         </is>
       </c>
       <c r="J55" s="28" t="inlineStr">
         <is>
-          <t>www.cdisc.org', 'http://www.cdisc.org'</t>
+          <t>{'Code_129': 'http://www.cdisc.org' , 'Code_130': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K55" s="28" t="inlineStr">
         <is>
-          <t>'2024-09-27', '2024-09-27'</t>
+          <t>{'Code_129': '2024-09-27' , 'Code_130': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -8743,7 +9044,7 @@
       </c>
       <c r="G59" s="28" t="inlineStr">
         <is>
-          <t>Efficacy Study</t>
+          <t>{'Code_131': 'Efficacy Study'}</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -8753,17 +9054,17 @@
       </c>
       <c r="I59" s="28" t="inlineStr">
         <is>
-          <t>C49666</t>
+          <t>{'Code_131': 'C49666'}</t>
         </is>
       </c>
       <c r="J59" s="28" t="inlineStr">
         <is>
-          <t>www.cdisc.org</t>
+          <t>{'Code_131': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K59" s="28" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>{'Code_131': '2024-09-27'}</t>
         </is>
       </c>
     </row>

--- a/Output/SDTM_Results.xlsx
+++ b/Output/SDTM_Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-10380" yWindow="-19830" windowWidth="31995" windowHeight="17895" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-10890" yWindow="-20340" windowWidth="31995" windowHeight="17895" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" state="visible" r:id="rId1"/>
@@ -4323,7 +4323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:K3"/>
@@ -4873,14 +4873,12 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C12" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C12" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Indication_1</t>
         </is>
       </c>
       <c r="E12" s="9" t="inlineStr">
@@ -4895,7 +4893,7 @@
       </c>
       <c r="G12" s="32" t="inlineStr">
         <is>
-          <t>'T1DM', 'T2DM'</t>
+          <t>T1DM</t>
         </is>
       </c>
       <c r="H12" s="33" t="inlineStr">
@@ -4915,49 +4913,32 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C13" t="n">
+        <v>2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Indication_2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>INTMODEL</t>
+          <t>INDIC</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Intervention Model</t>
+          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Parallel Study</t>
+          <t>T2DM</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>C82639</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>//www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -4972,27 +4953,29 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>1</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>StudyIntervention_1</t>
+          <t> </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>INTTYPE</t>
+          <t>INTMODEL</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Intervention Type</t>
+          <t>Intervention Model</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pharmacologic Substance</t>
+          <t>Parallel Study</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -5002,12 +4985,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>C1909</t>
+          <t>C82639</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>http://www.cdisc.org</t>
+          <t>//www.cdisc.org</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -5028,11 +5011,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>StudyIntervention_2</t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -5082,34 +5065,47 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C16" t="n">
+        <v>2</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t> </t>
+          <t>StudyIntervention_2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NARMS</t>
+          <t>INTTYPE</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Planned Number of Arms</t>
+          <t>Intervention Type</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Pharmacologic Substance</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
           <t> </t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>C1909</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -5136,12 +5132,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NCOHORT</t>
+          <t>NARMS</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Number of Groups/Cohorts</t>
+          <t>Planned Number of Arms</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -5166,27 +5162,29 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>1</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Objective_5</t>
+          <t> </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>OBJEXP</t>
+          <t>NCOHORT</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Trial Exploratory Objective</t>
+          <t>Number of Groups/Cohorts</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Explore the formation of anti-glucagon antibodies to glucagon</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -5207,11 +5205,11 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Objective_6</t>
+          <t>Objective_5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -5226,7 +5224,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>To evaluate the recovery from clinical symptoms of hypoglycemia</t>
+          <t>Explore the formation of anti-glucagon antibodies to glucagon</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -5247,26 +5245,26 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Objective_1</t>
+          <t>Objective_6</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>OBJPRIM</t>
+          <t>OBJEXP</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Study Primary Objective; Trial Primary Objective</t>
+          <t>Trial Exploratory Objective</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%</t>
+          <t>To evaluate the recovery from clinical symptoms of hypoglycemia</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -5291,22 +5289,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Objective_2</t>
+          <t>Objective_1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>OBJSEC</t>
+          <t>OBJPRIM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Study Secondary Objective; Trial Secondary Objective</t>
+          <t>Study Primary Objective; Trial Primary Objective</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG</t>
+          <t>To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -5327,11 +5325,11 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Objective_3</t>
+          <t>Objective_2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5346,7 +5344,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG</t>
+          <t>To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -5367,11 +5365,11 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Objective_4</t>
+          <t>Objective_3</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5386,7 +5384,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG</t>
+          <t>To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -5407,22 +5405,26 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Objective_4</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>OUTMSEXP</t>
+          <t>OBJSEC</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Exploratory Outcome Measure</t>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> , </t>
+          <t>To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -5448,17 +5450,17 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>OUTMSSEC</t>
+          <t>OUTMSEXP</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Secondary Outcome Measure</t>
+          <t>Exploratory Outcome Measure</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ,  , </t>
+          <t xml:space="preserve"> , </t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -5478,29 +5480,23 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>PLANSUB</t>
+          <t>OUTMSSEC</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
+          <t>Secondary Outcome Measure</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t xml:space="preserve"> ,  , </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -5520,27 +5516,29 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>1</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>StudyIntervention_1</t>
+          <t> </t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PTRTDUR</t>
+          <t>PLANSUB</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Planned Treatment Duration</t>
+          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1 Day</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -5561,11 +5559,11 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>StudyIntervention_2</t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -5601,46 +5599,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>StudyIntervention_1</t>
+          <t>StudyIntervention_2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ROUTE</t>
+          <t>PTRTDUR</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Route of Administration</t>
+          <t>Planned Treatment Duration</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Nasal Route of Administration</t>
+          <t>1 Day</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>C38284</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -5656,11 +5639,11 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>StudyIntervention_2</t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -5675,7 +5658,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Intramuscular Route of Administration</t>
+          <t>Nasal Route of Administration</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -5685,7 +5668,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>C28161</t>
+          <t>C38284</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -5710,34 +5693,47 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C31" t="n">
+        <v>2</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t> </t>
+          <t>StudyIntervention_2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SPONSOR</t>
+          <t>ROUTE</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
+          <t>Route of Administration</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Eli Lilly Japan K.K</t>
+          <t>Intramuscular Route of Administration</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
           <t> </t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>C28161</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -5764,37 +5760,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>STYPE</t>
+          <t>SPONSOR</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Study Type; Study Type Classification</t>
+          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Interventional Study</t>
+          <t>Eli Lilly Japan K.K</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>C98388</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>//www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -5821,17 +5802,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>TBLIND</t>
+          <t>STYPE</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
+          <t>Study Type; Study Type Classification</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Open Label Study</t>
+          <t>Interventional Study</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -5841,7 +5822,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>C49659</t>
+          <t>C98388</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -5866,27 +5847,29 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>1</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Code_129</t>
+          <t> </t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>TINDTP</t>
+          <t>TBLIND</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Trial Intent Type</t>
+          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Basic Research</t>
+          <t>Open Label Study</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -5896,12 +5879,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>C15714</t>
+          <t>C49659</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>http://www.cdisc.org</t>
+          <t>//www.cdisc.org</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -5922,11 +5905,11 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Code_130</t>
+          <t>Code_129</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -5941,7 +5924,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Device Feasibility Study</t>
+          <t>Basic Research</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -5951,7 +5934,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>C139174</t>
+          <t>C15714</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -5977,31 +5960,46 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>StudyIntervention_1</t>
+          <t>Code_130</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TRT</t>
+          <t>TINDTP</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Investigational Therapy or Treatment</t>
+          <t>Trial Intent Type</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>LY900018</t>
+          <t>Device Feasibility Study</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
           <t> </t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>C139174</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -6017,11 +6015,11 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>StudyIntervention_2</t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -6036,7 +6034,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>GlucaGen</t>
+          <t>LY900018</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -6057,44 +6055,84 @@
         </is>
       </c>
       <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>StudyIntervention_2</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>TRT</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Investigational Therapy or Treatment</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>GlucaGen</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
         <v>1</v>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Code_131</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>TTYPE</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Trial Scope; Trial Type</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Efficacy Study</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>C49666</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>http://www.cdisc.org</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
@@ -6113,8 +6151,8 @@
   </sheetPr>
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F47" zoomScale="109" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="109" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -7124,7 +7162,7 @@
       </c>
       <c r="G20" s="28" t="inlineStr">
         <is>
-          <t>'T1DM', 'T2DM'</t>
+          <t>{'Indication_1': 'T1DM' , 'Indication_2': 'T2DM'}</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">

--- a/Output/SDTM_Results.xlsx
+++ b/Output/SDTM_Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-10890" yWindow="-20340" windowWidth="31995" windowHeight="17895" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-4515" yWindow="-19065" windowWidth="27645" windowHeight="13335" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" state="visible" r:id="rId1"/>
@@ -108,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -141,6 +141,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.7999816888943144"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +284,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -341,17 +347,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -397,9 +394,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -418,11 +412,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,8 +802,8 @@
   </sheetPr>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -850,101 +859,69 @@
       </c>
       <c r="B7" s="17" t="n"/>
     </row>
-    <row r="9" ht="31" customHeight="1">
+    <row r="9" ht="15.5" customHeight="1">
       <c r="A9" s="18" t="inlineStr">
         <is>
-          <t>Class</t>
+          <t>Mapping Name</t>
         </is>
       </c>
       <c r="B9" s="18" t="inlineStr">
         <is>
-          <t>The target class in USDM where the M11 element is mapped</t>
+          <t>The name of the original mapping in DDF USDM v4.0</t>
         </is>
       </c>
     </row>
     <row r="10" ht="31" customHeight="1">
       <c r="A10" s="18" t="inlineStr">
         <is>
-          <t>Attribute</t>
+          <t>JSONATA</t>
         </is>
       </c>
       <c r="B10" s="18" t="inlineStr">
         <is>
-          <t>The target attribute in USDM where the M11 element is mapped</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="15.5" customHeight="1">
+          <t>The USDM v4.0 mappings combined to a JSONATA query</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="31" customHeight="1">
       <c r="A11" s="18" t="inlineStr">
         <is>
-          <t>Overall Notes</t>
+          <t>Fixed Content</t>
         </is>
       </c>
       <c r="B11" s="18" t="inlineStr">
         <is>
-          <t>Notes on the overall mapping</t>
+          <t>In case content is fixed and no mapping is needed the corresponding value is presented in this column</t>
         </is>
       </c>
     </row>
     <row r="12" ht="31" customHeight="1">
       <c r="A12" s="18" t="inlineStr">
         <is>
-          <t>Target Path</t>
+          <t>TSVALNF (in case of TS)</t>
         </is>
       </c>
       <c r="B12" s="18" t="inlineStr">
         <is>
-          <t>The full path to the place in USDM holding the dtaa for the M11 element</t>
+          <t>value to be presented in case no value is returned based on a JSONATA query</t>
         </is>
       </c>
     </row>
     <row r="13" ht="15.5" customHeight="1">
-      <c r="A13" s="18" t="inlineStr">
-        <is>
-          <t>Target Notes</t>
-        </is>
-      </c>
-      <c r="B13" s="18" t="inlineStr">
-        <is>
-          <t>Any notes relating to the target path</t>
-        </is>
-      </c>
+      <c r="A13" s="18" t="n"/>
+      <c r="B13" s="18" t="n"/>
     </row>
     <row r="14" ht="15.5" customHeight="1">
-      <c r="A14" s="18" t="inlineStr">
-        <is>
-          <t>Condition Path</t>
-        </is>
-      </c>
-      <c r="B14" s="18" t="inlineStr">
-        <is>
-          <t>The conditions applicable to the target path mapping</t>
-        </is>
-      </c>
+      <c r="A14" s="18" t="n"/>
+      <c r="B14" s="18" t="n"/>
     </row>
     <row r="15" ht="15.5" customHeight="1">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t>Condition Notes</t>
-        </is>
-      </c>
-      <c r="B15" s="18" t="inlineStr">
-        <is>
-          <t>Any associated notes relevant to the conditions</t>
-        </is>
-      </c>
+      <c r="A15" s="18" t="n"/>
+      <c r="B15" s="18" t="n"/>
     </row>
     <row r="16" ht="15.5" customHeight="1">
-      <c r="A16" s="18" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="B16" s="18" t="inlineStr">
-        <is>
-          <t>Mapping status, either "Mapped" or "To Be Mapped"</t>
-        </is>
-      </c>
+      <c r="A16" s="18" t="n"/>
+      <c r="B16" s="18" t="n"/>
     </row>
     <row r="18" ht="21" customHeight="1">
       <c r="A18" s="17" t="inlineStr">
@@ -954,27 +931,27 @@
       </c>
       <c r="B18" s="17" t="n"/>
     </row>
-    <row r="20" ht="77.5" customHeight="1">
+    <row r="20" ht="62" customHeight="1">
       <c r="A20" s="18" t="inlineStr">
         <is>
-          <t>Class and Attribute</t>
+          <t>Multiple Mappings</t>
         </is>
       </c>
       <c r="B20" s="18" t="inlineStr">
         <is>
-          <t>The specified class and attribute to be used in a mapping are specified up to the level of reference, the complex datatype or lower if needed for specificity. The corresponding path further specifies specific the exact attributes used from complex datatypes or subclasses.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="77.5" customHeight="1">
-      <c r="A21" s="18" t="inlineStr">
-        <is>
-          <t>Multiple Mappings</t>
-        </is>
-      </c>
-      <c r="B21" s="18" t="inlineStr">
-        <is>
-          <t>In some cases there is more than one mapping for the same M11 item. These mappings are usually distinct where either one of them may be used (and the other is expected to be not available) or they need to be all combined for the M11 item.</t>
+          <t xml:space="preserve">In case there is more than one mapping for the same SDTM item these mappings are provided in separate rows in the USDM v4.0 mapping file. In this mapping file, they are combined again to 1 JSONata query. </t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="43.5" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Resulting domains</t>
+        </is>
+      </c>
+      <c r="B21" s="46" t="inlineStr">
+        <is>
+          <t>For the resulting domains, the specified variables are transposed to columns and the result values are presented in rows.</t>
         </is>
       </c>
     </row>
@@ -991,15 +968,15 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A2" zoomScale="87" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col width="17.81640625" customWidth="1" min="1" max="2"/>
     <col width="25.81640625" customWidth="1" min="6" max="6"/>
-    <col width="30.08984375" customWidth="1" style="41" min="7" max="7"/>
+    <col width="30.08984375" customWidth="1" style="46" min="7" max="7"/>
     <col width="18.6328125" bestFit="1" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
@@ -1034,19 +1011,19 @@
           <t>Mapping Name</t>
         </is>
       </c>
-      <c r="G1" s="37" t="inlineStr">
+      <c r="G1" s="34" t="inlineStr">
         <is>
           <t>JSONATA</t>
         </is>
       </c>
-      <c r="H1" s="27" t="inlineStr">
+      <c r="H1" s="24" t="inlineStr">
         <is>
           <t>Fixed content</t>
         </is>
       </c>
-      <c r="I1" s="27" t="n"/>
-      <c r="J1" s="27" t="n"/>
-      <c r="K1" s="27" t="n"/>
+      <c r="I1" s="24" t="n"/>
+      <c r="J1" s="24" t="n"/>
+      <c r="K1" s="24" t="n"/>
     </row>
     <row r="2" ht="72.5" customHeight="1">
       <c r="A2" s="7" t="inlineStr">
@@ -1084,7 +1061,7 @@
           <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0]; studyIdentifiers[scopeId=$sponsorIdVal].text;)</t>
         </is>
       </c>
-      <c r="H2" s="33" t="n"/>
+      <c r="H2" s="30" t="n"/>
       <c r="I2" s="16" t="n"/>
       <c r="J2" s="16" t="n"/>
       <c r="K2" s="16" t="n"/>
@@ -1417,10 +1394,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -1428,448 +1405,289 @@
     <col width="18.36328125" customWidth="1" min="1" max="1"/>
     <col width="20.36328125" customWidth="1" min="2" max="2"/>
     <col width="9.36328125" customWidth="1" min="3" max="5"/>
-    <col width="18.1796875" customWidth="1" min="6" max="6"/>
-    <col width="18.81640625" customWidth="1" min="7" max="7"/>
-    <col width="39.453125" customWidth="1" min="8" max="9"/>
-    <col width="25.81640625" customWidth="1" min="10" max="10"/>
-    <col width="49.36328125" customWidth="1" min="11" max="11"/>
-    <col width="45.6328125" customWidth="1" min="12" max="12"/>
-    <col width="25.81640625" customWidth="1" min="13" max="13"/>
-    <col width="15.36328125" customWidth="1" style="23" min="16" max="16"/>
+    <col width="25.81640625" customWidth="1" min="6" max="6"/>
+    <col width="39.90625" customWidth="1" min="7" max="7"/>
+    <col width="10.81640625" customWidth="1" style="46" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="49" t="inlineStr">
-        <is>
-          <t>SDTM</t>
-        </is>
-      </c>
-      <c r="B1" s="50" t="n"/>
-      <c r="C1" s="50" t="n"/>
-      <c r="D1" s="50" t="n"/>
-      <c r="E1" s="51" t="n"/>
-      <c r="F1" s="42" t="inlineStr">
-        <is>
-          <t>USDM</t>
-        </is>
-      </c>
-      <c r="G1" s="50" t="n"/>
-      <c r="H1" s="50" t="n"/>
-      <c r="I1" s="50" t="n"/>
-      <c r="J1" s="50" t="n"/>
-      <c r="K1" s="50" t="n"/>
-      <c r="L1" s="50" t="n"/>
-      <c r="M1" s="50" t="n"/>
-      <c r="N1" s="50" t="n"/>
-      <c r="O1" s="50" t="n"/>
-      <c r="P1" s="51" t="n"/>
-    </row>
-    <row r="2" ht="21" customHeight="1">
-      <c r="A2" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Variable Name </t>
-        </is>
-      </c>
-      <c r="B2" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Variable Label </t>
-        </is>
-      </c>
-      <c r="C2" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Type </t>
-        </is>
-      </c>
-      <c r="D2" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
-      <c r="E2" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Core </t>
-        </is>
-      </c>
-      <c r="F2" s="11" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="G2" s="11" t="inlineStr">
-        <is>
-          <t>Attribute</t>
-        </is>
-      </c>
-      <c r="H2" s="11" t="inlineStr">
-        <is>
-          <t>Overall Notes</t>
-        </is>
-      </c>
-      <c r="I2" s="11" t="inlineStr">
-        <is>
-          <t>Target Path</t>
-        </is>
-      </c>
-      <c r="J2" s="11" t="inlineStr">
-        <is>
-          <t>Target Notes</t>
-        </is>
-      </c>
-      <c r="K2" s="11" t="inlineStr">
-        <is>
-          <t>Condition Path</t>
-        </is>
-      </c>
-      <c r="L2" s="11" t="inlineStr">
-        <is>
-          <t>Condition Notes</t>
-        </is>
-      </c>
-      <c r="M2" s="11" t="inlineStr">
-        <is>
-          <t>Mapping Name</t>
-        </is>
-      </c>
-      <c r="N2" s="11" t="inlineStr">
-        <is>
-          <t>Mapping Category</t>
-        </is>
-      </c>
-      <c r="O2" s="11" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="P2" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">v4.0 Change </t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="77.5" customHeight="1">
+    <row r="1" ht="42" customHeight="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>STUDYID</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>DOMAIN</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>ETCD</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>ELEMENT</t>
+        </is>
+      </c>
+      <c r="E1" s="10" t="inlineStr">
+        <is>
+          <t>TESTRL</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>TEENRL</t>
+        </is>
+      </c>
+      <c r="G1" s="34" t="inlineStr">
+        <is>
+          <t>TEDUR</t>
+        </is>
+      </c>
+      <c r="H1" s="45" t="inlineStr">
+        <is>
+          <t>Fixed content</t>
+        </is>
+      </c>
+      <c r="I1" s="24" t="n"/>
+      <c r="J1" s="24" t="n"/>
+      <c r="K1" s="24" t="n"/>
+    </row>
+    <row r="2" ht="58" customHeight="1">
+      <c r="A2" s="9" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="inlineStr"/>
+      <c r="D2" s="9" t="inlineStr">
+        <is>
+          <t>Screening Element</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="inlineStr">
+        <is>
+          <t>Study Start</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Day -1 of treatment period 1</t>
+        </is>
+      </c>
+      <c r="G2" s="31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H2" s="48" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+    </row>
+    <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>STUDYID</t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>Study Identifier</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
-      </c>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr"/>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>IM Glucagon + LY900018</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>StudyIdentifier</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="H3" s="6" t="n"/>
-      <c r="I3" s="8" t="inlineStr">
-        <is>
-          <t>StudyVersion/@studyIdentifiers/StudyIdentifier/@text</t>
-        </is>
-      </c>
-      <c r="J3" s="8" t="n"/>
-      <c r="K3" s="8" t="inlineStr">
-        <is>
-          <t>StudyRole/@code/Code/@code="C70793" | 
-StudyRole/@organizations | 
-StudyVersion/@studyIdentifiers/StudyIdentifier/@scope</t>
-        </is>
-      </c>
-      <c r="L3" s="8" t="inlineStr">
-        <is>
-          <t>Identifies the sponsor role | 
-Identifies the sponsor organization from the role | 
-Identifies the sponsor organization from the study identifier</t>
-        </is>
-      </c>
-      <c r="M3" s="8" t="inlineStr">
-        <is>
-          <t>Sponsor Study Identifier</t>
-        </is>
-      </c>
-      <c r="N3" s="8" t="inlineStr">
-        <is>
-          <t>Study Identifier</t>
-        </is>
-      </c>
-      <c r="O3" s="8" t="inlineStr">
-        <is>
-          <t>Mapped</t>
-        </is>
-      </c>
-      <c r="P3" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Y </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+          <t>Day -1 of treatment period</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>End of Day 1 of treatment period</t>
+        </is>
+      </c>
+      <c r="G3" s="35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="I3" s="16" t="n"/>
+      <c r="J3" s="16" t="n"/>
+      <c r="K3" s="16" t="n"/>
+    </row>
+    <row r="4" ht="29" customHeight="1">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>DOMAIN</t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>Domain Abbreviation</t>
-        </is>
-      </c>
-      <c r="C4" s="9" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
-      </c>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr"/>
       <c r="D4" s="9" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>Wash Out Element</t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="n"/>
-      <c r="G4" s="5" t="n"/>
-      <c r="H4" s="9" t="inlineStr">
-        <is>
-          <t>Set to "TA"</t>
-        </is>
-      </c>
-      <c r="I4" s="5" t="n"/>
-      <c r="J4" s="4" t="n"/>
-      <c r="K4" s="5" t="n"/>
-      <c r="M4" s="5" t="n"/>
-      <c r="N4" s="4" t="n"/>
-      <c r="O4" s="4" t="n"/>
-      <c r="P4" s="25" t="n"/>
+          <t>End of Day 1 of Treatment period 1</t>
+        </is>
+      </c>
+      <c r="F4" s="12" t="inlineStr">
+        <is>
+          <t>Day -1 of treatment period 2</t>
+        </is>
+      </c>
+      <c r="G4" s="47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="29" customHeight="1">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>ETCD</t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>Element Code</t>
-        </is>
-      </c>
-      <c r="C5" s="9" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
-      </c>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr"/>
       <c r="D5" s="9" t="inlineStr">
         <is>
-          <t>Topic</t>
+          <t>IM Glucagon</t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
+          <t>Day -1 of treatment period</t>
         </is>
       </c>
       <c r="F5" s="12" t="inlineStr">
         <is>
-          <t>StudyElement</t>
-        </is>
-      </c>
-      <c r="G5" s="12" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="n"/>
-      <c r="I5" s="12" t="inlineStr">
-        <is>
-          <t>StudyVersion/@studyDesigns/StudyDesign/@elements/StudyElement/@label</t>
-        </is>
-      </c>
-      <c r="J5" s="4" t="inlineStr"/>
-      <c r="K5" s="9" t="inlineStr"/>
-      <c r="L5" s="9" t="inlineStr"/>
-      <c r="M5" s="12" t="inlineStr">
-        <is>
-          <t>Element Name</t>
-        </is>
-      </c>
-      <c r="N5" s="4" t="inlineStr">
-        <is>
-          <t>Study Design</t>
-        </is>
-      </c>
-      <c r="O5" s="4" t="inlineStr">
-        <is>
-          <t>Mapped</t>
-        </is>
-      </c>
-      <c r="P5" s="25" t="n"/>
+          <t>End of Day 1 of treatment period</t>
+        </is>
+      </c>
+      <c r="G5" s="47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="29" customHeight="1">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>ELEMENT</t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>Description of Element</t>
-        </is>
-      </c>
-      <c r="C6" s="9" t="inlineStr">
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="inlineStr"/>
+      <c r="D6" s="9" t="inlineStr">
+        <is>
+          <t>Follow Up Element</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>End of Day 1 of Treatment period 2</t>
+        </is>
+      </c>
+      <c r="F6" s="12" t="inlineStr">
+        <is>
+          <t>Leave Study</t>
+        </is>
+      </c>
+      <c r="G6" s="47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="29" customHeight="1">
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>TEENRL</t>
+        </is>
+      </c>
+      <c r="B7" s="9" t="inlineStr">
+        <is>
+          <t>Rule for End of Element</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>Char</t>
         </is>
       </c>
-      <c r="D6" s="9" t="inlineStr">
-        <is>
-          <t>Synonym Qualifier</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F6" s="12" t="inlineStr">
-        <is>
-          <t>StudyElement</t>
-        </is>
-      </c>
-      <c r="G6" s="12" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="n"/>
-      <c r="I6" s="12" t="inlineStr">
-        <is>
-          <t>StudyVersion/@studyDesigns/StudyDesign/@elements/StudyElement/@description</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr"/>
-      <c r="K6" s="9" t="inlineStr"/>
-      <c r="L6" s="9" t="inlineStr"/>
-      <c r="M6" s="12" t="inlineStr">
-        <is>
-          <t>Element Description</t>
-        </is>
-      </c>
-      <c r="N6" s="4" t="inlineStr">
-        <is>
-          <t>Study Design</t>
-        </is>
-      </c>
-      <c r="O6" s="4" t="inlineStr">
-        <is>
-          <t>Mapped</t>
-        </is>
-      </c>
-      <c r="P6" s="25" t="n"/>
-    </row>
-    <row r="7" ht="43.5" customHeight="1">
-      <c r="A7" s="9" t="inlineStr">
-        <is>
-          <t>TESTRL</t>
-        </is>
-      </c>
-      <c r="B7" s="9" t="inlineStr">
-        <is>
-          <t>Rule for Start of Element</t>
-        </is>
-      </c>
-      <c r="C7" s="9" t="inlineStr">
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>Rule</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>Perm</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="inlineStr">
+        <is>
+          <t>Element End Rule</t>
+        </is>
+      </c>
+      <c r="G7" s="47" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns.elements.{id: transitionEndRule.text}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="29" customHeight="1">
+      <c r="A8" s="9" t="inlineStr">
+        <is>
+          <t>TEDUR</t>
+        </is>
+      </c>
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>Planned Duration of Element</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>Char</t>
         </is>
       </c>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t>Rule</t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
-        <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F7" s="12" t="inlineStr">
-        <is>
-          <t>TransitionRule</t>
-        </is>
-      </c>
-      <c r="G7" s="12" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="n"/>
-      <c r="I7" s="12" t="inlineStr">
-        <is>
-          <t>StudyVersion/@studyDesigns/StudyDesign/@elements/StudyElement/@transitionStartRule/TransitionRule/@text</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr"/>
-      <c r="K7" s="9" t="inlineStr"/>
-      <c r="L7" s="9" t="inlineStr"/>
-      <c r="M7" s="12" t="inlineStr">
-        <is>
-          <t>Element Start Rule</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Study Design</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>Mapped</t>
-        </is>
-      </c>
-      <c r="P7" s="25" t="n"/>
-    </row>
-    <row r="8" ht="43.5" customHeight="1">
-      <c r="A8" s="9" t="inlineStr">
-        <is>
-          <t>TEENRL</t>
-        </is>
-      </c>
-      <c r="B8" s="9" t="inlineStr">
-        <is>
-          <t>Rule for End of Element</t>
-        </is>
-      </c>
-      <c r="C8" s="9" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
-      </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t>Rule</t>
+          <t>Timing</t>
         </is>
       </c>
       <c r="E8" s="9" t="inlineStr">
@@ -1879,123 +1697,11 @@
       </c>
       <c r="F8" s="12" t="inlineStr">
         <is>
-          <t>TransitionRule</t>
-        </is>
-      </c>
-      <c r="G8" s="12" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="H8" s="4" t="n"/>
-      <c r="I8" s="12" t="inlineStr">
-        <is>
-          <t>StudyVersion/@studyDesigns/StudyDesign/@elements/StudyElement/@transitionEndRule/TransitionRule/@text</t>
-        </is>
-      </c>
-      <c r="J8" s="4" t="inlineStr"/>
-      <c r="K8" s="9" t="inlineStr"/>
-      <c r="L8" s="9" t="inlineStr"/>
-      <c r="M8" s="12" t="inlineStr">
-        <is>
-          <t>Element End Rule</t>
-        </is>
-      </c>
-      <c r="N8" s="4" t="inlineStr">
-        <is>
-          <t>Study Design</t>
-        </is>
-      </c>
-      <c r="O8" s="4" t="inlineStr">
-        <is>
-          <t>Mapped</t>
-        </is>
-      </c>
-      <c r="P8" s="25" t="n"/>
-    </row>
-    <row r="9" ht="145" customHeight="1">
-      <c r="A9" s="9" t="inlineStr">
-        <is>
-          <t>TEDUR</t>
-        </is>
-      </c>
-      <c r="B9" s="9" t="inlineStr">
-        <is>
-          <t>Planned Duration of Element</t>
-        </is>
-      </c>
-      <c r="C9" s="9" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Timing</t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Perm</t>
-        </is>
-      </c>
-      <c r="F9" s="12" t="inlineStr">
-        <is>
-          <t>Timing</t>
-        </is>
-      </c>
-      <c r="G9" s="12" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="H9" s="4" t="n"/>
-      <c r="I9" s="12" t="inlineStr">
-        <is>
-          <t>StudyVersion/@studyDesigns/StudyDesign/@scheduleTimelines/ScheduleTimeline/@timings/Timing/@value</t>
-        </is>
-      </c>
-      <c r="J9" s="12" t="inlineStr">
-        <is>
-          <t>The element length can be calculated based on timing values based on the used logic for a trial. For example select the last timing value of epoch related to the element and subtract the timing value of the last scheduledInstance referencing to the previous epoch.</t>
-        </is>
-      </c>
-      <c r="K9" s="12" t="inlineStr">
-        <is>
-          <t>StudyVersion/@studyDesigns/StudyDesign/@elements/StudyElement/@id=StudyVersion/@studyDesigns/StudyDesign/@studyCells/StudyCell/@elements | StudyVersion/@studyDesigns/StudyDesign/@studyCells/StudyCell/@epoch = StudyVersion/@studyDesigns/StudyDesign/@scheduleTimelines/ScheduleTimeline/@instances/ScheduledActivityInstance/@epoch</t>
-        </is>
-      </c>
-      <c r="L9" s="12" t="inlineStr"/>
-      <c r="M9" s="12" t="inlineStr">
-        <is>
           <t>Element Duration</t>
         </is>
       </c>
-      <c r="N9" s="4" t="inlineStr">
-        <is>
-          <t>Study Timeline</t>
-        </is>
-      </c>
-      <c r="O9" s="4" t="inlineStr">
-        <is>
-          <t>Mapped</t>
-        </is>
-      </c>
-      <c r="P9" s="25" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I5" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I6" display="StudyVersion/@studyDesigns/StudyDesign/@elements/StudyElement/@label" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I7" display="StudyVersion/@studyDesigns/StudyDesign/@elements/StudyElement/@label" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I8" display="StudyVersion/@studyDesigns/StudyDesign/@elements/StudyElement/@label" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I9" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K9" display="StudyVersion/@studyDesigns/StudyDesign/@elements/StudyElement/@id=StudyVersion/@studyDesigns/StudyDesign/@studyCells/StudyCell/@elements" r:id="rId6"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2021,7 +1727,7 @@
     <col width="60.453125" customWidth="1" min="8" max="8"/>
     <col width="26" customWidth="1" min="9" max="13"/>
     <col width="19.453125" customWidth="1" min="14" max="15"/>
-    <col width="16.36328125" customWidth="1" style="23" min="16" max="16"/>
+    <col width="16.36328125" customWidth="1" style="22" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
@@ -2034,7 +1740,7 @@
       <c r="C1" s="50" t="n"/>
       <c r="D1" s="50" t="n"/>
       <c r="E1" s="51" t="n"/>
-      <c r="F1" s="42" t="inlineStr">
+      <c r="F1" s="52" t="inlineStr">
         <is>
           <t>USDM</t>
         </is>
@@ -2204,7 +1910,7 @@
           <t>Mapped</t>
         </is>
       </c>
-      <c r="P3" s="26" t="inlineStr">
+      <c r="P3" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2250,7 +1956,7 @@
       <c r="M4" s="6" t="n"/>
       <c r="N4" s="6" t="n"/>
       <c r="O4" s="6" t="n"/>
-      <c r="P4" s="26" t="n"/>
+      <c r="P4" s="23" t="n"/>
     </row>
     <row r="5" ht="101.5" customHeight="1">
       <c r="A5" s="6" t="inlineStr">
@@ -2316,7 +2022,7 @@
           <t>Mapped</t>
         </is>
       </c>
-      <c r="P5" s="26" t="inlineStr">
+      <c r="P5" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2382,7 +2088,7 @@
           <t>Mapped</t>
         </is>
       </c>
-      <c r="P6" s="26" t="inlineStr">
+      <c r="P6" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2448,7 +2154,7 @@
           <t>Mapped</t>
         </is>
       </c>
-      <c r="P7" s="26" t="inlineStr">
+      <c r="P7" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2514,7 +2220,7 @@
           <t>Mapped</t>
         </is>
       </c>
-      <c r="P8" s="26" t="inlineStr">
+      <c r="P8" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2580,7 +2286,7 @@
           <t>Mapped</t>
         </is>
       </c>
-      <c r="P9" s="26" t="inlineStr">
+      <c r="P9" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2646,7 +2352,7 @@
           <t>Mapped</t>
         </is>
       </c>
-      <c r="P10" s="26" t="inlineStr">
+      <c r="P10" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2712,7 +2418,7 @@
           <t>Mapped</t>
         </is>
       </c>
-      <c r="P11" s="26" t="inlineStr">
+      <c r="P11" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2742,15 +2448,15 @@
   </sheetPr>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K3" sqref="G1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col width="18.6328125" customWidth="1" min="1" max="5"/>
     <col width="28.7265625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="26.6328125" customWidth="1" style="40" min="7" max="7"/>
+    <col width="26.6328125" customWidth="1" style="37" min="7" max="7"/>
     <col width="29.81640625" customWidth="1" style="16" min="8" max="8"/>
     <col width="8.6328125" customWidth="1" style="16" min="9" max="11"/>
   </cols>
@@ -2786,19 +2492,19 @@
           <t>IESCAT</t>
         </is>
       </c>
-      <c r="G1" s="37" t="inlineStr">
+      <c r="G1" s="34" t="inlineStr">
         <is>
           <t>TIRL</t>
         </is>
       </c>
-      <c r="H1" s="27" t="inlineStr">
+      <c r="H1" s="24" t="inlineStr">
         <is>
           <t>TIVERS</t>
         </is>
       </c>
-      <c r="I1" s="27" t="n"/>
-      <c r="J1" s="27" t="n"/>
-      <c r="K1" s="27" t="n"/>
+      <c r="I1" s="24" t="n"/>
+      <c r="J1" s="24" t="n"/>
+      <c r="K1" s="24" t="n"/>
     </row>
     <row r="2" ht="72.5" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
@@ -2831,12 +2537,12 @@
           <t> </t>
         </is>
       </c>
-      <c r="G2" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H2" s="33" t="inlineStr">
+      <c r="G2" s="31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H2" s="30" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2873,7 +2579,7 @@
           <t> </t>
         </is>
       </c>
-      <c r="G3" s="38" t="inlineStr">
+      <c r="G3" s="35" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2915,12 +2621,12 @@
           <t> </t>
         </is>
       </c>
-      <c r="G4" s="39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H4" s="33" t="inlineStr">
+      <c r="G4" s="48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H4" s="30" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2957,12 +2663,12 @@
           <t> </t>
         </is>
       </c>
-      <c r="G5" s="41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H5" s="33" t="inlineStr">
+      <c r="G5" s="46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H5" s="30" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2999,12 +2705,12 @@
           <t> </t>
         </is>
       </c>
-      <c r="G6" s="39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H6" s="33" t="inlineStr">
+      <c r="G6" s="48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H6" s="30" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3041,12 +2747,12 @@
           <t> </t>
         </is>
       </c>
-      <c r="G7" s="39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H7" s="33" t="inlineStr">
+      <c r="G7" s="48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H7" s="30" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3083,12 +2789,12 @@
           <t> </t>
         </is>
       </c>
-      <c r="G8" s="38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H8" s="33" t="inlineStr">
+      <c r="G8" s="35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H8" s="30" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3125,12 +2831,12 @@
           <t> </t>
         </is>
       </c>
-      <c r="G9" s="38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H9" s="33" t="inlineStr">
+      <c r="G9" s="35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H9" s="30" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4325,8 +4031,8 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:K3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -4377,22 +4083,22 @@
           <t>TSVAL</t>
         </is>
       </c>
-      <c r="H1" s="27" t="inlineStr">
+      <c r="H1" s="24" t="inlineStr">
         <is>
           <t>TSVALNF</t>
         </is>
       </c>
-      <c r="I1" s="27" t="inlineStr">
+      <c r="I1" s="24" t="inlineStr">
         <is>
           <t>TSVALCD</t>
         </is>
       </c>
-      <c r="J1" s="27" t="inlineStr">
+      <c r="J1" s="24" t="inlineStr">
         <is>
           <t>TSVCDREF</t>
         </is>
       </c>
-      <c r="K1" s="27" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>TSVCDVER</t>
         </is>
@@ -4429,12 +4135,12 @@
           <t>Planned Minimum Age of Subjects</t>
         </is>
       </c>
-      <c r="G2" s="34" t="inlineStr">
+      <c r="G2" s="31" t="inlineStr">
         <is>
           <t>18  Year</t>
         </is>
       </c>
-      <c r="H2" s="33" t="inlineStr">
+      <c r="H2" s="30" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4471,7 +4177,7 @@
           <t>Planned Minimum Age of Subjects</t>
         </is>
       </c>
-      <c r="G3" s="32" t="inlineStr">
+      <c r="G3" s="29" t="inlineStr">
         <is>
           <t>70  Year</t>
         </is>
@@ -4511,12 +4217,12 @@
           <t>Confirmed Response Minimum Duration</t>
         </is>
       </c>
-      <c r="G4" s="32" t="inlineStr">
+      <c r="G4" s="29" t="inlineStr">
         <is>
           <t>1 Day</t>
         </is>
       </c>
-      <c r="H4" s="33" t="inlineStr">
+      <c r="H4" s="30" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4551,12 +4257,12 @@
           <t>Confirmed Response Minimum Duration</t>
         </is>
       </c>
-      <c r="G5" s="32" t="inlineStr">
+      <c r="G5" s="29" t="inlineStr">
         <is>
           <t>1 Day</t>
         </is>
       </c>
-      <c r="H5" s="33" t="inlineStr">
+      <c r="H5" s="30" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4591,12 +4297,12 @@
           <t>Dose Level; Dose per Administration</t>
         </is>
       </c>
-      <c r="G6" s="32" t="inlineStr">
+      <c r="G6" s="29" t="inlineStr">
         <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="H6" s="33" t="inlineStr">
+      <c r="H6" s="30" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4631,12 +4337,12 @@
           <t>Dose Level; Dose per Administration</t>
         </is>
       </c>
-      <c r="G7" s="32" t="inlineStr">
+      <c r="G7" s="29" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="H7" s="33" t="inlineStr">
+      <c r="H7" s="30" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4671,12 +4377,12 @@
           <t>Dosing Frequency</t>
         </is>
       </c>
-      <c r="G8" s="32" t="inlineStr">
+      <c r="G8" s="29" t="inlineStr">
         <is>
           <t>Once</t>
         </is>
       </c>
-      <c r="H8" s="33" t="inlineStr">
+      <c r="H8" s="30" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4726,12 +4432,12 @@
           <t>Dosing Frequency</t>
         </is>
       </c>
-      <c r="G9" s="32" t="inlineStr">
+      <c r="G9" s="29" t="inlineStr">
         <is>
           <t>Once</t>
         </is>
       </c>
-      <c r="H9" s="33" t="inlineStr">
+      <c r="H9" s="30" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4781,12 +4487,12 @@
           <t>Dose Units</t>
         </is>
       </c>
-      <c r="G10" s="32" t="inlineStr">
+      <c r="G10" s="29" t="inlineStr">
         <is>
           <t>Milligram</t>
         </is>
       </c>
-      <c r="H10" s="33" t="inlineStr">
+      <c r="H10" s="30" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4836,12 +4542,12 @@
           <t>Dose Units</t>
         </is>
       </c>
-      <c r="G11" s="32" t="inlineStr">
+      <c r="G11" s="29" t="inlineStr">
         <is>
           <t>Milligram</t>
         </is>
       </c>
-      <c r="H11" s="33" t="inlineStr">
+      <c r="H11" s="30" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4891,12 +4597,12 @@
           <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
         </is>
       </c>
-      <c r="G12" s="32" t="inlineStr">
+      <c r="G12" s="29" t="inlineStr">
         <is>
           <t>T1DM</t>
         </is>
       </c>
-      <c r="H12" s="33" t="inlineStr">
+      <c r="H12" s="30" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6151,8 +5857,8 @@
   </sheetPr>
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="109" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="I1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -6196,32 +5902,32 @@
           <t>TSGRPID</t>
         </is>
       </c>
-      <c r="F1" s="27" t="inlineStr">
+      <c r="F1" s="24" t="inlineStr">
         <is>
           <t>Mapping Name</t>
         </is>
       </c>
-      <c r="G1" s="27" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr">
         <is>
           <t>Mapping Results</t>
         </is>
       </c>
-      <c r="H1" s="27" t="inlineStr">
+      <c r="H1" s="24" t="inlineStr">
         <is>
           <t>TSVALNF if empty</t>
         </is>
       </c>
-      <c r="I1" s="27" t="inlineStr">
+      <c r="I1" s="24" t="inlineStr">
         <is>
           <t>TSVALCD JSONATA map</t>
         </is>
       </c>
-      <c r="J1" s="27" t="inlineStr">
+      <c r="J1" s="24" t="inlineStr">
         <is>
           <t>TSVALCDREF JSONATA map</t>
         </is>
       </c>
-      <c r="K1" s="27" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>TSVALCDVER JSONATA map</t>
         </is>
@@ -6250,7 +5956,7 @@
           <t>Adaptive Design Indicator</t>
         </is>
       </c>
-      <c r="G2" s="30" t="inlineStr">
+      <c r="G2" s="27" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6294,7 +6000,7 @@
           <t>Study Minimum Age + Unit Study Population</t>
         </is>
       </c>
-      <c r="G3" s="28" t="inlineStr">
+      <c r="G3" s="25" t="inlineStr">
         <is>
           <t>18  Year</t>
         </is>
@@ -6343,12 +6049,12 @@
           <t>Study Maximum Age + Unit Study Population</t>
         </is>
       </c>
-      <c r="G4" s="28" t="inlineStr">
+      <c r="G4" s="25" t="inlineStr">
         <is>
           <t>70  Year</t>
         </is>
       </c>
-      <c r="H4" s="35" t="inlineStr">
+      <c r="H4" s="32" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6400,7 +6106,7 @@
           <t>Biospecimen retention contains DNA indicator</t>
         </is>
       </c>
-      <c r="G5" s="28" t="inlineStr">
+      <c r="G5" s="25" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6452,7 +6158,7 @@
           <t>Biospecimen retention indicator</t>
         </is>
       </c>
-      <c r="G6" s="28" t="inlineStr">
+      <c r="G6" s="25" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6500,7 +6206,7 @@
         </is>
       </c>
       <c r="F7" s="14" t="n"/>
-      <c r="G7" s="28" t="inlineStr">
+      <c r="G7" s="25" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6656,7 +6362,7 @@
           <t>Minimum Response Duration</t>
         </is>
       </c>
-      <c r="G10" s="28" t="inlineStr">
+      <c r="G10" s="25" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': '1 Day' , 'StudyIntervention_2': '1 Day'}</t>
         </is>
@@ -6713,7 +6419,7 @@
           <t>Background treatment</t>
         </is>
       </c>
-      <c r="G11" s="28" t="inlineStr">
+      <c r="G11" s="25" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6757,7 +6463,7 @@
           <t>Data Monitoring Committee Indicator</t>
         </is>
       </c>
-      <c r="G12" s="28" t="inlineStr">
+      <c r="G12" s="25" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6809,7 +6515,7 @@
           <t>Dosage Levels</t>
         </is>
       </c>
-      <c r="G13" s="28" t="inlineStr">
+      <c r="G13" s="25" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 3.0, 'StudyIntervention_2': 1.0}</t>
         </is>
@@ -6866,7 +6572,7 @@
           <t>Dose Form</t>
         </is>
       </c>
-      <c r="G14" s="28" t="inlineStr">
+      <c r="G14" s="25" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6918,7 +6624,7 @@
           <t>Administration Frequency</t>
         </is>
       </c>
-      <c r="G15" s="28" t="inlineStr">
+      <c r="G15" s="25" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'Once', 'StudyIntervention_2': 'Once'}</t>
         </is>
@@ -6928,17 +6634,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="I15" s="28" t="inlineStr">
+      <c r="I15" s="25" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'C64576', 'StudyIntervention_2': 'C64576'}</t>
         </is>
       </c>
-      <c r="J15" s="28" t="inlineStr">
+      <c r="J15" s="25" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
-      <c r="K15" s="28" t="inlineStr">
+      <c r="K15" s="25" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
@@ -6975,7 +6681,7 @@
           <t>Dosage Units</t>
         </is>
       </c>
-      <c r="G16" s="28" t="inlineStr">
+      <c r="G16" s="25" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
         </is>
@@ -6985,17 +6691,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="I16" s="28" t="inlineStr">
+      <c r="I16" s="25" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'C28253', 'StudyIntervention_2': 'C28253'}</t>
         </is>
       </c>
-      <c r="J16" s="28" t="inlineStr">
+      <c r="J16" s="25" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
-      <c r="K16" s="28" t="inlineStr">
+      <c r="K16" s="25" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
@@ -7024,7 +6730,7 @@
           <t>Extension Trial Indicator</t>
         </is>
       </c>
-      <c r="G17" s="36" t="inlineStr">
+      <c r="G17" s="33" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7116,7 +6822,7 @@
           <t>Healthy Subject Indicator Study Population / Cohort</t>
         </is>
       </c>
-      <c r="G19" s="28" t="inlineStr">
+      <c r="G19" s="25" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7160,7 +6866,7 @@
           <t>Study design Diagnosis or Condition</t>
         </is>
       </c>
-      <c r="G20" s="28" t="inlineStr">
+      <c r="G20" s="25" t="inlineStr">
         <is>
           <t>{'Indication_1': 'T1DM' , 'Indication_2': 'T2DM'}</t>
         </is>
@@ -7209,7 +6915,7 @@
           <t>Intervention Model</t>
         </is>
       </c>
-      <c r="G21" s="29" t="inlineStr">
+      <c r="G21" s="26" t="inlineStr">
         <is>
           <t>Parallel Study</t>
         </is>
@@ -7219,17 +6925,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="I21" s="29" t="inlineStr">
+      <c r="I21" s="26" t="inlineStr">
         <is>
           <t>C82639</t>
         </is>
       </c>
-      <c r="J21" s="29" t="inlineStr">
+      <c r="J21" s="26" t="inlineStr">
         <is>
           <t>//www.cdisc.org</t>
         </is>
       </c>
-      <c r="K21" s="29" t="inlineStr">
+      <c r="K21" s="26" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
@@ -7266,7 +6972,7 @@
           <t>Intervention Type</t>
         </is>
       </c>
-      <c r="G22" s="28" t="inlineStr">
+      <c r="G22" s="25" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'Pharmacologic Substance', 'StudyIntervention_2': 'Pharmacologic Substance'}</t>
         </is>
@@ -7276,17 +6982,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="I22" s="28" t="inlineStr">
+      <c r="I22" s="25" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'C1909', 'StudyIntervention_2': 'C1909'}</t>
         </is>
       </c>
-      <c r="J22" s="28" t="inlineStr">
+      <c r="J22" s="25" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
-      <c r="K22" s="28" t="inlineStr">
+      <c r="K22" s="25" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
@@ -7315,7 +7021,7 @@
           <t>Trial Duration Value + Units</t>
         </is>
       </c>
-      <c r="G23" s="28" t="inlineStr">
+      <c r="G23" s="25" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7408,7 +7114,7 @@
           <t>Number of Arms</t>
         </is>
       </c>
-      <c r="G25" s="28" t="inlineStr">
+      <c r="G25" s="25" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -7457,7 +7163,7 @@
           <t>Number of Groups/Cohorts</t>
         </is>
       </c>
-      <c r="G26" s="29" t="inlineStr">
+      <c r="G26" s="26" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -7558,7 +7264,7 @@
           <t>Exploratory Objective</t>
         </is>
       </c>
-      <c r="G28" s="28" t="inlineStr">
+      <c r="G28" s="25" t="inlineStr">
         <is>
           <t>{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon' , 'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}</t>
         </is>
@@ -7615,7 +7321,7 @@
           <t>Primary Objective</t>
         </is>
       </c>
-      <c r="G29" s="28" t="inlineStr">
+      <c r="G29" s="25" t="inlineStr">
         <is>
           <t>{'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%'}</t>
         </is>
@@ -7672,7 +7378,7 @@
           <t>Secondary Objective</t>
         </is>
       </c>
-      <c r="G30" s="28" t="inlineStr">
+      <c r="G30" s="25" t="inlineStr">
         <is>
           <t>{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG' , 'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG' , 'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}</t>
         </is>
@@ -7721,22 +7427,22 @@
           <t>Observational Model</t>
         </is>
       </c>
-      <c r="G31" s="31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I31" s="31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J31" s="31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K31" s="31" t="inlineStr">
+      <c r="G31" s="28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I31" s="28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J31" s="28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K31" s="28" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7765,22 +7471,22 @@
           <t>Observational Time Perspective</t>
         </is>
       </c>
-      <c r="G32" s="29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I32" s="29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J32" s="29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K32" s="29" t="inlineStr">
+      <c r="G32" s="26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I32" s="26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J32" s="26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K32" s="26" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7809,7 +7515,7 @@
           <t>Observational Study Population Description</t>
         </is>
       </c>
-      <c r="G33" s="29" t="inlineStr">
+      <c r="G33" s="26" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7853,22 +7559,22 @@
           <t>Observational Study Sampling Method</t>
         </is>
       </c>
-      <c r="G34" s="29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I34" s="29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J34" s="29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K34" s="29" t="inlineStr">
+      <c r="G34" s="26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I34" s="26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J34" s="26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K34" s="26" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7905,7 +7611,7 @@
           <t>Exploratory Outcome Measure</t>
         </is>
       </c>
-      <c r="G35" s="28" t="inlineStr">
+      <c r="G35" s="25" t="inlineStr">
         <is>
           <t>{ , }</t>
         </is>
@@ -7962,7 +7668,7 @@
           <t>Primary Outcome Measure</t>
         </is>
       </c>
-      <c r="G36" s="28" t="inlineStr">
+      <c r="G36" s="25" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8014,7 +7720,7 @@
           <t>Secondary Outcome Measure</t>
         </is>
       </c>
-      <c r="G37" s="28" t="inlineStr">
+      <c r="G37" s="25" t="inlineStr">
         <is>
           <t>{ ,  , }</t>
         </is>
@@ -8067,7 +7773,7 @@
           <t>Pharmacologic Class</t>
         </is>
       </c>
-      <c r="G38" s="28" t="inlineStr">
+      <c r="G38" s="25" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8111,7 +7817,7 @@
           <t>Pediatric Investigation Plan Indicator</t>
         </is>
       </c>
-      <c r="G39" s="28" t="inlineStr">
+      <c r="G39" s="25" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8155,7 +7861,7 @@
           <t>Target Enrollment Number</t>
         </is>
       </c>
-      <c r="G40" s="28" t="inlineStr">
+      <c r="G40" s="25" t="inlineStr">
         <is>
           <t>75.0</t>
         </is>
@@ -8208,7 +7914,7 @@
           <t>Planned Duration of Intervention Value + Unit</t>
         </is>
       </c>
-      <c r="G41" s="29" t="inlineStr">
+      <c r="G41" s="26" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
         </is>
@@ -8257,7 +7963,7 @@
           <t>Randomized Indicator</t>
         </is>
       </c>
-      <c r="G42" s="28" t="inlineStr">
+      <c r="G42" s="25" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8301,7 +8007,7 @@
           <t>Rare disease indicator</t>
         </is>
       </c>
-      <c r="G43" s="29" t="inlineStr">
+      <c r="G43" s="26" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8405,7 +8111,7 @@
           <t>Route of Administration</t>
         </is>
       </c>
-      <c r="G45" s="28" t="inlineStr">
+      <c r="G45" s="25" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
         </is>
@@ -8415,17 +8121,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="I45" s="28" t="inlineStr">
+      <c r="I45" s="25" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'C38284', 'StudyIntervention_2': 'C28161'}</t>
         </is>
       </c>
-      <c r="J45" s="28" t="inlineStr">
+      <c r="J45" s="25" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
-      <c r="K45" s="28" t="inlineStr">
+      <c r="K45" s="25" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
@@ -8550,7 +8256,7 @@
           <t>Sponsor Name - Organization</t>
         </is>
       </c>
-      <c r="G48" s="28" t="inlineStr">
+      <c r="G48" s="25" t="inlineStr">
         <is>
           <t>Eli Lilly Japan K.K</t>
         </is>
@@ -8691,7 +8397,7 @@
           <t>Study Type</t>
         </is>
       </c>
-      <c r="G51" s="31" t="inlineStr">
+      <c r="G51" s="28" t="inlineStr">
         <is>
           <t>Interventional Study</t>
         </is>
@@ -8701,17 +8407,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="I51" s="31" t="inlineStr">
+      <c r="I51" s="28" t="inlineStr">
         <is>
           <t>C98388</t>
         </is>
       </c>
-      <c r="J51" s="31" t="inlineStr">
+      <c r="J51" s="28" t="inlineStr">
         <is>
           <t>//www.cdisc.org</t>
         </is>
       </c>
-      <c r="K51" s="31" t="inlineStr">
+      <c r="K51" s="28" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
@@ -8740,7 +8446,7 @@
           <t>Blinding Schema</t>
         </is>
       </c>
-      <c r="G52" s="28" t="inlineStr">
+      <c r="G52" s="25" t="inlineStr">
         <is>
           <t>Open Label Study</t>
         </is>
@@ -8750,17 +8456,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="I52" s="28" t="inlineStr">
+      <c r="I52" s="25" t="inlineStr">
         <is>
           <t>C49659</t>
         </is>
       </c>
-      <c r="J52" s="28" t="inlineStr">
+      <c r="J52" s="25" t="inlineStr">
         <is>
           <t>//www.cdisc.org</t>
         </is>
       </c>
-      <c r="K52" s="28" t="inlineStr">
+      <c r="K52" s="25" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
@@ -8789,22 +8495,22 @@
           <t>Intervention Control Type</t>
         </is>
       </c>
-      <c r="G53" s="29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I53" s="29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J53" s="29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K53" s="29" t="inlineStr">
+      <c r="G53" s="26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I53" s="26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J53" s="26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K53" s="26" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8833,22 +8539,22 @@
           <t>Therapeutic Area</t>
         </is>
       </c>
-      <c r="G54" s="28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I54" s="28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J54" s="28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K54" s="28" t="inlineStr">
+      <c r="G54" s="25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I54" s="25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J54" s="25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K54" s="25" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8881,7 +8587,7 @@
           <t>Trial Intent Types</t>
         </is>
       </c>
-      <c r="G55" s="28" t="inlineStr">
+      <c r="G55" s="25" t="inlineStr">
         <is>
           <t>{'Code_129': 'Basic Research' , 'Code_130': 'Device Feasibility Study'}</t>
         </is>
@@ -8891,17 +8597,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="I55" s="28" t="inlineStr">
+      <c r="I55" s="25" t="inlineStr">
         <is>
           <t>{'Code_129': 'C15714' , 'Code_130': 'C139174'}</t>
         </is>
       </c>
-      <c r="J55" s="28" t="inlineStr">
+      <c r="J55" s="25" t="inlineStr">
         <is>
           <t>{'Code_129': 'http://www.cdisc.org' , 'Code_130': 'http://www.cdisc.org'}</t>
         </is>
       </c>
-      <c r="K55" s="28" t="inlineStr">
+      <c r="K55" s="25" t="inlineStr">
         <is>
           <t>{'Code_129': '2024-09-27' , 'Code_130': '2024-09-27'}</t>
         </is>
@@ -8930,7 +8636,7 @@
           <t>Full Title</t>
         </is>
       </c>
-      <c r="G56" s="28" t="inlineStr">
+      <c r="G56" s="25" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8974,27 +8680,27 @@
           <t>Trial Phase</t>
         </is>
       </c>
-      <c r="G57" s="31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H57" s="35" t="inlineStr">
+      <c r="G57" s="28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H57" s="32" t="inlineStr">
         <is>
           <t>NI</t>
         </is>
       </c>
-      <c r="I57" s="31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J57" s="31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K57" s="31" t="inlineStr">
+      <c r="I57" s="28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J57" s="28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K57" s="28" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -9031,12 +8737,12 @@
           <t>Investigational Intervention</t>
         </is>
       </c>
-      <c r="G58" s="28" t="inlineStr">
+      <c r="G58" s="25" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'LY900018' , 'StudyIntervention_2': 'GlucaGen'}</t>
         </is>
       </c>
-      <c r="H58" s="35" t="inlineStr">
+      <c r="H58" s="32" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -9080,7 +8786,7 @@
           <t>Trial Type</t>
         </is>
       </c>
-      <c r="G59" s="28" t="inlineStr">
+      <c r="G59" s="25" t="inlineStr">
         <is>
           <t>{'Code_131': 'Efficacy Study'}</t>
         </is>
@@ -9090,17 +8796,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="I59" s="28" t="inlineStr">
+      <c r="I59" s="25" t="inlineStr">
         <is>
           <t>{'Code_131': 'C49666'}</t>
         </is>
       </c>
-      <c r="J59" s="28" t="inlineStr">
+      <c r="J59" s="25" t="inlineStr">
         <is>
           <t>{'Code_131': 'http://www.cdisc.org'}</t>
         </is>
       </c>
-      <c r="K59" s="28" t="inlineStr">
+      <c r="K59" s="25" t="inlineStr">
         <is>
           <t>{'Code_131': '2024-09-27'}</t>
         </is>

--- a/Output/SDTM_Results.xlsx
+++ b/Output/SDTM_Results.xlsx
@@ -1446,13 +1446,9 @@
           <t>TEDUR</t>
         </is>
       </c>
-      <c r="H1" s="45" t="inlineStr">
-        <is>
-          <t>Fixed content</t>
-        </is>
-      </c>
-      <c r="I1" s="24" t="n"/>
-      <c r="J1" s="24" t="n"/>
+      <c r="H1" s="45" t="inlineStr"/>
+      <c r="I1" s="24" t="inlineStr"/>
+      <c r="J1" s="24" t="inlineStr"/>
       <c r="K1" s="24" t="n"/>
     </row>
     <row r="2" ht="58" customHeight="1">
@@ -1487,9 +1483,9 @@
           <t> </t>
         </is>
       </c>
-      <c r="H2" s="48" t="n"/>
-      <c r="I2" s="16" t="n"/>
-      <c r="J2" s="16" t="n"/>
+      <c r="H2" s="48" t="inlineStr"/>
+      <c r="I2" s="16" t="inlineStr"/>
+      <c r="J2" s="16" t="inlineStr"/>
       <c r="K2" s="16" t="n"/>
     </row>
     <row r="3">
@@ -1524,13 +1520,9 @@
           <t> </t>
         </is>
       </c>
-      <c r="H3" s="9" t="inlineStr">
-        <is>
-          <t>TE</t>
-        </is>
-      </c>
-      <c r="I3" s="16" t="n"/>
-      <c r="J3" s="16" t="n"/>
+      <c r="H3" s="9" t="inlineStr"/>
+      <c r="I3" s="16" t="inlineStr"/>
+      <c r="J3" s="16" t="inlineStr"/>
       <c r="K3" s="16" t="n"/>
     </row>
     <row r="4" ht="29" customHeight="1">
@@ -1565,6 +1557,9 @@
           <t> </t>
         </is>
       </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5" ht="29" customHeight="1">
       <c r="A5" s="9" t="inlineStr">
@@ -1598,6 +1593,9 @@
           <t> </t>
         </is>
       </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6" ht="29" customHeight="1">
       <c r="A6" s="9" t="inlineStr">
@@ -1631,6 +1629,9 @@
           <t> </t>
         </is>
       </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7" ht="29" customHeight="1">
       <c r="A7" s="9" t="inlineStr">
@@ -1668,6 +1669,9 @@
           <t>study.versions.studyDesigns.elements.{id: transitionEndRule.text}</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8" ht="29" customHeight="1">
       <c r="A8" s="9" t="inlineStr">

--- a/Output/SDTM_Results.xlsx
+++ b/Output/SDTM_Results.xlsx
@@ -1634,76 +1634,28 @@
       <c r="J6" t="inlineStr"/>
     </row>
     <row r="7" ht="29" customHeight="1">
-      <c r="A7" s="9" t="inlineStr">
-        <is>
-          <t>TEENRL</t>
-        </is>
-      </c>
-      <c r="B7" s="9" t="inlineStr">
-        <is>
-          <t>Rule for End of Element</t>
-        </is>
-      </c>
-      <c r="C7" s="9" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
-      </c>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t>Rule</t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
-        <is>
-          <t>Perm</t>
-        </is>
-      </c>
-      <c r="F7" s="12" t="inlineStr">
-        <is>
-          <t>Element End Rule</t>
-        </is>
-      </c>
-      <c r="G7" s="47" t="inlineStr">
-        <is>
-          <t>study.versions.studyDesigns.elements.{id: transitionEndRule.text}</t>
-        </is>
-      </c>
+      <c r="A7" s="9" t="inlineStr"/>
+      <c r="B7" s="9" t="inlineStr"/>
+      <c r="C7" s="9" t="inlineStr"/>
+      <c r="D7" s="9" t="inlineStr"/>
+      <c r="E7" s="9" t="inlineStr"/>
+      <c r="F7" s="12" t="inlineStr"/>
+      <c r="G7" s="47" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
     </row>
     <row r="8" ht="29" customHeight="1">
-      <c r="A8" s="9" t="inlineStr">
-        <is>
-          <t>TEDUR</t>
-        </is>
-      </c>
-      <c r="B8" s="9" t="inlineStr">
-        <is>
-          <t>Planned Duration of Element</t>
-        </is>
-      </c>
-      <c r="C8" s="9" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
-      </c>
-      <c r="D8" s="9" t="inlineStr">
-        <is>
-          <t>Timing</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>Perm</t>
-        </is>
-      </c>
-      <c r="F8" s="12" t="inlineStr">
-        <is>
-          <t>Element Duration</t>
-        </is>
-      </c>
+      <c r="A8" s="9" t="inlineStr"/>
+      <c r="B8" s="9" t="inlineStr"/>
+      <c r="C8" s="9" t="inlineStr"/>
+      <c r="D8" s="9" t="inlineStr"/>
+      <c r="E8" s="9" t="inlineStr"/>
+      <c r="F8" s="12" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/SDTM_Results.xlsx
+++ b/Output/SDTM_Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-4515" yWindow="-19065" windowWidth="27645" windowHeight="13335" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19890" yWindow="-18810" windowWidth="25080" windowHeight="15225" tabRatio="600" firstSheet="1" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" state="visible" r:id="rId1"/>
@@ -108,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -138,20 +138,8 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.7999816888943144"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999816888943144"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -179,30 +167,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -260,31 +224,24 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
         <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -313,10 +270,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -344,28 +301,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -373,13 +311,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -394,43 +326,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -949,7 +873,7 @@
           <t>Resulting domains</t>
         </is>
       </c>
-      <c r="B21" s="46" t="inlineStr">
+      <c r="B21" s="29" t="inlineStr">
         <is>
           <t>For the resulting domains, the specified variables are transposed to columns and the result values are presented in rows.</t>
         </is>
@@ -968,418 +892,430 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="87" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="87" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col width="17.81640625" customWidth="1" min="1" max="2"/>
     <col width="25.81640625" customWidth="1" min="6" max="6"/>
-    <col width="30.08984375" customWidth="1" style="46" min="7" max="7"/>
+    <col width="28" customWidth="1" style="29" min="7" max="7"/>
     <col width="18.6328125" bestFit="1" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variable Name </t>
+          <t xml:space="preserve">STUDYID </t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variable Label </t>
+          <t xml:space="preserve">DOMAIN </t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type </t>
+          <t xml:space="preserve">ARMCD </t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Role </t>
+          <t xml:space="preserve">ARM </t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Core </t>
+          <t xml:space="preserve">TAETORD </t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Mapping Name</t>
-        </is>
-      </c>
-      <c r="G1" s="34" t="inlineStr">
-        <is>
-          <t>JSONATA</t>
-        </is>
-      </c>
-      <c r="H1" s="24" t="inlineStr">
-        <is>
-          <t>Fixed content</t>
-        </is>
-      </c>
-      <c r="I1" s="24" t="n"/>
-      <c r="J1" s="24" t="n"/>
-      <c r="K1" s="24" t="n"/>
+          <t xml:space="preserve">ETCD </t>
+        </is>
+      </c>
+      <c r="G1" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ELEMENT </t>
+        </is>
+      </c>
+      <c r="H1" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TABRANCH </t>
+        </is>
+      </c>
+      <c r="I1" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TATRANS </t>
+        </is>
+      </c>
+      <c r="J1" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EPOCH </t>
+        </is>
+      </c>
+      <c r="K1" s="21" t="n"/>
     </row>
     <row r="2" ht="72.5" customHeight="1">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">STUDYID </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B2" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Study Identifier </t>
+          <t>TA</t>
         </is>
       </c>
       <c r="C2" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Char </t>
+          <t>LY-G</t>
         </is>
       </c>
       <c r="D2" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Identifier </t>
-        </is>
-      </c>
-      <c r="E2" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Req </t>
-        </is>
-      </c>
+          <t>LY900018-IMG</t>
+        </is>
+      </c>
+      <c r="E2" s="7" t="inlineStr"/>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>Sponsor Study Identifier</t>
-        </is>
-      </c>
-      <c r="G2" s="6" t="inlineStr">
-        <is>
-          <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0]; studyIdentifiers[scopeId=$sponsorIdVal].text;)</t>
-        </is>
-      </c>
-      <c r="H2" s="30" t="n"/>
-      <c r="I2" s="16" t="n"/>
-      <c r="J2" s="16" t="n"/>
+          <t>Screening Element</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="inlineStr"/>
+      <c r="H2" s="23" t="inlineStr"/>
+      <c r="I2" s="16" t="inlineStr"/>
+      <c r="J2" s="16" t="inlineStr">
+        <is>
+          <t>Screening</t>
+        </is>
+      </c>
       <c r="K2" s="16" t="n"/>
     </row>
     <row r="3" ht="31" customHeight="1">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">DOMAIN </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B3" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Domain Abbreviation </t>
+          <t>TA</t>
         </is>
       </c>
       <c r="C3" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Char </t>
+          <t>LY-G</t>
         </is>
       </c>
       <c r="D3" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Identifier </t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Req </t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="n"/>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="9" t="inlineStr">
-        <is>
-          <t>TA</t>
-        </is>
-      </c>
-      <c r="I3" s="16" t="n"/>
-      <c r="J3" s="16" t="n"/>
+          <t>LY900018-IMG</t>
+        </is>
+      </c>
+      <c r="E3" s="7" t="inlineStr"/>
+      <c r="F3" s="7" t="inlineStr">
+        <is>
+          <t>IM Glucagon + LY900018</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr"/>
+      <c r="H3" s="9" t="inlineStr"/>
+      <c r="I3" s="16" t="inlineStr"/>
+      <c r="J3" s="16" t="inlineStr">
+        <is>
+          <t>Period 2</t>
+        </is>
+      </c>
       <c r="K3" s="16" t="n"/>
     </row>
     <row r="4" ht="31" customHeight="1">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ARMCD </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Planned Arm Code </t>
+          <t>TA</t>
         </is>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Char </t>
+          <t>LY-G</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Topic </t>
-        </is>
-      </c>
-      <c r="E4" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Req </t>
-        </is>
-      </c>
+          <t>LY900018-IMG</t>
+        </is>
+      </c>
+      <c r="E4" s="7" t="inlineStr"/>
       <c r="F4" s="6" t="inlineStr">
         <is>
-          <t>Arm Name</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>study.versions.studyDesigns.arms.{id: label}</t>
+          <t>Wash Out Element</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Washout</t>
         </is>
       </c>
     </row>
     <row r="5" ht="31" customHeight="1">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ARM </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B5" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description of Planned Arm </t>
+          <t>TA</t>
         </is>
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Char </t>
+          <t>LY-G</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonym Qualifier </t>
-        </is>
-      </c>
-      <c r="E5" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Req </t>
-        </is>
-      </c>
+          <t>LY900018-IMG</t>
+        </is>
+      </c>
+      <c r="E5" s="7" t="inlineStr"/>
       <c r="F5" s="6" t="inlineStr">
         <is>
-          <t>Arm Description</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>study.versions.studyDesigns.arms.{id: description}</t>
+          <t>IM Glucagon</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Period 1</t>
         </is>
       </c>
     </row>
     <row r="6" ht="46.5" customHeight="1">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">TAETORD </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Planned Order of Element within Arm </t>
+          <t>TA</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Num </t>
+          <t>LY-G</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Timing </t>
-        </is>
-      </c>
-      <c r="E6" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Req </t>
-        </is>
-      </c>
+          <t>LY900018-IMG</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="inlineStr"/>
       <c r="F6" s="6" t="inlineStr">
         <is>
-          <t>Arm Specific Planned Order of Element Within Arm</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="n"/>
-    </row>
-    <row r="7" ht="72.5" customHeight="1">
+          <t>Follow Up Element</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Follow-up Epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="118" customHeight="1">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ETCD </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Element Code </t>
+          <t>TA</t>
         </is>
       </c>
       <c r="C7" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Char </t>
+          <t>G-LY</t>
         </is>
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Record Qualifier </t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Req </t>
-        </is>
-      </c>
+          <t>IMG-LY900018</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr"/>
       <c r="F7" s="6" t="inlineStr">
         <is>
-          <t>Arm Specific Element Name</t>
-        </is>
-      </c>
-      <c r="G7" s="6" t="inlineStr">
-        <is>
-          <t>study.versions.studyDesigns.($ElementName := function($id) {(elements[id=$id].label)}; studyCells.{armId: $ElementName(elementIds[0])})</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="72.5" customHeight="1">
+          <t>Screening Element</t>
+        </is>
+      </c>
+      <c r="G7" s="6" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Screening</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="101.5" customHeight="1">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ELEMENT </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description of Element </t>
+          <t>TA</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Char </t>
+          <t>G-LY</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonym Qualifier </t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Perm </t>
-        </is>
-      </c>
+          <t>IMG-LY900018</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="6" t="inlineStr">
         <is>
-          <t>Arm Specific Element Description</t>
-        </is>
-      </c>
-      <c r="G8" s="13" t="inlineStr">
-        <is>
-          <t>study.versions.studyDesigns.($ElementName := function($id) {(elements[id=$id].description)}; studyCells.{armId: $ElementName(elementIds[0])})</t>
+          <t>IM Glucagon</t>
+        </is>
+      </c>
+      <c r="G8" s="13" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Period 1</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15.5" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">TABRANCH </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Branch </t>
+          <t>TA</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Char </t>
+          <t>G-LY</t>
         </is>
       </c>
       <c r="D9" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rule </t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Exp </t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="6" t="n"/>
+          <t>IMG-LY900018</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>Wash Out Element</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Washout</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.5" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">TATRANS </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Transition Rule </t>
+          <t>TA</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Char </t>
+          <t>G-LY</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rule </t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Exp </t>
-        </is>
-      </c>
+          <t>IMG-LY900018</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="6" t="inlineStr">
         <is>
-          <t>Arm Specific Transition Rule</t>
-        </is>
-      </c>
-      <c r="G10" s="6" t="n"/>
-    </row>
-    <row r="11" ht="72.5" customHeight="1">
+          <t>IM Glucagon + LY900018</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Period 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="137.5" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">EPOCH </t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Epoch </t>
+          <t>TA</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Char </t>
+          <t>G-LY</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Timing </t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Req </t>
-        </is>
-      </c>
+          <t>IMG-LY900018</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="6" t="inlineStr">
         <is>
-          <t>Arm Specific Epoch Name</t>
-        </is>
-      </c>
-      <c r="G11" s="6" t="inlineStr">
-        <is>
-          <t>study.versions.studyDesigns.($EpochName := function($id) {(epochs[id=$id].label)}; studyCells.{armId: $EpochName(epochId[0])})</t>
+          <t>Follow Up Element</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Follow-up Epoch</t>
         </is>
       </c>
     </row>
@@ -1396,8 +1332,8 @@
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -1407,7 +1343,7 @@
     <col width="9.36328125" customWidth="1" min="3" max="5"/>
     <col width="25.81640625" customWidth="1" min="6" max="6"/>
     <col width="39.90625" customWidth="1" min="7" max="7"/>
-    <col width="10.81640625" customWidth="1" style="46" min="8" max="8"/>
+    <col width="10.81640625" customWidth="1" style="29" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1">
@@ -1441,15 +1377,15 @@
           <t>TEENRL</t>
         </is>
       </c>
-      <c r="G1" s="34" t="inlineStr">
+      <c r="G1" s="25" t="inlineStr">
         <is>
           <t>TEDUR</t>
         </is>
       </c>
-      <c r="H1" s="45" t="inlineStr"/>
-      <c r="I1" s="24" t="inlineStr"/>
-      <c r="J1" s="24" t="inlineStr"/>
-      <c r="K1" s="24" t="n"/>
+      <c r="H1" s="30" t="inlineStr"/>
+      <c r="I1" s="21" t="inlineStr"/>
+      <c r="J1" s="21" t="inlineStr"/>
+      <c r="K1" s="21" t="n"/>
     </row>
     <row r="2" ht="58" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
@@ -1478,12 +1414,12 @@
           <t>Day -1 of treatment period 1</t>
         </is>
       </c>
-      <c r="G2" s="31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H2" s="48" t="inlineStr"/>
+      <c r="G2" s="24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H2" s="27" t="inlineStr"/>
       <c r="I2" s="16" t="inlineStr"/>
       <c r="J2" s="16" t="inlineStr"/>
       <c r="K2" s="16" t="n"/>
@@ -1515,7 +1451,7 @@
           <t>End of Day 1 of treatment period</t>
         </is>
       </c>
-      <c r="G3" s="35" t="inlineStr">
+      <c r="G3" s="26" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1552,7 +1488,7 @@
           <t>Day -1 of treatment period 2</t>
         </is>
       </c>
-      <c r="G4" s="47" t="inlineStr">
+      <c r="G4" s="13" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1588,7 +1524,7 @@
           <t>End of Day 1 of treatment period</t>
         </is>
       </c>
-      <c r="G5" s="47" t="inlineStr">
+      <c r="G5" s="13" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1624,7 +1560,7 @@
           <t>Leave Study</t>
         </is>
       </c>
-      <c r="G6" s="47" t="inlineStr">
+      <c r="G6" s="13" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1640,7 +1576,7 @@
       <c r="D7" s="9" t="inlineStr"/>
       <c r="E7" s="9" t="inlineStr"/>
       <c r="F7" s="12" t="inlineStr"/>
-      <c r="G7" s="47" t="inlineStr"/>
+      <c r="G7" s="13" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1668,141 +1604,110 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:XFD1"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col width="18.6328125" customWidth="1" min="1" max="2"/>
     <col width="9.6328125" customWidth="1" min="3" max="5"/>
-    <col width="48.36328125" customWidth="1" min="6" max="6"/>
-    <col width="26" customWidth="1" min="7" max="7"/>
-    <col width="60.453125" customWidth="1" min="8" max="8"/>
-    <col width="26" customWidth="1" min="9" max="13"/>
-    <col width="19.453125" customWidth="1" min="14" max="15"/>
-    <col width="16.36328125" customWidth="1" style="22" min="16" max="16"/>
+    <col width="26" customWidth="1" min="6" max="6"/>
+    <col width="47" customWidth="1" min="7" max="7"/>
+    <col width="19.453125" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="49" t="inlineStr">
-        <is>
-          <t>SDTM</t>
-        </is>
-      </c>
-      <c r="B1" s="50" t="n"/>
-      <c r="C1" s="50" t="n"/>
-      <c r="D1" s="50" t="n"/>
-      <c r="E1" s="51" t="n"/>
-      <c r="F1" s="52" t="inlineStr">
-        <is>
-          <t>USDM</t>
-        </is>
-      </c>
-      <c r="G1" s="50" t="n"/>
-      <c r="H1" s="50" t="n"/>
-      <c r="I1" s="50" t="n"/>
-      <c r="J1" s="50" t="n"/>
-      <c r="K1" s="50" t="n"/>
-      <c r="L1" s="50" t="n"/>
-      <c r="M1" s="50" t="n"/>
-      <c r="N1" s="50" t="n"/>
-      <c r="O1" s="50" t="n"/>
-      <c r="P1" s="51" t="n"/>
-    </row>
-    <row r="2" ht="21" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Variable Name </t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Variable Label </t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Type </t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Core </t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Attribute</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Overall Notes</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Target Path</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Target Notes</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Condition Path</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Condition Notes</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mapping Name</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mapping Category</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="P2" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">v4.0 Change </t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="87" customHeight="1">
+      <c r="G1" s="25" t="inlineStr">
+        <is>
+          <t>JSONATA</t>
+        </is>
+      </c>
+      <c r="H1" s="21" t="inlineStr">
+        <is>
+          <t>Fixed content</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="43.5" customHeight="1">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>STUDYID</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>Study Identifier</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>Req</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>Sponsor Study Identifier</t>
+        </is>
+      </c>
+      <c r="G2" s="24" t="inlineStr">
+        <is>
+          <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0]; studyIdentifiers[scopeId=$sponsorIdVal].text;)</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="n"/>
+    </row>
+    <row r="3" ht="29" customHeight="1">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>STUDYID</t>
+          <t>DOMAIN</t>
         </is>
       </c>
       <c r="B3" s="6" t="inlineStr">
         <is>
-          <t>Study Identifier</t>
+          <t>Domain Abbreviation</t>
         </is>
       </c>
       <c r="C3" s="6" t="inlineStr">
@@ -1820,578 +1725,277 @@
           <t>Req</t>
         </is>
       </c>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>StudyIdentifier</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="H3" s="6" t="n"/>
-      <c r="I3" s="6" t="inlineStr">
-        <is>
-          <t>StudyVersion/@studyIdentifiers/StudyIdentifier/@text</t>
-        </is>
-      </c>
-      <c r="J3" s="6" t="n"/>
-      <c r="K3" s="6" t="inlineStr">
-        <is>
-          <t>StudyRole/@code/Code/@code="C70793" | 
-StudyRole/@organizations | 
-StudyVersion/@studyIdentifiers/StudyIdentifier/@scope</t>
-        </is>
-      </c>
-      <c r="L3" s="6" t="inlineStr">
-        <is>
-          <t>Identifies the sponsor role | 
-Identifies the sponsor organization from the role | 
-Identifies the sponsor organization from the study identifier</t>
-        </is>
-      </c>
-      <c r="M3" s="6" t="inlineStr">
-        <is>
-          <t>Sponsor Study Identifier</t>
-        </is>
-      </c>
-      <c r="N3" s="6" t="inlineStr">
-        <is>
-          <t>Study Identifier</t>
-        </is>
-      </c>
-      <c r="O3" s="6" t="inlineStr">
-        <is>
-          <t>Mapped</t>
-        </is>
-      </c>
-      <c r="P3" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="29" customHeight="1">
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="6" t="inlineStr">
         <is>
-          <t>DOMAIN</t>
+          <t>VISITNUM</t>
         </is>
       </c>
       <c r="B4" s="6" t="inlineStr">
         <is>
-          <t>Domain Abbreviation</t>
+          <t>Visit Number</t>
         </is>
       </c>
       <c r="C4" s="6" t="inlineStr">
         <is>
+          <t>Num</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Topic</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>Req</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>Visit Number</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="6" t="n"/>
+    </row>
+    <row r="5" ht="29" customHeight="1">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>VISIT</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>Visit Name</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
           <t>Char</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Synonym Qualifier</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>Req</t>
         </is>
       </c>
-      <c r="F4" s="6" t="n"/>
-      <c r="G4" s="6" t="n"/>
-      <c r="H4" s="6" t="inlineStr">
-        <is>
-          <t>Set to "TV"</t>
-        </is>
-      </c>
-      <c r="I4" s="6" t="n"/>
-      <c r="J4" s="6" t="n"/>
-      <c r="K4" s="6" t="n"/>
-      <c r="L4" s="6" t="n"/>
-      <c r="M4" s="6" t="n"/>
-      <c r="N4" s="6" t="n"/>
-      <c r="O4" s="6" t="n"/>
-      <c r="P4" s="23" t="n"/>
-    </row>
-    <row r="5" ht="101.5" customHeight="1">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>VISITNUM</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>Visit Number</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>Visit Name</t>
+        </is>
+      </c>
+      <c r="G5" s="29" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns.encounters.label</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="n"/>
+    </row>
+    <row r="6" ht="29" customHeight="1">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>VISITDY</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>Planned Study Day of Visit</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Num</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Topic</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Timing</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>Perm</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>Planned Study Day of Visit</t>
+        </is>
+      </c>
+      <c r="G6" s="13" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns.encounters .scheduledAt.label</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="n"/>
+    </row>
+    <row r="7" ht="29" customHeight="1">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>ARMCD</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>Planned Arm Code</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Record Qualifier</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>Arm Name</t>
+        </is>
+      </c>
+      <c r="G7" s="13" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns.arms.{id: label}</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="n"/>
+    </row>
+    <row r="8" ht="29" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>ARM</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>Description of Planned Arm</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Synonym Qualifier</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>Perm</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>Arm Description</t>
+        </is>
+      </c>
+      <c r="G8" s="29" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns.arms.{id: description}</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="n"/>
+    </row>
+    <row r="9" ht="29" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>TVENRL</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>Visit End Rule</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Rule</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>Perm</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>Visit End Rule</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns.encounters .transitionEndRule .text</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="n"/>
+    </row>
+    <row r="10" ht="29" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>TVSTRL</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>Visit Start Rule</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>Rule</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>Req</t>
         </is>
       </c>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>Encounter</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>next</t>
-        </is>
-      </c>
-      <c r="H5" s="6" t="n"/>
-      <c r="I5" s="6" t="inlineStr">
-        <is>
-          <t>StudyVersion/@studyDesigns/StudyDesign/@encounters/Encounter/@next</t>
-        </is>
-      </c>
-      <c r="J5" s="13" t="inlineStr">
-        <is>
-          <t>Order encounters according to their next attributes (pointing to the next encounter) and apply the corresponding sponsor defined visit numbering logic to it.</t>
-        </is>
-      </c>
-      <c r="K5" s="6" t="inlineStr"/>
-      <c r="L5" s="6" t="inlineStr"/>
-      <c r="M5" s="6" t="inlineStr">
-        <is>
-          <t>Visit Number</t>
-        </is>
-      </c>
-      <c r="N5" s="6" t="inlineStr">
-        <is>
-          <t>Study Design</t>
-        </is>
-      </c>
-      <c r="O5" s="6" t="inlineStr">
-        <is>
-          <t>Mapped</t>
-        </is>
-      </c>
-      <c r="P5" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="43.5" customHeight="1">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>VISIT</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>Visit Name</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Synonym Qualifier</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>Encounter</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="H6" s="6" t="n"/>
-      <c r="I6" s="6" t="inlineStr">
-        <is>
-          <t>StudyVersion/@studyDesigns/StudyDesign/@encounters/Encounter/@label</t>
-        </is>
-      </c>
-      <c r="J6" s="6" t="inlineStr"/>
-      <c r="K6" s="6" t="inlineStr"/>
-      <c r="L6" s="6" t="inlineStr"/>
-      <c r="M6" s="6" t="inlineStr">
-        <is>
-          <t>Visit Name</t>
-        </is>
-      </c>
-      <c r="N6" s="6" t="inlineStr">
-        <is>
-          <t>Study Design</t>
-        </is>
-      </c>
-      <c r="O6" s="6" t="inlineStr">
-        <is>
-          <t>Mapped</t>
-        </is>
-      </c>
-      <c r="P6" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="58" customHeight="1">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>VISITDY</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>Planned Study Day of Visit</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>Num</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Timing</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>Perm</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>Timing</t>
-        </is>
-      </c>
-      <c r="G7" s="6" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="H7" s="6" t="n"/>
-      <c r="I7" s="6" t="inlineStr">
-        <is>
-          <t>StudyVersion/@studyDesigns/StudyDesign/@encounters /Encounter/@scheduledAt/Timing/@label</t>
-        </is>
-      </c>
-      <c r="J7" s="6" t="inlineStr"/>
-      <c r="K7" s="6" t="inlineStr"/>
-      <c r="L7" s="6" t="inlineStr"/>
-      <c r="M7" s="6" t="inlineStr">
-        <is>
-          <t>Planned Study Day of Visit</t>
-        </is>
-      </c>
-      <c r="N7" s="6" t="inlineStr">
-        <is>
-          <t>Study Timeline</t>
-        </is>
-      </c>
-      <c r="O7" s="6" t="inlineStr">
-        <is>
-          <t>Mapped</t>
-        </is>
-      </c>
-      <c r="P7" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="43.5" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>ARMCD</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>Planned Arm Code</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>Record Qualifier</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>Exp</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>StudyArm</t>
-        </is>
-      </c>
-      <c r="G8" s="6" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="n"/>
-      <c r="I8" s="6" t="inlineStr">
-        <is>
-          <t>StudyVersion/@studyDesigns/StudyDesign/@arms/StudyArm/@label</t>
-        </is>
-      </c>
-      <c r="J8" s="6" t="inlineStr"/>
-      <c r="K8" s="6" t="inlineStr"/>
-      <c r="L8" s="6" t="inlineStr"/>
-      <c r="M8" s="6" t="inlineStr">
-        <is>
-          <t>Arm Name</t>
-        </is>
-      </c>
-      <c r="N8" s="6" t="inlineStr">
-        <is>
-          <t>Study Design</t>
-        </is>
-      </c>
-      <c r="O8" s="6" t="inlineStr">
-        <is>
-          <t>Mapped</t>
-        </is>
-      </c>
-      <c r="P8" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="43.5" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>Description of Planned Arm</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>Synonym Qualifier</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>Perm</t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>StudyArm</t>
-        </is>
-      </c>
-      <c r="G9" s="6" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="H9" s="6" t="n"/>
-      <c r="I9" s="6" t="inlineStr">
-        <is>
-          <t>StudyVersion/@studyDesigns/StudyDesign/@arms/StudyArm/@description</t>
-        </is>
-      </c>
-      <c r="J9" s="6" t="inlineStr"/>
-      <c r="K9" s="6" t="inlineStr"/>
-      <c r="L9" s="6" t="inlineStr"/>
-      <c r="M9" s="6" t="inlineStr">
-        <is>
-          <t>Arm Description</t>
-        </is>
-      </c>
-      <c r="N9" s="6" t="inlineStr">
-        <is>
-          <t>Study Design</t>
-        </is>
-      </c>
-      <c r="O9" s="6" t="inlineStr">
-        <is>
-          <t>Mapped</t>
-        </is>
-      </c>
-      <c r="P9" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="58" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>TVENRL</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t>Visit End Rule</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>Rule</t>
-        </is>
-      </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>Perm</t>
-        </is>
-      </c>
       <c r="F10" s="6" t="inlineStr">
         <is>
-          <t>TransitionRule</t>
+          <t>Visit Start Rule</t>
         </is>
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>study.versions.studyDesigns.encounters.transitionStartRule.text</t>
         </is>
       </c>
       <c r="H10" s="6" t="n"/>
-      <c r="I10" s="6" t="inlineStr">
-        <is>
-          <t>StudyVersion/@studyDesigns/StudyDesign/@encounters /Encounter/@transitionEndRule /TransitionRule/@text</t>
-        </is>
-      </c>
-      <c r="J10" s="6" t="inlineStr"/>
-      <c r="K10" s="6" t="inlineStr"/>
-      <c r="L10" s="6" t="inlineStr"/>
-      <c r="M10" s="6" t="inlineStr">
-        <is>
-          <t>Visit End Rule</t>
-        </is>
-      </c>
-      <c r="N10" s="6" t="inlineStr">
-        <is>
-          <t>Study Design</t>
-        </is>
-      </c>
-      <c r="O10" s="6" t="inlineStr">
-        <is>
-          <t>Mapped</t>
-        </is>
-      </c>
-      <c r="P10" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="58" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>TVSTRL</t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="inlineStr">
-        <is>
-          <t>Visit Start Rule</t>
-        </is>
-      </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>Rule</t>
-        </is>
-      </c>
-      <c r="E11" s="6" t="inlineStr">
-        <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F11" s="6" t="inlineStr">
-        <is>
-          <t>TransitionRule</t>
-        </is>
-      </c>
-      <c r="G11" s="6" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="H11" s="6" t="n"/>
-      <c r="I11" s="6" t="inlineStr">
-        <is>
-          <t>StudyVersion/@studyDesigns/StudyDesign/@encounters/Encounter/@transitionStartRule/TransitionRule/@text</t>
-        </is>
-      </c>
-      <c r="J11" s="6" t="inlineStr"/>
-      <c r="K11" s="6" t="inlineStr"/>
-      <c r="L11" s="6" t="inlineStr"/>
-      <c r="M11" s="6" t="inlineStr">
-        <is>
-          <t>Visit Start Rule</t>
-        </is>
-      </c>
-      <c r="N11" s="6" t="inlineStr">
-        <is>
-          <t>Study Design</t>
-        </is>
-      </c>
-      <c r="O11" s="6" t="inlineStr">
-        <is>
-          <t>Mapped</t>
-        </is>
-      </c>
-      <c r="P11" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I5" display="StudyVersion/@studyDesigns/StudyDesign/@encounters/Encounter/@previous | @next" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I6" display="StudyVersion/@studyDesigns/StudyDesign/@encounters/Encounter/@previous | @next" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I7" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I10" display="StudyVersion/@studyDesigns/StudyDesign/@encounters /Encounter/@transitionEndRule" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I11" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2405,14 +2009,14 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K3" sqref="G1:K3"/>
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col width="18.6328125" customWidth="1" min="1" max="5"/>
     <col width="28.7265625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="26.6328125" customWidth="1" style="37" min="7" max="7"/>
+    <col width="26.6328125" customWidth="1" style="28" min="7" max="7"/>
     <col width="29.81640625" customWidth="1" style="16" min="8" max="8"/>
     <col width="8.6328125" customWidth="1" style="16" min="9" max="11"/>
   </cols>
@@ -2448,19 +2052,19 @@
           <t>IESCAT</t>
         </is>
       </c>
-      <c r="G1" s="34" t="inlineStr">
+      <c r="G1" s="25" t="inlineStr">
         <is>
           <t>TIRL</t>
         </is>
       </c>
-      <c r="H1" s="24" t="inlineStr">
+      <c r="H1" s="21" t="inlineStr">
         <is>
           <t>TIVERS</t>
         </is>
       </c>
-      <c r="I1" s="24" t="n"/>
-      <c r="J1" s="24" t="n"/>
-      <c r="K1" s="24" t="n"/>
+      <c r="I1" s="21" t="n"/>
+      <c r="J1" s="21" t="n"/>
+      <c r="K1" s="21" t="n"/>
     </row>
     <row r="2" ht="72.5" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
@@ -2493,12 +2097,12 @@
           <t> </t>
         </is>
       </c>
-      <c r="G2" s="31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H2" s="30" t="inlineStr">
+      <c r="G2" s="24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H2" s="23" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2535,7 +2139,7 @@
           <t> </t>
         </is>
       </c>
-      <c r="G3" s="35" t="inlineStr">
+      <c r="G3" s="26" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2577,12 +2181,12 @@
           <t> </t>
         </is>
       </c>
-      <c r="G4" s="48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H4" s="30" t="inlineStr">
+      <c r="G4" s="27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H4" s="23" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2619,12 +2223,12 @@
           <t> </t>
         </is>
       </c>
-      <c r="G5" s="46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H5" s="30" t="inlineStr">
+      <c r="G5" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H5" s="23" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2661,12 +2265,12 @@
           <t> </t>
         </is>
       </c>
-      <c r="G6" s="48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H6" s="30" t="inlineStr">
+      <c r="G6" s="27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H6" s="23" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2703,12 +2307,12 @@
           <t> </t>
         </is>
       </c>
-      <c r="G7" s="48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H7" s="30" t="inlineStr">
+      <c r="G7" s="27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H7" s="23" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2745,12 +2349,12 @@
           <t> </t>
         </is>
       </c>
-      <c r="G8" s="35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H8" s="30" t="inlineStr">
+      <c r="G8" s="26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H8" s="23" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2787,12 +2391,12 @@
           <t> </t>
         </is>
       </c>
-      <c r="G9" s="35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H9" s="30" t="inlineStr">
+      <c r="G9" s="26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H9" s="23" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3987,7 +3591,7 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -4039,22 +3643,22 @@
           <t>TSVAL</t>
         </is>
       </c>
-      <c r="H1" s="24" t="inlineStr">
+      <c r="H1" s="21" t="inlineStr">
         <is>
           <t>TSVALNF</t>
         </is>
       </c>
-      <c r="I1" s="24" t="inlineStr">
+      <c r="I1" s="21" t="inlineStr">
         <is>
           <t>TSVALCD</t>
         </is>
       </c>
-      <c r="J1" s="24" t="inlineStr">
+      <c r="J1" s="21" t="inlineStr">
         <is>
           <t>TSVCDREF</t>
         </is>
       </c>
-      <c r="K1" s="24" t="inlineStr">
+      <c r="K1" s="21" t="inlineStr">
         <is>
           <t>TSVCDVER</t>
         </is>
@@ -4091,12 +3695,12 @@
           <t>Planned Minimum Age of Subjects</t>
         </is>
       </c>
-      <c r="G2" s="31" t="inlineStr">
+      <c r="G2" s="24" t="inlineStr">
         <is>
           <t>18  Year</t>
         </is>
       </c>
-      <c r="H2" s="30" t="inlineStr">
+      <c r="H2" s="23" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4133,7 +3737,7 @@
           <t>Planned Minimum Age of Subjects</t>
         </is>
       </c>
-      <c r="G3" s="29" t="inlineStr">
+      <c r="G3" s="22" t="inlineStr">
         <is>
           <t>70  Year</t>
         </is>
@@ -4173,12 +3777,12 @@
           <t>Confirmed Response Minimum Duration</t>
         </is>
       </c>
-      <c r="G4" s="29" t="inlineStr">
+      <c r="G4" s="22" t="inlineStr">
         <is>
           <t>1 Day</t>
         </is>
       </c>
-      <c r="H4" s="30" t="inlineStr">
+      <c r="H4" s="23" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4213,12 +3817,12 @@
           <t>Confirmed Response Minimum Duration</t>
         </is>
       </c>
-      <c r="G5" s="29" t="inlineStr">
+      <c r="G5" s="22" t="inlineStr">
         <is>
           <t>1 Day</t>
         </is>
       </c>
-      <c r="H5" s="30" t="inlineStr">
+      <c r="H5" s="23" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4253,12 +3857,12 @@
           <t>Dose Level; Dose per Administration</t>
         </is>
       </c>
-      <c r="G6" s="29" t="inlineStr">
+      <c r="G6" s="22" t="inlineStr">
         <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="H6" s="30" t="inlineStr">
+      <c r="H6" s="23" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4293,12 +3897,12 @@
           <t>Dose Level; Dose per Administration</t>
         </is>
       </c>
-      <c r="G7" s="29" t="inlineStr">
+      <c r="G7" s="22" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="H7" s="30" t="inlineStr">
+      <c r="H7" s="23" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4333,12 +3937,12 @@
           <t>Dosing Frequency</t>
         </is>
       </c>
-      <c r="G8" s="29" t="inlineStr">
+      <c r="G8" s="22" t="inlineStr">
         <is>
           <t>Once</t>
         </is>
       </c>
-      <c r="H8" s="30" t="inlineStr">
+      <c r="H8" s="23" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4388,12 +3992,12 @@
           <t>Dosing Frequency</t>
         </is>
       </c>
-      <c r="G9" s="29" t="inlineStr">
+      <c r="G9" s="22" t="inlineStr">
         <is>
           <t>Once</t>
         </is>
       </c>
-      <c r="H9" s="30" t="inlineStr">
+      <c r="H9" s="23" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4443,12 +4047,12 @@
           <t>Dose Units</t>
         </is>
       </c>
-      <c r="G10" s="29" t="inlineStr">
+      <c r="G10" s="22" t="inlineStr">
         <is>
           <t>Milligram</t>
         </is>
       </c>
-      <c r="H10" s="30" t="inlineStr">
+      <c r="H10" s="23" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4498,12 +4102,12 @@
           <t>Dose Units</t>
         </is>
       </c>
-      <c r="G11" s="29" t="inlineStr">
+      <c r="G11" s="22" t="inlineStr">
         <is>
           <t>Milligram</t>
         </is>
       </c>
-      <c r="H11" s="30" t="inlineStr">
+      <c r="H11" s="23" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4553,12 +4157,12 @@
           <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
         </is>
       </c>
-      <c r="G12" s="29" t="inlineStr">
+      <c r="G12" s="22" t="inlineStr">
         <is>
           <t>T1DM</t>
         </is>
       </c>
-      <c r="H12" s="30" t="inlineStr">
+      <c r="H12" s="23" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5122,7 +4726,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> , </t>
+          <t>,</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -5158,7 +4762,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ,  , </t>
+          <t>,  ,</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -5813,19 +5417,19 @@
   </sheetPr>
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A24" zoomScale="109" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col width="21.81640625" customWidth="1" min="1" max="1"/>
-    <col width="9.6328125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="9.1796875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="14.90625" customWidth="1" min="1" max="1"/>
+    <col width="9.6328125" customWidth="1" min="2" max="2"/>
+    <col width="9.1796875" customWidth="1" min="3" max="3"/>
     <col width="28.6328125" customWidth="1" min="4" max="4"/>
     <col width="33.81640625" customWidth="1" min="5" max="5"/>
-    <col width="32.453125" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="85.54296875" customWidth="1" min="7" max="7"/>
+    <col width="32.453125" customWidth="1" min="6" max="6"/>
+    <col width="59.36328125" customWidth="1" min="7" max="7"/>
     <col width="27.7265625" customWidth="1" min="8" max="8"/>
     <col width="30.26953125" bestFit="1" customWidth="1" min="9" max="9"/>
     <col width="43.453125" customWidth="1" min="10" max="10"/>
@@ -5858,32 +5462,32 @@
           <t>TSGRPID</t>
         </is>
       </c>
-      <c r="F1" s="24" t="inlineStr">
+      <c r="F1" s="21" t="inlineStr">
         <is>
           <t>Mapping Name</t>
         </is>
       </c>
-      <c r="G1" s="24" t="inlineStr">
+      <c r="G1" s="21" t="inlineStr">
         <is>
           <t>Mapping Results</t>
         </is>
       </c>
-      <c r="H1" s="24" t="inlineStr">
+      <c r="H1" s="21" t="inlineStr">
         <is>
           <t>TSVALNF if empty</t>
         </is>
       </c>
-      <c r="I1" s="24" t="inlineStr">
+      <c r="I1" s="21" t="inlineStr">
         <is>
           <t>TSVALCD JSONATA map</t>
         </is>
       </c>
-      <c r="J1" s="24" t="inlineStr">
+      <c r="J1" s="21" t="inlineStr">
         <is>
           <t>TSVALCDREF JSONATA map</t>
         </is>
       </c>
-      <c r="K1" s="24" t="inlineStr">
+      <c r="K1" s="21" t="inlineStr">
         <is>
           <t>TSVALCDVER JSONATA map</t>
         </is>
@@ -5912,7 +5516,7 @@
           <t>Adaptive Design Indicator</t>
         </is>
       </c>
-      <c r="G2" s="27" t="inlineStr">
+      <c r="G2" s="31" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5956,7 +5560,7 @@
           <t>Study Minimum Age + Unit Study Population</t>
         </is>
       </c>
-      <c r="G3" s="25" t="inlineStr">
+      <c r="G3" s="29" t="inlineStr">
         <is>
           <t>18  Year</t>
         </is>
@@ -6005,7 +5609,7 @@
           <t>Study Maximum Age + Unit Study Population</t>
         </is>
       </c>
-      <c r="G4" s="25" t="inlineStr">
+      <c r="G4" s="29" t="inlineStr">
         <is>
           <t>70  Year</t>
         </is>
@@ -6062,7 +5666,7 @@
           <t>Biospecimen retention contains DNA indicator</t>
         </is>
       </c>
-      <c r="G5" s="25" t="inlineStr">
+      <c r="G5" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6114,7 +5718,7 @@
           <t>Biospecimen retention indicator</t>
         </is>
       </c>
-      <c r="G6" s="25" t="inlineStr">
+      <c r="G6" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6162,7 +5766,7 @@
         </is>
       </c>
       <c r="F7" s="14" t="n"/>
-      <c r="G7" s="25" t="inlineStr">
+      <c r="G7" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6318,7 +5922,7 @@
           <t>Minimum Response Duration</t>
         </is>
       </c>
-      <c r="G10" s="25" t="inlineStr">
+      <c r="G10" s="29" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': '1 Day' , 'StudyIntervention_2': '1 Day'}</t>
         </is>
@@ -6375,7 +5979,7 @@
           <t>Background treatment</t>
         </is>
       </c>
-      <c r="G11" s="25" t="inlineStr">
+      <c r="G11" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6419,7 +6023,7 @@
           <t>Data Monitoring Committee Indicator</t>
         </is>
       </c>
-      <c r="G12" s="25" t="inlineStr">
+      <c r="G12" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6471,7 +6075,7 @@
           <t>Dosage Levels</t>
         </is>
       </c>
-      <c r="G13" s="25" t="inlineStr">
+      <c r="G13" s="29" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 3.0, 'StudyIntervention_2': 1.0}</t>
         </is>
@@ -6528,7 +6132,7 @@
           <t>Dose Form</t>
         </is>
       </c>
-      <c r="G14" s="25" t="inlineStr">
+      <c r="G14" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6580,7 +6184,7 @@
           <t>Administration Frequency</t>
         </is>
       </c>
-      <c r="G15" s="25" t="inlineStr">
+      <c r="G15" s="29" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'Once', 'StudyIntervention_2': 'Once'}</t>
         </is>
@@ -6590,17 +6194,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="I15" s="25" t="inlineStr">
+      <c r="I15" s="29" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'C64576', 'StudyIntervention_2': 'C64576'}</t>
         </is>
       </c>
-      <c r="J15" s="25" t="inlineStr">
+      <c r="J15" s="29" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
-      <c r="K15" s="25" t="inlineStr">
+      <c r="K15" s="29" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
@@ -6637,7 +6241,7 @@
           <t>Dosage Units</t>
         </is>
       </c>
-      <c r="G16" s="25" t="inlineStr">
+      <c r="G16" s="29" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
         </is>
@@ -6647,17 +6251,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="I16" s="25" t="inlineStr">
+      <c r="I16" s="29" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'C28253', 'StudyIntervention_2': 'C28253'}</t>
         </is>
       </c>
-      <c r="J16" s="25" t="inlineStr">
+      <c r="J16" s="29" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
-      <c r="K16" s="25" t="inlineStr">
+      <c r="K16" s="29" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
@@ -6778,7 +6382,7 @@
           <t>Healthy Subject Indicator Study Population / Cohort</t>
         </is>
       </c>
-      <c r="G19" s="25" t="inlineStr">
+      <c r="G19" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6822,7 +6426,7 @@
           <t>Study design Diagnosis or Condition</t>
         </is>
       </c>
-      <c r="G20" s="25" t="inlineStr">
+      <c r="G20" s="29" t="inlineStr">
         <is>
           <t>{'Indication_1': 'T1DM' , 'Indication_2': 'T2DM'}</t>
         </is>
@@ -6871,7 +6475,7 @@
           <t>Intervention Model</t>
         </is>
       </c>
-      <c r="G21" s="26" t="inlineStr">
+      <c r="G21" s="34" t="inlineStr">
         <is>
           <t>Parallel Study</t>
         </is>
@@ -6881,17 +6485,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="I21" s="26" t="inlineStr">
+      <c r="I21" s="34" t="inlineStr">
         <is>
           <t>C82639</t>
         </is>
       </c>
-      <c r="J21" s="26" t="inlineStr">
+      <c r="J21" s="34" t="inlineStr">
         <is>
           <t>//www.cdisc.org</t>
         </is>
       </c>
-      <c r="K21" s="26" t="inlineStr">
+      <c r="K21" s="34" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
@@ -6928,7 +6532,7 @@
           <t>Intervention Type</t>
         </is>
       </c>
-      <c r="G22" s="25" t="inlineStr">
+      <c r="G22" s="29" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'Pharmacologic Substance', 'StudyIntervention_2': 'Pharmacologic Substance'}</t>
         </is>
@@ -6938,17 +6542,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="I22" s="25" t="inlineStr">
+      <c r="I22" s="29" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'C1909', 'StudyIntervention_2': 'C1909'}</t>
         </is>
       </c>
-      <c r="J22" s="25" t="inlineStr">
+      <c r="J22" s="29" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
-      <c r="K22" s="25" t="inlineStr">
+      <c r="K22" s="29" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
@@ -6977,7 +6581,7 @@
           <t>Trial Duration Value + Units</t>
         </is>
       </c>
-      <c r="G23" s="25" t="inlineStr">
+      <c r="G23" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7070,7 +6674,7 @@
           <t>Number of Arms</t>
         </is>
       </c>
-      <c r="G25" s="25" t="inlineStr">
+      <c r="G25" s="39" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -7119,7 +6723,7 @@
           <t>Number of Groups/Cohorts</t>
         </is>
       </c>
-      <c r="G26" s="26" t="inlineStr">
+      <c r="G26" s="34" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -7220,7 +6824,7 @@
           <t>Exploratory Objective</t>
         </is>
       </c>
-      <c r="G28" s="25" t="inlineStr">
+      <c r="G28" s="29" t="inlineStr">
         <is>
           <t>{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon' , 'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}</t>
         </is>
@@ -7277,7 +6881,7 @@
           <t>Primary Objective</t>
         </is>
       </c>
-      <c r="G29" s="25" t="inlineStr">
+      <c r="G29" s="29" t="inlineStr">
         <is>
           <t>{'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%'}</t>
         </is>
@@ -7334,7 +6938,7 @@
           <t>Secondary Objective</t>
         </is>
       </c>
-      <c r="G30" s="25" t="inlineStr">
+      <c r="G30" s="29" t="inlineStr">
         <is>
           <t>{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG' , 'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG' , 'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}</t>
         </is>
@@ -7383,22 +6987,22 @@
           <t>Observational Model</t>
         </is>
       </c>
-      <c r="G31" s="28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I31" s="28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J31" s="28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K31" s="28" t="inlineStr">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7427,22 +7031,22 @@
           <t>Observational Time Perspective</t>
         </is>
       </c>
-      <c r="G32" s="26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I32" s="26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J32" s="26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K32" s="26" t="inlineStr">
+      <c r="G32" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I32" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J32" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K32" s="34" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7471,7 +7075,7 @@
           <t>Observational Study Population Description</t>
         </is>
       </c>
-      <c r="G33" s="26" t="inlineStr">
+      <c r="G33" s="34" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7515,22 +7119,22 @@
           <t>Observational Study Sampling Method</t>
         </is>
       </c>
-      <c r="G34" s="26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I34" s="26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J34" s="26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K34" s="26" t="inlineStr">
+      <c r="G34" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I34" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J34" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K34" s="34" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7567,7 +7171,7 @@
           <t>Exploratory Outcome Measure</t>
         </is>
       </c>
-      <c r="G35" s="25" t="inlineStr">
+      <c r="G35" s="29" t="inlineStr">
         <is>
           <t>{ , }</t>
         </is>
@@ -7624,7 +7228,7 @@
           <t>Primary Outcome Measure</t>
         </is>
       </c>
-      <c r="G36" s="25" t="inlineStr">
+      <c r="G36" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7676,7 +7280,7 @@
           <t>Secondary Outcome Measure</t>
         </is>
       </c>
-      <c r="G37" s="25" t="inlineStr">
+      <c r="G37" s="29" t="inlineStr">
         <is>
           <t>{ ,  , }</t>
         </is>
@@ -7729,7 +7333,7 @@
           <t>Pharmacologic Class</t>
         </is>
       </c>
-      <c r="G38" s="25" t="inlineStr">
+      <c r="G38" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7750,7 +7354,7 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="29" customHeight="1">
+    <row r="39" ht="43.5" customHeight="1">
       <c r="A39" s="15" t="inlineStr">
         <is>
           <t>Pediatric Investigation Plan Indicator</t>
@@ -7773,7 +7377,7 @@
           <t>Pediatric Investigation Plan Indicator</t>
         </is>
       </c>
-      <c r="G39" s="25" t="inlineStr">
+      <c r="G39" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7794,7 +7398,7 @@
         </is>
       </c>
     </row>
-    <row r="40" ht="72.5" customHeight="1">
+    <row r="40" ht="116" customHeight="1">
       <c r="A40" s="15" t="inlineStr">
         <is>
           <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
@@ -7817,7 +7421,7 @@
           <t>Target Enrollment Number</t>
         </is>
       </c>
-      <c r="G40" s="25" t="inlineStr">
+      <c r="G40" s="29" t="inlineStr">
         <is>
           <t>75.0</t>
         </is>
@@ -7870,7 +7474,7 @@
           <t>Planned Duration of Intervention Value + Unit</t>
         </is>
       </c>
-      <c r="G41" s="26" t="inlineStr">
+      <c r="G41" s="34" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
         </is>
@@ -7896,7 +7500,7 @@
         </is>
       </c>
     </row>
-    <row r="42" ht="29" customHeight="1">
+    <row r="42" ht="58" customHeight="1">
       <c r="A42" s="15" t="inlineStr">
         <is>
           <t>Trial is Randomized</t>
@@ -7919,7 +7523,7 @@
           <t>Randomized Indicator</t>
         </is>
       </c>
-      <c r="G42" s="25" t="inlineStr">
+      <c r="G42" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7940,7 +7544,7 @@
         </is>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="29" customHeight="1">
       <c r="A43" s="15" t="inlineStr">
         <is>
           <t>Rare Disease Indicator</t>
@@ -7963,7 +7567,7 @@
           <t>Rare disease indicator</t>
         </is>
       </c>
-      <c r="G43" s="26" t="inlineStr">
+      <c r="G43" s="34" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8067,7 +7671,7 @@
           <t>Route of Administration</t>
         </is>
       </c>
-      <c r="G45" s="25" t="inlineStr">
+      <c r="G45" s="29" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
         </is>
@@ -8077,17 +7681,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="I45" s="25" t="inlineStr">
+      <c r="I45" s="29" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'C38284', 'StudyIntervention_2': 'C28161'}</t>
         </is>
       </c>
-      <c r="J45" s="25" t="inlineStr">
+      <c r="J45" s="29" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
-      <c r="K45" s="25" t="inlineStr">
+      <c r="K45" s="29" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
@@ -8145,7 +7749,7 @@
         </is>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="29" customHeight="1">
       <c r="A47" s="15" t="inlineStr">
         <is>
           <t>Sex of Participants</t>
@@ -8189,7 +7793,7 @@
         </is>
       </c>
     </row>
-    <row r="48" ht="29" customHeight="1">
+    <row r="48" ht="58" customHeight="1">
       <c r="A48" s="15" t="inlineStr">
         <is>
           <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
@@ -8212,7 +7816,7 @@
           <t>Sponsor Name - Organization</t>
         </is>
       </c>
-      <c r="G48" s="25" t="inlineStr">
+      <c r="G48" s="29" t="inlineStr">
         <is>
           <t>Eli Lilly Japan K.K</t>
         </is>
@@ -8286,7 +7890,7 @@
         </is>
       </c>
     </row>
-    <row r="50" ht="29" customHeight="1">
+    <row r="50" ht="43.5" customHeight="1">
       <c r="A50" s="15" t="inlineStr">
         <is>
           <t>Single Site EU State Trial Indicator</t>
@@ -8330,7 +7934,7 @@
         </is>
       </c>
     </row>
-    <row r="51" ht="29" customHeight="1">
+    <row r="51" ht="43.5" customHeight="1">
       <c r="A51" s="15" t="inlineStr">
         <is>
           <t>Study Type; Study Type Classification</t>
@@ -8353,7 +7957,7 @@
           <t>Study Type</t>
         </is>
       </c>
-      <c r="G51" s="28" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Interventional Study</t>
         </is>
@@ -8363,23 +7967,23 @@
           <t> </t>
         </is>
       </c>
-      <c r="I51" s="28" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>C98388</t>
         </is>
       </c>
-      <c r="J51" s="28" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>//www.cdisc.org</t>
         </is>
       </c>
-      <c r="K51" s="28" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="87" customHeight="1">
+    <row r="52" ht="145" customHeight="1">
       <c r="A52" s="15" t="inlineStr">
         <is>
           <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
@@ -8402,7 +8006,7 @@
           <t>Blinding Schema</t>
         </is>
       </c>
-      <c r="G52" s="25" t="inlineStr">
+      <c r="G52" s="29" t="inlineStr">
         <is>
           <t>Open Label Study</t>
         </is>
@@ -8412,17 +8016,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="I52" s="25" t="inlineStr">
+      <c r="I52" s="29" t="inlineStr">
         <is>
           <t>C49659</t>
         </is>
       </c>
-      <c r="J52" s="25" t="inlineStr">
+      <c r="J52" s="29" t="inlineStr">
         <is>
           <t>//www.cdisc.org</t>
         </is>
       </c>
-      <c r="K52" s="25" t="inlineStr">
+      <c r="K52" s="29" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
@@ -8451,22 +8055,22 @@
           <t>Intervention Control Type</t>
         </is>
       </c>
-      <c r="G53" s="26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I53" s="26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J53" s="26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K53" s="26" t="inlineStr">
+      <c r="G53" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I53" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J53" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K53" s="34" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8495,22 +8099,22 @@
           <t>Therapeutic Area</t>
         </is>
       </c>
-      <c r="G54" s="25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I54" s="25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J54" s="25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K54" s="25" t="inlineStr">
+      <c r="G54" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I54" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J54" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K54" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8543,7 +8147,7 @@
           <t>Trial Intent Types</t>
         </is>
       </c>
-      <c r="G55" s="25" t="inlineStr">
+      <c r="G55" s="29" t="inlineStr">
         <is>
           <t>{'Code_129': 'Basic Research' , 'Code_130': 'Device Feasibility Study'}</t>
         </is>
@@ -8553,23 +8157,23 @@
           <t> </t>
         </is>
       </c>
-      <c r="I55" s="25" t="inlineStr">
+      <c r="I55" s="29" t="inlineStr">
         <is>
           <t>{'Code_129': 'C15714' , 'Code_130': 'C139174'}</t>
         </is>
       </c>
-      <c r="J55" s="25" t="inlineStr">
+      <c r="J55" s="29" t="inlineStr">
         <is>
           <t>{'Code_129': 'http://www.cdisc.org' , 'Code_130': 'http://www.cdisc.org'}</t>
         </is>
       </c>
-      <c r="K55" s="25" t="inlineStr">
+      <c r="K55" s="29" t="inlineStr">
         <is>
           <t>{'Code_129': '2024-09-27' , 'Code_130': '2024-09-27'}</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="29" customHeight="1">
+    <row r="56" ht="43.5" customHeight="1">
       <c r="A56" s="15" t="inlineStr">
         <is>
           <t>Official Study Title; Study Title; Trial Title</t>
@@ -8592,7 +8196,7 @@
           <t>Full Title</t>
         </is>
       </c>
-      <c r="G56" s="25" t="inlineStr">
+      <c r="G56" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8613,30 +8217,30 @@
         </is>
       </c>
     </row>
-    <row r="57" ht="29" customHeight="1">
-      <c r="A57" s="15" t="inlineStr">
+    <row r="57" ht="43.5" customHeight="1">
+      <c r="A57" s="35" t="inlineStr">
         <is>
           <t>Trial Phase; Trial Phase Classification</t>
         </is>
       </c>
-      <c r="B57" s="15" t="inlineStr">
+      <c r="B57" s="35" t="inlineStr">
         <is>
           <t>TPHASE</t>
         </is>
       </c>
-      <c r="C57" s="15" t="inlineStr">
+      <c r="C57" s="35" t="inlineStr">
         <is>
           <t>C48281</t>
         </is>
       </c>
-      <c r="D57" s="15" t="n"/>
-      <c r="E57" s="15" t="n"/>
-      <c r="F57" s="14" t="inlineStr">
+      <c r="D57" s="35" t="n"/>
+      <c r="E57" s="35" t="n"/>
+      <c r="F57" s="36" t="inlineStr">
         <is>
           <t>Trial Phase</t>
         </is>
       </c>
-      <c r="G57" s="28" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8646,23 +8250,23 @@
           <t>NI</t>
         </is>
       </c>
-      <c r="I57" s="28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J57" s="28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K57" s="28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="58" ht="43.5" customHeight="1">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="30" customHeight="1">
       <c r="A58" s="15" t="inlineStr">
         <is>
           <t>Investigational Therapy or Treatment</t>
@@ -8693,7 +8297,7 @@
           <t>Investigational Intervention</t>
         </is>
       </c>
-      <c r="G58" s="25" t="inlineStr">
+      <c r="G58" s="13" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'LY900018' , 'StudyIntervention_2': 'GlucaGen'}</t>
         </is>
@@ -8720,29 +8324,29 @@
       </c>
     </row>
     <row r="59" ht="43.5" customHeight="1">
-      <c r="A59" s="15" t="inlineStr">
+      <c r="A59" s="37" t="inlineStr">
         <is>
           <t>Trial Scope; Trial Type</t>
         </is>
       </c>
-      <c r="B59" s="15" t="inlineStr">
+      <c r="B59" s="37" t="inlineStr">
         <is>
           <t>TTYPE</t>
         </is>
       </c>
-      <c r="C59" s="15" t="inlineStr">
+      <c r="C59" s="37" t="inlineStr">
         <is>
           <t>C49660</t>
         </is>
       </c>
-      <c r="D59" s="15" t="n"/>
-      <c r="E59" s="15" t="n"/>
-      <c r="F59" s="14" t="inlineStr">
+      <c r="D59" s="37" t="n"/>
+      <c r="E59" s="37" t="n"/>
+      <c r="F59" s="38" t="inlineStr">
         <is>
           <t>Trial Type</t>
         </is>
       </c>
-      <c r="G59" s="25" t="inlineStr">
+      <c r="G59" s="29" t="inlineStr">
         <is>
           <t>{'Code_131': 'Efficacy Study'}</t>
         </is>
@@ -8752,17 +8356,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="I59" s="25" t="inlineStr">
+      <c r="I59" s="29" t="inlineStr">
         <is>
           <t>{'Code_131': 'C49666'}</t>
         </is>
       </c>
-      <c r="J59" s="25" t="inlineStr">
+      <c r="J59" s="29" t="inlineStr">
         <is>
           <t>{'Code_131': 'http://www.cdisc.org'}</t>
         </is>
       </c>
-      <c r="K59" s="25" t="inlineStr">
+      <c r="K59" s="29" t="inlineStr">
         <is>
           <t>{'Code_131': '2024-09-27'}</t>
         </is>

--- a/Output/SDTM_Results.xlsx
+++ b/Output/SDTM_Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19890" yWindow="-18810" windowWidth="25080" windowHeight="15225" tabRatio="600" firstSheet="1" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="1" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" state="visible" r:id="rId1"/>
@@ -892,8 +892,8 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="87" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A2" zoomScale="87" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -1604,10 +1604,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -1622,380 +1622,660 @@
     <row r="1" ht="21" customHeight="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variable Name </t>
+          <t>STUDYID</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variable Label </t>
+          <t>DOMAIN</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type </t>
+          <t>VISITNUM</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Role </t>
+          <t>VISIT</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Core </t>
+          <t>VISITDY</t>
         </is>
       </c>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mapping Name</t>
+          <t>ARMCD</t>
         </is>
       </c>
       <c r="G1" s="25" t="inlineStr">
         <is>
-          <t>JSONATA</t>
+          <t>ARM</t>
         </is>
       </c>
       <c r="H1" s="21" t="inlineStr">
         <is>
-          <t>Fixed content</t>
+          <t>TVENRL</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>TVSTRL</t>
         </is>
       </c>
     </row>
     <row r="2" ht="43.5" customHeight="1">
       <c r="A2" s="6" t="inlineStr">
         <is>
-          <t>STUDYID</t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B2" s="6" t="inlineStr">
         <is>
-          <t>Study Identifier</t>
-        </is>
-      </c>
-      <c r="C2" s="6" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>Req</t>
-        </is>
-      </c>
+          <t>Screening</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr"/>
       <c r="F2" s="6" t="inlineStr">
         <is>
-          <t>Sponsor Study Identifier</t>
+          <t>LY-G</t>
         </is>
       </c>
       <c r="G2" s="24" t="inlineStr">
         <is>
-          <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0]; studyIdentifiers[scopeId=$sponsorIdVal].text;)</t>
-        </is>
-      </c>
-      <c r="H2" s="6" t="n"/>
+          <t>LY900018-IMG</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3" ht="29" customHeight="1">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>DOMAIN</t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B3" s="6" t="inlineStr">
         <is>
-          <t>Domain Abbreviation</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>Period 1, Day -1</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="6" t="n"/>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>LY-G</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>LY900018-IMG</t>
+        </is>
+      </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
         <is>
-          <t>VISITNUM</t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B4" s="6" t="inlineStr">
         <is>
-          <t>Visit Number</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>Num</t>
-        </is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>Topic</t>
+          <t>Period 1, Day 1</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
-          <t>Req</t>
+          <t> </t>
         </is>
       </c>
       <c r="F4" s="6" t="inlineStr">
         <is>
-          <t>Visit Number</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="n"/>
-      <c r="H4" s="6" t="n"/>
+          <t>LY-G</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>LY900018-IMG</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="29" customHeight="1">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>VISIT</t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>Visit Name</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>Synonym Qualifier</t>
+          <t>Wash Out</t>
         </is>
       </c>
       <c r="E5" s="6" t="inlineStr">
         <is>
-          <t>Req</t>
+          <t> </t>
         </is>
       </c>
       <c r="F5" s="6" t="inlineStr">
         <is>
-          <t>Visit Name</t>
+          <t>LY-G</t>
         </is>
       </c>
       <c r="G5" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.encounters.label</t>
-        </is>
-      </c>
-      <c r="H5" s="6" t="n"/>
+          <t>LY900018-IMG</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="29" customHeight="1">
       <c r="A6" s="6" t="inlineStr">
         <is>
-          <t>VISITDY</t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B6" s="6" t="inlineStr">
         <is>
-          <t>Planned Study Day of Visit</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>Num</t>
-        </is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>Timing</t>
+          <t>Period 2, Day -1</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">
         <is>
-          <t>Perm</t>
+          <t> </t>
         </is>
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
-          <t>Planned Study Day of Visit</t>
+          <t>LY-G</t>
         </is>
       </c>
       <c r="G6" s="13" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.encounters .scheduledAt.label</t>
-        </is>
-      </c>
-      <c r="H6" s="6" t="n"/>
+          <t>LY900018-IMG</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="29" customHeight="1">
       <c r="A7" s="6" t="inlineStr">
         <is>
-          <t>ARMCD</t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
-          <t>Planned Arm Code</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>6</v>
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>Record Qualifier</t>
+          <t>Period 2, Day 1</t>
         </is>
       </c>
       <c r="E7" s="6" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t> </t>
         </is>
       </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
-          <t>Arm Name</t>
+          <t>LY-G</t>
         </is>
       </c>
       <c r="G7" s="13" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.arms.{id: label}</t>
-        </is>
-      </c>
-      <c r="H7" s="6" t="n"/>
+          <t>LY900018-IMG</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="29" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>Description of Planned Arm</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>7</v>
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>Synonym Qualifier</t>
+          <t>Follow-up</t>
         </is>
       </c>
       <c r="E8" s="6" t="inlineStr">
         <is>
-          <t>Perm</t>
+          <t> </t>
         </is>
       </c>
       <c r="F8" s="6" t="inlineStr">
         <is>
-          <t>Arm Description</t>
+          <t>LY-G</t>
         </is>
       </c>
       <c r="G8" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.arms.{id: description}</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="n"/>
+          <t>LY900018-IMG</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>TVENRL</t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B9" s="6" t="inlineStr">
         <is>
-          <t>Visit End Rule</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>Rule</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>Perm</t>
-        </is>
-      </c>
+          <t>Screening</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="inlineStr">
         <is>
-          <t>Visit End Rule</t>
+          <t>G-LY</t>
         </is>
       </c>
       <c r="G9" s="6" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.encounters .transitionEndRule .text</t>
-        </is>
-      </c>
-      <c r="H9" s="6" t="n"/>
+          <t>IMG-LY900018</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10" ht="29" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>TVSTRL</t>
+          <t>I8R-JE-IGBJ</t>
         </is>
       </c>
       <c r="B10" s="6" t="inlineStr">
         <is>
-          <t>Visit Start Rule</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="D10" s="6" t="inlineStr">
         <is>
-          <t>Rule</t>
+          <t>Period 1, Day -1</t>
         </is>
       </c>
       <c r="E10" s="6" t="inlineStr">
         <is>
-          <t>Req</t>
+          <t> </t>
         </is>
       </c>
       <c r="F10" s="6" t="inlineStr">
         <is>
-          <t>Visit Start Rule</t>
+          <t>G-LY</t>
         </is>
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.encounters.transitionStartRule.text</t>
-        </is>
-      </c>
-      <c r="H10" s="6" t="n"/>
+          <t>IMG-LY900018</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Period 1, Day 1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>G-LY</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>IMG-LY900018</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Wash Out</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>G-LY</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>IMG-LY900018</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Period 2, Day -1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>G-LY</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>IMG-LY900018</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Period 2, Day 1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>G-LY</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>IMG-LY900018</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>I8R-JE-IGBJ</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Follow-up</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>G-LY</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>IMG-LY900018</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G4" display="StudyVersion/@studyDesigns/StudyDesign/@encounters/Encounter/@previous | @next" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3859,7 +4139,7 @@
       </c>
       <c r="G6" s="22" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.0,</t>
         </is>
       </c>
       <c r="H6" s="23" t="inlineStr">
@@ -4724,11 +5004,7 @@
           <t>Exploratory Outcome Measure</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
           <t> </t>
@@ -4760,11 +5036,7 @@
           <t>Secondary Outcome Measure</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>,  ,</t>
-        </is>
-      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
           <t> </t>
@@ -5924,7 +6196,7 @@
       </c>
       <c r="G10" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '1 Day' , 'StudyIntervention_2': '1 Day'}</t>
+          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -6428,7 +6700,7 @@
       </c>
       <c r="G20" s="29" t="inlineStr">
         <is>
-          <t>{'Indication_1': 'T1DM' , 'Indication_2': 'T2DM'}</t>
+          <t>{'Indication_1': 'T1DM', 'Indication_2': 'T2DM'}</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -6826,7 +7098,7 @@
       </c>
       <c r="G28" s="29" t="inlineStr">
         <is>
-          <t>{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon' , 'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}</t>
+          <t>{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon', 'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -6940,7 +7212,7 @@
       </c>
       <c r="G30" s="29" t="inlineStr">
         <is>
-          <t>{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG' , 'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG' , 'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}</t>
+          <t>{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG', 'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG', 'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -7052,7 +7324,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="29" customHeight="1">
+    <row r="33" ht="43.5" customHeight="1">
       <c r="A33" s="15" t="inlineStr">
         <is>
           <t>Obs Study Population Description</t>
@@ -7140,7 +7412,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="29" customHeight="1">
+    <row r="35" ht="43.5" customHeight="1">
       <c r="A35" s="15" t="inlineStr">
         <is>
           <t>Exploratory Outcome Measure</t>
@@ -7173,7 +7445,7 @@
       </c>
       <c r="G35" s="29" t="inlineStr">
         <is>
-          <t>{ , }</t>
+          <t>{, }</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -7197,7 +7469,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="29" customHeight="1">
+    <row r="36" ht="43.5" customHeight="1">
       <c r="A36" s="15" t="inlineStr">
         <is>
           <t>Primary Outcome Measure</t>
@@ -7249,7 +7521,7 @@
         </is>
       </c>
     </row>
-    <row r="37" ht="29" customHeight="1">
+    <row r="37" ht="43.5" customHeight="1">
       <c r="A37" s="15" t="inlineStr">
         <is>
           <t>Secondary Outcome Measure</t>
@@ -7282,7 +7554,7 @@
       </c>
       <c r="G37" s="29" t="inlineStr">
         <is>
-          <t>{ ,  , }</t>
+          <t>{, , }</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -8149,7 +8421,7 @@
       </c>
       <c r="G55" s="29" t="inlineStr">
         <is>
-          <t>{'Code_129': 'Basic Research' , 'Code_130': 'Device Feasibility Study'}</t>
+          <t>{'Code_129': 'Basic Research', 'Code_130': 'Device Feasibility Study'}</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -8159,17 +8431,17 @@
       </c>
       <c r="I55" s="29" t="inlineStr">
         <is>
-          <t>{'Code_129': 'C15714' , 'Code_130': 'C139174'}</t>
+          <t>{'Code_129': 'C15714', 'Code_130': 'C139174'}</t>
         </is>
       </c>
       <c r="J55" s="29" t="inlineStr">
         <is>
-          <t>{'Code_129': 'http://www.cdisc.org' , 'Code_130': 'http://www.cdisc.org'}</t>
+          <t>{'Code_129': 'http://www.cdisc.org', 'Code_130': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K55" s="29" t="inlineStr">
         <is>
-          <t>{'Code_129': '2024-09-27' , 'Code_130': '2024-09-27'}</t>
+          <t>{'Code_129': '2024-09-27', 'Code_130': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -8299,7 +8571,7 @@
       </c>
       <c r="G58" s="13" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'LY900018' , 'StudyIntervention_2': 'GlucaGen'}</t>
+          <t>{'StudyIntervention_1': 'LY900018', 'StudyIntervention_2': 'GlucaGen'}</t>
         </is>
       </c>
       <c r="H58" s="32" t="inlineStr">

--- a/Output/SDTM_Results.xlsx
+++ b/Output/SDTM_Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="1" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-20190" yWindow="-19335" windowWidth="18285" windowHeight="18240" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" state="visible" r:id="rId1"/>
@@ -892,15 +892,15 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="87" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col width="17.81640625" customWidth="1" min="1" max="2"/>
     <col width="25.81640625" customWidth="1" min="6" max="6"/>
-    <col width="28" customWidth="1" style="29" min="7" max="7"/>
+    <col width="83.6328125" customWidth="1" style="29" min="7" max="7"/>
     <col width="18.6328125" bestFit="1" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
@@ -957,7 +957,7 @@
       </c>
       <c r="K1" s="21" t="n"/>
     </row>
-    <row r="2" ht="72.5" customHeight="1">
+    <row r="2" ht="29" customHeight="1">
       <c r="A2" s="7" t="inlineStr">
         <is>
           <t>I8R-JE-IGBJ</t>
@@ -970,15 +970,17 @@
       </c>
       <c r="C2" s="7" t="inlineStr">
         <is>
-          <t>LY-G</t>
+          <t>G-LY</t>
         </is>
       </c>
       <c r="D2" s="7" t="inlineStr">
         <is>
-          <t>LY900018-IMG</t>
-        </is>
-      </c>
-      <c r="E2" s="7" t="inlineStr"/>
+          <t>IMG-LY900018</t>
+        </is>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Screening Element</t>
@@ -1007,18 +1009,20 @@
       </c>
       <c r="C3" s="7" t="inlineStr">
         <is>
-          <t>LY-G</t>
+          <t>G-LY</t>
         </is>
       </c>
       <c r="D3" s="7" t="inlineStr">
         <is>
-          <t>LY900018-IMG</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr"/>
+          <t>IMG-LY900018</t>
+        </is>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="F3" s="7" t="inlineStr">
         <is>
-          <t>IM Glucagon + LY900018</t>
+          <t>IM Glucagon</t>
         </is>
       </c>
       <c r="G3" s="6" t="inlineStr"/>
@@ -1026,7 +1030,7 @@
       <c r="I3" s="16" t="inlineStr"/>
       <c r="J3" s="16" t="inlineStr">
         <is>
-          <t>Period 2</t>
+          <t>Period 1</t>
         </is>
       </c>
       <c r="K3" s="16" t="n"/>
@@ -1044,15 +1048,17 @@
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>LY-G</t>
+          <t>G-LY</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>LY900018-IMG</t>
-        </is>
-      </c>
-      <c r="E4" s="7" t="inlineStr"/>
+          <t>IMG-LY900018</t>
+        </is>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="F4" s="6" t="inlineStr">
         <is>
           <t>Wash Out Element</t>
@@ -1080,18 +1086,20 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>LY-G</t>
+          <t>G-LY</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>LY900018-IMG</t>
-        </is>
-      </c>
-      <c r="E5" s="7" t="inlineStr"/>
+          <t>IMG-LY900018</t>
+        </is>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>4</v>
+      </c>
       <c r="F5" s="6" t="inlineStr">
         <is>
-          <t>IM Glucagon</t>
+          <t>IM Glucagon + LY900018</t>
         </is>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
@@ -1099,7 +1107,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Period 1</t>
+          <t>Period 2</t>
         </is>
       </c>
     </row>
@@ -1116,21 +1124,23 @@
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>LY-G</t>
+          <t>G-LY</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>LY900018-IMG</t>
-        </is>
-      </c>
-      <c r="E6" s="7" t="inlineStr"/>
+          <t>IMG-LY900018</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
           <t>Follow Up Element</t>
         </is>
       </c>
-      <c r="G6" s="6" t="inlineStr"/>
+      <c r="G6" s="13" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
@@ -1152,15 +1162,17 @@
       </c>
       <c r="C7" s="7" t="inlineStr">
         <is>
-          <t>G-LY</t>
+          <t>LY-G</t>
         </is>
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>IMG-LY900018</t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="inlineStr"/>
+          <t>LY900018-IMG</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
           <t>Screening Element</t>
@@ -1175,7 +1187,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="101.5" customHeight="1">
+    <row r="8" ht="31" customHeight="1">
       <c r="A8" s="7" t="inlineStr">
         <is>
           <t>I8R-JE-IGBJ</t>
@@ -1188,18 +1200,20 @@
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>G-LY</t>
+          <t>LY-G</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>IMG-LY900018</t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr"/>
+          <t>LY900018-IMG</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="F8" s="6" t="inlineStr">
         <is>
-          <t>IM Glucagon</t>
+          <t>IM Glucagon + LY900018</t>
         </is>
       </c>
       <c r="G8" s="13" t="inlineStr"/>
@@ -1224,15 +1238,17 @@
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>G-LY</t>
+          <t>LY-G</t>
         </is>
       </c>
       <c r="D9" s="7" t="inlineStr">
         <is>
-          <t>IMG-LY900018</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
+          <t>LY900018-IMG</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
           <t>Wash Out Element</t>
@@ -1260,18 +1276,20 @@
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>G-LY</t>
+          <t>LY-G</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
         <is>
-          <t>IMG-LY900018</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
+          <t>LY900018-IMG</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>4</v>
+      </c>
       <c r="F10" s="6" t="inlineStr">
         <is>
-          <t>IM Glucagon + LY900018</t>
+          <t>IM Glucagon</t>
         </is>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
@@ -1296,15 +1314,17 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>G-LY</t>
+          <t>LY-G</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr">
         <is>
-          <t>IMG-LY900018</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr"/>
+          <t>LY900018-IMG</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="F11" s="6" t="inlineStr">
         <is>
           <t>Follow Up Element</t>
@@ -1606,8 +1626,8 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -2286,7 +2306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H1"/>
@@ -2342,9 +2362,71 @@
           <t>TIVERS</t>
         </is>
       </c>
-      <c r="I1" s="21" t="n"/>
-      <c r="J1" s="21" t="n"/>
-      <c r="K1" s="21" t="n"/>
+      <c r="I1" s="21" t="inlineStr">
+        <is>
+          <t>IETEST 2</t>
+        </is>
+      </c>
+      <c r="J1" s="21" t="inlineStr">
+        <is>
+          <t>IETEST 3</t>
+        </is>
+      </c>
+      <c r="K1" s="21" t="inlineStr">
+        <is>
+          <t>IETEST 4</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>IETEST 5</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>IETEST 6</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>IETEST 7</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>IETEST 8</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>IETEST 9</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>IETEST 10</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>IETEST 11</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>IETEST 12</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>IETEST 13</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>IETEST 14</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="72.5" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
@@ -2364,7 +2446,7 @@
       </c>
       <c r="D2" s="9" t="inlineStr">
         <is>
-          <t>&lt;p&gt;have had a diagnosis of either:&lt;/p&gt;\n&lt;ul&gt;\n  &lt;li&gt;\n    &lt;p&gt;[1a] T1DM based on the World Health Organization (WHO) diagnostic criteria, and have been on the following daily insulin therapy for at least 1 year&lt;/p&gt;\n    &lt;ul&gt;\n      &lt;p&gt;[A] multiple daily injection of long-acting insulin analog (either insulin glargine [U-100 or U-300] or insulin degludec [U-100]) and rapid-acting insulin analog (insulin lispro, insulin aspart, or insulin glulisine), or&lt;/p&gt;\n      &lt;p&gt;[B] continuous subcutaneous insulin infusion (CSII)&lt;/p&gt;    \n    &lt;/ul&gt;\n  &lt;/li&gt;\n  &lt;p&gt;Or&lt;/p&gt;\n  &lt;li&gt;\n    &lt;p&gt;[1b] T2DM based on the WHO diagnostic criteria, and have received the&lt;/p&gt;\n    &lt;p&gt;following daily insulin therapy with or without oral anti-hyperglycemic medications (OAMs) for at least 1 year&lt;/p&gt;\n    &lt;ul&gt;\n      &lt;p&gt;[A] insulin: long-acting insulin analog (either insulin glargine [U-100 or U-300] or insulin degludec [U-100]) alone, or in combination with rapid-acting insulin analog (insulin lispro, insulin aspart, or insulin glulisine) or CSII&lt;/p&gt;\n      &lt;p&gt;[B] OAM: up to 3 of the following OAMs in accordance with local regulations: metformin, dipeptidyl peptidase-4 inhibitor, sodium glucose cotransporter 2 inhibitor, sulfonylurea (should not be more than half of maximum approved doses), glinides, alpha-glucosidase inhibitor, or thiazolidine&lt;/p&gt;\n    &lt;/ul&gt;\n  &lt;/li&gt;\n&lt;/ul&gt;</t>
+          <t>&lt;p&gt;have had a diagnosis of either:&lt;/p&gt;\n&lt;ul&gt;\n  &lt;li&gt;\n    &lt;p&gt;[1a] T1DM based on the World Health Organization (WHO) diagnostic criteria, and have been on the following daily insulin therapy for at</t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
@@ -2385,6 +2467,36 @@
       <c r="H2" s="23" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>least 1 year&lt;/p&gt;\n    &lt;ul&gt;\n      &lt;p&gt;[A] multiple daily injection of long-acting insulin analog (either insulin glargine [U-100 or U-300] or insulin degludec [U-100]) and rapid-acting insulin analog</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>(insulin lispro, insulin aspart, or insulin glulisine), or&lt;/p&gt;\n      &lt;p&gt;[B] continuous subcutaneous insulin infusion (CSII)&lt;/p&gt;    \n    &lt;/ul&gt;\n  &lt;/li&gt;\n  &lt;p&gt;Or&lt;/p&gt;\n  &lt;li&gt;\n    &lt;p&gt;[1b] T2DM based on</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">the WHO diagnostic criteria, and have received the&lt;/p&gt;\n    &lt;p&gt;following daily insulin therapy with or without oral anti-hyperglycemic medications (OAMs) for at least 1 year&lt;/p&gt;\n    &lt;ul&gt;\n     </t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;[A] insulin: long-acting insulin analog (either insulin glargine [U-100 or U-300] or insulin degludec [U-100]) alone, or in combination with rapid-acting insulin analog (insulin lispro, insulin</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>aspart, or insulin glulisine) or CSII&lt;/p&gt;\n      &lt;p&gt;[B] OAM: up to 3 of the following OAMs in accordance with local regulations: metformin, dipeptidyl peptidase-4 inhibitor, sodium glucose</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>cotransporter 2 inhibitor, sulfonylurea (should not be more than half of maximum approved doses), glinides, alpha-glucosidase inhibitor, or thiazolidine&lt;/p&gt;\n    &lt;/ul&gt;\n  &lt;/li&gt;\n&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
@@ -2448,7 +2560,7 @@
       </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
-          <t>&lt;ul&gt;\n  &lt;li&gt;\n    [3a] women of childbearing potential who are abstinent (if this is complete\n    abstinence, as their preferred and usual lifestyle) or in a same sex\n    relationship (as part of their preferred and usual lifestyle) must agree to\n    either remain abstinent or stay in a same sex relationship without sexual\n    relationships with males. Periodic abstinence (eg, calendar, ovulation,\n    symptothermal, post-ovulation methods), declaration of abstinence just for\n    the duration of a trial, and withdrawal are not acceptable methods of\n    contraception.\n  &lt;/li&gt;\n  &lt;li&gt;\n    [3b] otherwise, women of childbearing potential participating must agree to use\n    one highly effective method (less than 1% failure rate) of contraception, or a\n    combination of 2 effective methods of contraception for the entirety of the\n    study.\n    &lt;ul&gt;\n      &lt;li&gt;[A] women of childbearing potential participating must test negative for\n        pregnancy prior to initiation of treatment as indicated by a negative serum\n        pregnancy test at the screening visit followed by a negative urine\n        pregnancy test within 24 hours prior to exposure.&lt;/li&gt;\n      &lt;li&gt;[B] either one highly effective method of contraception or a combination\n        of 2 effective methods of contraception will be used. The patient may\n        choose to use a double barrier method of contraception. Barrier protection\n        methods without concomitant use of a spermicide are not a reliable or\n        acceptable method. Thus, each barrier method must include use of a\n        spermicide. It should be noted that the use of male and female condoms\n        as a double barrier method is not considered acceptable due to the high\n        failure rate when these methods are combined.&lt;/li&gt;\n    &lt;/ul&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    [3c] women not of childbearing potential may participate, and include those who are:\n    &lt;ul&gt;\n      &lt;li&gt;\n        [A] infertile due to surgical sterilization (hysterectomy, bilateral\n        oophorectomy, or tubal ligation), congenital anomaly such as mullerian\n        agenesis\n      &lt;/li&gt;\n      &lt;li&gt;\n        Or\n        [B] postmenopausal, defined as either:\n        &lt;ul&gt;\n          &lt;li&gt;[i] a woman at least 50 years of age with an intact uterus, not on hormone therapy, who has had either:\n          &lt;/li&gt;\n          &lt;ul&gt;\n            &lt;li&gt;[a] cessation of menses for at least 1 year, or&lt;/li&gt;\n            &lt;li&gt;[b] at least 6 months of spontaneous amenorrhea with a follicle-stimulating hormone &gt;40 mIU/mL; or&lt;/li&gt;\n          &lt;/ul&gt;\n          &lt;li&gt;[ii] a woman 55 or older not on hormone therapy, who has had at least 6 months of spontaneous amenorrhea,\n            or&lt;/li&gt;\n          &lt;li&gt;[iii] a woman at least 55 years of age with a diagnosis of menopause prior to starting hormone replacement\n            therapy&lt;/li&gt;\n        &lt;/ul&gt;\n      &lt;/li&gt;\n    &lt;/ul&gt;\n  &lt;/li&gt;\n&lt;/ul&gt;</t>
+          <t>&lt;ul&gt;\n  &lt;li&gt;\n    [3a] women of childbearing potential who are abstinent (if this is complete\n    abstinence, as their preferred and usual lifestyle) or in a same sex\n    relationship (as part of</t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
@@ -2469,6 +2581,76 @@
       <c r="H4" s="23" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>their preferred and usual lifestyle) must agree to\n    either remain abstinent or stay in a same sex relationship without sexual\n    relationships with males. Periodic abstinence (eg, calendar,</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ovulation,\n    symptothermal, post-ovulation methods), declaration of abstinence just for\n    the duration of a trial, and withdrawal are not acceptable methods of\n    contraception.\n  &lt;/li&gt;\n </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>&lt;li&gt;\n    [3b] otherwise, women of childbearing potential participating must agree to use\n    one highly effective method (less than 1% failure rate) of contraception, or a\n    combination of 2</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>effective methods of contraception for the entirety of the\n    study.\n    &lt;ul&gt;\n      &lt;li&gt;[A] women of childbearing potential participating must test negative for\n        pregnancy prior to</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">initiation of treatment as indicated by a negative serum\n        pregnancy test at the screening visit followed by a negative urine\n        pregnancy test within 24 hours prior to exposure.&lt;/li&gt;\n  </t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   &lt;li&gt;[B] either one highly effective method of contraception or a combination\n        of 2 effective methods of contraception will be used. The patient may\n        choose to use a double barrier</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>method of contraception. Barrier protection\n        methods without concomitant use of a spermicide are not a reliable or\n        acceptable method. Thus, each barrier method must include use of a\n</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       spermicide. It should be noted that the use of male and female condoms\n        as a double barrier method is not considered acceptable due to the high\n        failure rate when these methods</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>are combined.&lt;/li&gt;\n    &lt;/ul&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    [3c] women not of childbearing potential may participate, and include those who are:\n    &lt;ul&gt;\n      &lt;li&gt;\n        [A] infertile due to surgical</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>sterilization (hysterectomy, bilateral\n        oophorectomy, or tubal ligation), congenital anomaly such as mullerian\n        agenesis\n      &lt;/li&gt;\n      &lt;li&gt;\n        Or\n        [B]</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">postmenopausal, defined as either:\n        &lt;ul&gt;\n          &lt;li&gt;[i] a woman at least 50 years of age with an intact uterus, not on hormone therapy, who has had either:\n          &lt;/li&gt;\n         </t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;ul&gt;\n            &lt;li&gt;[a] cessation of menses for at least 1 year, or&lt;/li&gt;\n            &lt;li&gt;[b] at least 6 months of spontaneous amenorrhea with a follicle-stimulating hormone &gt;40 mIU/mL; or&lt;/li&gt;\n   </t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      &lt;/ul&gt;\n          &lt;li&gt;[ii] a woman 55 or older not on hormone therapy, who has had at least 6 months of spontaneous amenorrhea,\n            or&lt;/li&gt;\n          &lt;li&gt;[iii] a woman at least 55 years</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>of age with a diagnosis of menopause prior to starting hormone replacement\n            therapy&lt;/li&gt;\n        &lt;/ul&gt;\n      &lt;/li&gt;\n    &lt;/ul&gt;\n  &lt;/li&gt;\n&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2798,7 @@
       </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t>&lt;p&gt;have clinical laboratory test results within normal reference range (except for glycemic parameters) for the population or investigative site, or results with acceptable deviations that are judged to be not clinically significant by the investigator&lt;/p&gt;</t>
+          <t>&lt;p&gt;have clinical laboratory test results within normal reference range (except for glycemic parameters) for the population or investigative site, or results with acceptable deviations that are judged</t>
         </is>
       </c>
       <c r="E8" s="9" t="inlineStr">
@@ -2637,6 +2819,11 @@
       <c r="H8" s="23" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>to be not clinically significant by the investigator&lt;/p&gt;</t>
         </is>
       </c>
     </row>
@@ -2910,7 +3097,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>&lt;p&gt;have participated, within the last 4 months, in a clinical trial involving an investigational product. If the previous investigational product has a long half-life, 4 months or 5 half-lives (whichever is longer) should have passed from the last dose of investigational product&lt;/p&gt;</t>
+          <t>&lt;p&gt;have participated, within the last 4 months, in a clinical trial involving an investigational product. If the previous investigational product has a long half-life, 4 months or 5 half-lives</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2931,6 +3118,11 @@
       <c r="H15" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>(whichever is longer) should have passed from the last dose of investigational product&lt;/p&gt;</t>
         </is>
       </c>
     </row>
@@ -3162,7 +3354,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>&lt;p&gt;have poorly controlled hypertension (ie, supine systolic BP &amp;gt;165 mm Hg or supine diastolic BP &amp;gt;95 mm Hg) at screening, or a change in antihypertensive medications within 30 days prior to screening&lt;/p&gt;</t>
+          <t>&lt;p&gt;have poorly controlled hypertension (ie, supine systolic BP &amp;gt;165 mm Hg or supine diastolic BP &amp;gt;95 mm Hg) at screening, or a change in antihypertensive medications within 30 days prior to</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -3183,6 +3375,11 @@
       <c r="H21" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>screening&lt;/p&gt;</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3443,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>&lt;p&gt;have a history of an episode of severe hypoglycemia (as defined by an episode that required third party assistance for treatment) in the 1 month prior to screening or have a history of loss of consciousness within the last 2 years induced other than by hypoglycemia&lt;/p&gt;</t>
+          <t>&lt;p&gt;have a history of an episode of severe hypoglycemia (as defined by an episode that required third party assistance for treatment) in the 1 month prior to screening or have a history of loss of</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3267,6 +3464,11 @@
       <c r="H23" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>consciousness within the last 2 years induced other than by hypoglycemia&lt;/p&gt;</t>
         </is>
       </c>
     </row>
@@ -3330,7 +3532,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>&lt;p&gt;have a history or presence of cardiovascular, respiratory, hepatic, renal, gastrointestinal, endocrine (apart from T1DM or T2DM), hematological, or neurological disorders capable of significantly altering the absorption, metabolism, or elimination of drugs; of constituting a risk when taking the investigational product; or of interfering with the interpretation of data&lt;/p&gt;</t>
+          <t>&lt;p&gt;have a history or presence of cardiovascular, respiratory, hepatic, renal, gastrointestinal, endocrine (apart from T1DM or T2DM), hematological, or neurological disorders capable of significantly</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3351,6 +3553,11 @@
       <c r="H25" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>altering the absorption, metabolism, or elimination of drugs; of constituting a risk when taking the investigational product; or of interfering with the interpretation of data&lt;/p&gt;</t>
         </is>
       </c>
     </row>
@@ -3708,7 +3915,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>&lt;p&gt;have donated 400 mL or more blood in the last 12 weeks (males) or in the last 16 weeks (females), or any blood donation (including apheresis) within the last 4 weeks, or total volume of blood donation within 12 months is 1200 mL (males)/800 mL (females) or more at screening&lt;/p&gt;</t>
+          <t>&lt;p&gt;have donated 400 mL or more blood in the last 12 weeks (males) or in the last 16 weeks (females), or any blood donation (including apheresis) within the last 4 weeks, or total volume of blood</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3729,6 +3936,11 @@
       <c r="H34" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>donation within 12 months is 1200 mL (males)/800 mL (females) or more at screening&lt;/p&gt;</t>
         </is>
       </c>
     </row>
@@ -3750,7 +3962,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>&lt;p&gt;have an average weekly alcohol intake that exceeds 21 units per week (males up to age 65) and 14 units per week (males over 65 and females), or are unwilling to stop alcohol consumption from Day -2 to discharge from CRU in each period (1 unit = 12 oz or 360 mL of beer; 5 oz or 150 mL of wine; 1.5 oz or 45 mL of distilled spirits)&lt;/p&gt;</t>
+          <t>&lt;p&gt;have an average weekly alcohol intake that exceeds 21 units per week (males up to age 65) and 14 units per week (males over 65 and females), or are unwilling to stop alcohol consumption from Day -2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3771,6 +3983,11 @@
       <c r="H35" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>to discharge from CRU in each period (1 unit = 12 oz or 360 mL of beer; 5 oz or 150 mL of wine; 1.5 oz or 45 mL of distilled spirits)&lt;/p&gt;</t>
         </is>
       </c>
     </row>
@@ -3834,7 +4051,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>&lt;p&gt;have pre-proliferative and proliferative retinopathy or maculopathy requiring treatment or not clinically stable in the last 6 months, or patients with active changes in subjective eye symptoms as determined by the investigator if an eye exam has not been performed in the last 6 months. Note: If an eye examination has been performed no more than 6 months before screening, it will not have to be repeated; however, the investigator will need to confirm via interview that there is no change in subjective symptoms.&lt;/p&gt;</t>
+          <t>&lt;p&gt;have pre-proliferative and proliferative retinopathy or maculopathy requiring treatment or not clinically stable in the last 6 months, or patients with active changes in subjective eye symptoms as</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3855,6 +4072,16 @@
       <c r="H37" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>determined by the investigator if an eye exam has not been performed in the last 6 months. Note: If an eye examination has been performed no more than 6 months before screening, it will not have to be</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>repeated; however, the investigator will need to confirm via interview that there is no change in subjective symptoms.&lt;/p&gt;</t>
         </is>
       </c>
     </row>

--- a/Output/SDTM_Results.xlsx
+++ b/Output/SDTM_Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-20190" yWindow="-19335" windowWidth="18285" windowHeight="18240" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" state="visible" r:id="rId1"/>
@@ -890,10 +890,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -960,7 +960,7 @@
     <row r="2" ht="29" customHeight="1">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B2" s="7" t="inlineStr">
@@ -970,12 +970,12 @@
       </c>
       <c r="C2" s="7" t="inlineStr">
         <is>
-          <t>G-LY</t>
+          <t>Xanomeline High Dose</t>
         </is>
       </c>
       <c r="D2" s="7" t="inlineStr">
         <is>
-          <t>IMG-LY900018</t>
+          <t>Active Substance</t>
         </is>
       </c>
       <c r="E2" s="7" t="n">
@@ -986,7 +986,11 @@
           <t>Screening Element</t>
         </is>
       </c>
-      <c r="G2" s="6" t="inlineStr"/>
+      <c r="G2" s="24" t="inlineStr">
+        <is>
+          <t>Screening</t>
+        </is>
+      </c>
       <c r="H2" s="23" t="inlineStr"/>
       <c r="I2" s="16" t="inlineStr"/>
       <c r="J2" s="16" t="inlineStr">
@@ -999,7 +1003,7 @@
     <row r="3" ht="31" customHeight="1">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B3" s="7" t="inlineStr">
@@ -1009,12 +1013,12 @@
       </c>
       <c r="C3" s="7" t="inlineStr">
         <is>
-          <t>G-LY</t>
+          <t>Xanomeline High Dose</t>
         </is>
       </c>
       <c r="D3" s="7" t="inlineStr">
         <is>
-          <t>IMG-LY900018</t>
+          <t>Active Substance</t>
         </is>
       </c>
       <c r="E3" s="7" t="n">
@@ -1022,15 +1026,19 @@
       </c>
       <c r="F3" s="7" t="inlineStr">
         <is>
-          <t>IM Glucagon</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="inlineStr"/>
+          <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>High - Start</t>
+        </is>
+      </c>
       <c r="H3" s="9" t="inlineStr"/>
       <c r="I3" s="16" t="inlineStr"/>
       <c r="J3" s="16" t="inlineStr">
         <is>
-          <t>Period 1</t>
+          <t>Treatment One</t>
         </is>
       </c>
       <c r="K3" s="16" t="n"/>
@@ -1038,7 +1046,7 @@
     <row r="4" ht="31" customHeight="1">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B4" s="7" t="inlineStr">
@@ -1048,12 +1056,12 @@
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>G-LY</t>
+          <t>Xanomeline High Dose</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>IMG-LY900018</t>
+          <t>Active Substance</t>
         </is>
       </c>
       <c r="E4" s="7" t="n">
@@ -1061,22 +1069,26 @@
       </c>
       <c r="F4" s="6" t="inlineStr">
         <is>
-          <t>Wash Out Element</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="inlineStr"/>
+          <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg + 25 cm2, 27 mg</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>High - Middle</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Washout</t>
+          <t>Treatment Two</t>
         </is>
       </c>
     </row>
     <row r="5" ht="31" customHeight="1">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B5" s="7" t="inlineStr">
@@ -1086,12 +1098,12 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>G-LY</t>
+          <t>Xanomeline High Dose</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>IMG-LY900018</t>
+          <t>Active Substance</t>
         </is>
       </c>
       <c r="E5" s="7" t="n">
@@ -1099,22 +1111,26 @@
       </c>
       <c r="F5" s="6" t="inlineStr">
         <is>
-          <t>IM Glucagon + LY900018</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="inlineStr"/>
+          <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="inlineStr">
+        <is>
+          <t>High - End</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Period 2</t>
+          <t>Treatment Three</t>
         </is>
       </c>
     </row>
     <row r="6" ht="46.5" customHeight="1">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B6" s="7" t="inlineStr">
@@ -1124,12 +1140,12 @@
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>G-LY</t>
+          <t>Xanomeline High Dose</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>IMG-LY900018</t>
+          <t>Active Substance</t>
         </is>
       </c>
       <c r="E6" s="7" t="n">
@@ -1140,19 +1156,23 @@
           <t>Follow Up Element</t>
         </is>
       </c>
-      <c r="G6" s="13" t="inlineStr"/>
+      <c r="G6" s="13" t="inlineStr">
+        <is>
+          <t>Follow up</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Follow-up Epoch</t>
+          <t>Follow Up</t>
         </is>
       </c>
     </row>
     <row r="7" ht="118" customHeight="1">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B7" s="7" t="inlineStr">
@@ -1162,12 +1182,12 @@
       </c>
       <c r="C7" s="7" t="inlineStr">
         <is>
-          <t>LY-G</t>
+          <t>Xanomeline Low Dose</t>
         </is>
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>LY900018-IMG</t>
+          <t>Active Substance</t>
         </is>
       </c>
       <c r="E7" s="7" t="n">
@@ -1178,7 +1198,11 @@
           <t>Screening Element</t>
         </is>
       </c>
-      <c r="G7" s="6" t="inlineStr"/>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>Screening</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
@@ -1190,7 +1214,7 @@
     <row r="8" ht="31" customHeight="1">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1200,12 +1224,12 @@
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>LY-G</t>
+          <t>Xanomeline Low Dose</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>LY900018-IMG</t>
+          <t>Active Substance</t>
         </is>
       </c>
       <c r="E8" s="7" t="n">
@@ -1213,22 +1237,26 @@
       </c>
       <c r="F8" s="6" t="inlineStr">
         <is>
-          <t>IM Glucagon + LY900018</t>
-        </is>
-      </c>
-      <c r="G8" s="13" t="inlineStr"/>
+          <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg</t>
+        </is>
+      </c>
+      <c r="G8" s="13" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Period 1</t>
+          <t>Treatment One</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15.5" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1238,12 +1266,12 @@
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>LY-G</t>
+          <t>Xanomeline Low Dose</t>
         </is>
       </c>
       <c r="D9" s="7" t="inlineStr">
         <is>
-          <t>LY900018-IMG</t>
+          <t>Active Substance</t>
         </is>
       </c>
       <c r="E9" s="7" t="n">
@@ -1251,22 +1279,26 @@
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
-          <t>Wash Out Element</t>
-        </is>
-      </c>
-      <c r="G9" s="6" t="inlineStr"/>
+          <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Washout</t>
+          <t>Treatment Two</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15.5" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1276,12 +1308,12 @@
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>LY-G</t>
+          <t>Xanomeline Low Dose</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
         <is>
-          <t>LY900018-IMG</t>
+          <t>Active Substance</t>
         </is>
       </c>
       <c r="E10" s="7" t="n">
@@ -1289,22 +1321,26 @@
       </c>
       <c r="F10" s="6" t="inlineStr">
         <is>
-          <t>IM Glucagon</t>
-        </is>
-      </c>
-      <c r="G10" s="6" t="inlineStr"/>
+          <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Period 2</t>
+          <t>Treatment Three</t>
         </is>
       </c>
     </row>
     <row r="11" ht="137.5" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -1314,12 +1350,12 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>LY-G</t>
+          <t>Xanomeline Low Dose</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr">
         <is>
-          <t>LY900018-IMG</t>
+          <t>Active Substance</t>
         </is>
       </c>
       <c r="E11" s="7" t="n">
@@ -1330,12 +1366,226 @@
           <t>Follow Up Element</t>
         </is>
       </c>
-      <c r="G11" s="6" t="inlineStr"/>
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>Follow up</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Follow-up Epoch</t>
+          <t>Follow Up</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Screening Element</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Screening</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Screening</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Placebo TTS (adhesive patches)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Treatment One</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Placebo TTS (adhesive patches)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Treatment Two</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Placebo TTS (adhesive patches)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Treatment Three</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Follow Up Element</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Follow up</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Follow Up</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1603,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -1410,7 +1660,7 @@
     <row r="2" ht="58" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
@@ -1418,7 +1668,11 @@
           <t>TE</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr"/>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>Screening</t>
+        </is>
+      </c>
       <c r="D2" s="9" t="inlineStr">
         <is>
           <t>Screening Element</t>
@@ -1426,12 +1680,12 @@
       </c>
       <c r="E2" s="9" t="inlineStr">
         <is>
-          <t>Study Start</t>
+          <t>Informed consent</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>Day -1 of treatment period 1</t>
+          <t>Completion of all screening activities and no more than 2 weeks from informed consent</t>
         </is>
       </c>
       <c r="G2" s="24" t="inlineStr">
@@ -1447,7 +1701,7 @@
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
@@ -1455,22 +1709,22 @@
           <t>TE</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr"/>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t>IM Glucagon + LY900018</t>
+          <t>Placebo TTS (adhesive patches)</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
         <is>
-          <t>Day -1 of treatment period</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>End of Day 1 of treatment period</t>
-        </is>
-      </c>
+          <t>Administration\xa0of\xa0first\xa0dose</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="n"/>
       <c r="G3" s="26" t="inlineStr">
         <is>
           <t> </t>
@@ -1484,7 +1738,7 @@
     <row r="4" ht="29" customHeight="1">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
@@ -1492,20 +1746,24 @@
           <t>TE</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr"/>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>Follow up</t>
+        </is>
+      </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
-          <t>Wash Out Element</t>
+          <t>Follow Up Element</t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
         <is>
-          <t>End of Day 1 of Treatment period 1</t>
+          <t>End\xa0of\xa0last\xa0scheduled\xa0visit\xa0on\xa0study\xa0(including\xa0early\xa0termination)</t>
         </is>
       </c>
       <c r="F4" s="12" t="inlineStr">
         <is>
-          <t>Day -1 of treatment period 2</t>
+          <t>Completion\xa0of\xa0all\xa0specified\xa0followup\xa0activities\xa0(which\xa0vary\xa0on\xa0a\xa0patient-by-patient\xa0basis)</t>
         </is>
       </c>
       <c r="G4" s="13" t="inlineStr">
@@ -1520,7 +1778,7 @@
     <row r="5" ht="29" customHeight="1">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B5" s="9" t="inlineStr">
@@ -1528,20 +1786,24 @@
           <t>TE</t>
         </is>
       </c>
-      <c r="C5" s="9" t="inlineStr"/>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="D5" s="9" t="inlineStr">
         <is>
-          <t>IM Glucagon</t>
+          <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg</t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
         <is>
-          <t>Day -1 of treatment period</t>
+          <t>Administration\xa0of\xa0first\xa0dose</t>
         </is>
       </c>
       <c r="F5" s="12" t="inlineStr">
         <is>
-          <t>End of Day 1 of treatment period</t>
+          <t>Element Description</t>
         </is>
       </c>
       <c r="G5" s="13" t="inlineStr">
@@ -1556,7 +1818,7 @@
     <row r="6" ht="29" customHeight="1">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
@@ -1564,20 +1826,24 @@
           <t>TE</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr"/>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>High - Start</t>
+        </is>
+      </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t>Follow Up Element</t>
+          <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg</t>
         </is>
       </c>
       <c r="E6" s="9" t="inlineStr">
         <is>
-          <t>End of Day 1 of Treatment period 2</t>
+          <t>Randomized</t>
         </is>
       </c>
       <c r="F6" s="12" t="inlineStr">
         <is>
-          <t>Leave Study</t>
+          <t>Element Start Rule</t>
         </is>
       </c>
       <c r="G6" s="13" t="inlineStr">
@@ -1590,28 +1856,81 @@
       <c r="J6" t="inlineStr"/>
     </row>
     <row r="7" ht="29" customHeight="1">
-      <c r="A7" s="9" t="inlineStr"/>
-      <c r="B7" s="9" t="inlineStr"/>
-      <c r="C7" s="9" t="inlineStr"/>
-      <c r="D7" s="9" t="inlineStr"/>
-      <c r="E7" s="9" t="inlineStr"/>
-      <c r="F7" s="12" t="inlineStr"/>
-      <c r="G7" s="13" t="inlineStr"/>
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B7" s="9" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>High - Middle</t>
+        </is>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg + 25 cm2, 27 mg</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>Administration\xa0of\xa0first\xa0dose\xa0(from\xa0patches\xa0supplied\xa0at\xa0Visit\xa04)</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="inlineStr">
+        <is>
+          <t>Element End Rule</t>
+        </is>
+      </c>
+      <c r="G7" s="13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
     </row>
     <row r="8" ht="29" customHeight="1">
-      <c r="A8" s="9" t="inlineStr"/>
-      <c r="B8" s="9" t="inlineStr"/>
-      <c r="C8" s="9" t="inlineStr"/>
-      <c r="D8" s="9" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr"/>
-      <c r="F8" s="12" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="A8" s="9" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>High - End</t>
+        </is>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>Administration\xa0of\xa0first\xa0dose\xa0(from\xa0patches\xa0supplied\xa0at\xa0Visit\xa012)</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="inlineStr">
+        <is>
+          <t>Element Duration</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1624,10 +1943,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -1689,7 +2008,7 @@
     <row r="2" ht="43.5" customHeight="1">
       <c r="A2" s="6" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B2" s="6" t="inlineStr">
@@ -1702,27 +2021,35 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>Screening</t>
+          <t>Screening 1</t>
         </is>
       </c>
       <c r="E2" s="6" t="inlineStr"/>
       <c r="F2" s="6" t="inlineStr">
         <is>
-          <t>LY-G</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="G2" s="24" t="inlineStr">
         <is>
-          <t>LY900018-IMG</t>
-        </is>
-      </c>
-      <c r="H2" s="6" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="inlineStr">
+        <is>
+          <t>completion of screening activities</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Subject identifier</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="29" customHeight="1">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B3" s="6" t="inlineStr">
@@ -1735,7 +2062,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>Period 1, Day -1</t>
+          <t>Screening 2</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -1745,29 +2072,29 @@
       </c>
       <c r="F3" s="6" t="inlineStr">
         <is>
-          <t>LY-G</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
-          <t>LY900018-IMG</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t> </t>
+          <t>subject leaves clinic after connection of ambulatory ECG machine</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t> </t>
+          <t>subject has connection of ambulatory ECG machine removed</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B4" s="6" t="inlineStr">
@@ -1780,7 +2107,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>Period 1, Day 1</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
@@ -1790,17 +2117,17 @@
       </c>
       <c r="F4" s="6" t="inlineStr">
         <is>
-          <t>LY-G</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
-          <t>LY900018-IMG</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Radomized</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1812,7 +2139,7 @@
     <row r="5" ht="29" customHeight="1">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B5" s="6" t="inlineStr">
@@ -1825,7 +2152,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>Wash Out</t>
+          <t>Week 2</t>
         </is>
       </c>
       <c r="E5" s="6" t="inlineStr">
@@ -1835,17 +2162,17 @@
       </c>
       <c r="F5" s="6" t="inlineStr">
         <is>
-          <t>LY-G</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="G5" s="29" t="inlineStr">
         <is>
-          <t>LY900018-IMG</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t> </t>
+          <t>End of treatment</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1857,7 +2184,7 @@
     <row r="6" ht="29" customHeight="1">
       <c r="A6" s="6" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B6" s="6" t="inlineStr">
@@ -1870,7 +2197,7 @@
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>Period 2, Day -1</t>
+          <t>Week 4</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">
@@ -1880,12 +2207,12 @@
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
-          <t>LY-G</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="G6" s="13" t="inlineStr">
         <is>
-          <t>LY900018-IMG</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="H6" s="6" t="inlineStr">
@@ -1902,7 +2229,7 @@
     <row r="7" ht="29" customHeight="1">
       <c r="A7" s="6" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B7" s="6" t="inlineStr">
@@ -1915,7 +2242,7 @@
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>Period 2, Day 1</t>
+          <t>Week 6</t>
         </is>
       </c>
       <c r="E7" s="6" t="inlineStr">
@@ -1925,12 +2252,12 @@
       </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
-          <t>LY-G</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="G7" s="13" t="inlineStr">
         <is>
-          <t>LY900018-IMG</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="H7" s="6" t="inlineStr">
@@ -1947,7 +2274,7 @@
     <row r="8" ht="29" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B8" s="6" t="inlineStr">
@@ -1960,7 +2287,7 @@
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>Follow-up</t>
+          <t>Week 8</t>
         </is>
       </c>
       <c r="E8" s="6" t="inlineStr">
@@ -1970,12 +2297,12 @@
       </c>
       <c r="F8" s="6" t="inlineStr">
         <is>
-          <t>LY-G</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="G8" s="29" t="inlineStr">
         <is>
-          <t>LY900018-IMG</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="H8" s="6" t="inlineStr">
@@ -1992,7 +2319,7 @@
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B9" s="6" t="inlineStr">
@@ -2001,31 +2328,43 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>Screening</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr"/>
+          <t>Week 12</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F9" s="6" t="inlineStr">
         <is>
-          <t>G-LY</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="G9" s="6" t="inlineStr">
         <is>
-          <t>IMG-LY900018</t>
-        </is>
-      </c>
-      <c r="H9" s="6" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="29" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B10" s="6" t="inlineStr">
@@ -2034,11 +2373,11 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D10" s="6" t="inlineStr">
         <is>
-          <t>Period 1, Day -1</t>
+          <t>Week 16</t>
         </is>
       </c>
       <c r="E10" s="6" t="inlineStr">
@@ -2048,12 +2387,12 @@
       </c>
       <c r="F10" s="6" t="inlineStr">
         <is>
-          <t>G-LY</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
-          <t>IMG-LY900018</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="H10" s="6" t="inlineStr">
@@ -2070,7 +2409,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2079,11 +2418,11 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Period 1, Day 1</t>
+          <t>Week 20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2093,12 +2432,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>G-LY</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>IMG-LY900018</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2115,7 +2454,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2124,11 +2463,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Wash Out</t>
+          <t>Week 24</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2138,12 +2477,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>G-LY</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>IMG-LY900018</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2160,7 +2499,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2169,11 +2508,11 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Period 2, Day -1</t>
+          <t>Week 26</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2183,12 +2522,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>G-LY</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>IMG-LY900018</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2205,7 +2544,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2214,43 +2553,39 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Period 2, Day 1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t>Screening 1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>G-LY</t>
+          <t>Xanomeline Low Dose</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>IMG-LY900018</t>
+          <t>Active Substance</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t> </t>
+          <t>completion of screening activities</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Subject identifier</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2259,34 +2594,1020 @@
         </is>
       </c>
       <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Screening 2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Xanomeline Low Dose</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>subject leaves clinic after connection of ambulatory ECG machine</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>subject has connection of ambulatory ECG machine removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Xanomeline Low Dose</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Radomized</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Week 2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Xanomeline Low Dose</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>End of treatment</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Week 4</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Xanomeline Low Dose</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>6</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Week 6</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Xanomeline Low Dose</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>7</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Follow-up</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>G-LY</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>IMG-LY900018</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Week 8</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Xanomeline Low Dose</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Week 12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Xanomeline Low Dose</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>9</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Week 16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Xanomeline Low Dose</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Week 20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Xanomeline Low Dose</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>11</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Week 24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Xanomeline Low Dose</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>12</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Week 26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Xanomeline Low Dose</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Screening 1</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Xanomeline High Dose</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>completion of screening activities</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Subject identifier</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Screening 2</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Xanomeline High Dose</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>subject leaves clinic after connection of ambulatory ECG machine</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>subject has connection of ambulatory ECG machine removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Xanomeline High Dose</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Radomized</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Week 2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Xanomeline High Dose</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>End of treatment</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>5</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Week 4</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Xanomeline High Dose</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>6</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Week 6</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Xanomeline High Dose</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>7</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Week 8</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Xanomeline High Dose</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>8</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Week 12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Xanomeline High Dose</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>9</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Week 16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Xanomeline High Dose</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>10</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Week 20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Xanomeline High Dose</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>11</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Week 24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Xanomeline High Dose</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>12</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Week 26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Xanomeline High Dose</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2306,10 +3627,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:DT32"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -2427,11 +3748,521 @@
           <t>IETEST 14</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="72.5" customHeight="1">
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>IETEST 15</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>IETEST 16</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>IETEST 17</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>IETEST 18</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>IETEST 19</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>IETEST 20</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>IETEST 21</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>IETEST 22</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>IETEST 23</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>IETEST 24</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>IETEST 25</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>IETEST 26</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>IETEST 27</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>IETEST 28</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>IETEST 29</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>IETEST 30</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>IETEST 31</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>IETEST 32</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>IETEST 33</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>IETEST 34</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>IETEST 35</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>IETEST 36</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>IETEST 37</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>IETEST 38</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>IETEST 39</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>IETEST 40</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>IETEST 41</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>IETEST 42</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>IETEST 43</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>IETEST 44</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>IETEST 45</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>IETEST 46</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>IETEST 47</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>IETEST 48</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>IETEST 49</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>IETEST 50</t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>IETEST 51</t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>IETEST 52</t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>IETEST 53</t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t>IETEST 54</t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t>IETEST 55</t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t>IETEST 56</t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t>IETEST 57</t>
+        </is>
+      </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>IETEST 58</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t>IETEST 59</t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t>IETEST 60</t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t>IETEST 61</t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t>IETEST 62</t>
+        </is>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t>IETEST 63</t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t>IETEST 64</t>
+        </is>
+      </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t>IETEST 65</t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t>IETEST 66</t>
+        </is>
+      </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t>IETEST 67</t>
+        </is>
+      </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t>IETEST 68</t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t>IETEST 69</t>
+        </is>
+      </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t>IETEST 70</t>
+        </is>
+      </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t>IETEST 71</t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t>IETEST 72</t>
+        </is>
+      </c>
+      <c r="CB1" t="inlineStr">
+        <is>
+          <t>IETEST 73</t>
+        </is>
+      </c>
+      <c r="CC1" t="inlineStr">
+        <is>
+          <t>IETEST 74</t>
+        </is>
+      </c>
+      <c r="CD1" t="inlineStr">
+        <is>
+          <t>IETEST 75</t>
+        </is>
+      </c>
+      <c r="CE1" t="inlineStr">
+        <is>
+          <t>IETEST 76</t>
+        </is>
+      </c>
+      <c r="CF1" t="inlineStr">
+        <is>
+          <t>IETEST 77</t>
+        </is>
+      </c>
+      <c r="CG1" t="inlineStr">
+        <is>
+          <t>IETEST 78</t>
+        </is>
+      </c>
+      <c r="CH1" t="inlineStr">
+        <is>
+          <t>IETEST 79</t>
+        </is>
+      </c>
+      <c r="CI1" t="inlineStr">
+        <is>
+          <t>IETEST 80</t>
+        </is>
+      </c>
+      <c r="CJ1" t="inlineStr">
+        <is>
+          <t>IETEST 81</t>
+        </is>
+      </c>
+      <c r="CK1" t="inlineStr">
+        <is>
+          <t>IETEST 82</t>
+        </is>
+      </c>
+      <c r="CL1" t="inlineStr">
+        <is>
+          <t>IETEST 83</t>
+        </is>
+      </c>
+      <c r="CM1" t="inlineStr">
+        <is>
+          <t>IETEST 84</t>
+        </is>
+      </c>
+      <c r="CN1" t="inlineStr">
+        <is>
+          <t>IETEST 85</t>
+        </is>
+      </c>
+      <c r="CO1" t="inlineStr">
+        <is>
+          <t>IETEST 86</t>
+        </is>
+      </c>
+      <c r="CP1" t="inlineStr">
+        <is>
+          <t>IETEST 87</t>
+        </is>
+      </c>
+      <c r="CQ1" t="inlineStr">
+        <is>
+          <t>IETEST 88</t>
+        </is>
+      </c>
+      <c r="CR1" t="inlineStr">
+        <is>
+          <t>IETEST 89</t>
+        </is>
+      </c>
+      <c r="CS1" t="inlineStr">
+        <is>
+          <t>IETEST 90</t>
+        </is>
+      </c>
+      <c r="CT1" t="inlineStr">
+        <is>
+          <t>IETEST 91</t>
+        </is>
+      </c>
+      <c r="CU1" t="inlineStr">
+        <is>
+          <t>IETEST 92</t>
+        </is>
+      </c>
+      <c r="CV1" t="inlineStr">
+        <is>
+          <t>IETEST 93</t>
+        </is>
+      </c>
+      <c r="CW1" t="inlineStr">
+        <is>
+          <t>IETEST 94</t>
+        </is>
+      </c>
+      <c r="CX1" t="inlineStr">
+        <is>
+          <t>IETEST 95</t>
+        </is>
+      </c>
+      <c r="CY1" t="inlineStr">
+        <is>
+          <t>IETEST 96</t>
+        </is>
+      </c>
+      <c r="CZ1" t="inlineStr">
+        <is>
+          <t>IETEST 97</t>
+        </is>
+      </c>
+      <c r="DA1" t="inlineStr">
+        <is>
+          <t>IETEST 98</t>
+        </is>
+      </c>
+      <c r="DB1" t="inlineStr">
+        <is>
+          <t>IETEST 99</t>
+        </is>
+      </c>
+      <c r="DC1" t="inlineStr">
+        <is>
+          <t>IETEST 100</t>
+        </is>
+      </c>
+      <c r="DD1" t="inlineStr">
+        <is>
+          <t>IETEST 101</t>
+        </is>
+      </c>
+      <c r="DE1" t="inlineStr">
+        <is>
+          <t>IETEST 102</t>
+        </is>
+      </c>
+      <c r="DF1" t="inlineStr">
+        <is>
+          <t>IETEST 103</t>
+        </is>
+      </c>
+      <c r="DG1" t="inlineStr">
+        <is>
+          <t>IETEST 104</t>
+        </is>
+      </c>
+      <c r="DH1" t="inlineStr">
+        <is>
+          <t>IETEST 105</t>
+        </is>
+      </c>
+      <c r="DI1" t="inlineStr">
+        <is>
+          <t>IETEST 106</t>
+        </is>
+      </c>
+      <c r="DJ1" t="inlineStr">
+        <is>
+          <t>IETEST 107</t>
+        </is>
+      </c>
+      <c r="DK1" t="inlineStr">
+        <is>
+          <t>IETEST 108</t>
+        </is>
+      </c>
+      <c r="DL1" t="inlineStr">
+        <is>
+          <t>IETEST 109</t>
+        </is>
+      </c>
+      <c r="DM1" t="inlineStr">
+        <is>
+          <t>IETEST 110</t>
+        </is>
+      </c>
+      <c r="DN1" t="inlineStr">
+        <is>
+          <t>IETEST 111</t>
+        </is>
+      </c>
+      <c r="DO1" t="inlineStr">
+        <is>
+          <t>IETEST 112</t>
+        </is>
+      </c>
+      <c r="DP1" t="inlineStr">
+        <is>
+          <t>IETEST 113</t>
+        </is>
+      </c>
+      <c r="DQ1" t="inlineStr">
+        <is>
+          <t>IETEST 114</t>
+        </is>
+      </c>
+      <c r="DR1" t="inlineStr">
+        <is>
+          <t>IETEST 115</t>
+        </is>
+      </c>
+      <c r="DS1" t="inlineStr">
+        <is>
+          <t>IETEST 116</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="58" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
@@ -2441,17 +4272,17 @@
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>01</t>
         </is>
       </c>
       <c r="D2" s="9" t="inlineStr">
         <is>
-          <t>&lt;p&gt;have had a diagnosis of either:&lt;/p&gt;\n&lt;ul&gt;\n  &lt;li&gt;\n    &lt;p&gt;[1a] T1DM based on the World Health Organization (WHO) diagnostic criteria, and have been on the following daily insulin therapy for at</t>
+          <t>&lt;p&gt;Males and postmenopausal females at least //TAG REFERENCE PARSING ERROR// years of age.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
         <is>
-          <t>Inclusion Criteria</t>
+          <t>INCLUSION</t>
         </is>
       </c>
       <c r="F2" s="6" t="inlineStr">
@@ -2466,44 +4297,14 @@
       </c>
       <c r="H2" s="23" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>least 1 year&lt;/p&gt;\n    &lt;ul&gt;\n      &lt;p&gt;[A] multiple daily injection of long-acting insulin analog (either insulin glargine [U-100 or U-300] or insulin degludec [U-100]) and rapid-acting insulin analog</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>(insulin lispro, insulin aspart, or insulin glulisine), or&lt;/p&gt;\n      &lt;p&gt;[B] continuous subcutaneous insulin infusion (CSII)&lt;/p&gt;    \n    &lt;/ul&gt;\n  &lt;/li&gt;\n  &lt;p&gt;Or&lt;/p&gt;\n  &lt;li&gt;\n    &lt;p&gt;[1b] T2DM based on</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">the WHO diagnostic criteria, and have received the&lt;/p&gt;\n    &lt;p&gt;following daily insulin therapy with or without oral anti-hyperglycemic medications (OAMs) for at least 1 year&lt;/p&gt;\n    &lt;ul&gt;\n     </t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;[A] insulin: long-acting insulin analog (either insulin glargine [U-100 or U-300] or insulin degludec [U-100]) alone, or in combination with rapid-acting insulin analog (insulin lispro, insulin</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>aspart, or insulin glulisine) or CSII&lt;/p&gt;\n      &lt;p&gt;[B] OAM: up to 3 of the following OAMs in accordance with local regulations: metformin, dipeptidyl peptidase-4 inhibitor, sodium glucose</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>cotransporter 2 inhibitor, sulfonylurea (should not be more than half of maximum approved doses), glinides, alpha-glucosidase inhibitor, or thiazolidine&lt;/p&gt;\n    &lt;/ul&gt;\n  &lt;/li&gt;\n&lt;/ul&gt;</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3" ht="29" customHeight="1">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
@@ -2513,39 +4314,44 @@
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Patients with Probable Mild to Moderate Alzheimer's Disease as defined by National Institute of Neurological and Communicative Disorders and Stroke (NINCDS) and the Alzheimer\'s Disease and Related</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>INCLUSION</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G3" s="26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;male patients: agree to use an effective method of contraception for the duration of the study and for 28 days following the last study treatment&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>Inclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G3" s="26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H3" s="9" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Disorders Association (ADRDA) guidelines (Attachment LZZT.7).&lt;/p&gt;</t>
         </is>
       </c>
     </row>
     <row r="4" ht="29" customHeight="1">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
@@ -2555,17 +4361,17 @@
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>03</t>
         </is>
       </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
-          <t>&lt;ul&gt;\n  &lt;li&gt;\n    [3a] women of childbearing potential who are abstinent (if this is complete\n    abstinence, as their preferred and usual lifestyle) or in a same sex\n    relationship (as part of</t>
+          <t>&lt;p&gt;MMSE score of 10 to 23.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
         <is>
-          <t>Inclusion Criteria</t>
+          <t>INCLUSION</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -2580,84 +4386,14 @@
       </c>
       <c r="H4" s="23" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>their preferred and usual lifestyle) must agree to\n    either remain abstinent or stay in a same sex relationship without sexual\n    relationships with males. Periodic abstinence (eg, calendar,</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ovulation,\n    symptothermal, post-ovulation methods), declaration of abstinence just for\n    the duration of a trial, and withdrawal are not acceptable methods of\n    contraception.\n  &lt;/li&gt;\n </t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>&lt;li&gt;\n    [3b] otherwise, women of childbearing potential participating must agree to use\n    one highly effective method (less than 1% failure rate) of contraception, or a\n    combination of 2</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>effective methods of contraception for the entirety of the\n    study.\n    &lt;ul&gt;\n      &lt;li&gt;[A] women of childbearing potential participating must test negative for\n        pregnancy prior to</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">initiation of treatment as indicated by a negative serum\n        pregnancy test at the screening visit followed by a negative urine\n        pregnancy test within 24 hours prior to exposure.&lt;/li&gt;\n  </t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   &lt;li&gt;[B] either one highly effective method of contraception or a combination\n        of 2 effective methods of contraception will be used. The patient may\n        choose to use a double barrier</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>method of contraception. Barrier protection\n        methods without concomitant use of a spermicide are not a reliable or\n        acceptable method. Thus, each barrier method must include use of a\n</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       spermicide. It should be noted that the use of male and female condoms\n        as a double barrier method is not considered acceptable due to the high\n        failure rate when these methods</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>are combined.&lt;/li&gt;\n    &lt;/ul&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    [3c] women not of childbearing potential may participate, and include those who are:\n    &lt;ul&gt;\n      &lt;li&gt;\n        [A] infertile due to surgical</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>sterilization (hysterectomy, bilateral\n        oophorectomy, or tubal ligation), congenital anomaly such as mullerian\n        agenesis\n      &lt;/li&gt;\n      &lt;li&gt;\n        Or\n        [B]</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">postmenopausal, defined as either:\n        &lt;ul&gt;\n          &lt;li&gt;[i] a woman at least 50 years of age with an intact uterus, not on hormone therapy, who has had either:\n          &lt;/li&gt;\n         </t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;ul&gt;\n            &lt;li&gt;[a] cessation of menses for at least 1 year, or&lt;/li&gt;\n            &lt;li&gt;[b] at least 6 months of spontaneous amenorrhea with a follicle-stimulating hormone &gt;40 mIU/mL; or&lt;/li&gt;\n   </t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      &lt;/ul&gt;\n          &lt;li&gt;[ii] a woman 55 or older not on hormone therapy, who has had at least 6 months of spontaneous amenorrhea,\n            or&lt;/li&gt;\n          &lt;li&gt;[iii] a woman at least 55 years</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>of age with a diagnosis of menopause prior to starting hormone replacement\n            therapy&lt;/li&gt;\n        &lt;/ul&gt;\n      &lt;/li&gt;\n    &lt;/ul&gt;\n  &lt;/li&gt;\n&lt;/ul&gt;</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="5" ht="87" customHeight="1">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B5" s="9" t="inlineStr">
@@ -2667,17 +4403,17 @@
       </c>
       <c r="C5" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D5" s="9" t="inlineStr">
         <is>
-          <t>&lt;p&gt;are between 18 and 64 years old for T1DM, or between 20 and 70 years old for T2DM at the time of informed consent&lt;/p&gt;</t>
+          <t>&lt;p&gt;Hachinski Ischemic Scale  score of ≤4 (Attachment LZZT.8).&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
         <is>
-          <t>Inclusion Criteria</t>
+          <t>INCLUSION</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -2692,14 +4428,14 @@
       </c>
       <c r="H5" s="23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="6" ht="43.5" customHeight="1">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
@@ -2709,17 +4445,17 @@
       </c>
       <c r="C6" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t>&lt;p&gt;have a body mass index of 18.5 to 30.0 kg/m 2 for T1DM, or 18.5 to 35.0 kg/m 2 for T2DM at the time of screening&lt;/p&gt;</t>
+          <t xml:space="preserve">&lt;p&gt;CNS imaging (CT scan or MRI of brain) compatible with AD within past 1 year.&lt;/p&gt;\n&lt;p&gt;The following findings are incompatible with AD:&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n  &lt;li&gt;\n   </t>
         </is>
       </c>
       <c r="E6" s="9" t="inlineStr">
         <is>
-          <t>Inclusion Criteria</t>
+          <t>INCLUSION</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -2734,14 +4470,64 @@
       </c>
       <c r="H6" s="23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Large vessel strokes&lt;/p&gt;\n    &lt;ol&gt;\n      &lt;li&gt;\n        &lt;p&gt;Any definite area of encephalomalacia consistent with ischemic necrosis in any cerebral artery territory.&lt;/p&gt;\n      &lt;/li&gt;\n      &lt;li&gt;\n  </t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     &lt;p&gt;Large, confluent areas of encephalomalacia in parieto-occipital or frontal regions consistent with watershed\n          infarcts.&lt;/p&gt;\n        &lt;p&gt;The above are exclusionary. Exceptions are</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">made for small areas of cortical asymmetry which may represent a\n          small cortical stroke or a focal area of atrophy provided there is no abnormal signal intensity in the\n         </t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>immediately underlying parenchyma. Only one such questionable area allowed per scan, and size is restricted to\n          ≤1cm in frontal/parietal/temporal cortices and ≤2 cm in occipital</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>cortex.&lt;/p&gt;\n      &lt;/li&gt;\n    &lt;/ol&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Small vessel ischemia&lt;/p&gt;\n    &lt;ol&gt;\n      &lt;li&gt;\n        &lt;p&gt;Lacunar infarct is defined as an area of abnormal intensity seen on CT scan or</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>on both T1 and T2 weighted MRI\n          images in the basal ganglia, thalamus or deep white matter which is ≤1 cm in maximal diameter. A maximum of\n          one\n          lacune is allowed per</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>scan.&lt;/p&gt;\n      &lt;/li&gt;\n      &lt;li&gt;\n        &lt;p&gt;Leukoariosis or leukoencephalopathy is regarded as an abnormality seen on T2 but not T1 weighted MRIs, or on\n          CT. This is accepted if mild or</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">moderate in extent, meaning involvement of less than 25% of cortical white\n          matter.\n      &lt;/li&gt;\n    &lt;/ol&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Miscellaneous&lt;/p&gt;\n    &lt;ol&gt;\n      &lt;li&gt;\n       </t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Benign small extra-axial tumors (ie, meningiomas) are accepted if they do not contact or indent the brain\n          parenchyma.&lt;/p&gt;\n      &lt;/li&gt;\n      &lt;li&gt;\n        &lt;p&gt;Small extra-axial arachnoid</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>cysts are accepted if they do not indent or deform the brain parenchyma.&lt;/p&gt;\n      &lt;/li&gt;\n    &lt;/ol&gt;\n  &lt;/li&gt;\n&lt;/ol&gt;</t>
         </is>
       </c>
     </row>
     <row r="7" ht="43.5" customHeight="1">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B7" s="9" t="inlineStr">
@@ -2751,17 +4537,17 @@
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>06</t>
         </is>
       </c>
       <c r="D7" s="9" t="inlineStr">
         <is>
-          <t>&lt;p&gt;have a hemoglobin A1c value ≤10% at the time of screening&lt;/p&gt;</t>
+          <t>&lt;p&gt;Investigator has obtained informed consent signed by the patient (and/or legal representative) and by the caregiver.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>Inclusion Criteria</t>
+          <t>INCLUSION</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -2776,14 +4562,14 @@
       </c>
       <c r="H7" s="23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="8" ht="29" customHeight="1">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr">
@@ -2793,17 +4579,17 @@
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t>&lt;p&gt;have clinical laboratory test results within normal reference range (except for glycemic parameters) for the population or investigative site, or results with acceptable deviations that are judged</t>
+          <t>"&lt;p&gt;Geographic proximity to investigator's site that allows adequate follow-up.&lt;/p&gt;",</t>
         </is>
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>Inclusion Criteria</t>
+          <t>INCLUSION</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -2818,19 +4604,14 @@
       </c>
       <c r="H8" s="23" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>to be not clinically significant by the investigator&lt;/p&gt;</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B9" s="9" t="inlineStr">
@@ -2840,17 +4621,17 @@
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>08</t>
         </is>
       </c>
       <c r="D9" s="9" t="inlineStr">
         <is>
-          <t>&lt;p&gt;have venous access sufficient to allow for blood sampling and administration of insulin for IV administration as per the protocol&lt;/p&gt;</t>
+          <t>&lt;p&gt;A reliable caregiver who is in frequent or daily contact with the patient and who will accompany the patient to the office and/or be available by telephone at designated times, will monitor</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Inclusion Criteria</t>
+          <t>INCLUSION</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -2865,14 +4646,24 @@
       </c>
       <c r="H9" s="23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>administration of prescribed medications, and will be responsible for the overall care of the patient at home. The caregiver and the patient must be able to communicate in English and willing to</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>comply with 26 weeks of transdermal therapy.&lt;/p&gt;</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2882,17 +4673,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>09</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>&lt;p&gt;are reliable and willing to make themselves available for the duration of the study and are willing to follow study procedures&lt;/p&gt;</t>
+          <t>&lt;p&gt;Persons who have previously completed or withdrawn from this study or any other study investigating xanomeline TTS or the oral formulation of xanomeline.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Inclusion Criteria</t>
+          <t>EXCLUSION</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2907,14 +4698,14 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2929,12 +4720,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>&lt;p&gt;are able and willing to give signed informed consent&lt;/p&gt;</t>
+          <t>"&lt;p&gt;Use of any investigational agent or approved Alzheimer's therapeutic medication within 30 days prior to enrollment into the study.&lt;/p&gt;",</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Inclusion Criteria</t>
+          <t>EXCLUSION</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2949,14 +4740,14 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2971,12 +4762,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>&lt;p&gt;are investigative site personnel directly affiliated with this study and their immediate families. Immediate family is defined as a spouse, biological or legal guardian, child, or sibling&lt;/p&gt;</t>
+          <t>&lt;p&gt;Serious illness which required hospitalization within 3 months of screening.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Exclusion Criteria</t>
+          <t>EXCLUSION</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2991,14 +4782,14 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3013,12 +4804,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>&lt;p&gt;are Lilly employees&lt;/p&gt;</t>
+          <t>&lt;p&gt;Diagnosis of serious neurological conditions, including &lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Stroke or vascular dementia documented by clinical history and/or radiographic</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Exclusion Criteria</t>
+          <t>EXCLUSION</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -3033,14 +4824,29 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>findings interpretable by the investigator as indicative of these disorders&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Seizure disorder other than simple childhood febrile seizures&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Severe head trauma resulting</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>in protracted loss of consciousness within the last 5 years, or multiple episodes of head trauma&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Parkinson\'s disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Multiple sclerosis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Amyotrophic</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>lateral sclerosis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Myasthenia gravis.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3055,12 +4861,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>&lt;p&gt;are currently enrolled in a clinical trial involving an investigational product or any other type of medical research judged not to be scientifically or medically compatible with this study&lt;/p&gt;</t>
+          <t>&lt;p&gt;Episode of depression meeting DSM-IV criteria within 3 months of screening.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Exclusion Criteria</t>
+          <t>EXCLUSION</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -3075,14 +4881,14 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3097,12 +4903,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>&lt;p&gt;have participated, within the last 4 months, in a clinical trial involving an investigational product. If the previous investigational product has a long half-life, 4 months or 5 half-lives</t>
+          <t>&lt;p&gt;A history within the last 5 years of the following:&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Schizophrenia&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Bipolar Disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Ethanol or psychoactive</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Exclusion Criteria</t>
+          <t>EXCLUSION</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -3117,19 +4923,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>(whichever is longer) should have passed from the last dose of investigational product&lt;/p&gt;</t>
+          <t>drug abuse or dependence. &lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3144,12 +4950,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>&lt;p&gt;have previously completed or withdrawn from this study or any other study investigating LY900018, and have previously received LY900018&lt;/p&gt;</t>
+          <t>&lt;p&gt;A history of syncope within the last 5 years.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Exclusion Criteria</t>
+          <t>EXCLUSION</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -3164,14 +4970,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3181,17 +4987,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16b</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>&lt;p&gt;have known allergies or sensitivity to LY900018, glucagon, related compounds, or any components of the formulation, or history of significant atopy&lt;/p&gt;</t>
+          <t>&lt;p&gt;Evidence from ECG recording at screening of any of the following conditions :&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Left bundle branch block&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Bradycardia ≤50 beats</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Exclusion Criteria</t>
+          <t>EXCLUSION</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3206,14 +5012,29 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>per minute&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Sinus pauses &amp;gt;2 seconds&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Second or third degree heart block unless treated with a pacemaker&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Wolff-Parkinson-White</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>syndrome&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Sustained supraventricular tachyarrhythmia including SVT≥10 sec, atrial fibrillation, atrial flutter.&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Ventricular tachycardia at a rate of ≥120 beats per</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>minute lasting≥10 seconds.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3228,12 +5049,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>&lt;p&gt;have an abnormality in the 12-lead ECG that, in the opinion of the investigator, increases the risks associated with participating in the study&lt;/p&gt;</t>
+          <t>&lt;p&gt;A history within the last 5 years of a serious cardiovascular disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Clinically significant</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Exclusion Criteria</t>
+          <t>EXCLUSION</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3248,14 +5069,24 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>arrhythmia&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Symptomatic sick sinus syndrome not treated with a pacemaker&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Congestive heart failure refractory to treatment&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Angina except angina</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>controlled with PRN nitroglycerin&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Resting heart rate &amp;lt;50 or &amp;gt;100 beats per minute, on physical exam&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Uncontrolled hypertension.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3270,12 +5101,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>&lt;p&gt;any significant changes in insulin regimen and/or unstable blood glucose control within the past 3 months prior to screening as assessed by the investigator&lt;/p&gt;</t>
+          <t>&lt;p&gt;A history within the last 5 years of a serious gastrointestinal disorder, including &lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Chronic peptic/duodenal/gastric/esophageal ulcer that</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Exclusion Criteria</t>
+          <t>EXCLUSION</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3290,14 +5121,24 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>are untreated or refractory to treatment&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Symptomatic diverticular disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Inflammatory bowel</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Pancreatitis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Hepatitis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Cirrhosis of the liver.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3312,12 +5153,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>&lt;p&gt;have received a total daily dose of insulin &amp;gt;1.2 U/kg at the time of screening&lt;/p&gt;</t>
+          <t>&lt;p&gt;A history within the last 5 years of a serious endocrine disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Uncontrolled Insulin Dependent Diabetes Mellitus</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Exclusion Criteria</t>
+          <t>EXCLUSION</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3332,14 +5173,24 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>(IDDM)&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Diabetic ketoacidosis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Untreated hyperthyroidism&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Untreated hypothyroidism&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Other untreated endocrinological</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>disorder&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3354,12 +5205,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>&lt;p&gt;have poorly controlled hypertension (ie, supine systolic BP &amp;gt;165 mm Hg or supine diastolic BP &amp;gt;95 mm Hg) at screening, or a change in antihypertensive medications within 30 days prior to</t>
+          <t>&lt;p&gt; A history within the last 5 years of a serious respiratory disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Asthma with bronchospasm refractory to</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Exclusion Criteria</t>
+          <t>EXCLUSION</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3374,19 +5225,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>screening&lt;/p&gt;</t>
+          <t>treatment&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Decompensated chronic obstructive pulmonary disease.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3401,12 +5252,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>&lt;p&gt;have a history of pheochromocytoma (ie, adrenal gland tumor) or insulinoma&lt;/p&gt;</t>
+          <t>&lt;p&gt;A history within the last 5 years of a serious genitourinary disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Renal failure&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Uncontrolled urinary</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Exclusion Criteria</t>
+          <t>EXCLUSION</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -3421,14 +5272,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>retention.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3443,12 +5299,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>&lt;p&gt;have a history of an episode of severe hypoglycemia (as defined by an episode that required third party assistance for treatment) in the 1 month prior to screening or have a history of loss of</t>
+          <t>&lt;p&gt;A history within the last 5 years of a serious rheumatologic disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Lupus&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Temporal</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Exclusion Criteria</t>
+          <t>EXCLUSION</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -3463,19 +5319,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>consciousness within the last 2 years induced other than by hypoglycemia&lt;/p&gt;</t>
+          <t>arteritis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Severe rheumatoid arthritis.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3490,12 +5346,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>&lt;p&gt;have a history of epilepsy or seizure disorder&lt;/p&gt;</t>
+          <t>&lt;p&gt;A known history of human immunodeficiency virus (HIV) within the last 5 years.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Exclusion Criteria</t>
+          <t>EXCLUSION</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3510,14 +5366,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3532,12 +5388,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>&lt;p&gt;have a history or presence of cardiovascular, respiratory, hepatic, renal, gastrointestinal, endocrine (apart from T1DM or T2DM), hematological, or neurological disorders capable of significantly</t>
+          <t xml:space="preserve">&lt;p&gt;A history within the last 5 years of a serious infectious disease including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;a)  Neurosyphilis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;b) </t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Exclusion Criteria</t>
+          <t>EXCLUSION</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3552,19 +5408,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>altering the absorption, metabolism, or elimination of drugs; of constituting a risk when taking the investigational product; or of interfering with the interpretation of data&lt;/p&gt;</t>
+          <t>Meningitis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;c)  Encephalitis.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3579,12 +5435,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>&lt;p&gt;have known or ongoing psychiatric disorders that, in the opinion of the investigator, may preclude the patient from following and completing the protocol&lt;/p&gt;</t>
+          <t>&lt;p&gt;A history within the last 5 years of a primary or recurrent malignant disease with the exception of resected cutaneous squamous cell carcinoma in situ, basal cell carcinoma, cervical carcinoma in</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Exclusion Criteria</t>
+          <t>EXCLUSION</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3599,14 +5455,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>situ, or in situ prostate cancer with a normal PSA postresection.&lt;/p&gt;</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3621,12 +5482,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>&lt;p&gt;regularly use known drugs of abuse and/or show positive findings on urinary drug screening&lt;/p&gt;</t>
+          <t>&lt;p&gt;Visual, hearing, or communication disabilities impairing the ability to participate in the study; (for example, inability to speak or understand English, illiteracy).&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Exclusion Criteria</t>
+          <t>EXCLUSION</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3641,14 +5502,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3658,17 +5519,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27b</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>&lt;p&gt;show evidence of human immunodeficiency virus (HIV) infection and/or positive HIV antibodies and/or antigen&lt;/p&gt;</t>
+          <t>"&lt;p&gt;Laboratory test values exceeding the Lilly Reference Range III for the patient's age in any of the following analytes: ↑ creatinine, ↑ total bilirubin, ↑ SGOT, ↑ SGPT, ↑ alkaline phosphatase, ↑</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Exclusion Criteria</t>
+          <t>EXCLUSION</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3683,14 +5544,29 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>GGT, ↑↓ hemoglobin, ↑↓ white blood cell count, ↑↓ platelet count, ↑↓ serum sodium, potassium, or calcium.&lt;/p&gt;\n&lt;p&gt;If values exceed these laboratory reference ranges, clinical significance will be</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>judged by the monitoring physicians. If the monitoring physician determines that the deviation from the reference range is not clinically significant, the patient may be included in the study. This</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>decision will be documented.&lt;/p&gt;",</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3700,17 +5576,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28b</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>&lt;p&gt;show evidence of hepatitis C and/or positive hepatitis C antibody&lt;/p&gt;</t>
+          <t>&lt;p&gt;Central laboratory test values below reference range for folate, and Vitamin B 12 , and outside reference range for thyroid function tests.&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n  &lt;li&gt;\n</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Exclusion Criteria</t>
+          <t>EXCLUSION</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3725,14 +5601,54 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   &lt;p&gt;Folate reference range 2.0 to 25.0 ng/mL. Patients will be allowed to enroll if their folate levels are above the upper end of the range if patients are taking vitamin supplements.&lt;/p&gt;\n </t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>&lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Vitamin B 12 reference range 130 to 900 pg/mL. Patients will be allowed to enroll if their B 12 levels are above the upper reference range if patients are taking oral vitamin</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>supplements.&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Thyroid functions&lt;/p&gt;\n    &lt;ol&gt;\n      &lt;li&gt;\n        &lt;p&gt;Thyroid Uptake reference range 25 to 38%. Patients will be allowed to enroll with results of 23 to 51%</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>provided the remainder of the thyroid profile is normal and there are no clinical signs or symptoms of thyroid abnormality.&lt;/p&gt;\n      &lt;/li&gt;\n      &lt;li&gt;\n        &lt;p&gt;TSH reference range 0.32 to 5.0.</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Patients will be allowed to enroll with results of 0.03 to 6.2 if patients are taking stable doses of exogenous thyroid supplements, with normal free thyroid index, and show no clinical signs or</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>symptoms of thyroid abnormality.&lt;/p&gt;\n      &lt;/li&gt;\n      &lt;li&gt;\n        &lt;p&gt;Total T4 reference range 4.5 to 12.5. Patients will be allowed to enroll with results of 4.1 to 13.4 if patients are taking</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>stable doses of exogenous thyroid hormone, with normal free thyroid index, and show no clinical signs or symptoms of thyroid abnormality.&lt;/p&gt;\n      &lt;/li&gt;\n      &lt;li&gt;\n        &lt;p&gt;Free Thyroid Index</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>reference range 1.1 to 4.6.&lt;/p&gt;\n      &lt;/li&gt;\n    &lt;/ol&gt;\n  &lt;/li&gt;\n&lt;/ol&gt;</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3742,17 +5658,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>29b</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>&lt;p&gt;show evidence of hepatitis B and/or positive hepatitis B surface antigen&lt;/p&gt;</t>
+          <t>&lt;p&gt;Positive syphilis screening.&lt;/p&gt;\n&lt;p&gt;Positive syphilis screening. As determined by positive RPR followed up by confirmatory FTA-Abs. Confirmed patients are excluded unless there is a documented</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Exclusion Criteria</t>
+          <t>EXCLUSION</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3767,14 +5683,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>medical history of an alternative disease (for example, yaws) which caused the lab abnormality.&lt;/p&gt;</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3784,17 +5705,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>30b</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>&lt;p&gt;show evidence of syphilis and/or are positive for syphilis test&lt;/p&gt;</t>
+          <t>&lt;p&gt;Glycosylated hemoglobin (A1C). Required only on patients with known diabetes mellitus or random blood sugar &amp;gt;200 on screening labs. Patients will be excluded if levels are &amp;gt;9.5%&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Exclusion Criteria</t>
+          <t>EXCLUSION</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3809,14 +5730,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3826,17 +5747,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>31b</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>&lt;p&gt;are women who are lactating&lt;/p&gt;</t>
+          <t xml:space="preserve">&lt;p&gt;Treatment with the following medications within the specified washout periods prior to enrollment and during the\n  study:&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n  &lt;li&gt;\n   </t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Exclusion Criteria</t>
+          <t>EXCLUSION</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3851,237 +5772,587 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>I8R-JE-IGBJ</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;use of daily systemic beta-blocker, indomethacin, warfarin, anticholinergic drugs&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>I8R-JE-IGBJ</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;have donated 400 mL or more blood in the last 12 weeks (males) or in the last 16 weeks (females), or any blood donation (including apheresis) within the last 4 weeks, or total volume of blood</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>donation within 12 months is 1200 mL (males)/800 mL (females) or more at screening&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>I8R-JE-IGBJ</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;have an average weekly alcohol intake that exceeds 21 units per week (males up to age 65) and 14 units per week (males over 65 and females), or are unwilling to stop alcohol consumption from Day -2</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>to discharge from CRU in each period (1 unit = 12 oz or 360 mL of beer; 5 oz or 150 mL of wine; 1.5 oz or 45 mL of distilled spirits)&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>I8R-JE-IGBJ</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;in the opinion of the investigator or sponsor, are unsuitable for inclusion in the study&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>I8R-JE-IGBJ</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;have pre-proliferative and proliferative retinopathy or maculopathy requiring treatment or not clinically stable in the last 6 months, or patients with active changes in subjective eye symptoms as</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>determined by the investigator if an eye exam has not been performed in the last 6 months. Note: If an eye examination has been performed no more than 6 months before screening, it will not have to be</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>repeated; however, the investigator will need to confirm via interview that there is no change in subjective symptoms.&lt;/p&gt;</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Anticonvulsants including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Depakote&amp;#174; (valproic acid) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n      </t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt;td&gt;Dilantin&amp;#174; (phenytoin)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Felbatol&amp;#174;\n          (felbamate)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n    </t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   &lt;td&gt;Klonopin&amp;#174; (clonazepam)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lamictal&amp;#174; (lamotrigine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n     </t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;tr&gt;\n        &lt;td&gt;Mysoline&amp;#174; (primidone)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Neurontin&amp;#174;\n          (gabapentin)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n </t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    &lt;tr&gt;\n        &lt;td&gt;Phenobarbitol&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tegretol&amp;#174; (carbamazepine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n </t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Alpha receptor blockers including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Aldomet&amp;#174; (methyldopa) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n     </t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>&lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cardura&amp;#174;\n          (doxazosin) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Catapres&amp;#174; (clonidine)\n        &lt;/td&gt;\n        &lt;td&gt;2</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Hytrin&amp;#174; (terazosin) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Minipress&amp;#174; (prazosin)&lt;/td&gt;\n        &lt;td&gt;2</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tenex&amp;#174; (guanfacine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Wytensin&amp;#174;\n          (guanabenz) &lt;/td&gt;\n       </t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;The use of low doses\n        (2 mg daily) of either Hytrin&lt;/b&gt;&amp;#174; &lt;b&gt;or Cardura&lt;/b&gt;&amp;#174; &lt;b&gt;for relief of\n        urinary retention for</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>patients with prostatic hypertrophy will be considered\n        on a case-by-case basis provided blood pressure is stable and the medication\n        has not had demonstrable effect on dementia</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>symptoms in the opinion of the treating\n        physician. Contact CRO medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Calcium channel blockers\n      that are CNS active including but not limited</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Calan&amp;#174; , Isoptin&amp;#174; , Verelan&amp;#174; (verapamil) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cardizem&amp;#174;</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(diltiazem) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Nimotop&amp;#174;\n          (nimodipine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n       </t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;Adalat&amp;#174; , Procardia XL&amp;#174;\n          (nifedipine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Cardene&lt;/b&gt;&amp;#174; &lt;b&gt;(nicardipine),\n        Norvasc&lt;/b&gt;&amp;#174; &lt;b&gt;,</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>(amlodipine), and DynaCirc&lt;/b&gt;&amp;#174; &lt;b&gt;(isradipine) will\n        be allowed during the study. If a patient is taking an excluded calcium channel\n        blocker and is changed to an equivalent dose</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>of an allowed calcium channel blocker,\n        enrollment may proceed in as little as 24 hours though 1 week is preferred when\n        possible.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Beta blockers</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Betapace&amp;#174; (sotalol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Inderal&amp;#174;</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>(propranolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lopressor&amp;#174;\n          , Toprol XL&amp;#174; (metoprolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       &lt;td&gt;Corgard&amp;#174; (nadolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Sectral&amp;#174; (acebutolol)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n       </t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;td&gt;Tenormin&amp;#174; (atenolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Visken&amp;#174; (pindolol)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Beta\n </t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      blocker eye drops for glaucoma will be considered on a case-by-case basis. Call\n        medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Beta sympathomimetics (unless inhaled) including\n     </t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Alupent&amp;#174; tablets\n          (metaproterenol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n       </t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;td&gt;Brethine&amp;#174; tablets\n          (terbutaline) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dopamine &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n       </t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;Proventil Repetabs&amp;#174; , Ventolin&amp;#174; tablets (albuterol tablets)\n        &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;Parasympathomimetics (cholinergics)</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(unless opthalmic) including but not limited to\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Antilirium&amp;#174; (physostigmine) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n       </t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;td&gt;Aricept&amp;#174; (donepezil) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cognex&amp;#174; (tacrine) &lt;/td&gt;\n        &lt;td&gt;1\n          month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n       </t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;td&gt;Mestinon&amp;#174; (pyridostigmine) &lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Reglan&amp;#174; (metoclopramide)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n       </t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;Urecholine&amp;#174;\n          , Duvoid (bethanechol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Cholinergic eye drops for treatment of glaucoma will be allowed during the</t>
+        </is>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>study on a case-by-case basis.\n        Please contact the CRO medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Muscle relaxants-centrally active including but not limited to &lt;/p&gt;\n    &lt;table</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Equanil&amp;#174; (meprobamate) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Flexeril&amp;#174; (cyclobenzaprine)&lt;/td&gt;\n        &lt;td&gt;2</t>
+        </is>
+      </c>
+      <c r="AN32" t="inlineStr">
+        <is>
+          <t>weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lioresal&amp;#174; (baclofen) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Norflex&amp;#174; (orphenadrine) &lt;/td&gt;\n        &lt;td&gt;2</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Parafon Forte&amp;#174; (chlorzoxazone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Robaxin&amp;#174; (methocarbamol) &lt;/td&gt;\n       </t>
+        </is>
+      </c>
+      <c r="AP32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Skelaxin&amp;#174; (metaxalone)\n        &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Soma&amp;#174; (carisoprodol) &lt;/td&gt;\n     </t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Monamine oxidase inhibitors (MAOI) including but not limited to&lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n       </t>
+        </is>
+      </c>
+      <c r="AR32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;td&gt;Eldepryl&amp;#174; (selegiline)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Nardil&amp;#174; (phenelzine) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n       </t>
+        </is>
+      </c>
+      <c r="AS32" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;Parnate&amp;#174; (tranylcypromine) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Parasympatholytics including but not limited to &lt;/p&gt;\n    &lt;table</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr">
+        <is>
+          <t>class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Antivert&amp;#174; , Bonine&amp;#174; , Dramamine II&amp;#174; (meclizine)&lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Artane&amp;#174;</t>
+        </is>
+      </c>
+      <c r="AU32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(trihexyphenidyl)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Bellergal-S&amp;#174; (alkaloids of belladonna and ergotamine) &lt;/td&gt;\n        &lt;td&gt;2 weeks &lt;/td&gt;\n      &lt;/tr&gt;\n     </t>
+        </is>
+      </c>
+      <c r="AV32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;tr&gt;\n        &lt;td&gt;Bentyl&amp;#174; (dicyclomine) &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cogentin&amp;#174; (benztropine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n     </t>
+        </is>
+      </c>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;tr&gt;\n        &lt;td&gt;Cystospaz&amp;#174;, Levsin&amp;#174; , Levsinex&amp;#174; (hyoscyamine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ditropan&amp;#174;\n          (oxybutynin) &lt;/td&gt;\n      </t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Donnatal&amp;#174; , Hyosophen&amp;#174;\n          (atropine, scopolamine, hyoscyamine and phenobarbitol) &lt;/td&gt;\n        &lt;td&gt;1 month &lt;/td&gt;\n     </t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dramamine&amp;#174; (dimenhydrinate)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lomotil&amp;#174;, Lonox&amp;#174; (atropine, diphenoxylate) &lt;/td&gt;\n       </t>
+        </is>
+      </c>
+      <c r="AZ32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Pro-Banthine&amp;#174;(propantheline) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Robinul&amp;#174; (glycopyrrolate)&lt;/td&gt;\n    </t>
+        </is>
+      </c>
+      <c r="BA32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tigan&amp;#174; (trimethobenzamide) &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Transderm-Scop&amp;#174; (scopolamine)</t>
+        </is>
+      </c>
+      <c r="BB32" t="inlineStr">
+        <is>
+          <t>&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Urispas&amp;#174; (flavoxate)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Antidepressants</t>
+        </is>
+      </c>
+      <c r="BC32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Anafranil&amp;#174; (clomipramine)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n       </t>
+        </is>
+      </c>
+      <c r="BD32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;td&gt;Asendin&amp;#174;\n          (amoxapine)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Desyrel&amp;#174; (trazodone)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n     </t>
+        </is>
+      </c>
+      <c r="BE32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;tr&gt;\n        &lt;td&gt;Effexor&amp;#174; (venlafaxine) &lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Elavil&amp;#174; (amitriptyline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n     </t>
+        </is>
+      </c>
+      <c r="BF32" t="inlineStr">
+        <is>
+          <t>&lt;tr&gt;\n        &lt;td&gt;Ludiomil&amp;#174;\n          (maprotiline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Norpramin&amp;#174; (desipramine)&lt;/td&gt;\n        &lt;td&gt;\n          1</t>
+        </is>
+      </c>
+      <c r="BG32" t="inlineStr">
+        <is>
+          <t>month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Pamelor&amp;#174; , Aventyl&amp;#174; (nortriptyline)&lt;/td&gt;\n        &lt;td&gt; 1\n          month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Paxil&amp;#174;</t>
+        </is>
+      </c>
+      <c r="BH32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(paroxetine)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Prozac&amp;#174;\n          (fluoxetine&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n       </t>
+        </is>
+      </c>
+      <c r="BI32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;td&gt;Remeron&amp;#174; (mirtazapine)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Serzone&amp;#174; (nefazodone) &lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n </t>
+        </is>
+      </c>
+      <c r="BJ32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      &lt;td&gt;Sinequan&amp;#174;\n          (doxepin)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tofranil&amp;#174; (imipramine)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n     </t>
+        </is>
+      </c>
+      <c r="BK32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Vivactil&amp;#174; (protriptyline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Wellbutrin&amp;#174; (bupropion)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n     </t>
+        </is>
+      </c>
+      <c r="BL32" t="inlineStr">
+        <is>
+          <t>&lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Zoloft&amp;#174;\n          (sertraline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Systemic corticosteroids including but not</t>
+        </is>
+      </c>
+      <c r="BM32" t="inlineStr">
+        <is>
+          <t>limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cortisone&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Decadron&amp;#174; (dexamethasone)&lt;/td&gt;\n        &lt;td&gt;2</t>
+        </is>
+      </c>
+      <c r="BN32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Depo-Medrol&amp;#174; (methylprednisolone)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Prednisone&lt;/td&gt;\n       </t>
+        </is>
+      </c>
+      <c r="BO32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Xanthine derivatives\n      including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n       </t>
+        </is>
+      </c>
+      <c r="BP32" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;Aminophylline&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Fioricet&amp;#174; , Esgic&amp;#174; , Phrenilin Forte&amp;#174; (caffeine, butalbital)&lt;/td&gt;\n        &lt;td&gt;3</t>
+        </is>
+      </c>
+      <c r="BQ32" t="inlineStr">
+        <is>
+          <t>days&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Theo-Dur&amp;#174; (theophylline)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Wigraine&amp;#174; ,</t>
+        </is>
+      </c>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cafergot&amp;#174; (caffeine, ergotamine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Histamine (H2 ) antagonists including but not limited to &lt;/p&gt;\n   </t>
+        </is>
+      </c>
+      <c r="BS32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Axid&amp;#174; (nizatidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Pepcid&amp;#174; (famotidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n    </t>
+        </is>
+      </c>
+      <c r="BT32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tagamet&amp;#174; (cimetidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Zantac&amp;#174; (ranitidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n   </t>
+        </is>
+      </c>
+      <c r="BU32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;If an H 2 antagonist is needed by the patient, Axid&lt;/b&gt;&amp;#174; &lt;b&gt;will be&lt;/b&gt; &lt;b&gt;allowed on a case-by-case\n        basis. Please consult CRO&lt;/b&gt; &lt;b&gt;medical monitor.&lt;/b&gt;&lt;/p&gt;\n </t>
+        </is>
+      </c>
+      <c r="BV32" t="inlineStr">
+        <is>
+          <t>&lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Narcotic Analgesics including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Darvocet-N\n          100&amp;#174; , (propoxyphene)&lt;/td&gt;\n        &lt;td&gt;1</t>
+        </is>
+      </c>
+      <c r="BW32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Demerol&amp;#174; (meperidine)&lt;/td&gt;\n        &lt;td&gt;1\n          week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dilaudid&amp;#174; (hydromorphone)&lt;/td&gt;\n       </t>
+        </is>
+      </c>
+      <c r="BX32" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Duragesic&amp;#174; (fentanyl)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;MS\n          Contin&amp;#174; , Roxanol&amp;#174; ,</t>
+        </is>
+      </c>
+      <c r="BY32" t="inlineStr">
+        <is>
+          <t>Oramorph&amp;#174; (morphine) &lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Percocet&amp;#174; , Roxicet&amp;#174; (oxycodone with acetaminophen)&lt;/td&gt;\n        &lt;td&gt;3\n          days</t>
+        </is>
+      </c>
+      <c r="BZ32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Percodan&amp;#174; , Roxiprin&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Stadol&amp;#174; (butorphanol)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n   </t>
+        </is>
+      </c>
+      <c r="CA32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Talacen&amp;#174;\n          (pentazocine)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tylenol #2&amp;#174; , #3&amp;#174;\n          , #4&amp;#174; (codeine</t>
+        </is>
+      </c>
+      <c r="CB32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and acetaminophen) &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tylox&amp;#174;\n          , Roxilox&amp;#174; (oxycodone)&lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n   </t>
+        </is>
+      </c>
+      <c r="CC32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    &lt;td&gt;Vicodin&amp;#174;, Lorcet&amp;#174; (hydrocodone)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Percocet\n        (oxycodone with acetaminophen) and Tylenol&lt;/b&gt;&amp;#174; &lt;b&gt;with</t>
+        </is>
+      </c>
+      <c r="CD32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">codeine #2, #3, #4\n        (acetaminophen + codeine) ARE allowed in the month prior to enrollment, but\n        are not permitted in the 3 days prior to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n   </t>
+        </is>
+      </c>
+      <c r="CE32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Neuroleptics\n      (antipsychotics) including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Clozaril&amp;#174;\n          (clozapine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n    </t>
+        </is>
+      </c>
+      <c r="CF32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Haldol&amp;#174; (haloperidol)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Loxitane&amp;#174; (loxapine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n   </t>
+        </is>
+      </c>
+      <c r="CG32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mellaril&amp;#174; (thioridazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Moban&amp;#174;\n          (molindone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n </t>
+        </is>
+      </c>
+      <c r="CH32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Navane&amp;#174; (thiothixene)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Orap&amp;#174; (pimozide)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n    </t>
+        </is>
+      </c>
+      <c r="CI32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Prolixin&amp;#174; (fluphenazine)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Risperdal&amp;#174;\n          (risperidone)&lt;/td&gt;\n        &lt;td&gt;2</t>
+        </is>
+      </c>
+      <c r="CJ32" t="inlineStr">
+        <is>
+          <t>weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Stelazine&amp;#174; (trifluoperazine)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Thorazine&amp;#174;</t>
+        </is>
+      </c>
+      <c r="CK32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(chlorpromazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Trilafon&amp;#174; (perphenazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n       </t>
+        </is>
+      </c>
+      <c r="CL32" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;Serentil&amp;#174;\n          (mesoridazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;The use of neuroleptics\n        on a daily basis must be discontinued 2 to 4 weeks</t>
+        </is>
+      </c>
+      <c r="CM32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">prior to enrollment. The\n        use of neuroleptics on an as-needed basis is allowable during the screening\n        period, but the last dose must be at least 7 days prior to enrollment.&lt;/b&gt;&lt;/p&gt;\n </t>
+        </is>
+      </c>
+      <c r="CN32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Antianxiety agents including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Atarax&amp;#174; (hydroxyzine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n </t>
+        </is>
+      </c>
+      <c r="CO32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    &lt;tr&gt;\n        &lt;td&gt;BuSpar&amp;#174;\n          (buspirone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Librium&amp;#174; (chlordiazepoxide)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n     </t>
+        </is>
+      </c>
+      <c r="CP32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Serax&amp;#174; (oxazepam)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tranxene&amp;#174; (clorazepate)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n   </t>
+        </is>
+      </c>
+      <c r="CQ32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  &lt;tr&gt;\n        &lt;td&gt;Valium&amp;#174; (diazepam)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Vistaril&amp;#174; (hydroxyzine pamoate)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n     </t>
+        </is>
+      </c>
+      <c r="CR32" t="inlineStr">
+        <is>
+          <t>&lt;tr&gt;\n        &lt;td&gt;Xanax&amp;#174; (alprazolam)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Ativan&lt;/b&gt;&amp;#174; &lt;b&gt;(lorazepam) should be discontinued on a daily\n        basis 2</t>
+        </is>
+      </c>
+      <c r="CS32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">weeks&lt;/b&gt;&lt;/p&gt;\n    &lt;p&gt;&lt;b&gt;prior to enrollment. It may be used on an as-needed\n        basis during the screening period, but is not permitted in the 24 hours prior\n        to enrollment.&lt;/b&gt;&lt;/p&gt;\n </t>
+        </is>
+      </c>
+      <c r="CT32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Hypnotics/Sedatives including but not limited to&lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ambien&amp;#174; (zolpidem)&lt;/td&gt;\n        &lt;td&gt; 3 days\n        &lt;/td&gt;\n     </t>
+        </is>
+      </c>
+      <c r="CU32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dalmane&amp;#174; (flurazepam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Doral&amp;#174; (quazepam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n     </t>
+        </is>
+      </c>
+      <c r="CV32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;tr&gt;\n        &lt;td&gt;Halcion&amp;#174; (triazolam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Nembutal&amp;#174; &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n       </t>
+        </is>
+      </c>
+      <c r="CW32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;td&gt;ProSom&amp;#174; (estazolam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Restoril&amp;#174;\n          (temazepam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n       </t>
+        </is>
+      </c>
+      <c r="CX32" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;Seconal&amp;#174;&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Chloral Hydrate is allowed on an as-needed basis during screening, but is not permitted in the 24 hours prior to</t>
+        </is>
+      </c>
+      <c r="CY32" t="inlineStr">
+        <is>
+          <t>enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Histamine (H1 ) antagonists including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Actifed&amp;#174; , Actifed Plus&amp;#174;</t>
+        </is>
+      </c>
+      <c r="CZ32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(triprolidine) Benadryl&amp;#174;\n          , Unisom&amp;#174; , Tylenol P.M.&amp;#174; &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;(diphenhydramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n    </t>
+        </is>
+      </c>
+      <c r="DA32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Compazine&amp;#174; (prochlorperazine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Contac&amp;#174; , Coricidin D&amp;#174; , Sinutab&amp;#174; ,</t>
+        </is>
+      </c>
+      <c r="DB32" t="inlineStr">
+        <is>
+          <t>Novahistine&amp;#174; , Alka\n          Seltzer Plus&amp;#174; , Naldecon&amp;#174; , Sudafed Plus&amp;#174; , Tylenol Cold&amp;#174; , Tylenol\n          Cold and Flu&amp;#174; (chlorpheniramine)&lt;/td&gt;\n        &lt;td&gt;3</t>
+        </is>
+      </c>
+      <c r="DC32" t="inlineStr">
+        <is>
+          <t>days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dimetapp&amp;#174;\n          (brompheniramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Drixoral&amp;#174;</t>
+        </is>
+      </c>
+      <c r="DD32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(dexbrompheniramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Hismanal&amp;#174; (astemizole)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n       </t>
+        </is>
+      </c>
+      <c r="DE32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;td&gt;Phenergan&amp;#174;\n          (promethazine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Seldane&amp;#174; (terfenadine)&lt;/td&gt;\n        &lt;td&gt;1\n          week&lt;/td&gt;\n      &lt;/tr&gt;\n   </t>
+        </is>
+      </c>
+      <c r="DF32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  &lt;tr&gt;\n        &lt;td&gt;Tavist&amp;#174; (clemastine fumarate)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Zyrtec&amp;#174; (cetrizine) &lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n   </t>
+        </is>
+      </c>
+      <c r="DG32" t="inlineStr">
+        <is>
+          <t>&lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Allegra&lt;/b&gt;&amp;#174;\n      &lt;b&gt;(fexofenadine hydrochloride) or Claritin&lt;/b&gt;&amp;#174; &lt;b&gt;(loratadine) may be taken\n        on as-needed basis during screening but must be discontinued</t>
+        </is>
+      </c>
+      <c r="DH32" t="inlineStr">
+        <is>
+          <t>within 24 hours\n        of enrollment.&lt;/b&gt;\n    &lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Stimulants including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cylert&amp;#174; (pemoline)</t>
+        </is>
+      </c>
+      <c r="DI32" t="inlineStr">
+        <is>
+          <t>&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ritalin&amp;#174; (methylphenidate)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Antiarrhythmics</t>
+        </is>
+      </c>
+      <c r="DJ32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">including but not limited to the following&lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Adenocard&amp;#174; (adenosine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cordarone&amp;#174;\n         </t>
+        </is>
+      </c>
+      <c r="DK32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(amiodarone) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ethmozine&amp;#174; (moricizine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mexitil&amp;#174; (mexiletine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n       </t>
+        </is>
+      </c>
+      <c r="DL32" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;Norpace&amp;#174; (disopyramide)\n        &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Procan&amp;#174; (procainamide) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Quinaglute&amp;#174;\n          (quinidine)</t>
+        </is>
+      </c>
+      <c r="DM32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Rythmol&amp;#174; (propafenone) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tambocor&amp;#174;\n          (flecainide) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n       </t>
+        </is>
+      </c>
+      <c r="DN32" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;Tonocard&amp;#174; (tocainide)&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Requirement of these drugs for control of cardiac arrhythmia indicates that\n        the patient should be excluded from the</t>
+        </is>
+      </c>
+      <c r="DO32" t="inlineStr">
+        <is>
+          <t>study. If discontinuation of an antiarrhythmic\n        is considered, please discuss case with CRO medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Miscellaneous drugs including but not limited to</t>
+        </is>
+      </c>
+      <c r="DP32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Coenzyme\n          Q&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Eskalith&amp;#174; , Lithobid&amp;#174; (lithium)&lt;/td&gt;\n    </t>
+        </is>
+      </c>
+      <c r="DQ32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   &lt;td&gt;2\n          weeks &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ginkgo biloba&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lecithin\n        &lt;/td&gt;\n        &lt;td&gt;1</t>
+        </is>
+      </c>
+      <c r="DR32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lecithin &lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lupron&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n       </t>
+        </is>
+      </c>
+      <c r="DS32" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;Tamoxifen&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Estrogen supplements are permitted during the study, but dosage must be stable for at least 3 months</t>
+        </is>
+      </c>
+      <c r="DT32" t="inlineStr">
+        <is>
+          <t>prior to\n      enrollment.&lt;/p&gt;\n  &lt;/li&gt;\n&lt;/ol&gt;</t>
         </is>
       </c>
     </row>
@@ -4096,10 +6367,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -4174,7 +6445,7 @@
     <row r="2" ht="93" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
@@ -4194,17 +6465,17 @@
       </c>
       <c r="E2" s="9" t="inlineStr">
         <is>
-          <t>AGEMIN</t>
+          <t>ADAPT</t>
         </is>
       </c>
       <c r="F2" s="6" t="inlineStr">
         <is>
-          <t>Planned Minimum Age of Subjects</t>
+          <t>Adaptive Design</t>
         </is>
       </c>
       <c r="G2" s="24" t="inlineStr">
         <is>
-          <t>18  Year</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="H2" s="23" t="inlineStr">
@@ -4216,7 +6487,7 @@
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
@@ -4236,7 +6507,7 @@
       </c>
       <c r="E3" s="9" t="inlineStr">
         <is>
-          <t>AGEMAX</t>
+          <t>AGEMIN</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
@@ -4246,7 +6517,7 @@
       </c>
       <c r="G3" s="22" t="inlineStr">
         <is>
-          <t>70  Year</t>
+          <t xml:space="preserve">50 Year </t>
         </is>
       </c>
       <c r="H3" s="9" t="inlineStr">
@@ -4258,7 +6529,7 @@
     <row r="4">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
@@ -4266,27 +6537,29 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C4" s="9" t="n">
-        <v>1</v>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
-          <t>StudyIntervention_1</t>
+          <t> </t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
         <is>
-          <t>CRMDUR</t>
+          <t>AGEMAX</t>
         </is>
       </c>
       <c r="F4" s="12" t="inlineStr">
         <is>
-          <t>Confirmed Response Minimum Duration</t>
+          <t>Planned Minimum Age of Subjects</t>
         </is>
       </c>
       <c r="G4" s="22" t="inlineStr">
         <is>
-          <t>1 Day</t>
+          <t xml:space="preserve">100 Year </t>
         </is>
       </c>
       <c r="H4" s="23" t="inlineStr">
@@ -4298,7 +6571,7 @@
     <row r="5">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B5" s="9" t="inlineStr">
@@ -4307,11 +6580,11 @@
         </is>
       </c>
       <c r="C5" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="9" t="inlineStr">
         <is>
-          <t>StudyIntervention_2</t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
@@ -4338,7 +6611,7 @@
     <row r="6" ht="43.5" customHeight="1">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
@@ -4347,26 +6620,26 @@
         </is>
       </c>
       <c r="C6" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t>StudyIntervention_1</t>
+          <t>StudyIntervention_2</t>
         </is>
       </c>
       <c r="E6" s="9" t="inlineStr">
         <is>
-          <t>DOSE</t>
+          <t>CRMDUR</t>
         </is>
       </c>
       <c r="F6" s="12" t="inlineStr">
         <is>
-          <t>Dose Level; Dose per Administration</t>
+          <t>Confirmed Response Minimum Duration</t>
         </is>
       </c>
       <c r="G6" s="22" t="inlineStr">
         <is>
-          <t>3.0,</t>
+          <t>1 Day</t>
         </is>
       </c>
       <c r="H6" s="23" t="inlineStr">
@@ -4378,7 +6651,7 @@
     <row r="7" ht="29" customHeight="1">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B7" s="9" t="inlineStr">
@@ -4387,26 +6660,26 @@
         </is>
       </c>
       <c r="C7" s="9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="9" t="inlineStr">
         <is>
-          <t>StudyIntervention_2</t>
+          <t>StudyIntervention_3</t>
         </is>
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>DOSE</t>
+          <t>CRMDUR</t>
         </is>
       </c>
       <c r="F7" s="12" t="inlineStr">
         <is>
-          <t>Dose Level; Dose per Administration</t>
+          <t>Confirmed Response Minimum Duration</t>
         </is>
       </c>
       <c r="G7" s="22" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1 Day</t>
         </is>
       </c>
       <c r="H7" s="23" t="inlineStr">
@@ -4418,7 +6691,7 @@
     <row r="8">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr">
@@ -4436,44 +6709,29 @@
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>DOSFRQ</t>
+          <t>DOSE</t>
         </is>
       </c>
       <c r="F8" s="12" t="inlineStr">
         <is>
-          <t>Dosing Frequency</t>
+          <t>Dose Level; Dose per Administration</t>
         </is>
       </c>
       <c r="G8" s="22" t="inlineStr">
         <is>
-          <t>Once</t>
+          <t>54.0, 81.0],</t>
         </is>
       </c>
       <c r="H8" s="23" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>C64576</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B9" s="9" t="inlineStr">
@@ -4491,44 +6749,29 @@
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>DOSFRQ</t>
+          <t>DOSE</t>
         </is>
       </c>
       <c r="F9" s="12" t="inlineStr">
         <is>
-          <t>Dosing Frequency</t>
+          <t>Dose Level; Dose per Administration</t>
         </is>
       </c>
       <c r="G9" s="22" t="inlineStr">
         <is>
-          <t>Once</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="H9" s="23" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>C64576</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="10" ht="29" customHeight="1">
       <c r="A10" s="9" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B10" s="9" t="inlineStr">
@@ -4546,17 +6789,17 @@
       </c>
       <c r="E10" s="9" t="inlineStr">
         <is>
-          <t>DOSU</t>
+          <t>DOSFRQ</t>
         </is>
       </c>
       <c r="F10" s="12" t="inlineStr">
         <is>
-          <t>Dose Units</t>
+          <t>Dosing Frequency</t>
         </is>
       </c>
       <c r="G10" s="22" t="inlineStr">
         <is>
-          <t>Milligram</t>
+          <t>QD</t>
         </is>
       </c>
       <c r="H10" s="23" t="inlineStr">
@@ -4566,7 +6809,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>C28253</t>
+          <t>C25473</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -4576,14 +6819,14 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2025-09-26</t>
         </is>
       </c>
     </row>
     <row r="11" ht="29" customHeight="1">
       <c r="A11" s="9" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B11" s="9" t="inlineStr">
@@ -4596,22 +6839,22 @@
       </c>
       <c r="D11" s="9" t="inlineStr">
         <is>
-          <t>StudyIntervention_2</t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E11" s="9" t="inlineStr">
         <is>
-          <t>DOSU</t>
+          <t>DOSFRQ</t>
         </is>
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>Dose Units</t>
+          <t>Dosing Frequency</t>
         </is>
       </c>
       <c r="G11" s="22" t="inlineStr">
         <is>
-          <t>Milligram</t>
+          <t>QD'],</t>
         </is>
       </c>
       <c r="H11" s="23" t="inlineStr">
@@ -4621,24 +6864,24 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>C28253</t>
+          <t>C25473'],</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>http://www.cdisc.org</t>
+          <t>//www.cdisc.org'],</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2025-09-26'],</t>
         </is>
       </c>
     </row>
     <row r="12" ht="43.5" customHeight="1">
       <c r="A12" s="9" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B12" s="9" t="inlineStr">
@@ -4647,38 +6890,53 @@
         </is>
       </c>
       <c r="C12" s="9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>Indication_1</t>
+          <t>StudyIntervention_2</t>
         </is>
       </c>
       <c r="E12" s="9" t="inlineStr">
         <is>
-          <t>INDIC</t>
+          <t>DOSFRQ</t>
         </is>
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
+          <t>Dosing Frequency</t>
         </is>
       </c>
       <c r="G12" s="22" t="inlineStr">
         <is>
-          <t>T1DM</t>
+          <t>QD</t>
         </is>
       </c>
       <c r="H12" s="23" t="inlineStr">
         <is>
           <t> </t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>C25473</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4687,38 +6945,53 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Indication_2</t>
+          <t>StudyIntervention_3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>INDIC</t>
+          <t>DOSFRQ</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
+          <t>Dosing Frequency</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>T2DM</t>
+          <t>QD</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t> </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>C25473</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4726,29 +6999,27 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C14" t="n">
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t> </t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>INTMODEL</t>
+          <t>DOSU</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Intervention Model</t>
+          <t>Dose Units</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Parallel Study</t>
+          <t>Milligram</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -4758,24 +7029,24 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>C82639</t>
+          <t>C28253</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>//www.cdisc.org</t>
+          <t>http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2025-09-26</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4784,7 +7055,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -4793,17 +7064,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>INTTYPE</t>
+          <t>DOSU</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Intervention Type</t>
+          <t>Dose Units</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pharmacologic Substance</t>
+          <t>Milligram'],</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -4813,24 +7084,24 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>C1909</t>
+          <t>C28253'],</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>http://www.cdisc.org</t>
+          <t>//www.cdisc.org'],</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2025-09-26'],</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4839,7 +7110,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -4848,17 +7119,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>INTTYPE</t>
+          <t>DOSU</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Intervention Type</t>
+          <t>Dose Units</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pharmacologic Substance</t>
+          <t>Milligram</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -4868,7 +7139,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>C1909</t>
+          <t>C28253</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -4878,14 +7149,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2025-09-26</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4905,17 +7176,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NARMS</t>
+          <t>EXTTIND</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Planned Number of Arms</t>
+          <t>Extension Trial Indicator</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -4927,7 +7198,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4935,29 +7206,27 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C18" t="n">
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Indication_1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NCOHORT</t>
+          <t>INDIC</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Number of Groups/Cohorts</t>
+          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>"Alzheimer's disease",</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -4969,7 +7238,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4978,26 +7247,26 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Objective_5</t>
+          <t>Indication_2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>OBJEXP</t>
+          <t>INDIC</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Trial Exploratory Objective</t>
+          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Explore the formation of anti-glucagon antibodies to glucagon</t>
+          <t>"Alzheimer's disease"</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -5009,7 +7278,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -5017,39 +7286,56 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>2</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Objective_6</t>
+          <t> </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>OBJEXP</t>
+          <t>INTMODEL</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trial Exploratory Objective</t>
+          <t>Intervention Model</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>To evaluate the recovery from clinical symptoms of hypoglycemia</t>
+          <t>Parallel Study</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
           <t> </t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>C82639</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>//www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -5062,34 +7348,49 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Objective_1</t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>OBJPRIM</t>
+          <t>INTTYPE</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Study Primary Objective; Trial Primary Objective</t>
+          <t>Intervention Type</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%</t>
+          <t>DRUG</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
           <t> </t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>C1909</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -5098,38 +7399,53 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Objective_2</t>
+          <t>StudyIntervention_2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>OBJSEC</t>
+          <t>INTTYPE</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Study Secondary Objective; Trial Secondary Objective</t>
+          <t>Intervention Type</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG</t>
+          <t>DRUG</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
           <t> </t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>C1909</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -5138,38 +7454,53 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Objective_3</t>
+          <t>StudyIntervention_3</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>OBJSEC</t>
+          <t>INTTYPE</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Study Secondary Objective; Trial Secondary Objective</t>
+          <t>Intervention Type</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG</t>
+          <t>DRUG</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
           <t> </t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>C1909</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5177,27 +7508,29 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>3</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Objective_4</t>
+          <t> </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>OBJSEC</t>
+          <t>NARMS</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Study Secondary Objective; Trial Secondary Objective</t>
+          <t>Planned Number of Arms</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -5209,7 +7542,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5217,21 +7550,31 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>OUTMSEXP</t>
+          <t>NCOHORT</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Exploratory Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>Number of Groups/Cohorts</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
           <t> </t>
@@ -5241,7 +7584,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5252,18 +7595,26 @@
       <c r="C26" t="n">
         <v>1</v>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Objective_1</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>OUTMSSEC</t>
+          <t>OBJPRIM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Secondary Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>Study Primary Objective; Trial Primary Objective</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;To determine if there is a statistically significant relationship (overall Type 1 erroralpha=0.05) between the change in both the ADAS-Cog (11) and CIBIC+ scores, and drug dose (0, 50 cm2 [54 mg], and 75 cm2 [81 mg]).&lt;/p&gt;</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
           <t> </t>
@@ -5273,7 +7624,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5281,29 +7632,27 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C27" t="n">
+        <v>2</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Objective_2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PLANSUB</t>
+          <t>OBJPRIM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
+          <t>Study Primary Objective; Trial Primary Objective</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>&lt;p&gt;To document the safety profile of the xanomeline TTS.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -5315,7 +7664,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5328,22 +7677,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>StudyIntervention_1</t>
+          <t>Objective_3</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PTRTDUR</t>
+          <t>OBJSEC</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Planned Treatment Duration</t>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1 Day</t>
+          <t>&lt;p&gt;To assess the dose-dependent improvement in behavior. Improved scores on the Revised Neuropsychiatric Inventory (NPI-X) will indicate improvement in these areas.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -5355,7 +7704,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5368,22 +7717,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>StudyIntervention_2</t>
+          <t>Objective_4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PTRTDUR</t>
+          <t>OBJSEC</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Planned Treatment Duration</t>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1 Day</t>
+          <t>&lt;p&gt;To assess the dose-dependent improvements in activities of daily living. Improved scores on the Disability Assessment for Dementia (DAD) will indicate improvement in these areas (see Attachment LZZT.5).&lt;/p&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -5395,7 +7744,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5404,53 +7753,38 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>StudyIntervention_1</t>
+          <t>Objective_5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ROUTE</t>
+          <t>OBJSEC</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Route of Administration</t>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Nasal Route of Administration</t>
+          <t>"&lt;p&gt;To assess the dose-dependent improvements in an extended assessment of cognition that integrates attention/concentration tasks. The Alzheimer's Disease Assessment Scale-14 item Cognitive Subscale, hereafter referred to as ADAS-Cog (14), will be used for this assessment (see Attachment LZZT.2).&lt;/p&gt;",</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>C38284</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5459,53 +7793,38 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>StudyIntervention_2</t>
+          <t>Objective_6</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ROUTE</t>
+          <t>OBJSEC</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Route of Administration</t>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Intramuscular Route of Administration</t>
+          <t>&lt;p&gt;To assess the treatment response as a function of Apo E genotype.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>C28161</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -5513,31 +7832,21 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SPONSOR</t>
+          <t>OUTMSPRI</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Eli Lilly Japan K.K</t>
-        </is>
-      </c>
+          <t>Primary Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
           <t> </t>
@@ -5547,7 +7856,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5555,56 +7864,31 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>STYPE</t>
+          <t>OUTMSSEC</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Study Type; Study Type Classification</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Interventional Study</t>
-        </is>
-      </c>
+          <t>Secondary Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>C98388</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>//www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5624,44 +7908,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>TBLIND</t>
+          <t>PLANSUB</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
+          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Open Label Study</t>
+          <t>300.0</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>C49659</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>//www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5674,49 +7943,34 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Code_129</t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>TINDTP</t>
+          <t>PTRTDUR</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Trial Intent Type</t>
+          <t>Planned Treatment Duration</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Basic Research</t>
+          <t>24.0,24.0] ["Week","Week"</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>C15714</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5729,49 +7983,34 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Code_130</t>
+          <t>StudyIntervention_2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TINDTP</t>
+          <t>PTRTDUR</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Trial Intent Type</t>
+          <t>Planned Treatment Duration</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Device Feasibility Study</t>
+          <t>24 Week</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>C139174</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5780,26 +8019,26 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>StudyIntervention_1</t>
+          <t>StudyIntervention_3</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TRT</t>
+          <t>PTRTDUR</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Investigational Therapy or Treatment</t>
+          <t>Planned Treatment Duration</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>LY900018</t>
+          <t>24 Week</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -5811,7 +8050,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5820,38 +8059,53 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>StudyIntervention_2</t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TRT</t>
+          <t>ROUTE</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Investigational Therapy or Treatment</t>
+          <t>Route of Administration</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>GlucaGen</t>
+          <t>ORAL</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
           <t> </t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>C38288</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>I8R-JE-IGBJ</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5860,46 +8114,806 @@
         </is>
       </c>
       <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>StudyIntervention_1</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ROUTE</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Route of Administration</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>ORAL'],</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>C38288'],</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>//www.cdisc.org'],</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2025-09-26'],</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>StudyIntervention_2</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ROUTE</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Route of Administration</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>ORAL</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>C38288</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>4</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>StudyIntervention_3</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ROUTE</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Route of Administration</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>ORAL</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>C38288</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>SPONSOR</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Eli Lilly</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>STYPE</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Study Type; Study Type Classification</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Interventional Study</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>C98388</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>//www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>TBLIND</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Double Blind Study</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>C15228</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>//www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>THERAREA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Therapeutic Area</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>"Mild to Moderate Alzheimer's Disease", "Alzheimer's disease"</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>MILD_MOD_ALZ', '26929004</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>SPONSOR', 'SNOMED</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>12', '2025-02-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
         <v>1</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Code_131</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Code_152</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>TINDTP</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Trial Intent Type</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Treatment Study</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>C49656</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Code_152_a</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>TINDTP</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Trial Intent Type</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Cure Study</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>C49654</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>TITLE</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Official Study Title; Study Title; Trial Title</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Safety and Efficacy of the Xanomeline Transdermal Therapeutic System (TTS) in Patients with Mild to Moderate Alzheimer's Disease</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>StudyIntervention_1</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>TRT</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Investigational Therapy or Treatment</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Xinomiline</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>StudyIntervention_2</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>TRT</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Investigational Therapy or Treatment</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Xinomiline</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>3</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>StudyIntervention_3</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>TRT</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Investigational Therapy or Treatment</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>placebo</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Code_153</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>TTYPE</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Trial Scope; Trial Type</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>Efficacy Study</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>C49666</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>http://www.cdisc.org</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Code_154</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>TTYPE</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Trial Scope; Trial Type</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Safety Study</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>C49667</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>3</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Code_155</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>TTYPE</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Trial Scope; Trial Type</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Pharmacokinetic Study</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>C49663</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
         </is>
       </c>
     </row>
@@ -6017,6 +9031,11 @@
       </c>
       <c r="G2" s="31" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
@@ -6061,7 +9080,7 @@
       </c>
       <c r="G3" s="29" t="inlineStr">
         <is>
-          <t>18  Year</t>
+          <t xml:space="preserve">50 Year </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6110,7 +9129,7 @@
       </c>
       <c r="G4" s="29" t="inlineStr">
         <is>
-          <t>70  Year</t>
+          <t xml:space="preserve">100 Year </t>
         </is>
       </c>
       <c r="H4" s="32" t="inlineStr">
@@ -6423,7 +9442,7 @@
       </c>
       <c r="G10" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
+          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day', 'StudyIntervention_3': '1 Day'}</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -6576,7 +9595,7 @@
       </c>
       <c r="G13" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 3.0, 'StudyIntervention_2': 1.0}</t>
+          <t>{'StudyIntervention_1': [54.0, 81.0], 'StudyIntervention_2': 54.0}</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -6685,7 +9704,7 @@
       </c>
       <c r="G15" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Once', 'StudyIntervention_2': 'Once'}</t>
+          <t>{'StudyIntervention_1': ['QD', 'QD'], 'StudyIntervention_2': 'QD', 'StudyIntervention_3': 'QD'}</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -6695,17 +9714,17 @@
       </c>
       <c r="I15" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C64576', 'StudyIntervention_2': 'C64576'}</t>
+          <t>{'StudyIntervention_1': ['C25473', 'C25473'], 'StudyIntervention_2': 'C25473', 'StudyIntervention_3': 'C25473'}</t>
         </is>
       </c>
       <c r="J15" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+          <t>{'StudyIntervention_1': ['http://www.cdisc.org', 'http://www.cdisc.org'], 'StudyIntervention_2': 'http://www.cdisc.org', 'StudyIntervention_3': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K15" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
+          <t>{'StudyIntervention_1': ['2025-09-26', '2025-09-26'], 'StudyIntervention_2': '2025-09-26', 'StudyIntervention_3': '2025-09-26'}</t>
         </is>
       </c>
     </row>
@@ -6742,7 +9761,7 @@
       </c>
       <c r="G16" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
+          <t>{'StudyIntervention_1': ['Milligram', 'Milligram'], 'StudyIntervention_2': 'Milligram'}</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -6752,17 +9771,17 @@
       </c>
       <c r="I16" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C28253', 'StudyIntervention_2': 'C28253'}</t>
+          <t>{'StudyIntervention_1': ['C28253', 'C28253'], 'StudyIntervention_2': 'C28253'}</t>
         </is>
       </c>
       <c r="J16" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+          <t>{'StudyIntervention_1': ['http://www.cdisc.org', 'http://www.cdisc.org'], 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K16" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
+          <t>{'StudyIntervention_1': ['2025-09-26', '2025-09-26'], 'StudyIntervention_2': '2025-09-26'}</t>
         </is>
       </c>
     </row>
@@ -6791,6 +9810,11 @@
       </c>
       <c r="G17" s="33" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
@@ -6927,7 +9951,7 @@
       </c>
       <c r="G20" s="29" t="inlineStr">
         <is>
-          <t>{'Indication_1': 'T1DM', 'Indication_2': 'T2DM'}</t>
+          <t>{'Indication_1': "Alzheimer's disease", 'Indication_2': "Alzheimer's disease"}</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -6996,7 +10020,7 @@
       </c>
       <c r="K21" s="34" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2025-09-26</t>
         </is>
       </c>
     </row>
@@ -7033,7 +10057,7 @@
       </c>
       <c r="G22" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Pharmacologic Substance', 'StudyIntervention_2': 'Pharmacologic Substance'}</t>
+          <t>{'StudyIntervention_1': 'DRUG', 'StudyIntervention_2': 'DRUG', 'StudyIntervention_3': 'DRUG'}</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -7043,17 +10067,17 @@
       </c>
       <c r="I22" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C1909', 'StudyIntervention_2': 'C1909'}</t>
+          <t>{'StudyIntervention_1': 'C1909', 'StudyIntervention_2': 'C1909', 'StudyIntervention_3': 'C1909'}</t>
         </is>
       </c>
       <c r="J22" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org', 'StudyIntervention_3': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K22" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
+          <t>{'StudyIntervention_1': '2025-09-26', 'StudyIntervention_2': '2025-09-26', 'StudyIntervention_3': '2025-09-26'}</t>
         </is>
       </c>
     </row>
@@ -7175,7 +10199,7 @@
       </c>
       <c r="G25" s="39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -7224,7 +10248,7 @@
       </c>
       <c r="G26" s="34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -7325,11 +10349,6 @@
       </c>
       <c r="G28" s="29" t="inlineStr">
         <is>
-          <t>{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon', 'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
           <t> </t>
         </is>
       </c>
@@ -7382,7 +10401,7 @@
       </c>
       <c r="G29" s="29" t="inlineStr">
         <is>
-          <t>{'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%'}</t>
+          <t>{'Objective_1': '&lt;p&gt;To determine if there is a statistically significant relationship (overall Type 1 erroralpha=0.05) between the change in both the ADAS-Cog (11) and CIBIC+ scores, and drug dose (0, 50 cm2 [54 mg], and 75 cm2 [81 mg]).&lt;/p&gt;', 'Objective_2': '&lt;p&gt;To document the safety profile of the xanomeline TTS.&lt;/p&gt;'}</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -7439,7 +10458,7 @@
       </c>
       <c r="G30" s="29" t="inlineStr">
         <is>
-          <t>{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG', 'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG', 'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}</t>
+          <t>{'Objective_3': '&lt;p&gt;To assess the dose-dependent improvement in behavior. Improved scores on the Revised Neuropsychiatric Inventory (NPI-X) will indicate improvement in these areas.&lt;/p&gt;', 'Objective_4': '&lt;p&gt;To assess the dose-dependent improvements in activities of daily living. Improved scores on the Disability Assessment for Dementia (DAD) will indicate improvement in these areas (see Attachment LZZT.5).&lt;/p&gt;', 'Objective_5': "&lt;p&gt;To assess the dose-dependent improvements in an extended assessment of cognition that integrates attention/concentration tasks. The Alzheimer's Disease Assessment Scale-14 item Cognitive Subscale, hereafter referred to as ADAS-Cog (14), will be used for this assessment (see Attachment LZZT.2).&lt;/p&gt;", 'Objective_6': '&lt;p&gt;To assess the treatment response as a function of Apo E genotype.&lt;/p&gt;'}</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -7672,11 +10691,6 @@
       </c>
       <c r="G35" s="29" t="inlineStr">
         <is>
-          <t>{, }</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
           <t> </t>
         </is>
       </c>
@@ -7729,6 +10743,11 @@
       </c>
       <c r="G36" s="29" t="inlineStr">
         <is>
+          <t>{, }</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
@@ -7781,7 +10800,7 @@
       </c>
       <c r="G37" s="29" t="inlineStr">
         <is>
-          <t>{, , }</t>
+          <t>{, , , }</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -7922,7 +10941,7 @@
       </c>
       <c r="G40" s="29" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>300.0</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -7975,7 +10994,7 @@
       </c>
       <c r="G41" s="34" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
+          <t>{'StudyIntervention_1': '[24.0,24.0] ["Week","Week"]', 'StudyIntervention_2': '24 Week', 'StudyIntervention_3': '24 Week'}</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -8172,7 +11191,7 @@
       </c>
       <c r="G45" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+          <t>{'StudyIntervention_1': ['ORAL', 'ORAL'], 'StudyIntervention_2': 'ORAL', 'StudyIntervention_3': 'ORAL'}</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -8182,17 +11201,17 @@
       </c>
       <c r="I45" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C38284', 'StudyIntervention_2': 'C28161'}</t>
+          <t>{'StudyIntervention_1': ['C38288', 'C38288'], 'StudyIntervention_2': 'C38288', 'StudyIntervention_3': 'C38288'}</t>
         </is>
       </c>
       <c r="J45" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+          <t>{'StudyIntervention_1': ['http://www.cdisc.org', 'http://www.cdisc.org'], 'StudyIntervention_2': 'http://www.cdisc.org', 'StudyIntervention_3': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K45" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
+          <t>{'StudyIntervention_1': ['2025-09-26', '2025-09-26'], 'StudyIntervention_2': '2025-09-26', 'StudyIntervention_3': '2025-09-26'}</t>
         </is>
       </c>
     </row>
@@ -8317,7 +11336,7 @@
       </c>
       <c r="G48" s="29" t="inlineStr">
         <is>
-          <t>Eli Lilly Japan K.K</t>
+          <t>Eli Lilly</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -8478,7 +11497,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2025-09-26</t>
         </is>
       </c>
     </row>
@@ -8507,7 +11526,7 @@
       </c>
       <c r="G52" s="29" t="inlineStr">
         <is>
-          <t>Open Label Study</t>
+          <t>Double Blind Study</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -8517,7 +11536,7 @@
       </c>
       <c r="I52" s="29" t="inlineStr">
         <is>
-          <t>C49659</t>
+          <t>C15228</t>
         </is>
       </c>
       <c r="J52" s="29" t="inlineStr">
@@ -8527,7 +11546,7 @@
       </c>
       <c r="K52" s="29" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2025-09-26</t>
         </is>
       </c>
     </row>
@@ -8600,22 +11619,27 @@
       </c>
       <c r="G54" s="29" t="inlineStr">
         <is>
+          <t>"Mild to Moderate Alzheimer's Disease", "Alzheimer's disease"</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
       <c r="I54" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>MILD_MOD_ALZ', '26929004</t>
         </is>
       </c>
       <c r="J54" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>SPONSOR', 'SNOMED</t>
         </is>
       </c>
       <c r="K54" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>12', '2025-02-01</t>
         </is>
       </c>
     </row>
@@ -8648,7 +11672,7 @@
       </c>
       <c r="G55" s="29" t="inlineStr">
         <is>
-          <t>{'Code_129': 'Basic Research', 'Code_130': 'Device Feasibility Study'}</t>
+          <t>{'Code_152': 'Treatment Study', 'Code_152_a': 'Cure Study'}</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -8658,17 +11682,17 @@
       </c>
       <c r="I55" s="29" t="inlineStr">
         <is>
-          <t>{'Code_129': 'C15714', 'Code_130': 'C139174'}</t>
+          <t>{'Code_152': 'C49656', 'Code_152_a': 'C49654'}</t>
         </is>
       </c>
       <c r="J55" s="29" t="inlineStr">
         <is>
-          <t>{'Code_129': 'http://www.cdisc.org', 'Code_130': 'http://www.cdisc.org'}</t>
+          <t>{'Code_152': 'http://www.cdisc.org', 'Code_152_a': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K55" s="29" t="inlineStr">
         <is>
-          <t>{'Code_129': '2024-09-27', 'Code_130': '2024-09-27'}</t>
+          <t>{'Code_152': '2025-09-26', 'Code_152_a': '2025-09-26'}</t>
         </is>
       </c>
     </row>
@@ -8697,6 +11721,11 @@
       </c>
       <c r="G56" s="29" t="inlineStr">
         <is>
+          <t>Safety and Efficacy of the Xanomeline Transdermal Therapeutic System (TTS) in Patients with Mild to Moderate Alzheimer's Disease</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
@@ -8798,7 +11827,7 @@
       </c>
       <c r="G58" s="13" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'LY900018', 'StudyIntervention_2': 'GlucaGen'}</t>
+          <t>{'StudyIntervention_1': 'Xinomiline', 'StudyIntervention_2': 'Xinomiline', 'StudyIntervention_3': 'placebo'}</t>
         </is>
       </c>
       <c r="H58" s="32" t="inlineStr">
@@ -8847,7 +11876,7 @@
       </c>
       <c r="G59" s="29" t="inlineStr">
         <is>
-          <t>{'Code_131': 'Efficacy Study'}</t>
+          <t>{'Code_153': 'Efficacy Study', 'Code_154': 'Safety Study', 'Code_155': 'Pharmacokinetic Study'}</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -8857,17 +11886,17 @@
       </c>
       <c r="I59" s="29" t="inlineStr">
         <is>
-          <t>{'Code_131': 'C49666'}</t>
+          <t>{'Code_153': 'C49666', 'Code_154': 'C49667', 'Code_155': 'C49663'}</t>
         </is>
       </c>
       <c r="J59" s="29" t="inlineStr">
         <is>
-          <t>{'Code_131': 'http://www.cdisc.org'}</t>
+          <t>{'Code_153': 'http://www.cdisc.org', 'Code_154': 'http://www.cdisc.org', 'Code_155': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K59" s="29" t="inlineStr">
         <is>
-          <t>{'Code_131': '2024-09-27'}</t>
+          <t>{'Code_153': '2025-09-26', 'Code_154': '2025-09-26', 'Code_155': '2025-09-26'}</t>
         </is>
       </c>
     </row>

--- a/Output/SDTM_Results.xlsx
+++ b/Output/SDTM_Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" state="visible" r:id="rId1"/>
@@ -2247,242 +2247,242 @@
       </c>
       <c r="I1" s="21" t="inlineStr">
         <is>
-          <t>IETEST 2</t>
+          <t>IETEST2</t>
         </is>
       </c>
       <c r="J1" s="21" t="inlineStr">
         <is>
-          <t>IETEST 3</t>
+          <t>IETEST3</t>
         </is>
       </c>
       <c r="K1" s="21" t="inlineStr">
         <is>
-          <t>IETEST 4</t>
+          <t>IETEST4</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>IETEST 5</t>
+          <t>IETEST5</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>IETEST 6</t>
+          <t>IETEST6</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>IETEST 7</t>
+          <t>IETEST7</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>IETEST 8</t>
+          <t>IETEST8</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>IETEST 9</t>
+          <t>IETEST9</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>IETEST 10</t>
+          <t>IETEST10</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>IETEST 11</t>
+          <t>IETEST11</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>IETEST 12</t>
+          <t>IETEST12</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>IETEST 13</t>
+          <t>IETEST13</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>IETEST 14</t>
+          <t>IETEST14</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>IETEST 15</t>
+          <t>IETEST15</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>IETEST 16</t>
+          <t>IETEST16</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>IETEST 17</t>
+          <t>IETEST17</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>IETEST 18</t>
+          <t>IETEST18</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>IETEST 19</t>
+          <t>IETEST19</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>IETEST 20</t>
+          <t>IETEST20</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>IETEST 21</t>
+          <t>IETEST21</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>IETEST 22</t>
+          <t>IETEST22</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>IETEST 23</t>
+          <t>IETEST23</t>
         </is>
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>IETEST 24</t>
+          <t>IETEST24</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>IETEST 25</t>
+          <t>IETEST25</t>
         </is>
       </c>
       <c r="AG1" t="inlineStr">
         <is>
-          <t>IETEST 26</t>
+          <t>IETEST26</t>
         </is>
       </c>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>IETEST 27</t>
+          <t>IETEST27</t>
         </is>
       </c>
       <c r="AI1" t="inlineStr">
         <is>
-          <t>IETEST 28</t>
+          <t>IETEST28</t>
         </is>
       </c>
       <c r="AJ1" t="inlineStr">
         <is>
-          <t>IETEST 29</t>
+          <t>IETEST29</t>
         </is>
       </c>
       <c r="AK1" t="inlineStr">
         <is>
-          <t>IETEST 30</t>
+          <t>IETEST30</t>
         </is>
       </c>
       <c r="AL1" t="inlineStr">
         <is>
-          <t>IETEST 31</t>
+          <t>IETEST31</t>
         </is>
       </c>
       <c r="AM1" t="inlineStr">
         <is>
-          <t>IETEST 32</t>
+          <t>IETEST32</t>
         </is>
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t>IETEST 33</t>
+          <t>IETEST33</t>
         </is>
       </c>
       <c r="AO1" t="inlineStr">
         <is>
-          <t>IETEST 34</t>
+          <t>IETEST34</t>
         </is>
       </c>
       <c r="AP1" t="inlineStr">
         <is>
-          <t>IETEST 35</t>
+          <t>IETEST35</t>
         </is>
       </c>
       <c r="AQ1" t="inlineStr">
         <is>
-          <t>IETEST 36</t>
+          <t>IETEST36</t>
         </is>
       </c>
       <c r="AR1" t="inlineStr">
         <is>
-          <t>IETEST 37</t>
+          <t>IETEST37</t>
         </is>
       </c>
       <c r="AS1" t="inlineStr">
         <is>
-          <t>IETEST 38</t>
+          <t>IETEST38</t>
         </is>
       </c>
       <c r="AT1" t="inlineStr">
         <is>
-          <t>IETEST 39</t>
+          <t>IETEST39</t>
         </is>
       </c>
       <c r="AU1" t="inlineStr">
         <is>
-          <t>IETEST 40</t>
+          <t>IETEST40</t>
         </is>
       </c>
       <c r="AV1" t="inlineStr">
         <is>
-          <t>IETEST 41</t>
+          <t>IETEST41</t>
         </is>
       </c>
       <c r="AW1" t="inlineStr">
         <is>
-          <t>IETEST 42</t>
+          <t>IETEST42</t>
         </is>
       </c>
       <c r="AX1" t="inlineStr">
         <is>
-          <t>IETEST 43</t>
+          <t>IETEST43</t>
         </is>
       </c>
       <c r="AY1" t="inlineStr">
         <is>
-          <t>IETEST 44</t>
+          <t>IETEST44</t>
         </is>
       </c>
       <c r="AZ1" t="inlineStr">
         <is>
-          <t>IETEST 45</t>
+          <t>IETEST45</t>
         </is>
       </c>
       <c r="BA1" t="inlineStr">
         <is>
-          <t>IETEST 46</t>
+          <t>IETEST46</t>
         </is>
       </c>
       <c r="BB1" t="inlineStr">
         <is>
-          <t>IETEST 47</t>
+          <t>IETEST47</t>
         </is>
       </c>
       <c r="BC1" t="inlineStr">
         <is>
-          <t>IETEST 48</t>
+          <t>IETEST48</t>
         </is>
       </c>
       <c r="BD1" t="inlineStr">
         <is>
-          <t>IETEST 49</t>
+          <t>IETEST49</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t>Parkinson\'s disease subjects deemed appropriate for treatment of motor symptoms with a //TAG REFERENCE PARSING ERROR// Part III score &gt;10.</t>
+          <t>Parkinson\'s disease subjects deemed appropriate for treatment of motor symptoms with a MDS-UPDRS Part III Part III score &gt;10.</t>
         </is>
       </c>
       <c r="E8" s="9" t="inlineStr">
@@ -4149,9 +4149,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -5210,17 +5210,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SPONSOR</t>
+          <t>SEXPOP</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
+          <t>Sex of Participants</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>ClinLine</t>
+          <t>['Both', 'Both']</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -5252,37 +5252,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>STYPE</t>
+          <t>SPONSOR</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Study Type; Study Type Classification</t>
+          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['Observational Study', 'Interventional Study']</t>
+          <t>ClinLine</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>C16084', 'C98388</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>//www.cdisc.org', 'http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>2024-09-27', '2024-09-27</t>
         </is>
       </c>
     </row>
@@ -5309,17 +5294,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TBLIND</t>
+          <t>STYPE</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
+          <t>Study Type; Study Type Classification</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Double Blind Study</t>
+          <t>['Observational Study', 'Interventional Study']</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -5329,17 +5314,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>C15228</t>
+          <t>C16084', 'C98388</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>//www.cdisc.org</t>
+          <t>//www.cdisc.org', 'http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-27', '2024-09-27</t>
         </is>
       </c>
     </row>
@@ -5366,17 +5351,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>THERAREA</t>
+          <t>TBLIND</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Therapeutic Area</t>
+          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>"Parkinson's disease", "Parkinson's disease"</t>
+          <t>Double Blind Study</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -5386,17 +5371,17 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>49049000', '49049000</t>
+          <t>C15228</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>SNOMED', 'SNOMED</t>
+          <t>//www.cdisc.org</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>January 31, 2018', 'January 31, 2018</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -5411,27 +5396,29 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>1</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Code_142</t>
+          <t> </t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>TINDTP</t>
+          <t>THERAREA</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Trial Intent Type</t>
+          <t>Therapeutic Area</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Treatment Study</t>
+          <t>"Parkinson's disease", "Parkinson's disease"</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -5441,17 +5428,17 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>C49656</t>
+          <t>49049000', '49049000</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>http://www.cdisc.org</t>
+          <t>SNOMED', 'SNOMED</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>January 31, 2018', 'January 31, 2018</t>
         </is>
       </c>
     </row>
@@ -5466,34 +5453,47 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C28" t="n">
+        <v>1</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Code_142</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TITLE</t>
+          <t>TINDTP</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Official Study Title; Study Title; Trial Title</t>
+          <t>Trial Intent Type</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>A Phase II, Placebo-, Real-World Data Controlled study of Beroclin in subjects with early Parkinson disease</t>
+          <t>Treatment Study</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
           <t> </t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>C49656</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -5508,27 +5508,29 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>1</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>StudyIntervention_1</t>
+          <t> </t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>TRT</t>
+          <t>TITLE</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Investigational Therapy or Treatment</t>
+          <t>Official Study Title; Study Title; Trial Title</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>LY900018</t>
+          <t>A Phase II, Placebo-, Real-World Data Controlled study of Beroclin in subjects with early Parkinson disease</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -5553,42 +5555,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Code_143</t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TTYPE</t>
+          <t>TRT</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Trial Scope; Trial Type</t>
+          <t>Investigational Therapy or Treatment</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Efficacy Study</t>
+          <t>LY900018</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>C49666</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -5604,11 +5591,11 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Code_144</t>
+          <t>Code_143</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -5623,7 +5610,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Safety Study</t>
+          <t>Efficacy Study</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -5633,7 +5620,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>C49667</t>
+          <t>C49666</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -5659,44 +5646,99 @@
         </is>
       </c>
       <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Code_144</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>TTYPE</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Trial Scope; Trial Type</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Safety Study</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>C49667</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>3</v>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Code_145</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>TTYPE</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Trial Scope; Trial Type</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Pharmacokinetic Study</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>C49663</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>http://www.cdisc.org</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
@@ -5715,8 +5757,8 @@
   </sheetPr>
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="109" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="109" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -5840,7 +5882,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="87" customHeight="1">
+    <row r="3" ht="116" customHeight="1">
       <c r="A3" s="15" t="inlineStr">
         <is>
           <t>Planned Minimum Age of Subjects</t>
@@ -8031,7 +8073,7 @@
           <t>Retained Biospecimen Description</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G46" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8076,6 +8118,11 @@
         </is>
       </c>
       <c r="G47" t="inlineStr">
+        <is>
+          <t>['Both', 'Both']</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t> </t>
         </is>

--- a/Output/SDTM_Results.xlsx
+++ b/Output/SDTM_Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" state="visible" r:id="rId1"/>
@@ -890,7 +890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -960,7 +960,7 @@
     <row r="2" ht="29" customHeight="1">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B2" s="7" t="inlineStr">
@@ -970,12 +970,12 @@
       </c>
       <c r="C2" s="7" t="inlineStr">
         <is>
-          <t>TRT</t>
+          <t>Xanomeline High Dose</t>
         </is>
       </c>
       <c r="D2" s="7" t="inlineStr">
         <is>
-          <t>Beroclin arm</t>
+          <t>Active Substance</t>
         </is>
       </c>
       <c r="E2" s="7" t="n">
@@ -1003,7 +1003,7 @@
     <row r="3" ht="31" customHeight="1">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B3" s="7" t="inlineStr">
@@ -1013,12 +1013,12 @@
       </c>
       <c r="C3" s="7" t="inlineStr">
         <is>
-          <t>TRT</t>
+          <t>Xanomeline High Dose</t>
         </is>
       </c>
       <c r="D3" s="7" t="inlineStr">
         <is>
-          <t>Beroclin arm</t>
+          <t>Active Substance</t>
         </is>
       </c>
       <c r="E3" s="7" t="n">
@@ -1026,19 +1026,19 @@
       </c>
       <c r="F3" s="7" t="inlineStr">
         <is>
-          <t>Weekly Berolin treatment infusion</t>
+          <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg</t>
         </is>
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
-          <t>Berolin infusion</t>
+          <t>High - Start</t>
         </is>
       </c>
       <c r="H3" s="9" t="inlineStr"/>
       <c r="I3" s="16" t="inlineStr"/>
       <c r="J3" s="16" t="inlineStr">
         <is>
-          <t>Treatment</t>
+          <t>Treatment One</t>
         </is>
       </c>
       <c r="K3" s="16" t="n"/>
@@ -1046,7 +1046,7 @@
     <row r="4" ht="31" customHeight="1">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B4" s="7" t="inlineStr">
@@ -1056,12 +1056,12 @@
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>TRT</t>
+          <t>Xanomeline High Dose</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>Beroclin arm</t>
+          <t>Active Substance</t>
         </is>
       </c>
       <c r="E4" s="7" t="n">
@@ -1069,266 +1069,523 @@
       </c>
       <c r="F4" s="6" t="inlineStr">
         <is>
-          <t>Follow Up Element</t>
+          <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg + 25 cm2, 27 mg</t>
         </is>
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
-          <t>Follow up</t>
+          <t>High - Middle</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Follow Up</t>
+          <t>Treatment Two</t>
         </is>
       </c>
     </row>
     <row r="5" ht="31" customHeight="1">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ARM </t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B5" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description of Planned Arm </t>
+          <t>TA</t>
         </is>
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Char </t>
+          <t>Xanomeline High Dose</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonym Qualifier </t>
-        </is>
-      </c>
-      <c r="E5" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Req </t>
-        </is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>4</v>
       </c>
       <c r="F5" s="6" t="inlineStr">
         <is>
-          <t>Arm Description</t>
+          <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg</t>
         </is>
       </c>
       <c r="G5" s="6" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.arms.{id: description}</t>
+          <t>High - End</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Treatment Three</t>
         </is>
       </c>
     </row>
     <row r="6" ht="46.5" customHeight="1">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">TAETORD </t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Planned Order of Element within Arm </t>
+          <t>TA</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Num </t>
+          <t>Xanomeline High Dose</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Timing </t>
-        </is>
-      </c>
-      <c r="E6" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Req </t>
-        </is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>5</v>
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
-          <t>Arm Specific Planned Order of Element Within Arm</t>
+          <t>Follow Up Element</t>
         </is>
       </c>
       <c r="G6" s="13" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.($Next := function($id) {(epochs[id=$id].nextId)}; studyCells.{armId: id, epochId:$Next(epochId)})</t>
+          <t>Follow up</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Follow Up</t>
         </is>
       </c>
     </row>
     <row r="7" ht="118" customHeight="1">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ETCD </t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Element Code </t>
+          <t>TA</t>
         </is>
       </c>
       <c r="C7" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Char </t>
+          <t>Xanomeline Low Dose</t>
         </is>
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Record Qualifier </t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Req </t>
-        </is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
-          <t>Arm Specific Element Name</t>
+          <t>Screening Element</t>
         </is>
       </c>
       <c r="G7" s="6" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.($ElementName := function($id) {(elements[id=$id].label)}; studyCells.{armId: id, id:$ElementName(elementIds[0])})</t>
+          <t>Screening</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Screening</t>
         </is>
       </c>
     </row>
     <row r="8" ht="31" customHeight="1">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ELEMENT </t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description of Element </t>
+          <t>TA</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Char </t>
+          <t>Xanomeline Low Dose</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonym Qualifier </t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Perm </t>
-        </is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="F8" s="6" t="inlineStr">
         <is>
-          <t>Arm Specific Element Description</t>
+          <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg</t>
         </is>
       </c>
       <c r="G8" s="13" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.($ElementName := function($id) {(elements[id=$id].description)}; studyCells.{armId: id, id:$ElementName(elementIds[0])})</t>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Treatment One</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15.5" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">TABRANCH </t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Branch </t>
+          <t>TA</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Char </t>
+          <t>Xanomeline Low Dose</t>
         </is>
       </c>
       <c r="D9" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rule </t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Exp </t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="6" t="n"/>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Treatment Two</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.5" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">TATRANS </t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Transition Rule </t>
+          <t>TA</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Char </t>
+          <t>Xanomeline Low Dose</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rule </t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Exp </t>
-        </is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>4</v>
       </c>
       <c r="F10" s="6" t="inlineStr">
         <is>
-          <t>Arm Specific Transition Rule</t>
-        </is>
-      </c>
-      <c r="G10" s="6" t="n"/>
+          <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Treatment Three</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="137.5" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">EPOCH </t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Epoch </t>
+          <t>TA</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Char </t>
+          <t>Xanomeline Low Dose</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Timing </t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Req </t>
-        </is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>5</v>
       </c>
       <c r="F11" s="6" t="inlineStr">
         <is>
-          <t>Arm Specific Epoch Name</t>
+          <t>Follow Up Element</t>
         </is>
       </c>
       <c r="G11" s="6" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.($EpochName := function($id) {(epochs[id=$id].label)}; studyCells.{armId: id, id: $EpochName(epochId)})</t>
+          <t>Follow up</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Follow Up</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Screening Element</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Screening</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Screening</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Placebo TTS (adhesive patches)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Treatment One</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Placebo TTS (adhesive patches)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Treatment Two</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Placebo TTS (adhesive patches)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Treatment Three</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Follow Up Element</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Follow up</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Follow Up</t>
         </is>
       </c>
     </row>
@@ -1403,7 +1660,7 @@
     <row r="2" ht="58" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
@@ -1444,7 +1701,7 @@
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
@@ -1454,17 +1711,17 @@
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>Berolin infusion</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t>Weekly Berolin treatment infusion</t>
+          <t>Placebo TTS (adhesive patches)</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
         <is>
-          <t>Administration of first dose</t>
+          <t>Administration\xa0of\xa0first\xa0dose</t>
         </is>
       </c>
       <c r="F3" s="5" t="n"/>
@@ -1481,7 +1738,7 @@
     <row r="4" ht="29" customHeight="1">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
@@ -1501,10 +1758,14 @@
       </c>
       <c r="E4" s="9" t="inlineStr">
         <is>
-          <t>End of last treatment visit</t>
-        </is>
-      </c>
-      <c r="F4" s="12" t="inlineStr"/>
+          <t>End\xa0of\xa0last\xa0scheduled\xa0visit\xa0on\xa0study\xa0(including\xa0early\xa0termination)</t>
+        </is>
+      </c>
+      <c r="F4" s="12" t="inlineStr">
+        <is>
+          <t>Completion\xa0of\xa0all\xa0specified\xa0followup\xa0activities\xa0(which\xa0vary\xa0on\xa0a\xa0patient-by-patient\xa0basis)</t>
+        </is>
+      </c>
       <c r="G4" s="13" t="inlineStr">
         <is>
           <t> </t>
@@ -1515,52 +1776,161 @@
       <c r="J4" t="inlineStr"/>
     </row>
     <row r="5" ht="29" customHeight="1">
-      <c r="A5" s="9" t="inlineStr"/>
-      <c r="B5" s="9" t="inlineStr"/>
-      <c r="C5" s="9" t="inlineStr"/>
-      <c r="D5" s="9" t="inlineStr"/>
-      <c r="E5" s="9" t="inlineStr"/>
-      <c r="F5" s="12" t="inlineStr"/>
-      <c r="G5" s="13" t="inlineStr"/>
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>Administration\xa0of\xa0first\xa0dose</t>
+        </is>
+      </c>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>Element Description</t>
+        </is>
+      </c>
+      <c r="G5" s="13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
     </row>
     <row r="6" ht="29" customHeight="1">
-      <c r="A6" s="9" t="inlineStr"/>
-      <c r="B6" s="9" t="inlineStr"/>
-      <c r="C6" s="9" t="inlineStr"/>
-      <c r="D6" s="9" t="inlineStr"/>
-      <c r="E6" s="9" t="inlineStr"/>
-      <c r="F6" s="12" t="inlineStr"/>
-      <c r="G6" s="13" t="inlineStr"/>
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>High - Start</t>
+        </is>
+      </c>
+      <c r="D6" s="9" t="inlineStr">
+        <is>
+          <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>Randomized</t>
+        </is>
+      </c>
+      <c r="F6" s="12" t="inlineStr">
+        <is>
+          <t>Element Start Rule</t>
+        </is>
+      </c>
+      <c r="G6" s="13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
     </row>
     <row r="7" ht="29" customHeight="1">
-      <c r="A7" s="9" t="inlineStr"/>
-      <c r="B7" s="9" t="inlineStr"/>
-      <c r="C7" s="9" t="inlineStr"/>
-      <c r="D7" s="9" t="inlineStr"/>
-      <c r="E7" s="9" t="inlineStr"/>
-      <c r="F7" s="12" t="inlineStr"/>
-      <c r="G7" s="13" t="inlineStr"/>
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B7" s="9" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>High - Middle</t>
+        </is>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg + 25 cm2, 27 mg</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>Administration\xa0of\xa0first\xa0dose\xa0(from\xa0patches\xa0supplied\xa0at\xa0Visit\xa04)</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="inlineStr">
+        <is>
+          <t>Element End Rule</t>
+        </is>
+      </c>
+      <c r="G7" s="13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
     </row>
     <row r="8" ht="29" customHeight="1">
-      <c r="A8" s="9" t="inlineStr"/>
-      <c r="B8" s="9" t="inlineStr"/>
-      <c r="C8" s="9" t="inlineStr"/>
-      <c r="D8" s="9" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr"/>
-      <c r="F8" s="12" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="A8" s="9" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>High - End</t>
+        </is>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>Administration\xa0of\xa0first\xa0dose\xa0(from\xa0patches\xa0supplied\xa0at\xa0Visit\xa012)</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="inlineStr">
+        <is>
+          <t>Element Duration</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1573,7 +1943,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -1638,7 +2008,7 @@
     <row r="2" ht="43.5" customHeight="1">
       <c r="A2" s="6" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B2" s="6" t="inlineStr">
@@ -1651,39 +2021,35 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>Screening</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t>Screening 1</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr"/>
       <c r="F2" s="6" t="inlineStr">
         <is>
-          <t>ECA</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="G2" s="24" t="inlineStr">
         <is>
-          <t>External control</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t> </t>
+          <t>completion of screening activities</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Subject identifier</t>
         </is>
       </c>
     </row>
     <row r="3" ht="29" customHeight="1">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B3" s="6" t="inlineStr">
@@ -1696,7 +2062,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>Week 1</t>
+          <t>Screening 2</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -1706,29 +2072,29 @@
       </c>
       <c r="F3" s="6" t="inlineStr">
         <is>
-          <t>ECA</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
-          <t>External control</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t> </t>
+          <t>subject leaves clinic after connection of ambulatory ECG machine</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t> </t>
+          <t>subject has connection of ambulatory ECG machine removed</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B4" s="6" t="inlineStr">
@@ -1741,7 +2107,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>Week 2-4</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
@@ -1751,17 +2117,17 @@
       </c>
       <c r="F4" s="6" t="inlineStr">
         <is>
-          <t>ECA</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
-          <t>External control</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Radomized</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1773,7 +2139,7 @@
     <row r="5" ht="29" customHeight="1">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B5" s="6" t="inlineStr">
@@ -1786,7 +2152,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>Week 6</t>
+          <t>Week 2</t>
         </is>
       </c>
       <c r="E5" s="6" t="inlineStr">
@@ -1796,17 +2162,17 @@
       </c>
       <c r="F5" s="6" t="inlineStr">
         <is>
-          <t>ECA</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="G5" s="29" t="inlineStr">
         <is>
-          <t>External control</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t> </t>
+          <t>End of treatment</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1818,7 +2184,7 @@
     <row r="6" ht="29" customHeight="1">
       <c r="A6" s="6" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B6" s="6" t="inlineStr">
@@ -1831,7 +2197,7 @@
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>Week 7-11</t>
+          <t>Week 4</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">
@@ -1841,12 +2207,12 @@
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
-          <t>ECA</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="G6" s="13" t="inlineStr">
         <is>
-          <t>External control</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="H6" s="6" t="inlineStr">
@@ -1863,7 +2229,7 @@
     <row r="7" ht="29" customHeight="1">
       <c r="A7" s="6" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B7" s="6" t="inlineStr">
@@ -1876,7 +2242,7 @@
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>Week 12, 16 and 20</t>
+          <t>Week 6</t>
         </is>
       </c>
       <c r="E7" s="6" t="inlineStr">
@@ -1886,12 +2252,12 @@
       </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
-          <t>ECA</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="G7" s="13" t="inlineStr">
         <is>
-          <t>External control</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="H7" s="6" t="inlineStr">
@@ -1908,7 +2274,7 @@
     <row r="8" ht="29" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B8" s="6" t="inlineStr">
@@ -1917,11 +2283,11 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>Screening</t>
+          <t>Week 8</t>
         </is>
       </c>
       <c r="E8" s="6" t="inlineStr">
@@ -1931,12 +2297,12 @@
       </c>
       <c r="F8" s="6" t="inlineStr">
         <is>
-          <t>TRT</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="G8" s="29" t="inlineStr">
         <is>
-          <t>Beroclin arm</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="H8" s="6" t="inlineStr">
@@ -1953,7 +2319,7 @@
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B9" s="6" t="inlineStr">
@@ -1962,11 +2328,11 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>Week 1</t>
+          <t>Week 12</t>
         </is>
       </c>
       <c r="E9" s="6" t="inlineStr">
@@ -1976,12 +2342,12 @@
       </c>
       <c r="F9" s="6" t="inlineStr">
         <is>
-          <t>TRT</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="G9" s="6" t="inlineStr">
         <is>
-          <t>Beroclin arm</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="H9" s="6" t="inlineStr">
@@ -1998,7 +2364,7 @@
     <row r="10" ht="29" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B10" s="6" t="inlineStr">
@@ -2007,11 +2373,11 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D10" s="6" t="inlineStr">
         <is>
-          <t>Week 2-4</t>
+          <t>Week 16</t>
         </is>
       </c>
       <c r="E10" s="6" t="inlineStr">
@@ -2021,12 +2387,12 @@
       </c>
       <c r="F10" s="6" t="inlineStr">
         <is>
-          <t>TRT</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
-          <t>Beroclin arm</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="H10" s="6" t="inlineStr">
@@ -2043,7 +2409,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2052,11 +2418,11 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Week 6</t>
+          <t>Week 20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2066,12 +2432,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>TRT</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Beroclin arm</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2088,7 +2454,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2097,11 +2463,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Week 7-11</t>
+          <t>Week 24</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2111,12 +2477,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TRT</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Beroclin arm</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2133,7 +2499,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2142,34 +2508,1106 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Week 26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Screening 1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Xanomeline Low Dose</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>completion of screening activities</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Subject identifier</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Screening 2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Xanomeline Low Dose</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>subject leaves clinic after connection of ambulatory ECG machine</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>subject has connection of ambulatory ECG machine removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Xanomeline Low Dose</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Radomized</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Week 2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Xanomeline Low Dose</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>End of treatment</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Week 4</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Xanomeline Low Dose</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>6</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Week 12, 16 and 20</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>TRT</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Beroclin arm</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Week 6</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Xanomeline Low Dose</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>7</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Week 8</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Xanomeline Low Dose</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Week 12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Xanomeline Low Dose</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>9</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Week 16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Xanomeline Low Dose</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Week 20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Xanomeline Low Dose</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>11</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Week 24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Xanomeline Low Dose</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>12</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Week 26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Xanomeline Low Dose</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Screening 1</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Xanomeline High Dose</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>completion of screening activities</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Subject identifier</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Screening 2</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Xanomeline High Dose</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>subject leaves clinic after connection of ambulatory ECG machine</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>subject has connection of ambulatory ECG machine removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Xanomeline High Dose</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Radomized</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Week 2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Xanomeline High Dose</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>End of treatment</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>5</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Week 4</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Xanomeline High Dose</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>6</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Week 6</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Xanomeline High Dose</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>7</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Week 8</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Xanomeline High Dose</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>8</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Week 12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Xanomeline High Dose</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>9</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Week 16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Xanomeline High Dose</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>10</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Week 20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Xanomeline High Dose</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>11</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Week 24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Xanomeline High Dose</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>12</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Week 26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Xanomeline High Dose</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Active Substance</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2191,15 +3629,15 @@
   </sheetPr>
   <dimension ref="A1:BE32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col width="18.6328125" customWidth="1" min="1" max="5"/>
     <col width="28.7265625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="26.6328125" customWidth="1" style="28" min="7" max="7"/>
+    <col width="51.6328125" customWidth="1" style="28" min="7" max="7"/>
     <col width="29.81640625" customWidth="1" style="16" min="8" max="8"/>
     <col width="8.6328125" customWidth="1" style="16" min="9" max="11"/>
   </cols>
@@ -2486,10 +3924,10 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="58" customHeight="1">
+    <row r="2" ht="29" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
@@ -2504,7 +3942,7 @@
       </c>
       <c r="D2" s="9" t="inlineStr">
         <is>
-          <t>Male and female participants //TAG REFERENCE PARSING ERROR// - //TAG REFERENCE PARSING ERROR// years of age.</t>
+          <t>Males and postmenopausal females at least //TAG REFERENCE PARSING ERROR// years of age.</t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
@@ -2531,7 +3969,7 @@
     <row r="3" ht="29" customHeight="1">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
@@ -2546,7 +3984,7 @@
       </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t>Diagnosed with early and/or moderate Parkinson's disease at least 6 months before study participation.</t>
+          <t>Patients with Probable Mild to Moderate Alzheimer's Disease as defined by National Institute of Neurological and Communicative Disorders and Stroke (NINCDS) and the Alzheimer\'s Disease and Related</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
@@ -2567,13 +4005,18 @@
       <c r="H3" s="9" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Disorders Association (ADRDA) guidelines (Attachment LZZT.7).</t>
         </is>
       </c>
     </row>
     <row r="4" ht="29" customHeight="1">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
@@ -2588,7 +4031,7 @@
       </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
-          <t>Able to read, understand and to provide written consent.</t>
+          <t>MMSE score of 10 to 23.</t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
@@ -2612,10 +4055,10 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="87" customHeight="1">
+    <row r="5" ht="43.5" customHeight="1">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B5" s="9" t="inlineStr">
@@ -2630,7 +4073,7 @@
       </c>
       <c r="D5" s="9" t="inlineStr">
         <is>
-          <t>Female study participants should not be pregnant or plan to become pregnant during study participation and for 6 months after last investigational product administration.</t>
+          <t>Hachinski Ischemic Scale score of &lt;=4 (Attachment LZZT.8).</t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
@@ -2654,10 +4097,10 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="43.5" customHeight="1">
+    <row r="6" ht="29" customHeight="1">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
@@ -2672,7 +4115,7 @@
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t>Male participants if their sexual partners can become pregnant should use a method of contraception during study participation and for 6 months after the last administration of the investigated</t>
+          <t>CNS imaging (CT scan or MRI of brain) compatible with AD within past 1 year.The following findings are incompatible with AD: - Large vessel strokes Any definite area of encephalomalacia consistent</t>
         </is>
       </c>
       <c r="E6" s="9" t="inlineStr">
@@ -2697,14 +4140,44 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>product.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="43.5" customHeight="1">
+          <t>with ischemic necrosis in any cerebral artery territory. ; - Large, confluent areas of encephalomalacia in parieto-occipital or frontal regions consistent with watershed infarcts. The above are</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>exclusionary. Exceptions are made for small areas of cortical asymmetry which may represent a small cortical stroke or a focal area of atrophy provided there is no abnormal signal intensity in the</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>immediately underlying parenchyma. Only one such questionable area allowed per scan, and size is restricted to &lt;=1cm in frontal/parietal/temporal cortices and &lt;=2 cm in occipital cortex. ; - Small</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>vessel ischemia Lacunar infarct is defined as an area of abnormal intensity seen on CT scan or on both T1 and T2 weighted MRI images in the basal ganglia, thalamus or deep white matter which is &lt;=1 cm</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>in maximal diameter. A maximum of one lacune is allowed per scan. ; - Leukoariosis or leukoencephalopathy is regarded as an abnormality seen on T2 but not T1 weighted MRIs, or on CT. This is accepted</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>if mild or moderate in extent, meaning involvement of less than 25% of cortical white matter. ; - Miscellaneous Benign small extra-axial tumors (ie, meningiomas) are accepted if they do not contact or</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>indent the brain parenchyma. ; - Small extra-axial arachnoid cysts are accepted if they do not indent or deform the brain parenchyma. ;</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="29" customHeight="1">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B7" s="9" t="inlineStr">
@@ -2719,7 +4192,7 @@
       </c>
       <c r="D7" s="9" t="inlineStr">
         <is>
-          <t>Study participant is able and willing to comply with the requirements of this clinical study.</t>
+          <t>Investigator has obtained informed consent signed by the patient (and/or legal representative) and by the caregiver.</t>
         </is>
       </c>
       <c r="E7" s="9" t="inlineStr">
@@ -2746,7 +4219,7 @@
     <row r="8" ht="29" customHeight="1">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr">
@@ -2761,7 +4234,7 @@
       </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t>Parkinson\'s disease subjects deemed appropriate for treatment of motor symptoms with a MDS-UPDRS Part III Part III score &gt;10.</t>
+          <t>"Geographic proximity to investigator's site that allows adequate follow-up.",</t>
         </is>
       </c>
       <c r="E8" s="9" t="inlineStr">
@@ -2788,7 +4261,7 @@
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B9" s="9" t="inlineStr">
@@ -2840,7 +4313,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2882,7 +4355,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2924,7 +4397,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2966,7 +4439,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3018,7 +4491,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3060,7 +4533,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3102,7 +4575,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3144,7 +4617,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3159,7 +4632,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Evidence from ECG recording at screening of any of the following conditions : - Left bundle branch block; - Bradycardia â‰¤50 beats per minute; - Sinus pauses &gt;2 seconds; - Second or third degree</t>
+          <t>Evidence from ECG recording at screening of any of the following conditions : - Left bundle branch block; - Bradycardia &lt;=50 beats per minute; - Sinus pauses &gt;2 seconds; - Second or third degree heart</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3184,19 +4657,19 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>heart block unless treated with a pacemaker; - Wolff-Parkinson-White syndrome; - Sustained supraventricular tachyarrhythmia including SVTâ‰¥10 sec, atrial fibrillation, atrial flutter.; - Ventricular</t>
+          <t>block unless treated with a pacemaker; - Wolff-Parkinson-White syndrome; - Sustained supraventricular tachyarrhythmia including SVT≥10 sec, atrial fibrillation, atrial flutter.; - Ventricular</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>tachycardia at a rate of â‰¥120 beats per minute lastingâ‰¥10 seconds.;</t>
+          <t>tachycardia at a rate of ≥120 beats per minute lasting≥10 seconds.;</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3243,7 +4716,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3290,7 +4763,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3337,7 +4810,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3379,7 +4852,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3421,7 +4894,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3463,7 +4936,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3505,7 +4978,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3547,7 +5020,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3594,7 +5067,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3636,7 +5109,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3651,7 +5124,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>"Laboratory test values exceeding the Lilly Reference Range III for the patient's age in any of the following analytes: â†‘ creatinine, â†‘ total bilirubin, â†‘ SGOT, â†‘ SGPT, â†‘ alkaline</t>
+          <t>"Laboratory test values exceeding the Lilly Reference Range III for the patient's age in any of the following analytes: ↑ creatinine, ↑ total bilirubin, ↑ SGOT, ↑ SGPT, ↑ alkaline phosphatase, ↑ GGT,</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3676,24 +5149,24 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>phosphatase, â†‘ GGT, â†‘â†“ hemoglobin, â†‘â†“ white blood cell count, â†‘â†“ platelet count, â†‘â†“ serum sodium, potassium, or calcium.If values exceed these laboratory reference ranges, clinical</t>
+          <t>↑↓ hemoglobin, ↑↓ white blood cell count, ↑↓ platelet count, ↑↓ serum sodium, potassium, or calcium.If values exceed these laboratory reference ranges, clinical significance will be judged by the</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>significance will be judged by the monitoring physicians. If the monitoring physician determines that the deviation from the reference range is not clinically significant, the patient may be included</t>
+          <t>monitoring physicians. If the monitoring physician determines that the deviation from the reference range is not clinically significant, the patient may be included in the study. This decision will be</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>in the study. This decision will be documented.",</t>
+          <t>documented.",</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3765,7 +5238,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3812,7 +5285,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3854,7 +5327,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4149,7 +5622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -4227,7 +5700,7 @@
     <row r="2" ht="93" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
@@ -4269,7 +5742,7 @@
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
@@ -4299,7 +5772,7 @@
       </c>
       <c r="G3" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">18 Year </t>
+          <t xml:space="preserve">50 Year </t>
         </is>
       </c>
       <c r="H3" s="9" t="inlineStr">
@@ -4311,7 +5784,7 @@
     <row r="4">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
@@ -4353,7 +5826,7 @@
     <row r="5">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B5" s="9" t="inlineStr">
@@ -4393,7 +5866,7 @@
     <row r="6" ht="43.5" customHeight="1">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
@@ -4401,29 +5874,27 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C6" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E6" s="9" t="inlineStr">
         <is>
-          <t>DMCIND</t>
+          <t>DOSE</t>
         </is>
       </c>
       <c r="F6" s="12" t="inlineStr">
         <is>
-          <t>Data Monitoring Committee Indicator</t>
+          <t>Dose Level; Dose per Administration</t>
         </is>
       </c>
       <c r="G6" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>54.0, 81.0</t>
         </is>
       </c>
       <c r="H6" s="23" t="inlineStr">
@@ -4435,7 +5906,7 @@
     <row r="7" ht="29" customHeight="1">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B7" s="9" t="inlineStr">
@@ -4453,29 +5924,44 @@
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>DOSE</t>
+          <t>DOSFRQ</t>
         </is>
       </c>
       <c r="F7" s="12" t="inlineStr">
         <is>
-          <t>Dose Level; Dose per Administration</t>
+          <t>Dosing Frequency</t>
         </is>
       </c>
       <c r="G7" s="22" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="H7" s="23" t="inlineStr">
         <is>
           <t> </t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>C25473</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr">
@@ -4484,7 +5970,7 @@
         </is>
       </c>
       <c r="C8" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
@@ -4493,29 +5979,44 @@
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>DOSFRM</t>
+          <t>DOSFRQ</t>
         </is>
       </c>
       <c r="F8" s="12" t="inlineStr">
         <is>
-          <t>Dose Form</t>
+          <t>Dosing Frequency</t>
         </is>
       </c>
       <c r="G8" s="22" t="inlineStr">
         <is>
-          <t>TABLET</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="H8" s="23" t="inlineStr">
         <is>
           <t> </t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>C25473</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>//www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B9" s="9" t="inlineStr">
@@ -4533,17 +6034,17 @@
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>DOSFRQ</t>
+          <t>DOSU</t>
         </is>
       </c>
       <c r="F9" s="12" t="inlineStr">
         <is>
-          <t>Dosing Frequency</t>
+          <t>Dose Units</t>
         </is>
       </c>
       <c r="G9" s="22" t="inlineStr">
         <is>
-          <t>BID</t>
+          <t>Milligram</t>
         </is>
       </c>
       <c r="H9" s="23" t="inlineStr">
@@ -4553,7 +6054,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>C64496</t>
+          <t>C28253</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -4570,7 +6071,7 @@
     <row r="10" ht="29" customHeight="1">
       <c r="A10" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B10" s="9" t="inlineStr">
@@ -4579,7 +6080,7 @@
         </is>
       </c>
       <c r="C10" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="9" t="inlineStr">
         <is>
@@ -4613,7 +6114,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>http://www.cdisc.org</t>
+          <t>//www.cdisc.org</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -4625,7 +6126,7 @@
     <row r="11" ht="29" customHeight="1">
       <c r="A11" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B11" s="9" t="inlineStr">
@@ -4633,27 +6134,29 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C11" s="9" t="n">
-        <v>1</v>
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D11" s="9" t="inlineStr">
         <is>
-          <t>Indication_1a</t>
+          <t> </t>
         </is>
       </c>
       <c r="E11" s="9" t="inlineStr">
         <is>
-          <t>INDIC</t>
+          <t>EXTTIND</t>
         </is>
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
+          <t>Extension Trial Indicator</t>
         </is>
       </c>
       <c r="G11" s="22" t="inlineStr">
         <is>
-          <t>"Parkinson's disease",</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="H11" s="23" t="inlineStr">
@@ -4665,7 +6168,7 @@
     <row r="12" ht="43.5" customHeight="1">
       <c r="A12" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B12" s="9" t="inlineStr">
@@ -4674,7 +6177,7 @@
         </is>
       </c>
       <c r="C12" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
@@ -4693,7 +6196,7 @@
       </c>
       <c r="G12" s="22" t="inlineStr">
         <is>
-          <t>"Parkinson's disease"</t>
+          <t>"Alzheimer's disease",</t>
         </is>
       </c>
       <c r="H12" s="23" t="inlineStr">
@@ -4705,7 +6208,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4713,56 +6216,39 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C13" t="n">
+        <v>2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Indication_2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>INTMODEL</t>
+          <t>INDIC</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Intervention Model</t>
+          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PARALLEL</t>
+          <t>"Alzheimer's disease"</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>C82639</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>//www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4770,27 +6256,29 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>1</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>StudyIntervention_1</t>
+          <t> </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>INTTYPE</t>
+          <t>INTMODEL</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Intervention Type</t>
+          <t>Intervention Model</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pharmacologic Substance</t>
+          <t>Parallel Study</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -4800,12 +6288,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>C1909</t>
+          <t>C82639</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>http://www.cdisc.org</t>
+          <t>//www.cdisc.org</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -4817,7 +6305,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4825,41 +6313,54 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C15" t="n">
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t> </t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>LENGTH</t>
+          <t>INTTYPE</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Trial Length</t>
+          <t>Intervention Type</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>14 Day</t>
+          <t>Pharmacologic Substance</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
           <t> </t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>C1909</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4889,7 +6390,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -4901,7 +6402,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4909,27 +6410,29 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>1</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Objective_1</t>
+          <t> </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>OBJPRIM</t>
+          <t>NCOHORT</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Study Primary Objective; Trial Primary Objective</t>
+          <t>Number of Groups/Cohorts</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>â€¢\tTo evaluate the effect of intravenous infusions of Beroclin administered once daily on motor symptoms in subjects with early stage Parkinsonâ€™s disease.</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -4941,7 +6444,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4954,22 +6457,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Objective_2</t>
+          <t>Objective_1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>OBJSEC</t>
+          <t>OBJPRIM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Study Secondary Objective; Trial Secondary Objective</t>
+          <t>Study Primary Objective; Trial Primary Objective</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>â€¢\tTo evaluate the safety and tolerability of intravenous infusions of Beroclin administered once daily in subjects with early stage Parkinsonâ€™s disease.</t>
+          <t>To determine if there is a statistically significant relationship (overall Type 1 erroralpha=0.05) between the change in both the ADAS-Cog (11) and CIBIC+ scores, and drug dose (0, 50 cm2 [54 mg], and 75 cm2 [81 mg]).</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -4981,7 +6484,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4989,56 +6492,39 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C19" t="n">
+        <v>2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Objective_2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>OBSMODEL</t>
+          <t>OBJPRIM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Observational Model</t>
+          <t>Study Primary Objective; Trial Primary Objective</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>COHORT</t>
+          <t>To document the safety profile of the xanomeline TTS.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>C15208</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>//www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -5046,56 +6532,39 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C20" t="n">
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Objective_3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>OBSTIMP</t>
+          <t>OBJSEC</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Observational Time Perspective</t>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>PROSPECTIVE</t>
+          <t>To assess the dose-dependent improvement in behavior. Improved scores on the Revised Neuropsychiatric Inventory (NPI-X) will indicate improvement in these\nareas.</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>C15273</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>//www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -5104,26 +6573,26 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>StudyIntervention_1</t>
+          <t>Objective_4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>PTRTDUR</t>
+          <t>OBJSEC</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Planned Treatment Duration</t>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>14 Day</t>
+          <t>To assess the dose-dependent improvements in activities of daily living. Improved scores on the Disability Assessment for Dementia (DAD) will indicate improvement in these areas (see Attachment LZZT.5).</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -5135,7 +6604,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -5144,53 +6613,38 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>StudyIntervention_1</t>
+          <t>Objective_5</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ROUTE</t>
+          <t>OBJSEC</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Route of Administration</t>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ORAL</t>
+          <t>"To assess the dose-dependent improvements in an extended assessment of cognition that integrates attention/concentration tasks. The Alzheimer's Disease Assessment Scale-14 item Cognitive Subscale, hereafter referred to as ADAS-Cog (14), will be used for this assessment (see Attachment LZZT.2).",</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>C38288</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -5198,29 +6652,27 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C23" t="n">
+        <v>4</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Objective_6</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SEXPOP</t>
+          <t>OBJSEC</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sex of Participants</t>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['Both', 'Both']</t>
+          <t>To assess the treatment response as a function of Apo E genotype.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -5232,7 +6684,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5240,31 +6692,21 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SPONSOR</t>
+          <t>OUTMSPRI</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>ClinLine</t>
-        </is>
-      </c>
+          <t>Primary Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
           <t> </t>
@@ -5274,7 +6716,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5282,56 +6724,31 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>STYPE</t>
+          <t>OUTMSSEC</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Study Type; Study Type Classification</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['Observational Study', 'Interventional Study']</t>
-        </is>
-      </c>
+          <t>Secondary Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>C16084', 'C98388</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>//www.cdisc.org', 'http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>2024-09-27', '2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5351,44 +6768,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TBLIND</t>
+          <t>PLANSUB</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
+          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Double Blind Study</t>
+          <t>300.0</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>C15228</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>//www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5396,56 +6798,39 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C27" t="n">
+        <v>1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t> </t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>THERAREA</t>
+          <t>PTRTDUR</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Therapeutic Area</t>
+          <t>Planned Treatment Duration</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>"Parkinson's disease", "Parkinson's disease"</t>
+          <t>24.0,24.0] ["Week","Week"</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>49049000', '49049000</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>SNOMED', 'SNOMED</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>January 31, 2018', 'January 31, 2018</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5458,22 +6843,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Code_142</t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TINDTP</t>
+          <t>ROUTE</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Trial Intent Type</t>
+          <t>Route of Administration</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Treatment Study</t>
+          <t>Oral Route of Administration</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -5483,7 +6868,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>C49656</t>
+          <t>C38288</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -5500,7 +6885,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5508,41 +6893,54 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C29" t="n">
+        <v>2</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>TITLE</t>
+          <t>ROUTE</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Official Study Title; Study Title; Trial Title</t>
+          <t>Route of Administration</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>A Phase II, Placebo-, Real-World Data Controlled study of Beroclin in subjects with early Parkinson disease</t>
+          <t>Oral Route of Administration</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
           <t> </t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>C38288</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>//www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5550,27 +6948,29 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>1</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>StudyIntervention_1</t>
+          <t> </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TRT</t>
+          <t>SEXPOP</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Investigational Therapy or Treatment</t>
+          <t>Sex of Participants</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>LY900018</t>
+          <t>Both</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -5582,7 +6982,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5590,54 +6990,41 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>1</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Code_143</t>
+          <t> </t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>TTYPE</t>
+          <t>SPONSOR</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Trial Scope; Trial Type</t>
+          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Efficacy Study</t>
+          <t>Eli Lilly</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>C49666</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -5645,27 +7032,29 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>2</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Code_144</t>
+          <t> </t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>TTYPE</t>
+          <t>STYPE</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Trial Scope; Trial Type</t>
+          <t>Study Type; Study Type Classification</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Safety Study</t>
+          <t>Interventional Study</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -5675,12 +7064,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>C49667</t>
+          <t>C98388</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>http://www.cdisc.org</t>
+          <t>//www.cdisc.org</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -5692,7 +7081,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>H2Q-MC-LZZT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5700,45 +7089,406 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>TBLIND</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Double Blind Study</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>C15228</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>//www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>THERAREA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Therapeutic Area</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>"Mild to Moderate Alzheimer's Disease", "Alzheimer's disease"</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>MILD_MOD_ALZ', '26929004</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>SPONSOR', 'SNOMED</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>12', 'January 31, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Code_152</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>TINDTP</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Trial Intent Type</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Treatment Study</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>C49656</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>TITLE</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Official Study Title; Study Title; Trial Title</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Safety and Efficacy of the Xanomeline Transdermal Therapeutic System (TTS) in Patients with Mild to Moderate Alzheimer's Disease</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>StudyIntervention_1</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>TRT</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Investigational Therapy or Treatment</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Xinomiline</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Code_153</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>TTYPE</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Trial Scope; Trial Type</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Efficacy Study</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>C49666</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Code_154</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>TTYPE</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Trial Scope; Trial Type</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Safety Study</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>C49667</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
         <v>3</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Code_145</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Code_155</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>TTYPE</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Trial Scope; Trial Type</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Pharmacokinetic Study</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>C49663</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>http://www.cdisc.org</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
@@ -5757,8 +7507,8 @@
   </sheetPr>
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="109" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="B1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -5907,7 +7657,7 @@
       </c>
       <c r="G3" s="29" t="inlineStr">
         <is>
-          <t xml:space="preserve">18 Year </t>
+          <t xml:space="preserve">50 Year </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6345,7 +8095,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="29" customHeight="1">
+    <row r="12" ht="43.5" customHeight="1">
       <c r="A12" s="15" t="inlineStr">
         <is>
           <t>Data Monitoring Committee Indicator</t>
@@ -6370,11 +8120,6 @@
       </c>
       <c r="G12" s="29" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
           <t> </t>
         </is>
       </c>
@@ -6427,7 +8172,7 @@
       </c>
       <c r="G13" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 20}</t>
+          <t>{'StudyIntervention_1': [54.0, 81.0]}</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -6484,11 +8229,6 @@
       </c>
       <c r="G14" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'TABLET'}</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
           <t> </t>
         </is>
       </c>
@@ -6541,7 +8281,7 @@
       </c>
       <c r="G15" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'BID'}</t>
+          <t>{'StudyIntervention_1': ['Daily', 'Daily']}</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -6551,17 +8291,17 @@
       </c>
       <c r="I15" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C64496'}</t>
+          <t>{'StudyIntervention_1': ['C25473', 'C25473']}</t>
         </is>
       </c>
       <c r="J15" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org'}</t>
+          <t>{'StudyIntervention_1': ['http://www.cdisc.org', 'http://www.cdisc.org']}</t>
         </is>
       </c>
       <c r="K15" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '2024-09-27'}</t>
+          <t>{'StudyIntervention_1': ['2024-09-27', '2024-09-27']}</t>
         </is>
       </c>
     </row>
@@ -6598,7 +8338,7 @@
       </c>
       <c r="G16" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Milligram'}</t>
+          <t>{'StudyIntervention_1': ['Milligram', 'Milligram']}</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -6608,21 +8348,21 @@
       </c>
       <c r="I16" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C28253'}</t>
+          <t>{'StudyIntervention_1': ['C28253', 'C28253']}</t>
         </is>
       </c>
       <c r="J16" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org'}</t>
+          <t>{'StudyIntervention_1': ['http://www.cdisc.org', 'http://www.cdisc.org']}</t>
         </is>
       </c>
       <c r="K16" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '2024-09-27'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
+          <t>{'StudyIntervention_1': ['2024-09-27', '2024-09-27']}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="29" customHeight="1">
       <c r="A17" s="15" t="inlineStr">
         <is>
           <t>Extension Trial Indicator</t>
@@ -6647,6 +8387,11 @@
       </c>
       <c r="G17" s="33" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
@@ -6666,7 +8411,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="29" customHeight="1">
+    <row r="18" ht="58" customHeight="1">
       <c r="A18" s="15" t="inlineStr">
         <is>
           <t>Planned Country of Investigational Sites</t>
@@ -6714,7 +8459,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="29" customHeight="1">
+    <row r="19" ht="58" customHeight="1">
       <c r="A19" s="15" t="inlineStr">
         <is>
           <t>Healthy Subject Indicator</t>
@@ -6758,7 +8503,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="58" customHeight="1">
+    <row r="20" ht="101.5" customHeight="1">
       <c r="A20" s="15" t="inlineStr">
         <is>
           <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
@@ -6783,7 +8528,7 @@
       </c>
       <c r="G20" s="29" t="inlineStr">
         <is>
-          <t>{'Indication_1a': "Parkinson's disease", 'Indication_1': "Parkinson's disease"}</t>
+          <t>{'Indication_1': "Alzheimer's disease", 'Indication_2': "Alzheimer's disease"}</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -6832,7 +8577,7 @@
       </c>
       <c r="G21" s="34" t="inlineStr">
         <is>
-          <t>PARALLEL</t>
+          <t>Parallel Study</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -6938,12 +8683,12 @@
       </c>
       <c r="G23" s="29" t="inlineStr">
         <is>
-          <t>14 Day</t>
+          <t> </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t> </t>
+          <t>NI</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -6962,7 +8707,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="29" customHeight="1">
+    <row r="24" ht="43.5" customHeight="1">
       <c r="A24" s="15" t="inlineStr">
         <is>
           <t>Multiple Site EU Site Trial Indicator</t>
@@ -7031,7 +8776,7 @@
       </c>
       <c r="G25" s="39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -7080,6 +8825,11 @@
       </c>
       <c r="G26" s="34" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
@@ -7195,7 +8945,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="43.5" customHeight="1">
+    <row r="29" ht="58" customHeight="1">
       <c r="A29" s="15" t="inlineStr">
         <is>
           <t>Study Primary Objective; Trial Primary Objective</t>
@@ -7228,7 +8978,7 @@
       </c>
       <c r="G29" s="29" t="inlineStr">
         <is>
-          <t>{'Objective_1': 'â€¢\tTo evaluate the effect of intravenous infusions of Beroclin administered once daily on motor symptoms in subjects with early stage Parkinsonâ€™s disease.'}</t>
+          <t>{'Objective_1': 'To determine if there is a statistically significant relationship (overall Type 1 erroralpha=0.05) between the change in both the ADAS-Cog (11) and CIBIC+ scores, and drug dose (0, 50 cm2 [54 mg], and 75 cm2 [81 mg]).', 'Objective_2': 'To document the safety profile of the xanomeline TTS.'}</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -7252,7 +9002,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="43.5" customHeight="1">
+    <row r="30" ht="58" customHeight="1">
       <c r="A30" s="15" t="inlineStr">
         <is>
           <t>Study Secondary Objective; Trial Secondary Objective</t>
@@ -7285,7 +9035,7 @@
       </c>
       <c r="G30" s="29" t="inlineStr">
         <is>
-          <t>{'Objective_2': 'â€¢\tTo evaluate the safety and tolerability of intravenous infusions of Beroclin administered once daily in subjects with early stage Parkinsonâ€™s disease.'}</t>
+          <t>{'Objective_3': 'To assess the dose-dependent improvement in behavior. Improved scores on the Revised Neuropsychiatric Inventory (NPI-X) will indicate improvement in these\nareas.', 'Objective_4': 'To assess the dose-dependent improvements in activities of daily living. Improved scores on the Disability Assessment for Dementia (DAD) will indicate improvement in these areas (see Attachment LZZT.5).', 'Objective_5': "To assess the dose-dependent improvements in an extended assessment of cognition that integrates attention/concentration tasks. The Alzheimer's Disease Assessment Scale-14 item Cognitive Subscale, hereafter referred to as ADAS-Cog (14), will be used for this assessment (see Attachment LZZT.2).", 'Objective_6': 'To assess the treatment response as a function of Apo E genotype.'}</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -7334,27 +9084,22 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>COHORT</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
           <t> </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>C15208</t>
+          <t> </t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>//www.cdisc.org</t>
+          <t> </t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7383,27 +9128,22 @@
       </c>
       <c r="G32" s="34" t="inlineStr">
         <is>
-          <t>PROSPECTIVE</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
           <t> </t>
         </is>
       </c>
       <c r="I32" s="34" t="inlineStr">
         <is>
-          <t>C15273</t>
+          <t> </t>
         </is>
       </c>
       <c r="J32" s="34" t="inlineStr">
         <is>
-          <t>//www.cdisc.org</t>
+          <t> </t>
         </is>
       </c>
       <c r="K32" s="34" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7580,6 +9320,11 @@
       </c>
       <c r="G36" s="29" t="inlineStr">
         <is>
+          <t>{, }</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
@@ -7631,6 +9376,11 @@
         </is>
       </c>
       <c r="G37" s="29" t="inlineStr">
+        <is>
+          <t>{, , , }</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7768,12 +9518,12 @@
       </c>
       <c r="G40" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>300.0</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -7821,7 +9571,7 @@
       </c>
       <c r="G41" s="34" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '14 Day'}</t>
+          <t>{'StudyIntervention_1': '[24.0,24.0] ["Week","Week"]'}</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -8018,7 +9768,7 @@
       </c>
       <c r="G45" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'ORAL'}</t>
+          <t>{'StudyIntervention_1': ['Oral Route of Administration', 'Oral Route of Administration']}</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -8028,17 +9778,17 @@
       </c>
       <c r="I45" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C38288'}</t>
+          <t>{'StudyIntervention_1': ['C38288', 'C38288']}</t>
         </is>
       </c>
       <c r="J45" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org'}</t>
+          <t>{'StudyIntervention_1': ['http://www.cdisc.org', 'http://www.cdisc.org']}</t>
         </is>
       </c>
       <c r="K45" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '2024-09-27'}</t>
+          <t>{'StudyIntervention_1': ['2024-09-27', '2024-09-27']}</t>
         </is>
       </c>
     </row>
@@ -8119,7 +9869,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['Both', 'Both']</t>
+          <t>Both</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -8168,7 +9918,7 @@
       </c>
       <c r="G48" s="29" t="inlineStr">
         <is>
-          <t>ClinLine</t>
+          <t>Eli Lilly</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -8309,7 +10059,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['Observational Study', 'Interventional Study']</t>
+          <t>Interventional Study</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -8319,17 +10069,17 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>C16084', 'C98388</t>
+          <t>C98388</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>//www.cdisc.org', 'http://www.cdisc.org</t>
+          <t>//www.cdisc.org</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2024-09-27', '2024-09-27</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -8451,7 +10201,7 @@
       </c>
       <c r="G54" s="29" t="inlineStr">
         <is>
-          <t>"Parkinson's disease", "Parkinson's disease"</t>
+          <t>"Mild to Moderate Alzheimer's Disease", "Alzheimer's disease"</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -8461,17 +10211,17 @@
       </c>
       <c r="I54" s="29" t="inlineStr">
         <is>
-          <t>49049000', '49049000</t>
+          <t>MILD_MOD_ALZ', '26929004</t>
         </is>
       </c>
       <c r="J54" s="29" t="inlineStr">
         <is>
-          <t>SNOMED', 'SNOMED</t>
+          <t>SPONSOR', 'SNOMED</t>
         </is>
       </c>
       <c r="K54" s="29" t="inlineStr">
         <is>
-          <t>January 31, 2018', 'January 31, 2018</t>
+          <t>12', 'January 31, 2018</t>
         </is>
       </c>
     </row>
@@ -8504,7 +10254,7 @@
       </c>
       <c r="G55" s="29" t="inlineStr">
         <is>
-          <t>{'Code_142': 'Treatment Study'}</t>
+          <t>{'Code_152': 'Treatment Study'}</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -8514,17 +10264,17 @@
       </c>
       <c r="I55" s="29" t="inlineStr">
         <is>
-          <t>{'Code_142': 'C49656'}</t>
+          <t>{'Code_152': 'C49656'}</t>
         </is>
       </c>
       <c r="J55" s="29" t="inlineStr">
         <is>
-          <t>{'Code_142': 'http://www.cdisc.org'}</t>
+          <t>{'Code_152': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K55" s="29" t="inlineStr">
         <is>
-          <t>{'Code_142': '2024-09-27'}</t>
+          <t>{'Code_152': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -8553,7 +10303,7 @@
       </c>
       <c r="G56" s="29" t="inlineStr">
         <is>
-          <t>A Phase II, Placebo-, Real-World Data Controlled study of Beroclin in subjects with early Parkinson disease</t>
+          <t>Safety and Efficacy of the Xanomeline Transdermal Therapeutic System (TTS) in Patients with Mild to Moderate Alzheimer's Disease</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -8659,7 +10409,7 @@
       </c>
       <c r="G58" s="13" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'LY900018'}</t>
+          <t>{'StudyIntervention_1': 'Xinomiline'}</t>
         </is>
       </c>
       <c r="H58" s="32" t="inlineStr">
@@ -8708,7 +10458,7 @@
       </c>
       <c r="G59" s="29" t="inlineStr">
         <is>
-          <t>{'Code_143': 'Efficacy Study', 'Code_144': 'Safety Study', 'Code_145': 'Pharmacokinetic Study'}</t>
+          <t>{'Code_153': 'Efficacy Study', 'Code_154': 'Safety Study', 'Code_155': 'Pharmacokinetic Study'}</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -8718,17 +10468,17 @@
       </c>
       <c r="I59" s="29" t="inlineStr">
         <is>
-          <t>{'Code_143': 'C49666', 'Code_144': 'C49667', 'Code_145': 'C49663'}</t>
+          <t>{'Code_153': 'C49666', 'Code_154': 'C49667', 'Code_155': 'C49663'}</t>
         </is>
       </c>
       <c r="J59" s="29" t="inlineStr">
         <is>
-          <t>{'Code_143': 'http://www.cdisc.org', 'Code_144': 'http://www.cdisc.org', 'Code_145': 'http://www.cdisc.org'}</t>
+          <t>{'Code_153': 'http://www.cdisc.org', 'Code_154': 'http://www.cdisc.org', 'Code_155': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K59" s="29" t="inlineStr">
         <is>
-          <t>{'Code_143': '2024-09-27', 'Code_144': '2024-09-27', 'Code_145': '2024-09-27'}</t>
+          <t>{'Code_153': '2024-09-27', 'Code_154': '2024-09-27', 'Code_155': '2024-09-27'}</t>
         </is>
       </c>
     </row>

--- a/Output/SDTM_Results.xlsx
+++ b/Output/SDTM_Results.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-20115" yWindow="-18930" windowWidth="23295" windowHeight="15225" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Readme" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="TA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="TE" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TV" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="TI" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="TS" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="TS Parameters" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Readme" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TE" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TV" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TI" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TS" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TS Parameters" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'TS Parameters'!$A$1:$G$59</definedName>
@@ -108,18 +108,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7DEE8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -129,62 +123,15 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -203,91 +150,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -295,45 +164,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -341,20 +215,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -737,36 +599,36 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="17" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>USDM Version</t>
         </is>
       </c>
-      <c r="B1" s="17" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>v4.0.0</t>
         </is>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1">
-      <c r="A2" s="17" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>SDTM Version</t>
         </is>
       </c>
-      <c r="B2" s="17" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>SDMT IG v3.4</t>
         </is>
       </c>
     </row>
     <row r="4" ht="21" customHeight="1">
-      <c r="A4" s="17" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>SDTM Columns</t>
         </is>
       </c>
-      <c r="B4" s="17" t="n"/>
+      <c r="B4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -776,92 +638,92 @@
       </c>
     </row>
     <row r="7" ht="21" customHeight="1">
-      <c r="A7" s="17" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>USDM Columns</t>
         </is>
       </c>
-      <c r="B7" s="17" t="n"/>
+      <c r="B7" s="2" t="n"/>
     </row>
     <row r="9" ht="15.5" customHeight="1">
-      <c r="A9" s="18" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>Mapping Name</t>
         </is>
       </c>
-      <c r="B9" s="18" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>The name of the original mapping in DDF USDM v4.0</t>
         </is>
       </c>
     </row>
     <row r="10" ht="31" customHeight="1">
-      <c r="A10" s="18" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>JSONATA</t>
         </is>
       </c>
-      <c r="B10" s="18" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>The USDM v4.0 mappings combined to a JSONATA query</t>
         </is>
       </c>
     </row>
     <row r="11" ht="31" customHeight="1">
-      <c r="A11" s="18" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Fixed Content</t>
         </is>
       </c>
-      <c r="B11" s="18" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>In case content is fixed and no mapping is needed the corresponding value is presented in this column</t>
         </is>
       </c>
     </row>
     <row r="12" ht="31" customHeight="1">
-      <c r="A12" s="18" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>TSVALNF (in case of TS)</t>
         </is>
       </c>
-      <c r="B12" s="18" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>value to be presented in case no value is returned based on a JSONATA query</t>
         </is>
       </c>
     </row>
     <row r="13" ht="15.5" customHeight="1">
-      <c r="A13" s="18" t="n"/>
-      <c r="B13" s="18" t="n"/>
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="3" t="n"/>
     </row>
     <row r="14" ht="15.5" customHeight="1">
-      <c r="A14" s="18" t="n"/>
-      <c r="B14" s="18" t="n"/>
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="3" t="n"/>
     </row>
     <row r="15" ht="15.5" customHeight="1">
-      <c r="A15" s="18" t="n"/>
-      <c r="B15" s="18" t="n"/>
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="3" t="n"/>
     </row>
     <row r="16" ht="15.5" customHeight="1">
-      <c r="A16" s="18" t="n"/>
-      <c r="B16" s="18" t="n"/>
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="3" t="n"/>
     </row>
     <row r="18" ht="21" customHeight="1">
-      <c r="A18" s="17" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="B18" s="17" t="n"/>
+      <c r="B18" s="2" t="n"/>
     </row>
     <row r="20" ht="62" customHeight="1">
-      <c r="A20" s="18" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Multiple Mappings</t>
         </is>
       </c>
-      <c r="B20" s="18" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">In case there is more than one mapping for the same SDTM item these mappings are provided in separate rows in the USDM v4.0 mapping file. In this mapping file, they are combined again to 1 JSONata query. </t>
         </is>
@@ -873,7 +735,7 @@
           <t>Resulting domains</t>
         </is>
       </c>
-      <c r="B21" s="29" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>For the resulting domains, the specified variables are transposed to columns and the result values are presented in rows.</t>
         </is>
@@ -893,186 +755,191 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col width="17.81640625" customWidth="1" min="1" max="2"/>
-    <col width="25.81640625" customWidth="1" min="6" max="6"/>
-    <col width="83.6328125" customWidth="1" style="29" min="7" max="7"/>
-    <col width="18.6328125" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="20.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="19.90625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.81640625" customWidth="1" min="3" max="3"/>
+    <col width="48.36328125" customWidth="1" min="4" max="4"/>
+    <col width="15.36328125" customWidth="1" min="5" max="5"/>
+    <col width="23.6328125" customWidth="1" min="6" max="6"/>
+    <col width="83.6328125" customWidth="1" style="5" min="7" max="7"/>
+    <col width="43.6328125" customWidth="1" min="8" max="8"/>
+    <col width="43.453125" customWidth="1" min="9" max="9"/>
+    <col width="41.36328125" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" ht="21" customFormat="1" customHeight="1" s="11">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">STUDYID </t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">DOMAIN </t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">ARMCD </t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">ARM </t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">TAETORD </t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">ETCD </t>
         </is>
       </c>
-      <c r="G1" s="25" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">ELEMENT </t>
         </is>
       </c>
-      <c r="H1" s="21" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">TABRANCH </t>
         </is>
       </c>
-      <c r="I1" s="21" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t xml:space="preserve">TATRANS </t>
         </is>
       </c>
-      <c r="J1" s="21" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t xml:space="preserve">EPOCH </t>
         </is>
       </c>
-      <c r="K1" s="21" t="n"/>
     </row>
     <row r="2" ht="29" customHeight="1">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>H2Q-MC-LZZT</t>
-        </is>
-      </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>TA</t>
         </is>
       </c>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>Xanomeline High Dose</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>Active Substance</t>
         </is>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Screening Element</t>
         </is>
       </c>
-      <c r="G2" s="24" t="inlineStr">
+      <c r="G2" s="7" t="inlineStr">
         <is>
           <t>Screening</t>
         </is>
       </c>
-      <c r="H2" s="23" t="inlineStr"/>
-      <c r="I2" s="16" t="inlineStr"/>
-      <c r="J2" s="16" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr"/>
+      <c r="I2" s="1" t="inlineStr"/>
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>Screening</t>
         </is>
       </c>
-      <c r="K2" s="16" t="n"/>
+      <c r="K2" s="1" t="n"/>
     </row>
     <row r="3" ht="31" customHeight="1">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>H2Q-MC-LZZT</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>TA</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>Xanomeline High Dose</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>Active Substance</t>
         </is>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg</t>
         </is>
       </c>
-      <c r="G3" s="6" t="inlineStr">
+      <c r="G3" s="8" t="inlineStr">
         <is>
           <t>High - Start</t>
         </is>
       </c>
       <c r="H3" s="9" t="inlineStr"/>
-      <c r="I3" s="16" t="inlineStr"/>
-      <c r="J3" s="16" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr"/>
+      <c r="J3" s="1" t="inlineStr">
         <is>
           <t>Treatment One</t>
         </is>
       </c>
-      <c r="K3" s="16" t="n"/>
-    </row>
-    <row r="4" ht="31" customHeight="1">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>H2Q-MC-LZZT</t>
-        </is>
-      </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="K3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="15.5" customHeight="1">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>TA</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>Xanomeline High Dose</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>Active Substance</t>
         </is>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="F4" s="8" t="inlineStr">
         <is>
           <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg + 25 cm2, 27 mg</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="G4" s="8" t="inlineStr">
         <is>
           <t>High - Middle</t>
         </is>
@@ -1086,35 +953,35 @@
       </c>
     </row>
     <row r="5" ht="31" customHeight="1">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>H2Q-MC-LZZT</t>
-        </is>
-      </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>TA</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>Xanomeline High Dose</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>Active Substance</t>
         </is>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="6" t="inlineStr">
+      <c r="F5" s="8" t="inlineStr">
         <is>
           <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg</t>
         </is>
       </c>
-      <c r="G5" s="6" t="inlineStr">
+      <c r="G5" s="8" t="inlineStr">
         <is>
           <t>High - End</t>
         </is>
@@ -1127,36 +994,36 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="46.5" customHeight="1">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>H2Q-MC-LZZT</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="inlineStr">
+    <row r="6" ht="43.5" customHeight="1">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>TA</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Xanomeline High Dose</t>
         </is>
       </c>
-      <c r="D6" s="7" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>Active Substance</t>
         </is>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F6" s="8" t="inlineStr">
         <is>
           <t>Follow Up Element</t>
         </is>
       </c>
-      <c r="G6" s="13" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>Follow up</t>
         </is>
@@ -1170,35 +1037,35 @@
       </c>
     </row>
     <row r="7" ht="118" customHeight="1">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>H2Q-MC-LZZT</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>TA</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>Xanomeline Low Dose</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>Active Substance</t>
         </is>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="6" t="inlineStr">
+      <c r="F7" s="8" t="inlineStr">
         <is>
           <t>Screening Element</t>
         </is>
       </c>
-      <c r="G7" s="6" t="inlineStr">
+      <c r="G7" s="8" t="inlineStr">
         <is>
           <t>Screening</t>
         </is>
@@ -1212,35 +1079,35 @@
       </c>
     </row>
     <row r="8" ht="31" customHeight="1">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>H2Q-MC-LZZT</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>TA</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>Xanomeline Low Dose</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>Active Substance</t>
         </is>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="6" t="inlineStr">
+      <c r="F8" s="8" t="inlineStr">
         <is>
           <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg</t>
         </is>
       </c>
-      <c r="G8" s="13" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
@@ -1254,35 +1121,35 @@
       </c>
     </row>
     <row r="9" ht="15.5" customHeight="1">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>H2Q-MC-LZZT</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>TA</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>Xanomeline Low Dose</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t>Active Substance</t>
         </is>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="F9" s="10" t="inlineStr">
         <is>
           <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg</t>
         </is>
       </c>
-      <c r="G9" s="6" t="inlineStr">
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
@@ -1295,36 +1162,36 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="15.5" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>H2Q-MC-LZZT</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
+    <row r="10" ht="29" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>TA</t>
         </is>
       </c>
-      <c r="C10" s="7" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>Xanomeline Low Dose</t>
         </is>
       </c>
-      <c r="D10" s="7" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t>Active Substance</t>
         </is>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="F10" s="6" t="inlineStr">
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>Xanomeline TTS (adhesive patches) 50 cm2, 54 mg</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
+      <c r="G10" s="8" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
@@ -1338,35 +1205,35 @@
       </c>
     </row>
     <row r="11" ht="137.5" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>H2Q-MC-LZZT</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>TA</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>Xanomeline Low Dose</t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t>Active Substance</t>
         </is>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="6" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>Follow Up Element</t>
         </is>
       </c>
-      <c r="G11" s="6" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr">
         <is>
           <t>Follow up</t>
         </is>
@@ -1603,41 +1470,43 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col width="18.36328125" customWidth="1" min="1" max="1"/>
     <col width="20.36328125" customWidth="1" min="2" max="2"/>
-    <col width="9.36328125" customWidth="1" min="3" max="5"/>
-    <col width="25.81640625" customWidth="1" min="6" max="6"/>
+    <col width="9.36328125" customWidth="1" min="3" max="3"/>
+    <col width="19.90625" customWidth="1" min="4" max="4"/>
+    <col width="31.36328125" customWidth="1" min="5" max="5"/>
+    <col width="30.7265625" customWidth="1" min="6" max="6"/>
     <col width="39.90625" customWidth="1" min="7" max="7"/>
-    <col width="10.81640625" customWidth="1" style="29" min="8" max="8"/>
+    <col width="17.7265625" bestFit="1" customWidth="1" style="5" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" customHeight="1">
-      <c r="A1" s="10" t="inlineStr">
+    <row r="1" ht="21" customFormat="1" customHeight="1" s="11">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>STUDYID</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>DOMAIN</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>ETCD</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>ELEMENT</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>TESTRL</t>
         </is>
@@ -1647,15 +1516,14 @@
           <t>TEENRL</t>
         </is>
       </c>
-      <c r="G1" s="25" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>TEDUR</t>
         </is>
       </c>
-      <c r="H1" s="30" t="inlineStr"/>
-      <c r="I1" s="21" t="inlineStr"/>
-      <c r="J1" s="21" t="inlineStr"/>
-      <c r="K1" s="21" t="n"/>
+      <c r="H1" s="11" t="inlineStr"/>
+      <c r="I1" t="inlineStr"/>
+      <c r="J1" t="inlineStr"/>
     </row>
     <row r="2" ht="58" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
@@ -1683,20 +1551,20 @@
           <t>Informed consent</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="F2" s="12" t="inlineStr">
         <is>
           <t>Completion of all screening activities and no more than 2 weeks from informed consent</t>
         </is>
       </c>
-      <c r="G2" s="24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H2" s="27" t="inlineStr"/>
-      <c r="I2" s="16" t="inlineStr"/>
-      <c r="J2" s="16" t="inlineStr"/>
-      <c r="K2" s="16" t="n"/>
+      <c r="G2" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr"/>
+      <c r="I2" s="1" t="inlineStr"/>
+      <c r="J2" s="1" t="inlineStr"/>
+      <c r="K2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
@@ -1724,16 +1592,16 @@
           <t>Administration\xa0of\xa0first\xa0dose</t>
         </is>
       </c>
-      <c r="F3" s="5" t="n"/>
-      <c r="G3" s="26" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="F3" s="10" t="n"/>
+      <c r="G3" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H3" s="9" t="inlineStr"/>
-      <c r="I3" s="16" t="inlineStr"/>
-      <c r="J3" s="16" t="inlineStr"/>
-      <c r="K3" s="16" t="n"/>
+      <c r="I3" s="1" t="inlineStr"/>
+      <c r="J3" s="1" t="inlineStr"/>
+      <c r="K3" s="1" t="n"/>
     </row>
     <row r="4" ht="29" customHeight="1">
       <c r="A4" s="9" t="inlineStr">
@@ -1761,14 +1629,14 @@
           <t>End\xa0of\xa0last\xa0scheduled\xa0visit\xa0on\xa0study\xa0(including\xa0early\xa0termination)</t>
         </is>
       </c>
-      <c r="F4" s="12" t="inlineStr">
+      <c r="F4" s="13" t="inlineStr">
         <is>
           <t>Completion\xa0of\xa0all\xa0specified\xa0followup\xa0activities\xa0(which\xa0vary\xa0on\xa0a\xa0patient-by-patient\xa0basis)</t>
         </is>
       </c>
-      <c r="G4" s="13" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -1801,14 +1669,14 @@
           <t>Administration\xa0of\xa0first\xa0dose</t>
         </is>
       </c>
-      <c r="F5" s="12" t="inlineStr">
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>Element Description</t>
         </is>
       </c>
-      <c r="G5" s="13" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -1841,14 +1709,14 @@
           <t>Randomized</t>
         </is>
       </c>
-      <c r="F6" s="12" t="inlineStr">
+      <c r="F6" s="13" t="inlineStr">
         <is>
           <t>Element Start Rule</t>
         </is>
       </c>
-      <c r="G6" s="13" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -1881,14 +1749,14 @@
           <t>Administration\xa0of\xa0first\xa0dose\xa0(from\xa0patches\xa0supplied\xa0at\xa0Visit\xa04)</t>
         </is>
       </c>
-      <c r="F7" s="12" t="inlineStr">
+      <c r="F7" s="13" t="inlineStr">
         <is>
           <t>Element End Rule</t>
         </is>
       </c>
-      <c r="G7" s="13" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -1921,14 +1789,14 @@
           <t>Administration\xa0of\xa0first\xa0dose\xa0(from\xa0patches\xa0supplied\xa0at\xa0Visit\xa012)</t>
         </is>
       </c>
-      <c r="F8" s="12" t="inlineStr">
+      <c r="F8" s="13" t="inlineStr">
         <is>
           <t>Element Duration</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1946,55 +1814,58 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col width="18.6328125" customWidth="1" min="1" max="2"/>
-    <col width="9.6328125" customWidth="1" min="3" max="5"/>
-    <col width="26" customWidth="1" min="6" max="6"/>
+    <col width="15.26953125" customWidth="1" min="3" max="3"/>
+    <col width="20.36328125" customWidth="1" min="4" max="4"/>
+    <col width="15.54296875" customWidth="1" min="5" max="5"/>
+    <col width="24.08984375" customWidth="1" min="6" max="6"/>
     <col width="47" customWidth="1" min="7" max="7"/>
-    <col width="19.453125" customWidth="1" min="8" max="8"/>
+    <col width="34.6328125" customWidth="1" min="8" max="8"/>
+    <col width="32.08984375" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" ht="21" customFormat="1" customHeight="1" s="11">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>STUDYID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>DOMAIN</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>VISITNUM</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>VISIT</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>VISITDY</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>ARMCD</t>
         </is>
       </c>
-      <c r="G1" s="25" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>ARM</t>
         </is>
       </c>
-      <c r="H1" s="21" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>TVENRL</t>
         </is>
@@ -2006,36 +1877,36 @@
       </c>
     </row>
     <row r="2" ht="43.5" customHeight="1">
-      <c r="A2" s="6" t="inlineStr">
-        <is>
-          <t>H2Q-MC-LZZT</t>
-        </is>
-      </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="8" t="inlineStr">
         <is>
           <t>Screening 1</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr"/>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="E2" s="8" t="inlineStr"/>
+      <c r="F2" s="8" t="inlineStr">
         <is>
           <t>Placebo</t>
         </is>
       </c>
-      <c r="G2" s="24" t="inlineStr">
+      <c r="G2" s="7" t="inlineStr">
         <is>
           <t>Placebo</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="8" t="inlineStr">
         <is>
           <t>completion of screening activities</t>
         </is>
@@ -2047,40 +1918,40 @@
       </c>
     </row>
     <row r="3" ht="29" customHeight="1">
-      <c r="A3" s="6" t="inlineStr">
-        <is>
-          <t>H2Q-MC-LZZT</t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="inlineStr">
+      <c r="D3" s="8" t="inlineStr">
         <is>
           <t>Screening 2</t>
         </is>
       </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
         <is>
           <t>Placebo</t>
         </is>
       </c>
-      <c r="G3" s="6" t="inlineStr">
+      <c r="G3" s="8" t="inlineStr">
         <is>
           <t>Placebo</t>
         </is>
       </c>
-      <c r="H3" s="6" t="inlineStr">
+      <c r="H3" s="8" t="inlineStr">
         <is>
           <t>subject leaves clinic after connection of ambulatory ECG machine</t>
         </is>
@@ -2092,317 +1963,317 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>H2Q-MC-LZZT</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="D4" s="8" t="inlineStr">
         <is>
           <t>Baseline</t>
         </is>
       </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
         <is>
           <t>Placebo</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="G4" s="8" t="inlineStr">
         <is>
           <t>Placebo</t>
         </is>
       </c>
-      <c r="H4" s="6" t="inlineStr">
+      <c r="H4" s="8" t="inlineStr">
         <is>
           <t>Radomized</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="5" ht="29" customHeight="1">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>H2Q-MC-LZZT</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="inlineStr">
+      <c r="D5" s="8" t="inlineStr">
         <is>
           <t>Week 2</t>
         </is>
       </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="inlineStr">
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F5" s="8" t="inlineStr">
         <is>
           <t>Placebo</t>
         </is>
       </c>
-      <c r="G5" s="29" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>Placebo</t>
         </is>
       </c>
-      <c r="H5" s="6" t="inlineStr">
+      <c r="H5" s="8" t="inlineStr">
         <is>
           <t>End of treatment</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="6" ht="29" customHeight="1">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>H2Q-MC-LZZT</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="inlineStr">
+      <c r="D6" s="8" t="inlineStr">
         <is>
           <t>Week 4</t>
         </is>
       </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F6" s="8" t="inlineStr">
         <is>
           <t>Placebo</t>
         </is>
       </c>
-      <c r="G6" s="13" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>Placebo</t>
         </is>
       </c>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="H6" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="7" ht="29" customHeight="1">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>H2Q-MC-LZZT</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="inlineStr">
+      <c r="D7" s="8" t="inlineStr">
         <is>
           <t>Week 6</t>
         </is>
       </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
         <is>
           <t>Placebo</t>
         </is>
       </c>
-      <c r="G7" s="13" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Placebo</t>
         </is>
       </c>
-      <c r="H7" s="6" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="H7" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="8" ht="29" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>H2Q-MC-LZZT</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>Week 8</t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
         <is>
           <t>Placebo</t>
         </is>
       </c>
-      <c r="G8" s="29" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>Placebo</t>
         </is>
       </c>
-      <c r="H8" s="6" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="9" ht="29" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>H2Q-MC-LZZT</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="6" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr">
         <is>
           <t>Week 12</t>
         </is>
       </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr">
         <is>
           <t>Placebo</t>
         </is>
       </c>
-      <c r="G9" s="6" t="inlineStr">
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t>Placebo</t>
         </is>
       </c>
-      <c r="H9" s="6" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="10" ht="29" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>H2Q-MC-LZZT</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>H2Q-MC-LZZT</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Week 16</t>
         </is>
       </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>Placebo</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
+      <c r="G10" s="8" t="inlineStr">
         <is>
           <t>Placebo</t>
         </is>
       </c>
-      <c r="H10" s="6" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2427,7 +2298,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2442,12 +2313,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2472,7 +2343,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2487,12 +2358,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2517,7 +2388,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2532,12 +2403,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2603,7 +2474,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2648,7 +2519,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2668,7 +2539,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2693,7 +2564,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2713,7 +2584,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2738,7 +2609,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2753,12 +2624,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2783,7 +2654,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2798,12 +2669,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2828,7 +2699,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2843,12 +2714,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2873,7 +2744,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2888,12 +2759,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2918,7 +2789,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2933,12 +2804,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2963,7 +2834,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2978,12 +2849,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3008,7 +2879,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3023,12 +2894,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3053,7 +2924,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3068,12 +2939,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3139,7 +3010,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3184,7 +3055,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3204,7 +3075,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3229,7 +3100,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3249,7 +3120,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3274,7 +3145,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3289,12 +3160,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3319,7 +3190,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3334,12 +3205,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3364,7 +3235,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3379,12 +3250,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3409,7 +3280,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3424,12 +3295,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3454,7 +3325,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3469,12 +3340,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3499,7 +3370,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3514,12 +3385,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3544,7 +3415,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3559,12 +3430,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3589,7 +3460,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3604,12 +3475,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3629,41 +3500,51 @@
   </sheetPr>
   <dimension ref="A1:BE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col width="18.6328125" customWidth="1" min="1" max="5"/>
+    <col width="18.6328125" customWidth="1" min="1" max="2"/>
+    <col width="14.36328125" customWidth="1" min="3" max="3"/>
+    <col width="22.90625" customWidth="1" min="4" max="4"/>
+    <col width="54.1796875" customWidth="1" style="5" min="5" max="5"/>
     <col width="28.7265625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="51.6328125" customWidth="1" style="28" min="7" max="7"/>
-    <col width="29.81640625" customWidth="1" style="16" min="8" max="8"/>
-    <col width="8.6328125" customWidth="1" style="16" min="9" max="11"/>
+    <col width="51.6328125" customWidth="1" style="4" min="7" max="7"/>
+    <col width="36.26953125" customWidth="1" style="4" min="8" max="8"/>
+    <col width="47.90625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="47.7265625" customWidth="1" style="4" min="10" max="10"/>
+    <col width="56.08984375" customWidth="1" style="4" min="11" max="11"/>
+    <col width="57.26953125" customWidth="1" style="5" min="12" max="12"/>
+    <col width="63.7265625" customWidth="1" style="5" min="13" max="13"/>
+    <col width="46.54296875" customWidth="1" style="5" min="14" max="14"/>
+    <col width="51.7265625" customWidth="1" style="5" min="15" max="15"/>
+    <col width="10.81640625" customWidth="1" style="5" min="16" max="16"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="10" t="inlineStr">
+    <row r="1" ht="21" customFormat="1" customHeight="1" s="11">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>STUDYID</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>DOMAIN</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>IETESTCD</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>IETEST</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="15" t="inlineStr">
         <is>
           <t>IECAT</t>
         </is>
@@ -3673,52 +3554,52 @@
           <t>IESCAT</t>
         </is>
       </c>
-      <c r="G1" s="25" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>TIRL</t>
         </is>
       </c>
-      <c r="H1" s="21" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>TIVERS</t>
         </is>
       </c>
-      <c r="I1" s="21" t="inlineStr">
+      <c r="I1" s="15" t="inlineStr">
         <is>
           <t>IETEST2</t>
         </is>
       </c>
-      <c r="J1" s="21" t="inlineStr">
+      <c r="J1" s="15" t="inlineStr">
         <is>
           <t>IETEST3</t>
         </is>
       </c>
-      <c r="K1" s="21" t="inlineStr">
+      <c r="K1" s="15" t="inlineStr">
         <is>
           <t>IETEST4</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="15" t="inlineStr">
         <is>
           <t>IETEST5</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="15" t="inlineStr">
         <is>
           <t>IETEST6</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="15" t="inlineStr">
         <is>
           <t>IETEST7</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="15" t="inlineStr">
         <is>
           <t>IETEST8</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="15" t="inlineStr">
         <is>
           <t>IETEST9</t>
         </is>
@@ -3942,7 +3823,7 @@
       </c>
       <c r="D2" s="9" t="inlineStr">
         <is>
-          <t>Males and postmenopausal females at least //TAG REFERENCE PARSING ERROR// years of age.</t>
+          <t>Males and postmenopausal females at least 50.0 years of age.</t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
@@ -3950,17 +3831,17 @@
           <t>Inclusion Criteria</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G2" s="24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H2" s="23" t="inlineStr">
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G2" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -3992,14 +3873,14 @@
           <t>Inclusion Criteria</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G3" s="26" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="F3" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H3" s="9" t="inlineStr">
@@ -4009,7 +3890,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Disorders Association (ADRDA) guidelines (Attachment LZZT.7).</t>
+          <t xml:space="preserve"> Disorders Association (ADRDA) guidelines (Attachment LZZT.7).</t>
         </is>
       </c>
     </row>
@@ -4039,17 +3920,17 @@
           <t>Inclusion Criteria</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G4" s="27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H4" s="23" t="inlineStr">
+      <c r="F4" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -4081,17 +3962,17 @@
           <t>Inclusion Criteria</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G5" s="29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H5" s="23" t="inlineStr">
+      <c r="F5" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -4123,54 +4004,54 @@
           <t>Inclusion Criteria</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G6" s="27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H6" s="23" t="inlineStr">
+      <c r="F6" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>with ischemic necrosis in any cerebral artery territory. ; - Large, confluent areas of encephalomalacia in parieto-occipital or frontal regions consistent with watershed infarcts. The above are</t>
+          <t xml:space="preserve"> with ischemic necrosis in any cerebral artery territory. ; - Large, confluent areas of encephalomalacia in parieto-occipital or frontal regions consistent with watershed infarcts. The above are</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>exclusionary. Exceptions are made for small areas of cortical asymmetry which may represent a small cortical stroke or a focal area of atrophy provided there is no abnormal signal intensity in the</t>
+          <t xml:space="preserve"> exclusionary. Exceptions are made for small areas of cortical asymmetry which may represent a small cortical stroke or a focal area of atrophy provided there is no abnormal signal intensity in the</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>immediately underlying parenchyma. Only one such questionable area allowed per scan, and size is restricted to &lt;=1cm in frontal/parietal/temporal cortices and &lt;=2 cm in occipital cortex. ; - Small</t>
+          <t xml:space="preserve"> immediately underlying parenchyma. Only one such questionable area allowed per scan, and size is restricted to &lt;=1cm in frontal/parietal/temporal cortices and &lt;=2 cm in occipital cortex. ; - Small</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>vessel ischemia Lacunar infarct is defined as an area of abnormal intensity seen on CT scan or on both T1 and T2 weighted MRI images in the basal ganglia, thalamus or deep white matter which is &lt;=1 cm</t>
+          <t xml:space="preserve"> vessel ischemia Lacunar infarct is defined as an area of abnormal intensity seen on CT scan or on both T1 and T2 weighted MRI images in the basal ganglia, thalamus or deep white matter which is &lt;=1</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>in maximal diameter. A maximum of one lacune is allowed per scan. ; - Leukoariosis or leukoencephalopathy is regarded as an abnormality seen on T2 but not T1 weighted MRIs, or on CT. This is accepted</t>
+          <t xml:space="preserve"> cm in maximal diameter. A maximum of one lacune is allowed per scan. ; - Leukoariosis or leukoencephalopathy is regarded as an abnormality seen on T2 but not T1 weighted MRIs, or on CT. This is</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>if mild or moderate in extent, meaning involvement of less than 25% of cortical white matter. ; - Miscellaneous Benign small extra-axial tumors (ie, meningiomas) are accepted if they do not contact or</t>
+          <t xml:space="preserve"> accepted if mild or moderate in extent, meaning involvement of less than 25% of cortical white matter. ; - Miscellaneous Benign small extra-axial tumors (ie, meningiomas) are accepted if they do not</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>indent the brain parenchyma. ; - Small extra-axial arachnoid cysts are accepted if they do not indent or deform the brain parenchyma. ;</t>
+          <t xml:space="preserve"> contact or indent the brain parenchyma. ; - Small extra-axial arachnoid cysts are accepted if they do not indent or deform the brain parenchyma. ;</t>
         </is>
       </c>
     </row>
@@ -4200,17 +4081,17 @@
           <t>Inclusion Criteria</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G7" s="27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H7" s="23" t="inlineStr">
+      <c r="F7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -4242,17 +4123,17 @@
           <t>Inclusion Criteria</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G8" s="26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H8" s="23" t="inlineStr">
+      <c r="F8" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -4284,29 +4165,29 @@
           <t>Inclusion Criteria</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G9" s="26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H9" s="23" t="inlineStr">
+      <c r="F9" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>administration of prescribed medications, and will be responsible for the overall care of the patient at home. The caregiver and the patient must be able to communicate in English and willing to</t>
+          <t xml:space="preserve"> administration of prescribed medications, and will be responsible for the overall care of the patient at home. The caregiver and the patient must be able to communicate in English and willing to</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>comply with 26 weeks of transdermal therapy.</t>
+          <t xml:space="preserve"> comply with 26 weeks of transdermal therapy.</t>
         </is>
       </c>
     </row>
@@ -4338,12 +4219,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -4380,12 +4261,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -4422,12 +4303,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -4464,12 +4345,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -4479,12 +4360,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>these disorders; - Seizure disorder other than simple childhood febrile seizures; - Severe head trauma resulting in protracted loss of consciousness within the last 5 years, or multiple episodes of</t>
+          <t xml:space="preserve"> these disorders; - Seizure disorder other than simple childhood febrile seizures; - Severe head trauma resulting in protracted loss of consciousness within the last 5 years, or multiple episodes of</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>head trauma; - Parkinson\'s disease; - Multiple sclerosis; - Amyotrophic lateral sclerosis; - Myasthenia gravis.;</t>
+          <t xml:space="preserve"> head trauma; - Parkinson\'s disease; - Multiple sclerosis; - Amyotrophic lateral sclerosis; - Myasthenia gravis.;</t>
         </is>
       </c>
     </row>
@@ -4516,12 +4397,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -4558,12 +4439,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -4600,12 +4481,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -4642,12 +4523,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -4657,12 +4538,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>block unless treated with a pacemaker; - Wolff-Parkinson-White syndrome; - Sustained supraventricular tachyarrhythmia including SVT≥10 sec, atrial fibrillation, atrial flutter.; - Ventricular</t>
+          <t xml:space="preserve"> block unless treated with a pacemaker; - Wolff-Parkinson-White syndrome; - Sustained supraventricular tachyarrhythmia including SVT≥10 sec, atrial fibrillation, atrial flutter.; - Ventricular</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>tachycardia at a rate of ≥120 beats per minute lasting≥10 seconds.;</t>
+          <t xml:space="preserve"> tachycardia at a rate of ≥120 beats per minute lasting≥10 seconds.;</t>
         </is>
       </c>
     </row>
@@ -4694,12 +4575,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -4709,7 +4590,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>heart failure refractory to treatment; - Angina except angina controlled with PRN nitroglycerin; - Resting heart rate &lt;50 or &gt;100 beats per minute, on physical exam; - Uncontrolled hypertension.;</t>
+          <t xml:space="preserve"> heart failure refractory to treatment; - Angina except angina controlled with PRN nitroglycerin; - Resting heart rate &lt;50 or &gt;100 beats per minute, on physical exam; - Uncontrolled hypertension.;</t>
         </is>
       </c>
     </row>
@@ -4741,12 +4622,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -4756,7 +4637,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>diverticular disease; - Inflammatory bowel disease; - Pancreatitis; - Hepatitis; - Cirrhosis of the liver.;</t>
+          <t xml:space="preserve"> diverticular disease; - Inflammatory bowel disease; - Pancreatitis; - Hepatitis; - Cirrhosis of the liver.;</t>
         </is>
       </c>
     </row>
@@ -4788,12 +4669,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -4803,7 +4684,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Untreated hypothyroidism; - Other untreated endocrinological disorder;</t>
+          <t xml:space="preserve"> Untreated hypothyroidism; - Other untreated endocrinological disorder;</t>
         </is>
       </c>
     </row>
@@ -4835,12 +4716,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -4877,12 +4758,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -4919,12 +4800,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4961,12 +4842,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -5003,12 +4884,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -5045,12 +4926,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -5060,7 +4941,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>situ, or in situ prostate cancer with a normal PSA postresection.</t>
+          <t xml:space="preserve"> situ, or in situ prostate cancer with a normal PSA postresection.</t>
         </is>
       </c>
     </row>
@@ -5092,12 +4973,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -5134,12 +5015,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -5149,17 +5030,17 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>↑↓ hemoglobin, ↑↓ white blood cell count, ↑↓ platelet count, ↑↓ serum sodium, potassium, or calcium.If values exceed these laboratory reference ranges, clinical significance will be judged by the</t>
+          <t xml:space="preserve"> ↑↓ hemoglobin, ↑↓ white blood cell count, ↑↓ platelet count, ↑↓ serum sodium, potassium, or calcium.If values exceed these laboratory reference ranges, clinical significance will be judged by the</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>monitoring physicians. If the monitoring physician determines that the deviation from the reference range is not clinically significant, the patient may be included in the study. This decision will be</t>
+          <t xml:space="preserve"> monitoring physicians. If the monitoring physician determines that the deviation from the reference range is not clinically significant, the patient may be included in the study. This decision will</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>documented.",</t>
+          <t xml:space="preserve"> be documented.",</t>
         </is>
       </c>
     </row>
@@ -5191,12 +5072,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -5206,32 +5087,32 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>allowed to enroll if their folate levels are above the upper end of the range if patients are taking vitamin supplements. ; - Vitamin B 12 reference range 130 to 900 pg/mL. Patients will be allowed to</t>
+          <t xml:space="preserve"> allowed to enroll if their folate levels are above the upper end of the range if patients are taking vitamin supplements. ; - Vitamin B 12 reference range 130 to 900 pg/mL. Patients will be allowed</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>enroll if their B 12 levels are above the upper reference range if patients are taking oral vitamin supplements. ; - Thyroid functions Thyroid Uptake reference range 25 to 38%. Patients will be</t>
+          <t xml:space="preserve"> to enroll if their B 12 levels are above the upper reference range if patients are taking oral vitamin supplements. ; - Thyroid functions Thyroid Uptake reference range 25 to 38%. Patients will be</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>allowed to enroll with results of 23 to 51% provided the remainder of the thyroid profile is normal and there are no clinical signs or symptoms of thyroid abnormality. ; - TSH reference range 0.32 to</t>
+          <t xml:space="preserve"> allowed to enroll with results of 23 to 51% provided the remainder of the thyroid profile is normal and there are no clinical signs or symptoms of thyroid abnormality. ; - TSH reference range 0.32 to</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>5.0. Patients will be allowed to enroll with results of 0.03 to 6.2 if patients are taking stable doses of exogenous thyroid supplements, with normal free thyroid index, and show no clinical signs or</t>
+          <t xml:space="preserve"> 5.0. Patients will be allowed to enroll with results of 0.03 to 6.2 if patients are taking stable doses of exogenous thyroid supplements, with normal free thyroid index, and show no clinical signs or</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>symptoms of thyroid abnormality. ; - Total T4 reference range 4.5 to 12.5. Patients will be allowed to enroll with results of 4.1 to 13.4 if patients are taking stable doses of exogenous thyroid</t>
+          <t xml:space="preserve"> symptoms of thyroid abnormality. ; - Total T4 reference range 4.5 to 12.5. Patients will be allowed to enroll with results of 4.1 to 13.4 if patients are taking stable doses of exogenous thyroid</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>hormone, with normal free thyroid index, and show no clinical signs or symptoms of thyroid abnormality. ; - Free Thyroid Index reference range 1.1 to 4.6. ;</t>
+          <t xml:space="preserve"> hormone, with normal free thyroid index, and show no clinical signs or symptoms of thyroid abnormality. ; - Free Thyroid Index reference range 1.1 to 4.6. ;</t>
         </is>
       </c>
     </row>
@@ -5263,12 +5144,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -5278,7 +5159,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>of an alternative disease (for example, yaws) which caused the lab abnormality.</t>
+          <t xml:space="preserve"> of an alternative disease (for example, yaws) which caused the lab abnormality.</t>
         </is>
       </c>
     </row>
@@ -5310,12 +5191,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -5352,12 +5233,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -5367,247 +5248,247 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>weeks Dilantin (R) (phenytoin) 2 weeks Felbatol (R) (felbamate) 1 month Klonopin (R) (clonazepam) 2 weeks Lamictal (R) (lamotrigine) 2 weeks Mysoline (R) (primidone) 1 month Neurontin (R) (gabapentin)</t>
+          <t xml:space="preserve"> weeks Dilantin (R) (phenytoin) 2 weeks Felbatol (R) (felbamate) 1 month Klonopin (R) (clonazepam) 2 weeks Lamictal (R) (lamotrigine) 2 weeks Mysoline (R) (primidone) 1 month Neurontin (R)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2 weeks Phenobarbitol 1 month Tegretol (R) (carbamazepine) 2 weeks ; - Alpha receptor blockers including but not limited to Aldomet (R) (methyldopa) 2 weeks Cardura (R) (doxazosin) 2 weeks Catapres</t>
+          <t xml:space="preserve"> (gabapentin) 2 weeks Phenobarbitol 1 month Tegretol (R) (carbamazepine) 2 weeks ; - Alpha receptor blockers including but not limited to Aldomet (R) (methyldopa) 2 weeks Cardura (R) (doxazosin) 2</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>(R) (clonidine) 2 weeks Hytrin (R) (terazosin) 2 weeks Minipress (R) (prazosin) 2 weeks Tenex (R) (guanfacine) 2 weeks Wytensin (R) (guanabenz) 2 weeks The use of low doses (2 mg daily) of either</t>
+          <t xml:space="preserve"> weeks Catapres (R) (clonidine) 2 weeks Hytrin (R) (terazosin) 2 weeks Minipress (R) (prazosin) 2 weeks Tenex (R) (guanfacine) 2 weeks Wytensin (R) (guanabenz) 2 weeks The use of low doses (2 mg</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Hytrin (R) or Cardura (R) for relief of urinary retention for patients with prostatic hypertrophy will be considered on a case-by-case basis provided blood pressure is stable and the medication has</t>
+          <t xml:space="preserve"> daily) of either Hytrin (R) or Cardura (R) for relief of urinary retention for patients with prostatic hypertrophy will be considered on a case-by-case basis provided blood pressure is stable and the</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>not had demonstrable effect on dementia symptoms in the opinion of the treating physician. Contact CRO medical monitor. ; - Calcium channel blockers that are CNS active including but not limited to</t>
+          <t xml:space="preserve"> medication has not had demonstrable effect on dementia symptoms in the opinion of the treating physician. Contact CRO medical monitor. ; - Calcium channel blockers that are CNS active including but</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Calan (R) , Isoptin (R) , Verelan (R) (verapamil) 2 weeks Cardizem (R) (diltiazem) 2 weeks Nimotop (R) (nimodipine) 2 weeks Adalat (R) , Procardia XL (R) (nifedipine) 2 weeks Cardene (R)</t>
+          <t xml:space="preserve"> not limited to Calan (R) , Isoptin (R) , Verelan (R) (verapamil) 2 weeks Cardizem (R) (diltiazem) 2 weeks Nimotop (R) (nimodipine) 2 weeks Adalat (R) , Procardia XL (R) (nifedipine) 2 weeks Cardene</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>(nicardipine), Norvasc (R) , (amlodipine), and DynaCirc (R) (isradipine) will be allowed during the study. If a patient is taking an excluded calcium channel blocker and is changed to an equivalent</t>
+          <t xml:space="preserve"> (R) (nicardipine), Norvasc (R) , (amlodipine), and DynaCirc (R) (isradipine) will be allowed during the study. If a patient is taking an excluded calcium channel blocker and is changed to an</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>dose of an allowed calcium channel blocker, enrollment may proceed in as little as 24 hours though 1 week is preferred when possible. ; - Beta blockers including but not limited to Betapace (R)</t>
+          <t xml:space="preserve"> equivalent dose of an allowed calcium channel blocker, enrollment may proceed in as little as 24 hours though 1 week is preferred when possible. ; - Beta blockers including but not limited to</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>(sotalol) 2 weeks Inderal (R) (propranolol) 2 weeks Lopressor (R) , Toprol XL (R) (metoprolol) 2 weeks Corgard (R) (nadolol) 2 weeks Sectral (R) (acebutolol) 2 weeks Tenormin (R) (atenolol) 2 weeks</t>
+          <t xml:space="preserve"> Betapace (R) (sotalol) 2 weeks Inderal (R) (propranolol) 2 weeks Lopressor (R) , Toprol XL (R) (metoprolol) 2 weeks Corgard (R) (nadolol) 2 weeks Sectral (R) (acebutolol) 2 weeks Tenormin (R)</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Visken (R) (pindolol) 2 weeks Beta blocker eye drops for glaucoma will be considered on a case-by-case basis. Call medical monitor. ; - Beta sympathomimetics (unless inhaled) including but not limited</t>
+          <t xml:space="preserve"> (atenolol) 2 weeks Visken (R) (pindolol) 2 weeks Beta blocker eye drops for glaucoma will be considered on a case-by-case basis. Call medical monitor. ; - Beta sympathomimetics (unless inhaled)</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>to Alupent (R) tablets (metaproterenol) 2 weeks Brethine (R) tablets (terbutaline) 2 weeks Dopamine 2 weeks Proventil Repetabs (R) , Ventolin (R) tablets (albuterol tablets) 2 weeks ; -</t>
+          <t xml:space="preserve"> including but not limited to Alupent (R) tablets (metaproterenol) 2 weeks Brethine (R) tablets (terbutaline) 2 weeks Dopamine 2 weeks Proventil Repetabs (R) , Ventolin (R) tablets (albuterol tablets)</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>Parasympathomimetics (cholinergics) (unless opthalmic) including but not limited to Antilirium (R) (physostigmine) 1 month Aricept (R) (donepezil) 1 month Cognex (R) (tacrine) 1 month Mestinon (R)</t>
+          <t xml:space="preserve"> 2 weeks ; - Parasympathomimetics (cholinergics) (unless opthalmic) including but not limited to Antilirium (R) (physostigmine) 1 month Aricept (R) (donepezil) 1 month Cognex (R) (tacrine) 1 month</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>(pyridostigmine) 1 week Reglan (R) (metoclopramide) 2 weeks Urecholine (R) , Duvoid (bethanechol) 2 weeks Cholinergic eye drops for treatment of glaucoma will be allowed during the study on a</t>
+          <t xml:space="preserve"> Mestinon (R) (pyridostigmine) 1 week Reglan (R) (metoclopramide) 2 weeks Urecholine (R) , Duvoid (bethanechol) 2 weeks Cholinergic eye drops for treatment of glaucoma will be allowed during the study</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>case-by-case basis. Please contact the CRO medical monitor. ; - Muscle relaxants-centrally active including but not limited to Equanil (R) (meprobamate) 2 weeks Flexeril (R) (cyclobenzaprine) 2 weeks</t>
+          <t xml:space="preserve"> on a case-by-case basis. Please contact the CRO medical monitor. ; - Muscle relaxants-centrally active including but not limited to Equanil (R) (meprobamate) 2 weeks Flexeril (R) (cyclobenzaprine) 2</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>Lioresal (R) (baclofen) 2 weeks Norflex (R) (orphenadrine) 2 weeks Parafon Forte (R) (chlorzoxazone) 2 weeks Robaxin (R) (methocarbamol) 2 weeks Skelaxin (R) (metaxalone) 2 weeks Soma (R)</t>
+          <t xml:space="preserve"> weeks Lioresal (R) (baclofen) 2 weeks Norflex (R) (orphenadrine) 2 weeks Parafon Forte (R) (chlorzoxazone) 2 weeks Robaxin (R) (methocarbamol) 2 weeks Skelaxin (R) (metaxalone) 2 weeks Soma (R)</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>(carisoprodol) 2 weeks ; - Monamine oxidase inhibitors (MAOI) including but not limited to Eldepryl (R) (selegiline) 1 month Nardil (R) (phenelzine) 1 month Parnate (R) (tranylcypromine) 1 month ; -</t>
+          <t xml:space="preserve"> (carisoprodol) 2 weeks ; - Monamine oxidase inhibitors (MAOI) including but not limited to Eldepryl (R) (selegiline) 1 month Nardil (R) (phenelzine) 1 month Parnate (R) (tranylcypromine) 1 month ; -</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>Parasympatholytics including but not limited to Antivert (R) , Bonine (R) , Dramamine II (R) (meclizine) 3 days Artane (R) (trihexyphenidyl) 2 weeks Bellergal-S (R) (alkaloids of belladonna and</t>
+          <t xml:space="preserve"> Parasympatholytics including but not limited to Antivert (R) , Bonine (R) , Dramamine II (R) (meclizine) 3 days Artane (R) (trihexyphenidyl) 2 weeks Bellergal-S (R) (alkaloids of belladonna and</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>ergotamine) 2 weeks Bentyl (R) (dicyclomine) 3 days Cogentin (R) (benztropine) 2 weeks Cystospaz (R), Levsin (R) , Levsinex (R) (hyoscyamine) 2 weeks Ditropan (R) (oxybutynin) 2 weeks Donnatal (R) ,</t>
+          <t xml:space="preserve"> ergotamine) 2 weeks Bentyl (R) (dicyclomine) 3 days Cogentin (R) (benztropine) 2 weeks Cystospaz (R), Levsin (R) , Levsinex (R) (hyoscyamine) 2 weeks Ditropan (R) (oxybutynin) 2 weeks Donnatal (R) ,</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Hyosophen (R) (atropine, scopolamine, hyoscyamine and phenobarbitol) 1 month Dramamine (R) (dimenhydrinate) 3 days Lomotil (R), Lonox (R) (atropine, diphenoxylate) 2 weeks Pro-Banthine</t>
+          <t xml:space="preserve"> Hyosophen (R) (atropine, scopolamine, hyoscyamine and phenobarbitol) 1 month Dramamine (R) (dimenhydrinate) 3 days Lomotil (R), Lonox (R) (atropine, diphenoxylate) 2 weeks Pro-Banthine</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>(R)(propantheline) 2 weeks Robinul (R) (glycopyrrolate) 3 days Tigan (R) (trimethobenzamide) 3 days Transderm-Scop (R) (scopolamine) 2 weeks Urispas (R) (flavoxate) 2 weeks ; - Antidepressants</t>
+          <t xml:space="preserve"> (R)(propantheline) 2 weeks Robinul (R) (glycopyrrolate) 3 days Tigan (R) (trimethobenzamide) 3 days Transderm-Scop (R) (scopolamine) 2 weeks Urispas (R) (flavoxate) 2 weeks ; - Antidepressants</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>including but not limited to Anafranil (R) (clomipramine) 1 month Asendin (R) (amoxapine) 1 month Desyrel (R) (trazodone) 1 month Effexor (R) (venlafaxine) 1 month Elavil (R) (amitriptyline) 1 month</t>
+          <t xml:space="preserve"> including but not limited to Anafranil (R) (clomipramine) 1 month Asendin (R) (amoxapine) 1 month Desyrel (R) (trazodone) 1 month Effexor (R) (venlafaxine) 1 month Elavil (R) (amitriptyline) 1 month</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>Ludiomil (R) (maprotiline) 1 month Norpramin (R) (desipramine) 1 month Pamelor (R) , Aventyl (R) (nortriptyline) 1 month Paxil (R) (paroxetine) 1 month Prozac (R) (fluoxetine 1 month Remeron (R)</t>
+          <t xml:space="preserve"> Ludiomil (R) (maprotiline) 1 month Norpramin (R) (desipramine) 1 month Pamelor (R) , Aventyl (R) (nortriptyline) 1 month Paxil (R) (paroxetine) 1 month Prozac (R) (fluoxetine 1 month Remeron (R)</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>(mirtazapine) 1 month Serzone (R) (nefazodone) 1 month Sinequan (R) (doxepin) 1 month Tofranil (R) (imipramine) 1 month Vivactil (R) (protriptyline) 1 month Wellbutrin (R) (bupropion) 1 month Zoloft</t>
+          <t xml:space="preserve"> (mirtazapine) 1 month Serzone (R) (nefazodone) 1 month Sinequan (R) (doxepin) 1 month Tofranil (R) (imipramine) 1 month Vivactil (R) (protriptyline) 1 month Wellbutrin (R) (bupropion) 1 month Zoloft</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>(R) (sertraline) 1 month ; - Systemic corticosteroids including but not limited to Cortisone 2 weeks Decadron (R) (dexamethasone) 2 weeks Depo-Medrol (R) (methylprednisolone) 1 month Prednisone 2</t>
+          <t xml:space="preserve"> (R) (sertraline) 1 month ; - Systemic corticosteroids including but not limited to Cortisone 2 weeks Decadron (R) (dexamethasone) 2 weeks Depo-Medrol (R) (methylprednisolone) 1 month Prednisone 2</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>weeks ; - Xanthine derivatives including but not limited to Aminophylline 2 weeks Fioricet (R) , Esgic (R) , Phrenilin Forte (R) (caffeine, butalbital) 3 days Theo-Dur (R) (theophylline) 2 weeks</t>
+          <t xml:space="preserve"> weeks ; - Xanthine derivatives including but not limited to Aminophylline 2 weeks Fioricet (R) , Esgic (R) , Phrenilin Forte (R) (caffeine, butalbital) 3 days Theo-Dur (R) (theophylline) 2 weeks</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>Wigraine (R) , Cafergot (R) (caffeine, ergotamine) 3 days ; - Histamine (H2 ) antagonists including but not limited to Axid (R) (nizatidine) 1 week Pepcid (R) (famotidine) 1 week Tagamet (R)</t>
+          <t xml:space="preserve"> Wigraine (R) , Cafergot (R) (caffeine, ergotamine) 3 days ; - Histamine (H2 ) antagonists including but not limited to Axid (R) (nizatidine) 1 week Pepcid (R) (famotidine) 1 week Tagamet (R)</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>(cimetidine) 1 week Zantac (R) (ranitidine) 1 week If an H 2 antagonist is needed by the patient, Axid (R) will be allowed on a case-by-case basis. Please consult CRO medical monitor. ; - Narcotic</t>
+          <t xml:space="preserve"> (cimetidine) 1 week Zantac (R) (ranitidine) 1 week If an H 2 antagonist is needed by the patient, Axid (R) will be allowed on a case-by-case basis. Please consult CRO medical monitor. ; - Narcotic</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>Analgesics including but not limited to Darvocet-N 100 (R) , (propoxyphene) 1 week Demerol (R) (meperidine) 1 week Dilaudid (R) (hydromorphone) 1 week Duragesic (R) (fentanyl) 1 week MS Contin (R) ,</t>
+          <t xml:space="preserve"> Analgesics including but not limited to Darvocet-N 100 (R) , (propoxyphene) 1 week Demerol (R) (meperidine) 1 week Dilaudid (R) (hydromorphone) 1 week Duragesic (R) (fentanyl) 1 week MS Contin (R) ,</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>Roxanol (R) , Oramorph (R) (morphine) 1 week Percocet (R) , Roxicet (R) (oxycodone with acetaminophen) 3 days Percodan (R) , Roxiprin 1 week Stadol (R) (butorphanol) 1 week Talacen (R) (pentazocine) 1</t>
+          <t xml:space="preserve"> Roxanol (R) , Oramorph (R) (morphine) 1 week Percocet (R) , Roxicet (R) (oxycodone with acetaminophen) 3 days Percodan (R) , Roxiprin 1 week Stadol (R) (butorphanol) 1 week Talacen (R) (pentazocine)</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>week Tylenol #2 (R) , #3 (R) , #4 (R) (codeine and acetaminophen) 3 days Tylox (R) , Roxilox (R) (oxycodone) 3 days Vicodin (R), Lorcet (R) (hydrocodone) 1 week Percocet (oxycodone with acetaminophen)</t>
+          <t xml:space="preserve"> 1 week Tylenol #2 (R) , #3 (R) , #4 (R) (codeine and acetaminophen) 3 days Tylox (R) , Roxilox (R) (oxycodone) 3 days Vicodin (R), Lorcet (R) (hydrocodone) 1 week Percocet (oxycodone with</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>and Tylenol (R) with codeine #2, #3, #4 (acetaminophen + codeine) ARE allowed in the month prior to enrollment, but are not permitted in the 3 days prior to enrollment. ; - Neuroleptics</t>
+          <t xml:space="preserve"> acetaminophen) and Tylenol (R) with codeine #2, #3, #4 (acetaminophen + codeine) ARE allowed in the month prior to enrollment, but are not permitted in the 3 days prior to enrollment. ; -</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>(antipsychotics) including but not limited to Clozaril (R) (clozapine) 2 weeks Haldol (R) (haloperidol) 2 weeks Loxitane (R) (loxapine) 2 weeks Mellaril (R) (thioridazine) 2 weeks Moban (R)</t>
+          <t xml:space="preserve"> Neuroleptics (antipsychotics) including but not limited to Clozaril (R) (clozapine) 2 weeks Haldol (R) (haloperidol) 2 weeks Loxitane (R) (loxapine) 2 weeks Mellaril (R) (thioridazine) 2 weeks Moban</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>(molindone) 2 weeks Navane (R) (thiothixene) 2 weeks Orap (R) (pimozide) 2 weeks Prolixin (R) (fluphenazine) 1 month Risperdal (R) (risperidone) 2 weeks Stelazine (R) (trifluoperazine) 2 weeks</t>
+          <t xml:space="preserve"> (R) (molindone) 2 weeks Navane (R) (thiothixene) 2 weeks Orap (R) (pimozide) 2 weeks Prolixin (R) (fluphenazine) 1 month Risperdal (R) (risperidone) 2 weeks Stelazine (R) (trifluoperazine) 2 weeks</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>Thorazine (R) (chlorpromazine) 2 weeks Trilafon (R) (perphenazine) 2 weeks Serentil (R) (mesoridazine) 2 weeks The use of neuroleptics on a daily basis must be discontinued 2 to 4 weeks prior to</t>
+          <t xml:space="preserve"> Thorazine (R) (chlorpromazine) 2 weeks Trilafon (R) (perphenazine) 2 weeks Serentil (R) (mesoridazine) 2 weeks The use of neuroleptics on a daily basis must be discontinued 2 to 4 weeks prior to</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>enrollment. The use of neuroleptics on an as-needed basis is allowable during the screening period, but the last dose must be at least 7 days prior to enrollment. ; - Antianxiety agents including but</t>
+          <t xml:space="preserve"> enrollment. The use of neuroleptics on an as-needed basis is allowable during the screening period, but the last dose must be at least 7 days prior to enrollment. ; - Antianxiety agents including but</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>not limited to Atarax (R) (hydroxyzine) 2 weeks BuSpar (R) (buspirone) 2 weeks Librium (R) (chlordiazepoxide) 2 weeks Serax (R) (oxazepam) 2 weeks Tranxene (R) (clorazepate) 2 weeks Valium (R)</t>
+          <t xml:space="preserve"> not limited to Atarax (R) (hydroxyzine) 2 weeks BuSpar (R) (buspirone) 2 weeks Librium (R) (chlordiazepoxide) 2 weeks Serax (R) (oxazepam) 2 weeks Tranxene (R) (clorazepate) 2 weeks Valium (R)</t>
         </is>
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>(diazepam) 2 weeks Vistaril (R) (hydroxyzine pamoate) 2 weeks Xanax (R) (alprazolam) 2 weeks Ativan (R) (lorazepam) should be discontinued on a daily basis 2 weeks prior to enrollment. It may be used</t>
+          <t xml:space="preserve"> (diazepam) 2 weeks Vistaril (R) (hydroxyzine pamoate) 2 weeks Xanax (R) (alprazolam) 2 weeks Ativan (R) (lorazepam) should be discontinued on a daily basis 2 weeks prior to enrollment. It may be used</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr">
         <is>
-          <t>on an as-needed basis during the screening period, but is not permitted in the 24 hours prior to enrollment. ; - Hypnotics/Sedatives including but not limited to Ambien (R) (zolpidem) 3 days Dalmane</t>
+          <t xml:space="preserve"> on an as-needed basis during the screening period, but is not permitted in the 24 hours prior to enrollment. ; - Hypnotics/Sedatives including but not limited to Ambien (R) (zolpidem) 3 days Dalmane</t>
         </is>
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>(R) (flurazepam) 3 days Doral (R) (quazepam) 3 days Halcion (R) (triazolam) 3 days Nembutal (R) 2 weeks ProSom (R) (estazolam) 3 days Restoril (R) (temazepam) 3 days Seconal (R) 2 weeks Chloral</t>
+          <t xml:space="preserve"> (R) (flurazepam) 3 days Doral (R) (quazepam) 3 days Halcion (R) (triazolam) 3 days Nembutal (R) 2 weeks ProSom (R) (estazolam) 3 days Restoril (R) (temazepam) 3 days Seconal (R) 2 weeks Chloral</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>Hydrate is allowed on an as-needed basis during screening, but is not permitted in the 24 hours prior to enrollment. ; - Histamine (H1 ) antagonists including but not limited to Actifed (R) , Actifed</t>
+          <t xml:space="preserve"> Hydrate is allowed on an as-needed basis during screening, but is not permitted in the 24 hours prior to enrollment. ; - Histamine (H1 ) antagonists including but not limited to Actifed (R) , Actifed</t>
         </is>
       </c>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Plus (R) (triprolidine) Benadryl (R) , Unisom (R) , Tylenol P.M. (R) 3 days (diphenhydramine) 3 days Compazine (R) (prochlorperazine) 3 days Contac (R) , Coricidin D (R) , Sinutab (R) , Novahistine</t>
+          <t xml:space="preserve"> Plus (R) (triprolidine) Benadryl (R) , Unisom (R) , Tylenol P.M. (R) 3 days (diphenhydramine) 3 days Compazine (R) (prochlorperazine) 3 days Contac (R) , Coricidin D (R) , Sinutab (R) , Novahistine</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>(R) , Alka Seltzer Plus (R) , Naldecon (R) , Sudafed Plus (R) , Tylenol Cold (R) , Tylenol Cold and Flu (R) (chlorpheniramine) 3 days Dimetapp (R) (brompheniramine) 3 days Drixoral (R)</t>
+          <t xml:space="preserve"> (R) , Alka Seltzer Plus (R) , Naldecon (R) , Sudafed Plus (R) , Tylenol Cold (R) , Tylenol Cold and Flu (R) (chlorpheniramine) 3 days Dimetapp (R) (brompheniramine) 3 days Drixoral (R)</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr">
         <is>
-          <t>(dexbrompheniramine) 3 days Hismanal (R) (astemizole) 1 week Phenergan (R) (promethazine) 3 days Seldane (R) (terfenadine) 1 week Tavist (R) (clemastine fumarate) 3 days Zyrtec (R) (cetrizine) 1 week</t>
+          <t xml:space="preserve"> (dexbrompheniramine) 3 days Hismanal (R) (astemizole) 1 week Phenergan (R) (promethazine) 3 days Seldane (R) (terfenadine) 1 week Tavist (R) (clemastine fumarate) 3 days Zyrtec (R) (cetrizine) 1 week</t>
         </is>
       </c>
       <c r="AZ32" t="inlineStr">
         <is>
-          <t>Allegra (R) (fexofenadine hydrochloride) or Claritin (R) (loratadine) may be taken on as-needed basis during screening but must be discontinued within 24 hours of enrollment. ; - Stimulants including</t>
+          <t xml:space="preserve"> Allegra (R) (fexofenadine hydrochloride) or Claritin (R) (loratadine) may be taken on as-needed basis during screening but must be discontinued within 24 hours of enrollment. ; - Stimulants including</t>
         </is>
       </c>
       <c r="BA32" t="inlineStr">
         <is>
-          <t>but not limited to Cylert (R) (pemoline) 1 month Ritalin (R) (methylphenidate) 1 month ; - Antiarrhythmics including but not limited to the following Adenocard (R) (adenosine) Cordarone (R)</t>
+          <t xml:space="preserve"> but not limited to Cylert (R) (pemoline) 1 month Ritalin (R) (methylphenidate) 1 month ; - Antiarrhythmics including but not limited to the following Adenocard (R) (adenosine) Cordarone (R)</t>
         </is>
       </c>
       <c r="BB32" t="inlineStr">
         <is>
-          <t>(amiodarone) Ethmozine (R) (moricizine) Mexitil (R) (mexiletine) Norpace (R) (disopyramide) Procan (R) (procainamide) Quinaglute (R) (quinidine) Rythmol (R) (propafenone) Tambocor (R) (flecainide)</t>
+          <t xml:space="preserve"> (amiodarone) Ethmozine (R) (moricizine) Mexitil (R) (mexiletine) Norpace (R) (disopyramide) Procan (R) (procainamide) Quinaglute (R) (quinidine) Rythmol (R) (propafenone) Tambocor (R) (flecainide)</t>
         </is>
       </c>
       <c r="BC32" t="inlineStr">
         <is>
-          <t>Tonocard (R) (tocainide) Requirement of these drugs for control of cardiac arrhythmia indicates that the patient should be excluded from the study. If discontinuation of an antiarrhythmic is</t>
+          <t xml:space="preserve"> Tonocard (R) (tocainide) Requirement of these drugs for control of cardiac arrhythmia indicates that the patient should be excluded from the study. If discontinuation of an antiarrhythmic is</t>
         </is>
       </c>
       <c r="BD32" t="inlineStr">
         <is>
-          <t>considered, please discuss case with CRO medical monitor. ; - Miscellaneous drugs including but not limited to Coenzyme Q 2 weeks Eskalith (R) , Lithobid (R) (lithium) 2 weeks Ginkgo biloba 1 week</t>
+          <t xml:space="preserve"> considered, please discuss case with CRO medical monitor. ; - Miscellaneous drugs including but not limited to Coenzyme Q 2 weeks Eskalith (R) , Lithobid (R) (lithium) 2 weeks Ginkgo biloba 1 week</t>
         </is>
       </c>
       <c r="BE32" t="inlineStr">
         <is>
-          <t>Lecithin 1 week Lecithin 1 week Lupron 2 weeks Tamoxifen 1 month ; - Estrogen supplements are permitted during the study, but dosage must be stable for at least 3 months prior to enrollment. ;</t>
+          <t xml:space="preserve"> Lecithin 1 week Lecithin 1 week Lupron 2 weeks Tamoxifen 1 month ; - Estrogen supplements are permitted during the study, but dosage must be stable for at least 3 months prior to enrollment. ;</t>
         </is>
       </c>
     </row>
@@ -5622,82 +5503,88 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col width="19.7265625" bestFit="1" customWidth="1" style="16" min="1" max="1"/>
-    <col width="19" bestFit="1" customWidth="1" style="16" min="2" max="2"/>
-    <col width="7.6328125" bestFit="1" customWidth="1" style="16" min="3" max="3"/>
-    <col width="14.6328125" customWidth="1" style="16" min="4" max="5"/>
-    <col width="21.453125" customWidth="1" style="16" min="6" max="6"/>
-    <col width="26.6328125" customWidth="1" style="16" min="7" max="7"/>
-    <col width="29.81640625" customWidth="1" style="16" min="8" max="8"/>
-    <col width="8.6328125" customWidth="1" style="16" min="9" max="16384"/>
+    <col width="19.7265625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="19" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="12.26953125" customWidth="1" style="1" min="3" max="3"/>
+    <col width="20" customWidth="1" style="1" min="4" max="4"/>
+    <col width="19.7265625" customWidth="1" style="1" min="5" max="5"/>
+    <col width="41.36328125" customWidth="1" style="1" min="6" max="6"/>
+    <col width="38.90625" customWidth="1" style="1" min="7" max="7"/>
+    <col width="58.6328125" customWidth="1" style="1" min="8" max="8"/>
+    <col width="8.6328125" customWidth="1" style="1" min="9" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="10" t="inlineStr">
+    <row r="1" ht="21" customFormat="1" customHeight="1" s="11">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>STUDYID</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>DOMAIN</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>TSSEQ</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>TSGRPID</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="15" t="inlineStr">
         <is>
           <t>TSPARMCD</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>TSPARM</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>TSVAL</t>
         </is>
       </c>
-      <c r="H1" s="21" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>TSVALNF</t>
         </is>
       </c>
-      <c r="I1" s="21" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>TSVALCD</t>
         </is>
       </c>
-      <c r="J1" s="21" t="inlineStr">
+      <c r="J1" s="15" t="inlineStr">
         <is>
           <t>TSVCDREF</t>
         </is>
       </c>
-      <c r="K1" s="21" t="inlineStr">
+      <c r="K1" s="15" t="inlineStr">
         <is>
           <t>TSVCDVER</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="93" customHeight="1">
+      <c r="L1" s="15" t="n"/>
+      <c r="M1" s="15" t="n"/>
+      <c r="N1" s="15" t="n"/>
+      <c r="O1" s="15" t="n"/>
+      <c r="P1" s="15" t="n"/>
+    </row>
+    <row r="2" ht="58" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
         <is>
           <t>H2Q-MC-LZZT</t>
@@ -5710,12 +5597,12 @@
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D2" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
@@ -5723,19 +5610,19 @@
           <t>ADAPT</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="8" t="inlineStr">
         <is>
           <t>Adaptive Design</t>
         </is>
       </c>
-      <c r="G2" s="24" t="inlineStr">
+      <c r="G2" s="7" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H2" s="23" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5752,12 +5639,12 @@
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
@@ -5765,19 +5652,19 @@
           <t>AGEMIN</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F3" s="10" t="inlineStr">
         <is>
           <t>Planned Minimum Age of Subjects</t>
         </is>
       </c>
-      <c r="G3" s="22" t="inlineStr">
+      <c r="G3" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">50 Year </t>
         </is>
       </c>
       <c r="H3" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5794,12 +5681,12 @@
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
@@ -5807,19 +5694,19 @@
           <t>AGEMAX</t>
         </is>
       </c>
-      <c r="F4" s="12" t="inlineStr">
+      <c r="F4" s="13" t="inlineStr">
         <is>
           <t>Planned Minimum Age of Subjects</t>
         </is>
       </c>
-      <c r="G4" s="22" t="inlineStr">
+      <c r="G4" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">100 Year </t>
         </is>
       </c>
-      <c r="H4" s="23" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5847,19 +5734,19 @@
           <t>CRMDUR</t>
         </is>
       </c>
-      <c r="F5" s="12" t="inlineStr">
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>Confirmed Response Minimum Duration</t>
         </is>
       </c>
-      <c r="G5" s="22" t="inlineStr">
+      <c r="G5" s="10" t="inlineStr">
         <is>
           <t>1 Day</t>
         </is>
       </c>
-      <c r="H5" s="23" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5887,19 +5774,19 @@
           <t>DOSE</t>
         </is>
       </c>
-      <c r="F6" s="12" t="inlineStr">
+      <c r="F6" s="13" t="inlineStr">
         <is>
           <t>Dose Level; Dose per Administration</t>
         </is>
       </c>
-      <c r="G6" s="22" t="inlineStr">
+      <c r="G6" s="10" t="inlineStr">
         <is>
           <t>54.0, 81.0</t>
         </is>
       </c>
-      <c r="H6" s="23" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5927,19 +5814,19 @@
           <t>DOSFRQ</t>
         </is>
       </c>
-      <c r="F7" s="12" t="inlineStr">
+      <c r="F7" s="13" t="inlineStr">
         <is>
           <t>Dosing Frequency</t>
         </is>
       </c>
-      <c r="G7" s="22" t="inlineStr">
+      <c r="G7" s="10" t="inlineStr">
         <is>
           <t>Daily</t>
         </is>
       </c>
-      <c r="H7" s="23" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -5982,19 +5869,19 @@
           <t>DOSFRQ</t>
         </is>
       </c>
-      <c r="F8" s="12" t="inlineStr">
+      <c r="F8" s="13" t="inlineStr">
         <is>
           <t>Dosing Frequency</t>
         </is>
       </c>
-      <c r="G8" s="22" t="inlineStr">
+      <c r="G8" s="10" t="inlineStr">
         <is>
           <t>Daily</t>
         </is>
       </c>
-      <c r="H8" s="23" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -6037,19 +5924,19 @@
           <t>DOSU</t>
         </is>
       </c>
-      <c r="F9" s="12" t="inlineStr">
+      <c r="F9" s="13" t="inlineStr">
         <is>
           <t>Dose Units</t>
         </is>
       </c>
-      <c r="G9" s="22" t="inlineStr">
+      <c r="G9" s="10" t="inlineStr">
         <is>
           <t>Milligram</t>
         </is>
       </c>
-      <c r="H9" s="23" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -6092,19 +5979,19 @@
           <t>DOSU</t>
         </is>
       </c>
-      <c r="F10" s="12" t="inlineStr">
+      <c r="F10" s="13" t="inlineStr">
         <is>
           <t>Dose Units</t>
         </is>
       </c>
-      <c r="G10" s="22" t="inlineStr">
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>Milligram</t>
         </is>
       </c>
-      <c r="H10" s="23" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -6136,12 +6023,12 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D11" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E11" s="9" t="inlineStr">
@@ -6149,19 +6036,19 @@
           <t>EXTTIND</t>
         </is>
       </c>
-      <c r="F11" s="12" t="inlineStr">
+      <c r="F11" s="13" t="inlineStr">
         <is>
           <t>Extension Trial Indicator</t>
         </is>
       </c>
-      <c r="G11" s="22" t="inlineStr">
+      <c r="G11" s="10" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H11" s="23" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6189,19 +6076,19 @@
           <t>INDIC</t>
         </is>
       </c>
-      <c r="F12" s="12" t="inlineStr">
+      <c r="F12" s="13" t="inlineStr">
         <is>
           <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
         </is>
       </c>
-      <c r="G12" s="22" t="inlineStr">
+      <c r="G12" s="10" t="inlineStr">
         <is>
           <t>"Alzheimer's disease",</t>
         </is>
       </c>
-      <c r="H12" s="23" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6241,7 +6128,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6258,12 +6145,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -6283,7 +6170,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -6338,7 +6225,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -6370,12 +6257,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -6395,7 +6282,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6412,12 +6299,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -6437,7 +6324,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6477,7 +6364,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6517,7 +6404,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6557,7 +6444,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6597,7 +6484,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6637,7 +6524,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6677,7 +6564,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6709,7 +6596,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6741,7 +6628,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6758,12 +6645,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6783,7 +6670,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6823,7 +6710,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6863,7 +6750,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6918,7 +6805,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -6950,12 +6837,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -6975,7 +6862,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6992,12 +6879,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7017,7 +6904,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7034,12 +6921,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -7059,7 +6946,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -7091,12 +6978,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -7116,7 +7003,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -7148,12 +7035,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -7173,7 +7060,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -7228,7 +7115,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -7260,12 +7147,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -7285,7 +7172,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7325,7 +7212,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7365,7 +7252,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -7420,7 +7307,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -7475,7 +7362,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -7505,10 +7392,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="109" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -7519,1171 +7406,1176 @@
     <col width="28.6328125" customWidth="1" min="4" max="4"/>
     <col width="33.81640625" customWidth="1" min="5" max="5"/>
     <col width="32.453125" customWidth="1" min="6" max="6"/>
-    <col width="59.36328125" customWidth="1" min="7" max="7"/>
+    <col width="68.6328125" customWidth="1" min="7" max="7"/>
     <col width="27.7265625" customWidth="1" min="8" max="8"/>
     <col width="30.26953125" bestFit="1" customWidth="1" min="9" max="9"/>
     <col width="43.453125" customWidth="1" min="10" max="10"/>
     <col width="35.1796875" bestFit="1" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="10" t="inlineStr">
+    <row r="1" ht="21" customFormat="1" customHeight="1" s="11">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>TSPARAM</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>TSPARAMCD</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>C Code</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">TSSEQ </t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="15" t="inlineStr">
         <is>
           <t>TSGRPID</t>
         </is>
       </c>
-      <c r="F1" s="21" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>Mapping Name</t>
         </is>
       </c>
-      <c r="G1" s="21" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>Mapping Results</t>
         </is>
       </c>
-      <c r="H1" s="21" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>TSVALNF if empty</t>
         </is>
       </c>
-      <c r="I1" s="21" t="inlineStr">
+      <c r="I1" s="11" t="inlineStr">
         <is>
           <t>TSVALCD JSONATA map</t>
         </is>
       </c>
-      <c r="J1" s="21" t="inlineStr">
+      <c r="J1" s="15" t="inlineStr">
         <is>
           <t>TSVALCDREF JSONATA map</t>
         </is>
       </c>
-      <c r="K1" s="21" t="inlineStr">
+      <c r="K1" s="15" t="inlineStr">
         <is>
           <t>TSVALCDVER JSONATA map</t>
         </is>
       </c>
+      <c r="L1" s="15" t="n"/>
+      <c r="M1" s="15" t="n"/>
+      <c r="N1" s="15" t="n"/>
+      <c r="O1" s="15" t="n"/>
+      <c r="P1" s="15" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="inlineStr">
+      <c r="A2" s="16" t="inlineStr">
         <is>
           <t>Adaptive Design</t>
         </is>
       </c>
-      <c r="B2" s="15" t="inlineStr">
+      <c r="B2" s="16" t="inlineStr">
         <is>
           <t>ADAPT</t>
         </is>
       </c>
-      <c r="C2" s="15" t="inlineStr">
+      <c r="C2" s="16" t="inlineStr">
         <is>
           <t>C146995</t>
         </is>
       </c>
-      <c r="D2" s="15" t="n"/>
-      <c r="E2" s="15" t="n"/>
-      <c r="F2" s="14" t="inlineStr">
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="17" t="inlineStr">
         <is>
           <t>Adaptive Design Indicator</t>
         </is>
       </c>
-      <c r="G2" s="31" t="inlineStr">
+      <c r="G2" s="18" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="3" ht="116" customHeight="1">
-      <c r="A3" s="15" t="inlineStr">
+      <c r="A3" s="16" t="inlineStr">
         <is>
           <t>Planned Minimum Age of Subjects</t>
         </is>
       </c>
-      <c r="B3" s="15" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
         <is>
           <t>AGEMIN</t>
         </is>
       </c>
-      <c r="C3" s="15" t="inlineStr">
+      <c r="C3" s="16" t="inlineStr">
         <is>
           <t>C49693</t>
         </is>
       </c>
-      <c r="D3" s="15" t="n"/>
-      <c r="E3" s="15" t="n"/>
-      <c r="F3" s="14" t="inlineStr">
+      <c r="D3" s="16" t="n"/>
+      <c r="E3" s="16" t="n"/>
+      <c r="F3" s="17" t="inlineStr">
         <is>
           <t>Study Minimum Age + Unit Study Population</t>
         </is>
       </c>
-      <c r="G3" s="29" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">50 Year </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="4" ht="87" customHeight="1">
-      <c r="A4" s="15" t="inlineStr">
+      <c r="A4" s="16" t="inlineStr">
         <is>
           <t>Planned Minimum Age of Subjects</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
+      <c r="B4" s="16" t="inlineStr">
         <is>
           <t>AGEMAX</t>
         </is>
       </c>
-      <c r="C4" s="15" t="inlineStr">
+      <c r="C4" s="16" t="inlineStr">
         <is>
           <t>C49694</t>
         </is>
       </c>
-      <c r="D4" s="15" t="n"/>
-      <c r="E4" s="15" t="n"/>
-      <c r="F4" s="14" t="inlineStr">
+      <c r="D4" s="16" t="n"/>
+      <c r="E4" s="16" t="n"/>
+      <c r="F4" s="17" t="inlineStr">
         <is>
           <t>Study Maximum Age + Unit Study Population</t>
         </is>
       </c>
-      <c r="G4" s="29" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">100 Year </t>
         </is>
       </c>
-      <c r="H4" s="32" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="H4" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="5" ht="58" customHeight="1">
-      <c r="A5" s="15" t="inlineStr">
+      <c r="A5" s="16" t="inlineStr">
         <is>
           <t>Biospecimen Retention contains DNA Ind</t>
         </is>
       </c>
-      <c r="B5" s="15" t="inlineStr">
+      <c r="B5" s="16" t="inlineStr">
         <is>
           <t>BRDNAIND</t>
         </is>
       </c>
-      <c r="C5" s="15" t="inlineStr">
+      <c r="C5" s="16" t="inlineStr">
         <is>
           <t>C127777</t>
         </is>
       </c>
-      <c r="D5" s="15" t="inlineStr">
+      <c r="D5" s="16" t="inlineStr">
         <is>
           <t>Add unique number if more than 1</t>
         </is>
       </c>
-      <c r="E5" s="15" t="inlineStr">
+      <c r="E5" s="16" t="inlineStr">
         <is>
           <t>If applicable, combine with the corresponding Biospecimen variables BRIND and RTSPCDES by a common unique TSGRPID</t>
         </is>
       </c>
-      <c r="F5" s="14" t="inlineStr">
+      <c r="F5" s="17" t="inlineStr">
         <is>
           <t>Biospecimen retention contains DNA indicator</t>
         </is>
       </c>
-      <c r="G5" s="29" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="6" ht="58" customHeight="1">
-      <c r="A6" s="15" t="inlineStr">
+      <c r="A6" s="16" t="inlineStr">
         <is>
           <t>Biospecimen Retention indicator</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
+      <c r="B6" s="16" t="inlineStr">
         <is>
           <t>BRIND</t>
         </is>
       </c>
-      <c r="C6" s="15" t="inlineStr">
+      <c r="C6" s="16" t="inlineStr">
         <is>
           <t>C209699</t>
         </is>
       </c>
-      <c r="D6" s="15" t="inlineStr">
+      <c r="D6" s="16" t="inlineStr">
         <is>
           <t>Add unique number if more than 1</t>
         </is>
       </c>
-      <c r="E6" s="15" t="inlineStr">
+      <c r="E6" s="16" t="inlineStr">
         <is>
           <t>If applicable, combine with the corresponding Biospecimen variables BRDNAIND and RTSPCDES by a common unique TSGRPID</t>
         </is>
       </c>
-      <c r="F6" s="14" t="inlineStr">
+      <c r="F6" s="17" t="inlineStr">
         <is>
           <t>Biospecimen retention indicator</t>
         </is>
       </c>
-      <c r="G6" s="29" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="7" ht="43.5" customHeight="1">
-      <c r="A7" s="15" t="inlineStr">
+      <c r="A7" s="16" t="inlineStr">
         <is>
           <t>Comparative Treatment Name</t>
         </is>
       </c>
-      <c r="B7" s="15" t="inlineStr">
+      <c r="B7" s="16" t="inlineStr">
         <is>
           <t>COMPTRT</t>
         </is>
       </c>
-      <c r="C7" s="15" t="inlineStr">
+      <c r="C7" s="16" t="inlineStr">
         <is>
           <t>C68612</t>
         </is>
       </c>
-      <c r="D7" s="15" t="inlineStr">
+      <c r="D7" s="16" t="inlineStr">
         <is>
           <t>Add unique number if more than 1</t>
         </is>
       </c>
-      <c r="E7" s="15" t="inlineStr">
+      <c r="E7" s="16" t="inlineStr">
         <is>
           <t>If applicable, combine with the corresponding intervention variables by a common unique tsgrpid</t>
         </is>
       </c>
-      <c r="F7" s="14" t="n"/>
-      <c r="G7" s="29" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="F7" s="17" t="n"/>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="8" ht="29" customHeight="1">
-      <c r="A8" s="15" t="inlineStr">
+      <c r="A8" s="16" t="inlineStr">
         <is>
           <t>Contact Name</t>
         </is>
       </c>
-      <c r="B8" s="15" t="inlineStr">
+      <c r="B8" s="16" t="inlineStr">
         <is>
           <t>CONNAME</t>
         </is>
       </c>
-      <c r="C8" s="15" t="inlineStr">
+      <c r="C8" s="16" t="inlineStr">
         <is>
           <t>C176373</t>
         </is>
       </c>
-      <c r="D8" s="15" t="inlineStr">
+      <c r="D8" s="16" t="inlineStr">
         <is>
           <t>Add unique number if more than 1</t>
         </is>
       </c>
-      <c r="E8" s="15" t="inlineStr">
+      <c r="E8" s="16" t="inlineStr">
         <is>
           <t>combine with CONROLE using a common unique TSGRPID</t>
         </is>
       </c>
-      <c r="F8" s="14" t="inlineStr">
+      <c r="F8" s="17" t="inlineStr">
         <is>
           <t>Contact Name</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="9" ht="29" customHeight="1">
-      <c r="A9" s="15" t="inlineStr">
+      <c r="A9" s="16" t="inlineStr">
         <is>
           <t>Contact Role</t>
         </is>
       </c>
-      <c r="B9" s="15" t="inlineStr">
+      <c r="B9" s="16" t="inlineStr">
         <is>
           <t>CONROLE</t>
         </is>
       </c>
-      <c r="C9" s="15" t="inlineStr">
+      <c r="C9" s="16" t="inlineStr">
         <is>
           <t>C176372</t>
         </is>
       </c>
-      <c r="D9" s="15" t="inlineStr">
+      <c r="D9" s="16" t="inlineStr">
         <is>
           <t>Add unique number if more than 1</t>
         </is>
       </c>
-      <c r="E9" s="15" t="inlineStr">
+      <c r="E9" s="16" t="inlineStr">
         <is>
           <t>combine with CONNAME using a common unique TSGRPID</t>
         </is>
       </c>
-      <c r="F9" s="14" t="inlineStr">
+      <c r="F9" s="17" t="inlineStr">
         <is>
           <t>Contact Role</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="10" ht="43.5" customHeight="1">
-      <c r="A10" s="15" t="inlineStr">
+      <c r="A10" s="16" t="inlineStr">
         <is>
           <t>Confirmed Response Minimum Duration</t>
         </is>
       </c>
-      <c r="B10" s="15" t="inlineStr">
+      <c r="B10" s="16" t="inlineStr">
         <is>
           <t>CRMDUR</t>
         </is>
       </c>
-      <c r="C10" s="15" t="inlineStr">
+      <c r="C10" s="16" t="inlineStr">
         <is>
           <t>C98715</t>
         </is>
       </c>
-      <c r="D10" s="15" t="inlineStr">
+      <c r="D10" s="16" t="inlineStr">
         <is>
           <t>Add unique number if more than 1</t>
         </is>
       </c>
-      <c r="E10" s="15" t="inlineStr">
+      <c r="E10" s="16" t="inlineStr">
         <is>
           <t>If applicable, combine with the corresponding intervention variables by a common unique TSGRPID</t>
         </is>
       </c>
-      <c r="F10" s="14" t="inlineStr">
+      <c r="F10" s="17" t="inlineStr">
         <is>
           <t>Minimum Response Duration</t>
         </is>
       </c>
-      <c r="G10" s="29" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': '1 Day'}</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="11" ht="43.5" customHeight="1">
-      <c r="A11" s="15" t="inlineStr">
+      <c r="A11" s="16" t="inlineStr">
         <is>
           <t>Current Therapy or Treatment</t>
         </is>
       </c>
-      <c r="B11" s="15" t="inlineStr">
+      <c r="B11" s="16" t="inlineStr">
         <is>
           <t>CURTRT</t>
         </is>
       </c>
-      <c r="C11" s="15" t="inlineStr">
+      <c r="C11" s="16" t="inlineStr">
         <is>
           <t>C85582</t>
         </is>
       </c>
-      <c r="D11" s="15" t="inlineStr">
+      <c r="D11" s="16" t="inlineStr">
         <is>
           <t>Add unique number if more than 1</t>
         </is>
       </c>
-      <c r="E11" s="15" t="inlineStr">
+      <c r="E11" s="16" t="inlineStr">
         <is>
           <t>If applicable, combine with the corresponding intervention variables by a common TSGRPID</t>
         </is>
       </c>
-      <c r="F11" s="14" t="inlineStr">
+      <c r="F11" s="17" t="inlineStr">
         <is>
           <t>Background treatment</t>
         </is>
       </c>
-      <c r="G11" s="29" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="12" ht="43.5" customHeight="1">
-      <c r="A12" s="15" t="inlineStr">
+      <c r="A12" s="16" t="inlineStr">
         <is>
           <t>Data Monitoring Committee Indicator</t>
         </is>
       </c>
-      <c r="B12" s="15" t="inlineStr">
+      <c r="B12" s="16" t="inlineStr">
         <is>
           <t>DMCIND</t>
         </is>
       </c>
-      <c r="C12" s="15" t="inlineStr">
+      <c r="C12" s="16" t="inlineStr">
         <is>
           <t>C127790</t>
         </is>
       </c>
-      <c r="D12" s="15" t="n"/>
-      <c r="E12" s="15" t="n"/>
-      <c r="F12" s="14" t="inlineStr">
+      <c r="D12" s="16" t="n"/>
+      <c r="E12" s="16" t="n"/>
+      <c r="F12" s="17" t="inlineStr">
         <is>
           <t>Data Monitoring Committee Indicator</t>
         </is>
       </c>
-      <c r="G12" s="29" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="13" ht="43.5" customHeight="1">
-      <c r="A13" s="15" t="inlineStr">
+      <c r="A13" s="16" t="inlineStr">
         <is>
           <t>Dose Level; Dose per Administration</t>
         </is>
       </c>
-      <c r="B13" s="15" t="inlineStr">
+      <c r="B13" s="16" t="inlineStr">
         <is>
           <t>DOSE</t>
         </is>
       </c>
-      <c r="C13" s="15" t="inlineStr">
+      <c r="C13" s="16" t="inlineStr">
         <is>
           <t>C25488</t>
         </is>
       </c>
-      <c r="D13" s="15" t="inlineStr">
+      <c r="D13" s="16" t="inlineStr">
         <is>
           <t>Add unique number if more than 1</t>
         </is>
       </c>
-      <c r="E13" s="15" t="inlineStr">
+      <c r="E13" s="16" t="inlineStr">
         <is>
           <t>If applicable, combine with the corresponding intervention variables by a common TSGRPID</t>
         </is>
       </c>
-      <c r="F13" s="14" t="inlineStr">
+      <c r="F13" s="17" t="inlineStr">
         <is>
           <t>Dosage Levels</t>
         </is>
       </c>
-      <c r="G13" s="29" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': [54.0, 81.0]}</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="14" ht="43.5" customHeight="1">
-      <c r="A14" s="15" t="inlineStr">
+      <c r="A14" s="16" t="inlineStr">
         <is>
           <t>Dose Form</t>
         </is>
       </c>
-      <c r="B14" s="15" t="inlineStr">
+      <c r="B14" s="16" t="inlineStr">
         <is>
           <t>DOSFRM</t>
         </is>
       </c>
-      <c r="C14" s="15" t="inlineStr">
+      <c r="C14" s="16" t="inlineStr">
         <is>
           <t>C42636</t>
         </is>
       </c>
-      <c r="D14" s="15" t="inlineStr">
+      <c r="D14" s="16" t="inlineStr">
         <is>
           <t>Add unique number if more than 1</t>
         </is>
       </c>
-      <c r="E14" s="15" t="inlineStr">
+      <c r="E14" s="16" t="inlineStr">
         <is>
           <t>If applicable, combine with the corresponding intervention variables by a common TSGRPID</t>
         </is>
       </c>
-      <c r="F14" s="14" t="inlineStr">
+      <c r="F14" s="17" t="inlineStr">
         <is>
           <t>Dose Form</t>
         </is>
       </c>
-      <c r="G14" s="29" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G14" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="15" ht="58" customHeight="1">
-      <c r="A15" s="15" t="inlineStr">
+      <c r="A15" s="16" t="inlineStr">
         <is>
           <t>Dosing Frequency</t>
         </is>
       </c>
-      <c r="B15" s="15" t="inlineStr">
+      <c r="B15" s="16" t="inlineStr">
         <is>
           <t>DOSFRQ</t>
         </is>
       </c>
-      <c r="C15" s="15" t="inlineStr">
+      <c r="C15" s="16" t="inlineStr">
         <is>
           <t>C89081</t>
         </is>
       </c>
-      <c r="D15" s="15" t="inlineStr">
+      <c r="D15" s="16" t="inlineStr">
         <is>
           <t>Add unique number if more than 1</t>
         </is>
       </c>
-      <c r="E15" s="15" t="inlineStr">
+      <c r="E15" s="16" t="inlineStr">
         <is>
           <t>If applicable, combine with the corresponding intervention variables by a common TSGRPID</t>
         </is>
       </c>
-      <c r="F15" s="14" t="inlineStr">
+      <c r="F15" s="17" t="inlineStr">
         <is>
           <t>Administration Frequency</t>
         </is>
       </c>
-      <c r="G15" s="29" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': ['Daily', 'Daily']}</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I15" s="29" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I15" s="5" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': ['C25473', 'C25473']}</t>
         </is>
       </c>
-      <c r="J15" s="29" t="inlineStr">
+      <c r="J15" s="5" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': ['http://www.cdisc.org', 'http://www.cdisc.org']}</t>
         </is>
       </c>
-      <c r="K15" s="29" t="inlineStr">
+      <c r="K15" s="5" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': ['2024-09-27', '2024-09-27']}</t>
         </is>
       </c>
     </row>
     <row r="16" ht="58" customHeight="1">
-      <c r="A16" s="15" t="inlineStr">
+      <c r="A16" s="16" t="inlineStr">
         <is>
           <t>Dose Units</t>
         </is>
       </c>
-      <c r="B16" s="15" t="inlineStr">
+      <c r="B16" s="16" t="inlineStr">
         <is>
           <t>DOSU</t>
         </is>
       </c>
-      <c r="C16" s="15" t="inlineStr">
+      <c r="C16" s="16" t="inlineStr">
         <is>
           <t>C73558</t>
         </is>
       </c>
-      <c r="D16" s="15" t="inlineStr">
+      <c r="D16" s="16" t="inlineStr">
         <is>
           <t>Add unique number if more than 1</t>
         </is>
       </c>
-      <c r="E16" s="15" t="inlineStr">
+      <c r="E16" s="16" t="inlineStr">
         <is>
           <t>If applicable, combine with the corresponding intervention variables by a common TSGRPID</t>
         </is>
       </c>
-      <c r="F16" s="14" t="inlineStr">
+      <c r="F16" s="17" t="inlineStr">
         <is>
           <t>Dosage Units</t>
         </is>
       </c>
-      <c r="G16" s="29" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': ['Milligram', 'Milligram']}</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I16" s="29" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I16" s="5" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': ['C28253', 'C28253']}</t>
         </is>
       </c>
-      <c r="J16" s="29" t="inlineStr">
+      <c r="J16" s="5" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': ['http://www.cdisc.org', 'http://www.cdisc.org']}</t>
         </is>
       </c>
-      <c r="K16" s="29" t="inlineStr">
+      <c r="K16" s="5" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': ['2024-09-27', '2024-09-27']}</t>
         </is>
       </c>
     </row>
     <row r="17" ht="29" customHeight="1">
-      <c r="A17" s="15" t="inlineStr">
+      <c r="A17" s="16" t="inlineStr">
         <is>
           <t>Extension Trial Indicator</t>
         </is>
       </c>
-      <c r="B17" s="15" t="inlineStr">
+      <c r="B17" s="16" t="inlineStr">
         <is>
           <t>EXTTIND</t>
         </is>
       </c>
-      <c r="C17" s="15" t="inlineStr">
+      <c r="C17" s="16" t="inlineStr">
         <is>
           <t>C139274</t>
         </is>
       </c>
-      <c r="D17" s="15" t="n"/>
-      <c r="E17" s="15" t="n"/>
-      <c r="F17" s="14" t="inlineStr">
+      <c r="D17" s="16" t="n"/>
+      <c r="E17" s="16" t="n"/>
+      <c r="F17" s="17" t="inlineStr">
         <is>
           <t>Extension Trial Indicator</t>
         </is>
       </c>
-      <c r="G17" s="33" t="inlineStr">
+      <c r="G17" s="19" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="18" ht="58" customHeight="1">
-      <c r="A18" s="15" t="inlineStr">
+      <c r="A18" s="16" t="inlineStr">
         <is>
           <t>Planned Country of Investigational Sites</t>
         </is>
       </c>
-      <c r="B18" s="15" t="inlineStr">
+      <c r="B18" s="16" t="inlineStr">
         <is>
           <t>FCNTRY</t>
         </is>
       </c>
-      <c r="C18" s="15" t="inlineStr">
+      <c r="C18" s="16" t="inlineStr">
         <is>
           <t>C98770</t>
         </is>
       </c>
-      <c r="D18" s="15" t="inlineStr">
+      <c r="D18" s="16" t="inlineStr">
         <is>
           <t>Add unique number if more than 1</t>
         </is>
       </c>
-      <c r="E18" s="15" t="n"/>
-      <c r="F18" s="14" t="inlineStr">
+      <c r="E18" s="16" t="n"/>
+      <c r="F18" s="17" t="inlineStr">
         <is>
           <t>Planned Country of Investigational Sites</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="19" ht="58" customHeight="1">
-      <c r="A19" s="15" t="inlineStr">
+      <c r="A19" s="16" t="inlineStr">
         <is>
           <t>Healthy Subject Indicator</t>
         </is>
       </c>
-      <c r="B19" s="15" t="inlineStr">
+      <c r="B19" s="16" t="inlineStr">
         <is>
           <t>HLTSUBJI</t>
         </is>
       </c>
-      <c r="C19" s="15" t="inlineStr">
+      <c r="C19" s="16" t="inlineStr">
         <is>
           <t>C98737</t>
         </is>
       </c>
-      <c r="D19" s="15" t="n"/>
-      <c r="E19" s="15" t="n"/>
-      <c r="F19" s="14" t="inlineStr">
+      <c r="D19" s="16" t="n"/>
+      <c r="E19" s="16" t="n"/>
+      <c r="F19" s="17" t="inlineStr">
         <is>
           <t>Healthy Subject Indicator Study Population / Cohort</t>
         </is>
       </c>
-      <c r="G19" s="29" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="20" ht="101.5" customHeight="1">
-      <c r="A20" s="15" t="inlineStr">
+      <c r="A20" s="16" t="inlineStr">
         <is>
           <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
         </is>
       </c>
-      <c r="B20" s="15" t="inlineStr">
+      <c r="B20" s="16" t="inlineStr">
         <is>
           <t>INDIC</t>
         </is>
       </c>
-      <c r="C20" s="15" t="inlineStr">
+      <c r="C20" s="16" t="inlineStr">
         <is>
           <t>C112038</t>
         </is>
       </c>
-      <c r="D20" s="15" t="n"/>
-      <c r="E20" s="15" t="n"/>
-      <c r="F20" s="14" t="inlineStr">
+      <c r="D20" s="16" t="n"/>
+      <c r="E20" s="16" t="n"/>
+      <c r="F20" s="17" t="inlineStr">
         <is>
           <t>Study design Diagnosis or Condition</t>
         </is>
       </c>
-      <c r="G20" s="29" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>{'Indication_1': "Alzheimer's disease", 'Indication_2': "Alzheimer's disease"}</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="21" ht="43.5" customHeight="1">
-      <c r="A21" s="15" t="inlineStr">
+      <c r="A21" s="16" t="inlineStr">
         <is>
           <t>Intervention Model</t>
         </is>
       </c>
-      <c r="B21" s="15" t="inlineStr">
+      <c r="B21" s="16" t="inlineStr">
         <is>
           <t>INTMODEL</t>
         </is>
       </c>
-      <c r="C21" s="15" t="inlineStr">
+      <c r="C21" s="16" t="inlineStr">
         <is>
           <t>C98746</t>
         </is>
       </c>
-      <c r="D21" s="15" t="n"/>
-      <c r="E21" s="15" t="n"/>
-      <c r="F21" s="14" t="inlineStr">
+      <c r="D21" s="16" t="n"/>
+      <c r="E21" s="16" t="n"/>
+      <c r="F21" s="17" t="inlineStr">
         <is>
           <t>Intervention Model</t>
         </is>
       </c>
-      <c r="G21" s="34" t="inlineStr">
+      <c r="G21" s="20" t="inlineStr">
         <is>
           <t>Parallel Study</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I21" s="34" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I21" s="20" t="inlineStr">
         <is>
           <t>C82639</t>
         </is>
       </c>
-      <c r="J21" s="34" t="inlineStr">
+      <c r="J21" s="20" t="inlineStr">
         <is>
           <t>//www.cdisc.org</t>
         </is>
       </c>
-      <c r="K21" s="34" t="inlineStr">
+      <c r="K21" s="20" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="22" ht="43.5" customHeight="1">
-      <c r="A22" s="15" t="inlineStr">
+      <c r="A22" s="16" t="inlineStr">
         <is>
           <t>Intervention Type</t>
         </is>
       </c>
-      <c r="B22" s="15" t="inlineStr">
+      <c r="B22" s="16" t="inlineStr">
         <is>
           <t>INTTYPE</t>
         </is>
       </c>
-      <c r="C22" s="15" t="inlineStr">
+      <c r="C22" s="16" t="inlineStr">
         <is>
           <t>C98747</t>
         </is>
       </c>
-      <c r="D22" s="15" t="inlineStr">
+      <c r="D22" s="16" t="inlineStr">
         <is>
           <t>Add unique number if more than 1</t>
         </is>
       </c>
-      <c r="E22" s="15" t="inlineStr">
+      <c r="E22" s="16" t="inlineStr">
         <is>
           <t>If applicable, combine with the corresponding intervention variables by a common TSGRPID</t>
         </is>
       </c>
-      <c r="F22" s="14" t="inlineStr">
+      <c r="F22" s="17" t="inlineStr">
         <is>
           <t>Intervention Type</t>
         </is>
       </c>
-      <c r="G22" s="29" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'Pharmacologic Substance'}</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I22" s="29" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I22" s="5" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'C1909'}</t>
         </is>
       </c>
-      <c r="J22" s="29" t="inlineStr">
+      <c r="J22" s="5" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'http://www.cdisc.org'}</t>
         </is>
       </c>
-      <c r="K22" s="29" t="inlineStr">
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': '2024-09-27'}</t>
         </is>
       </c>
     </row>
     <row r="23" ht="58" customHeight="1">
-      <c r="A23" s="15" t="inlineStr">
+      <c r="A23" s="16" t="inlineStr">
         <is>
           <t>Trial Length</t>
         </is>
       </c>
-      <c r="B23" s="15" t="inlineStr">
+      <c r="B23" s="16" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="C23" s="15" t="inlineStr">
+      <c r="C23" s="16" t="inlineStr">
         <is>
           <t>C49697</t>
         </is>
       </c>
-      <c r="D23" s="15" t="n"/>
-      <c r="E23" s="15" t="n"/>
-      <c r="F23" s="13" t="inlineStr">
+      <c r="D23" s="16" t="n"/>
+      <c r="E23" s="16" t="n"/>
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>Trial Duration Value + Units</t>
         </is>
       </c>
-      <c r="G23" s="29" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -8693,1176 +8585,1176 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="24" ht="43.5" customHeight="1">
-      <c r="A24" s="15" t="inlineStr">
+      <c r="A24" s="16" t="inlineStr">
         <is>
           <t>Multiple Site EU Site Trial Indicator</t>
         </is>
       </c>
-      <c r="B24" s="15" t="inlineStr">
+      <c r="B24" s="16" t="inlineStr">
         <is>
           <t>MSEUTIND</t>
         </is>
       </c>
-      <c r="C24" s="15" t="inlineStr">
+      <c r="C24" s="16" t="inlineStr">
         <is>
           <t>C127794</t>
         </is>
       </c>
-      <c r="D24" s="15" t="n"/>
-      <c r="E24" s="15" t="n"/>
-      <c r="F24" s="14" t="inlineStr">
+      <c r="D24" s="16" t="n"/>
+      <c r="E24" s="16" t="n"/>
+      <c r="F24" s="17" t="inlineStr">
         <is>
           <t>Multiple Site Eu Site Trial Indicator</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="25" ht="29" customHeight="1">
-      <c r="A25" s="15" t="inlineStr">
+      <c r="A25" s="16" t="inlineStr">
         <is>
           <t>Planned Number of Arms</t>
         </is>
       </c>
-      <c r="B25" s="15" t="inlineStr">
+      <c r="B25" s="16" t="inlineStr">
         <is>
           <t>NARMS</t>
         </is>
       </c>
-      <c r="C25" s="15" t="inlineStr">
+      <c r="C25" s="16" t="inlineStr">
         <is>
           <t>C98771</t>
         </is>
       </c>
-      <c r="D25" s="15" t="n"/>
-      <c r="E25" s="15" t="n"/>
-      <c r="F25" s="14" t="inlineStr">
+      <c r="D25" s="16" t="n"/>
+      <c r="E25" s="16" t="n"/>
+      <c r="F25" s="17" t="inlineStr">
         <is>
           <t>Number of Arms</t>
         </is>
       </c>
-      <c r="G25" s="39" t="inlineStr">
+      <c r="G25" s="20" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="26" ht="29" customHeight="1">
-      <c r="A26" s="15" t="inlineStr">
+      <c r="A26" s="16" t="inlineStr">
         <is>
           <t>Number of Groups/Cohorts</t>
         </is>
       </c>
-      <c r="B26" s="15" t="inlineStr">
+      <c r="B26" s="16" t="inlineStr">
         <is>
           <t>NCOHORT</t>
         </is>
       </c>
-      <c r="C26" s="15" t="inlineStr">
+      <c r="C26" s="16" t="inlineStr">
         <is>
           <t>C126063</t>
         </is>
       </c>
-      <c r="D26" s="15" t="n"/>
-      <c r="E26" s="15" t="n"/>
-      <c r="F26" s="14" t="inlineStr">
+      <c r="D26" s="16" t="n"/>
+      <c r="E26" s="16" t="n"/>
+      <c r="F26" s="17" t="inlineStr">
         <is>
           <t>Number of Groups/Cohorts</t>
         </is>
       </c>
-      <c r="G26" s="34" t="inlineStr">
+      <c r="G26" s="20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="27" ht="29" customHeight="1">
-      <c r="A27" s="15" t="inlineStr">
+      <c r="A27" s="16" t="inlineStr">
         <is>
           <t>Number of Trial Sites EU State</t>
         </is>
       </c>
-      <c r="B27" s="15" t="inlineStr">
+      <c r="B27" s="16" t="inlineStr">
         <is>
           <t>NUMSEUST</t>
         </is>
       </c>
-      <c r="C27" s="15" t="inlineStr">
+      <c r="C27" s="16" t="inlineStr">
         <is>
           <t>C1227795</t>
         </is>
       </c>
-      <c r="D27" s="15" t="n"/>
-      <c r="E27" s="15" t="n"/>
-      <c r="F27" s="14" t="inlineStr">
+      <c r="D27" s="16" t="n"/>
+      <c r="E27" s="16" t="n"/>
+      <c r="F27" s="17" t="inlineStr">
         <is>
           <t>Number of Trial Sites EU State</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="28" ht="43.5" customHeight="1">
-      <c r="A28" s="15" t="inlineStr">
+      <c r="A28" s="16" t="inlineStr">
         <is>
           <t>Trial Exploratory Objective</t>
         </is>
       </c>
-      <c r="B28" s="15" t="inlineStr">
+      <c r="B28" s="16" t="inlineStr">
         <is>
           <t>OBJEXP</t>
         </is>
       </c>
-      <c r="C28" s="15" t="inlineStr">
+      <c r="C28" s="16" t="inlineStr">
         <is>
           <t>C163559</t>
         </is>
       </c>
-      <c r="D28" s="15" t="inlineStr">
+      <c r="D28" s="16" t="inlineStr">
         <is>
           <t>Add Unique number</t>
         </is>
       </c>
-      <c r="E28" s="15" t="inlineStr">
+      <c r="E28" s="16" t="inlineStr">
         <is>
           <t>combine with the corresponding outcome measures by a common TSGRPID</t>
         </is>
       </c>
-      <c r="F28" s="14" t="inlineStr">
+      <c r="F28" s="17" t="inlineStr">
         <is>
           <t>Exploratory Objective</t>
         </is>
       </c>
-      <c r="G28" s="29" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="29" ht="58" customHeight="1">
-      <c r="A29" s="15" t="inlineStr">
+      <c r="A29" s="16" t="inlineStr">
         <is>
           <t>Study Primary Objective; Trial Primary Objective</t>
         </is>
       </c>
-      <c r="B29" s="15" t="inlineStr">
+      <c r="B29" s="16" t="inlineStr">
         <is>
           <t>OBJPRIM</t>
         </is>
       </c>
-      <c r="C29" s="15" t="inlineStr">
+      <c r="C29" s="16" t="inlineStr">
         <is>
           <t>C85826</t>
         </is>
       </c>
-      <c r="D29" s="15" t="inlineStr">
+      <c r="D29" s="16" t="inlineStr">
         <is>
           <t>Add Unique number</t>
         </is>
       </c>
-      <c r="E29" s="15" t="inlineStr">
+      <c r="E29" s="16" t="inlineStr">
         <is>
           <t>combine with the corresponding outcome measures by a common TSGRPID</t>
         </is>
       </c>
-      <c r="F29" s="14" t="inlineStr">
+      <c r="F29" s="17" t="inlineStr">
         <is>
           <t>Primary Objective</t>
         </is>
       </c>
-      <c r="G29" s="29" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>{'Objective_1': 'To determine if there is a statistically significant relationship (overall Type 1 erroralpha=0.05) between the change in both the ADAS-Cog (11) and CIBIC+ scores, and drug dose (0, 50 cm2 [54 mg], and 75 cm2 [81 mg]).', 'Objective_2': 'To document the safety profile of the xanomeline TTS.'}</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="30" ht="58" customHeight="1">
-      <c r="A30" s="15" t="inlineStr">
+      <c r="A30" s="16" t="inlineStr">
         <is>
           <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
-      <c r="B30" s="15" t="inlineStr">
+      <c r="B30" s="16" t="inlineStr">
         <is>
           <t>OBJSEC</t>
         </is>
       </c>
-      <c r="C30" s="15" t="inlineStr">
+      <c r="C30" s="16" t="inlineStr">
         <is>
           <t>C85827</t>
         </is>
       </c>
-      <c r="D30" s="15" t="inlineStr">
+      <c r="D30" s="16" t="inlineStr">
         <is>
           <t>Add Unique number</t>
         </is>
       </c>
-      <c r="E30" s="15" t="inlineStr">
+      <c r="E30" s="16" t="inlineStr">
         <is>
           <t>combine with the corresponding outcome measures by a common TSGRPID</t>
         </is>
       </c>
-      <c r="F30" s="14" t="inlineStr">
+      <c r="F30" s="17" t="inlineStr">
         <is>
           <t>Secondary Objective</t>
         </is>
       </c>
-      <c r="G30" s="29" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>{'Objective_3': 'To assess the dose-dependent improvement in behavior. Improved scores on the Revised Neuropsychiatric Inventory (NPI-X) will indicate improvement in these\nareas.', 'Objective_4': 'To assess the dose-dependent improvements in activities of daily living. Improved scores on the Disability Assessment for Dementia (DAD) will indicate improvement in these areas (see Attachment LZZT.5).', 'Objective_5': "To assess the dose-dependent improvements in an extended assessment of cognition that integrates attention/concentration tasks. The Alzheimer's Disease Assessment Scale-14 item Cognitive Subscale, hereafter referred to as ADAS-Cog (14), will be used for this assessment (see Attachment LZZT.2).", 'Objective_6': 'To assess the treatment response as a function of Apo E genotype.'}</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="31" ht="29" customHeight="1">
-      <c r="A31" s="15" t="inlineStr">
+      <c r="A31" s="16" t="inlineStr">
         <is>
           <t>Observational Model</t>
         </is>
       </c>
-      <c r="B31" s="15" t="inlineStr">
+      <c r="B31" s="16" t="inlineStr">
         <is>
           <t>OBSMODEL</t>
         </is>
       </c>
-      <c r="C31" s="15" t="inlineStr">
+      <c r="C31" s="16" t="inlineStr">
         <is>
           <t>C126064</t>
         </is>
       </c>
-      <c r="D31" s="15" t="n"/>
-      <c r="E31" s="15" t="n"/>
-      <c r="F31" s="14" t="inlineStr">
+      <c r="D31" s="16" t="n"/>
+      <c r="E31" s="16" t="n"/>
+      <c r="F31" s="17" t="inlineStr">
         <is>
           <t>Observational Model</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="32" ht="43.5" customHeight="1">
-      <c r="A32" s="15" t="inlineStr">
+      <c r="A32" s="16" t="inlineStr">
         <is>
           <t>Observational Time Perspective</t>
         </is>
       </c>
-      <c r="B32" s="15" t="inlineStr">
+      <c r="B32" s="16" t="inlineStr">
         <is>
           <t>OBSTIMP</t>
         </is>
       </c>
-      <c r="C32" s="15" t="inlineStr">
+      <c r="C32" s="16" t="inlineStr">
         <is>
           <t>C126065</t>
         </is>
       </c>
-      <c r="D32" s="15" t="n"/>
-      <c r="E32" s="15" t="n"/>
-      <c r="F32" s="14" t="inlineStr">
+      <c r="D32" s="16" t="n"/>
+      <c r="E32" s="16" t="n"/>
+      <c r="F32" s="17" t="inlineStr">
         <is>
           <t>Observational Time Perspective</t>
         </is>
       </c>
-      <c r="G32" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I32" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J32" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K32" s="34" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G32" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I32" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J32" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K32" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="33" ht="43.5" customHeight="1">
-      <c r="A33" s="15" t="inlineStr">
+      <c r="A33" s="16" t="inlineStr">
         <is>
           <t>Obs Study Population Description</t>
         </is>
       </c>
-      <c r="B33" s="15" t="inlineStr">
+      <c r="B33" s="16" t="inlineStr">
         <is>
           <t>OBSTPOPD</t>
         </is>
       </c>
-      <c r="C33" s="15" t="inlineStr">
+      <c r="C33" s="16" t="inlineStr">
         <is>
           <t>C126066</t>
         </is>
       </c>
-      <c r="D33" s="15" t="n"/>
-      <c r="E33" s="15" t="n"/>
-      <c r="F33" s="14" t="inlineStr">
+      <c r="D33" s="16" t="n"/>
+      <c r="E33" s="16" t="n"/>
+      <c r="F33" s="17" t="inlineStr">
         <is>
           <t>Observational Study Population Description</t>
         </is>
       </c>
-      <c r="G33" s="34" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G33" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="34" ht="43.5" customHeight="1">
-      <c r="A34" s="15" t="inlineStr">
+      <c r="A34" s="16" t="inlineStr">
         <is>
           <t>Observational Study Sampling Method</t>
         </is>
       </c>
-      <c r="B34" s="15" t="inlineStr">
+      <c r="B34" s="16" t="inlineStr">
         <is>
           <t>OBSTSMM</t>
         </is>
       </c>
-      <c r="C34" s="15" t="inlineStr">
+      <c r="C34" s="16" t="inlineStr">
         <is>
           <t>C126067</t>
         </is>
       </c>
-      <c r="D34" s="15" t="n"/>
-      <c r="E34" s="15" t="n"/>
-      <c r="F34" s="14" t="inlineStr">
+      <c r="D34" s="16" t="n"/>
+      <c r="E34" s="16" t="n"/>
+      <c r="F34" s="17" t="inlineStr">
         <is>
           <t>Observational Study Sampling Method</t>
         </is>
       </c>
-      <c r="G34" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I34" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J34" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K34" s="34" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G34" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I34" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J34" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K34" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="35" ht="43.5" customHeight="1">
-      <c r="A35" s="15" t="inlineStr">
+      <c r="A35" s="16" t="inlineStr">
         <is>
           <t>Exploratory Outcome Measure</t>
         </is>
       </c>
-      <c r="B35" s="15" t="inlineStr">
+      <c r="B35" s="16" t="inlineStr">
         <is>
           <t>OUTMSEXP</t>
         </is>
       </c>
-      <c r="C35" s="15" t="inlineStr">
+      <c r="C35" s="16" t="inlineStr">
         <is>
           <t>C98724</t>
         </is>
       </c>
-      <c r="D35" s="15" t="inlineStr">
+      <c r="D35" s="16" t="inlineStr">
         <is>
           <t>Add unique number</t>
         </is>
       </c>
-      <c r="E35" s="15" t="inlineStr">
+      <c r="E35" s="16" t="inlineStr">
         <is>
           <t>combine with the corresponding objective by a common TSGRPID</t>
         </is>
       </c>
-      <c r="F35" s="14" t="inlineStr">
+      <c r="F35" s="17" t="inlineStr">
         <is>
           <t>Exploratory Outcome Measure</t>
         </is>
       </c>
-      <c r="G35" s="29" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G35" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="36" ht="43.5" customHeight="1">
-      <c r="A36" s="15" t="inlineStr">
+      <c r="A36" s="16" t="inlineStr">
         <is>
           <t>Primary Outcome Measure</t>
         </is>
       </c>
-      <c r="B36" s="15" t="inlineStr">
+      <c r="B36" s="16" t="inlineStr">
         <is>
           <t>OUTMSPRI</t>
         </is>
       </c>
-      <c r="C36" s="15" t="inlineStr">
+      <c r="C36" s="16" t="inlineStr">
         <is>
           <t>C98772</t>
         </is>
       </c>
-      <c r="D36" s="15" t="inlineStr">
+      <c r="D36" s="16" t="inlineStr">
         <is>
           <t>Add unique number</t>
         </is>
       </c>
-      <c r="E36" s="15" t="inlineStr">
+      <c r="E36" s="16" t="inlineStr">
         <is>
           <t>combine with the corresponding objective by a common TSGRPID</t>
         </is>
       </c>
-      <c r="F36" s="14" t="inlineStr">
+      <c r="F36" s="17" t="inlineStr">
         <is>
           <t>Primary Outcome Measure</t>
         </is>
       </c>
-      <c r="G36" s="29" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t>{, }</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="37" ht="43.5" customHeight="1">
-      <c r="A37" s="15" t="inlineStr">
+      <c r="A37" s="16" t="inlineStr">
         <is>
           <t>Secondary Outcome Measure</t>
         </is>
       </c>
-      <c r="B37" s="15" t="inlineStr">
+      <c r="B37" s="16" t="inlineStr">
         <is>
           <t>OUTMSSEC</t>
         </is>
       </c>
-      <c r="C37" s="15" t="inlineStr">
+      <c r="C37" s="16" t="inlineStr">
         <is>
           <t>C98781</t>
         </is>
       </c>
-      <c r="D37" s="15" t="inlineStr">
+      <c r="D37" s="16" t="inlineStr">
         <is>
           <t>Add unique number</t>
         </is>
       </c>
-      <c r="E37" s="15" t="inlineStr">
+      <c r="E37" s="16" t="inlineStr">
         <is>
           <t>combine with the corresponding objective by a common TSGRPID</t>
         </is>
       </c>
-      <c r="F37" s="14" t="inlineStr">
+      <c r="F37" s="17" t="inlineStr">
         <is>
           <t>Secondary Outcome Measure</t>
         </is>
       </c>
-      <c r="G37" s="29" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t>{, , , }</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="38" ht="43.5" customHeight="1">
-      <c r="A38" s="15" t="inlineStr">
+      <c r="A38" s="16" t="inlineStr">
         <is>
           <t>Pharmacologic Class</t>
         </is>
       </c>
-      <c r="B38" s="15" t="inlineStr">
+      <c r="B38" s="16" t="inlineStr">
         <is>
           <t>PCLAS</t>
         </is>
       </c>
-      <c r="C38" s="15" t="inlineStr">
+      <c r="C38" s="16" t="inlineStr">
         <is>
           <t>C98768</t>
         </is>
       </c>
-      <c r="D38" s="15" t="n"/>
-      <c r="E38" s="15" t="inlineStr">
+      <c r="D38" s="16" t="n"/>
+      <c r="E38" s="16" t="inlineStr">
         <is>
           <t>If applicable, combine with the corresponding intervention variables by a common TSGRPID</t>
         </is>
       </c>
-      <c r="F38" s="14" t="inlineStr">
+      <c r="F38" s="17" t="inlineStr">
         <is>
           <t>Pharmacologic Class</t>
         </is>
       </c>
-      <c r="G38" s="29" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G38" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="39" ht="43.5" customHeight="1">
-      <c r="A39" s="15" t="inlineStr">
+      <c r="A39" s="16" t="inlineStr">
         <is>
           <t>Pediatric Investigation Plan Indicator</t>
         </is>
       </c>
-      <c r="B39" s="15" t="inlineStr">
+      <c r="B39" s="16" t="inlineStr">
         <is>
           <t>PIPIND</t>
         </is>
       </c>
-      <c r="C39" s="15" t="inlineStr">
+      <c r="C39" s="16" t="inlineStr">
         <is>
           <t>C126069</t>
         </is>
       </c>
-      <c r="D39" s="20" t="n"/>
-      <c r="E39" s="20" t="n"/>
-      <c r="F39" s="14" t="inlineStr">
+      <c r="D39" s="16" t="n"/>
+      <c r="E39" s="16" t="n"/>
+      <c r="F39" s="17" t="inlineStr">
         <is>
           <t>Pediatric Investigation Plan Indicator</t>
         </is>
       </c>
-      <c r="G39" s="29" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G39" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="40" ht="116" customHeight="1">
-      <c r="A40" s="15" t="inlineStr">
+      <c r="A40" s="16" t="inlineStr">
         <is>
           <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
         </is>
       </c>
-      <c r="B40" s="15" t="inlineStr">
+      <c r="B40" s="16" t="inlineStr">
         <is>
           <t>PLANSUB</t>
         </is>
       </c>
-      <c r="C40" s="15" t="inlineStr">
+      <c r="C40" s="16" t="inlineStr">
         <is>
           <t>C49692</t>
         </is>
       </c>
-      <c r="D40" s="20" t="n"/>
-      <c r="E40" s="20" t="n"/>
-      <c r="F40" s="14" t="inlineStr">
+      <c r="D40" s="16" t="n"/>
+      <c r="E40" s="16" t="n"/>
+      <c r="F40" s="17" t="inlineStr">
         <is>
           <t>Target Enrollment Number</t>
         </is>
       </c>
-      <c r="G40" s="29" t="inlineStr">
+      <c r="G40" s="5" t="inlineStr">
         <is>
           <t>300.0</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="41" ht="43.5" customHeight="1">
-      <c r="A41" s="15" t="inlineStr">
+      <c r="A41" s="16" t="inlineStr">
         <is>
           <t>Planned Treatment Duration</t>
         </is>
       </c>
-      <c r="B41" s="15" t="inlineStr">
+      <c r="B41" s="16" t="inlineStr">
         <is>
           <t>PTRTDUR</t>
         </is>
       </c>
-      <c r="C41" s="15" t="inlineStr">
+      <c r="C41" s="16" t="inlineStr">
         <is>
           <t>C139276</t>
         </is>
       </c>
-      <c r="D41" s="20" t="n"/>
-      <c r="E41" s="20" t="inlineStr">
+      <c r="D41" s="16" t="n"/>
+      <c r="E41" s="16" t="inlineStr">
         <is>
           <t>If applicable, combine with the corresponding intervention variables by a common TSGRPID</t>
         </is>
       </c>
-      <c r="F41" s="14" t="inlineStr">
+      <c r="F41" s="17" t="inlineStr">
         <is>
           <t>Planned Duration of Intervention Value + Unit</t>
         </is>
       </c>
-      <c r="G41" s="34" t="inlineStr">
+      <c r="G41" s="20" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': '[24.0,24.0] ["Week","Week"]'}</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="42" ht="58" customHeight="1">
-      <c r="A42" s="15" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="29" customHeight="1">
+      <c r="A42" s="16" t="inlineStr">
         <is>
           <t>Trial is Randomized</t>
         </is>
       </c>
-      <c r="B42" s="15" t="inlineStr">
+      <c r="B42" s="16" t="inlineStr">
         <is>
           <t>RANDOM</t>
         </is>
       </c>
-      <c r="C42" s="15" t="inlineStr">
+      <c r="C42" s="16" t="inlineStr">
         <is>
           <t>C25196</t>
         </is>
       </c>
-      <c r="D42" s="20" t="n"/>
-      <c r="E42" s="20" t="n"/>
-      <c r="F42" s="14" t="inlineStr">
+      <c r="D42" s="16" t="n"/>
+      <c r="E42" s="16" t="n"/>
+      <c r="F42" s="17" t="inlineStr">
         <is>
           <t>Randomized Indicator</t>
         </is>
       </c>
-      <c r="G42" s="29" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G42" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="43" ht="29" customHeight="1">
-      <c r="A43" s="15" t="inlineStr">
+      <c r="A43" s="16" t="inlineStr">
         <is>
           <t>Rare Disease Indicator</t>
         </is>
       </c>
-      <c r="B43" s="15" t="inlineStr">
+      <c r="B43" s="16" t="inlineStr">
         <is>
           <t>RDIND</t>
         </is>
       </c>
-      <c r="C43" s="15" t="inlineStr">
+      <c r="C43" s="16" t="inlineStr">
         <is>
           <t>C126070</t>
         </is>
       </c>
-      <c r="D43" s="20" t="n"/>
-      <c r="E43" s="20" t="n"/>
-      <c r="F43" s="14" t="inlineStr">
+      <c r="D43" s="16" t="n"/>
+      <c r="E43" s="16" t="n"/>
+      <c r="F43" s="17" t="inlineStr">
         <is>
           <t>Rare disease indicator</t>
         </is>
       </c>
-      <c r="G43" s="34" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G43" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="44" ht="43.5" customHeight="1">
-      <c r="A44" s="15" t="inlineStr">
+      <c r="A44" s="16" t="inlineStr">
         <is>
           <t>Registry Identifier</t>
         </is>
       </c>
-      <c r="B44" s="15" t="inlineStr">
+      <c r="B44" s="16" t="inlineStr">
         <is>
           <t>REGID</t>
         </is>
       </c>
-      <c r="C44" s="15" t="inlineStr">
+      <c r="C44" s="16" t="inlineStr">
         <is>
           <t>C98714</t>
         </is>
       </c>
-      <c r="D44" s="20" t="inlineStr">
+      <c r="D44" s="16" t="inlineStr">
         <is>
           <t>Add Unique number if more than 1</t>
         </is>
       </c>
-      <c r="E44" s="20" t="inlineStr">
+      <c r="E44" s="16" t="inlineStr">
         <is>
           <t>combine with corresponding organization name in TSVCDREF using a common TSGRPID</t>
         </is>
       </c>
-      <c r="F44" s="14" t="inlineStr">
+      <c r="F44" s="17" t="inlineStr">
         <is>
           <t>Registry Identifier</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="45" ht="58" customHeight="1">
-      <c r="A45" s="15" t="inlineStr">
+      <c r="A45" s="16" t="inlineStr">
         <is>
           <t>Route of Administration</t>
         </is>
       </c>
-      <c r="B45" s="15" t="inlineStr">
+      <c r="B45" s="16" t="inlineStr">
         <is>
           <t>ROUTE</t>
         </is>
       </c>
-      <c r="C45" s="15" t="inlineStr">
+      <c r="C45" s="16" t="inlineStr">
         <is>
           <t>C38114</t>
         </is>
       </c>
-      <c r="D45" s="20" t="inlineStr">
+      <c r="D45" s="16" t="inlineStr">
         <is>
           <t>Add unique number if more than 1</t>
         </is>
       </c>
-      <c r="E45" s="20" t="inlineStr">
+      <c r="E45" s="16" t="inlineStr">
         <is>
           <t>If applicable, combine with the corresponding intervention variables by a common TSGRPID</t>
         </is>
       </c>
-      <c r="F45" s="14" t="inlineStr">
+      <c r="F45" s="17" t="inlineStr">
         <is>
           <t>Route of Administration</t>
         </is>
       </c>
-      <c r="G45" s="29" t="inlineStr">
+      <c r="G45" s="5" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': ['Oral Route of Administration', 'Oral Route of Administration']}</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I45" s="29" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I45" s="5" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': ['C38288', 'C38288']}</t>
         </is>
       </c>
-      <c r="J45" s="29" t="inlineStr">
+      <c r="J45" s="5" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': ['http://www.cdisc.org', 'http://www.cdisc.org']}</t>
         </is>
       </c>
-      <c r="K45" s="29" t="inlineStr">
+      <c r="K45" s="5" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': ['2024-09-27', '2024-09-27']}</t>
         </is>
       </c>
     </row>
     <row r="46" ht="58" customHeight="1">
-      <c r="A46" s="15" t="inlineStr">
+      <c r="A46" s="16" t="inlineStr">
         <is>
           <t>Retained Biospecimen Description</t>
         </is>
       </c>
-      <c r="B46" s="15" t="inlineStr">
+      <c r="B46" s="16" t="inlineStr">
         <is>
           <t>RTSPCDES</t>
         </is>
       </c>
-      <c r="C46" s="15" t="inlineStr">
+      <c r="C46" s="16" t="inlineStr">
         <is>
           <t>C126072</t>
         </is>
       </c>
-      <c r="D46" s="20" t="inlineStr">
+      <c r="D46" s="16" t="inlineStr">
         <is>
           <t>Add unique number if more than 1</t>
         </is>
       </c>
-      <c r="E46" s="20" t="inlineStr">
+      <c r="E46" s="16" t="inlineStr">
         <is>
           <t>If applicable, combine with the corresponding Biospecimen variables BRIND and BRDNAIND by a common unique TSGRPID</t>
         </is>
       </c>
-      <c r="F46" s="14" t="inlineStr">
+      <c r="F46" s="17" t="inlineStr">
         <is>
           <t>Retained Biospecimen Description</t>
         </is>
       </c>
-      <c r="G46" s="29" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G46" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="47" ht="29" customHeight="1">
-      <c r="A47" s="15" t="inlineStr">
+      <c r="A47" s="16" t="inlineStr">
         <is>
           <t>Sex of Participants</t>
         </is>
       </c>
-      <c r="B47" s="15" t="inlineStr">
+      <c r="B47" s="16" t="inlineStr">
         <is>
           <t>SEXPOP</t>
         </is>
       </c>
-      <c r="C47" s="15" t="inlineStr">
+      <c r="C47" s="16" t="inlineStr">
         <is>
           <t>C49696</t>
         </is>
       </c>
-      <c r="D47" s="20" t="n"/>
-      <c r="E47" s="20" t="n"/>
-      <c r="F47" s="14" t="inlineStr">
+      <c r="D47" s="16" t="n"/>
+      <c r="E47" s="16" t="n"/>
+      <c r="F47" s="17" t="inlineStr">
         <is>
           <t>Sex of Participants</t>
         </is>
@@ -9874,185 +9766,185 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="48" ht="58" customHeight="1">
-      <c r="A48" s="15" t="inlineStr">
+      <c r="A48" s="16" t="inlineStr">
         <is>
           <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
         </is>
       </c>
-      <c r="B48" s="15" t="inlineStr">
+      <c r="B48" s="16" t="inlineStr">
         <is>
           <t>SPONSOR</t>
         </is>
       </c>
-      <c r="C48" s="15" t="inlineStr">
+      <c r="C48" s="16" t="inlineStr">
         <is>
           <t>C70793</t>
         </is>
       </c>
-      <c r="D48" s="20" t="n"/>
-      <c r="E48" s="20" t="n"/>
-      <c r="F48" s="19" t="inlineStr">
+      <c r="D48" s="16" t="n"/>
+      <c r="E48" s="16" t="n"/>
+      <c r="F48" s="21" t="inlineStr">
         <is>
           <t>Sponsor Name - Organization</t>
         </is>
       </c>
-      <c r="G48" s="29" t="inlineStr">
+      <c r="G48" s="5" t="inlineStr">
         <is>
           <t>Eli Lilly</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="49" ht="29" customHeight="1">
-      <c r="A49" s="15" t="inlineStr">
+      <c r="A49" s="16" t="inlineStr">
         <is>
           <t>Sponsor's Study Reference ID</t>
         </is>
       </c>
-      <c r="B49" s="15" t="inlineStr">
+      <c r="B49" s="16" t="inlineStr">
         <is>
           <t>SPREFID</t>
         </is>
       </c>
-      <c r="C49" s="15" t="inlineStr">
+      <c r="C49" s="16" t="inlineStr">
         <is>
           <t>C135009</t>
         </is>
       </c>
-      <c r="D49" s="20" t="inlineStr">
+      <c r="D49" s="16" t="inlineStr">
         <is>
           <t>Add Unique number if more than 1</t>
         </is>
       </c>
-      <c r="E49" s="20" t="n"/>
-      <c r="F49" s="14" t="inlineStr">
+      <c r="E49" s="16" t="n"/>
+      <c r="F49" s="17" t="inlineStr">
         <is>
           <t>Sponsor's Study Reference ID</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="50" ht="43.5" customHeight="1">
-      <c r="A50" s="15" t="inlineStr">
+      <c r="A50" s="16" t="inlineStr">
         <is>
           <t>Single Site EU State Trial Indicator</t>
         </is>
       </c>
-      <c r="B50" s="15" t="inlineStr">
+      <c r="B50" s="16" t="inlineStr">
         <is>
           <t>SSEUTIND</t>
         </is>
       </c>
-      <c r="C50" s="15" t="inlineStr">
+      <c r="C50" s="16" t="inlineStr">
         <is>
           <t>C127800</t>
         </is>
       </c>
-      <c r="D50" s="20" t="n"/>
-      <c r="E50" s="20" t="n"/>
-      <c r="F50" s="14" t="inlineStr">
+      <c r="D50" s="16" t="n"/>
+      <c r="E50" s="16" t="n"/>
+      <c r="F50" s="17" t="inlineStr">
         <is>
           <t>Single Site Eu State Trial Indicator</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="51" ht="43.5" customHeight="1">
-      <c r="A51" s="15" t="inlineStr">
+      <c r="A51" s="16" t="inlineStr">
         <is>
           <t>Study Type; Study Type Classification</t>
         </is>
       </c>
-      <c r="B51" s="15" t="inlineStr">
+      <c r="B51" s="16" t="inlineStr">
         <is>
           <t>STYPE</t>
         </is>
       </c>
-      <c r="C51" s="15" t="inlineStr">
+      <c r="C51" s="16" t="inlineStr">
         <is>
           <t>C142175</t>
         </is>
       </c>
-      <c r="D51" s="20" t="n"/>
-      <c r="E51" s="20" t="n"/>
-      <c r="F51" s="14" t="inlineStr">
+      <c r="D51" s="16" t="n"/>
+      <c r="E51" s="16" t="n"/>
+      <c r="F51" s="17" t="inlineStr">
         <is>
           <t>Study Type</t>
         </is>
@@ -10064,7 +9956,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -10084,404 +9976,472 @@
       </c>
     </row>
     <row r="52" ht="145" customHeight="1">
-      <c r="A52" s="15" t="inlineStr">
+      <c r="A52" s="16" t="inlineStr">
         <is>
           <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
         </is>
       </c>
-      <c r="B52" s="15" t="inlineStr">
+      <c r="B52" s="16" t="inlineStr">
         <is>
           <t>TBLIND</t>
         </is>
       </c>
-      <c r="C52" s="15" t="inlineStr">
+      <c r="C52" s="16" t="inlineStr">
         <is>
           <t>C49658</t>
         </is>
       </c>
-      <c r="D52" s="20" t="n"/>
-      <c r="E52" s="20" t="n"/>
-      <c r="F52" s="14" t="inlineStr">
+      <c r="D52" s="16" t="n"/>
+      <c r="E52" s="16" t="n"/>
+      <c r="F52" s="17" t="inlineStr">
         <is>
           <t>Blinding Schema</t>
         </is>
       </c>
-      <c r="G52" s="29" t="inlineStr">
+      <c r="G52" s="5" t="inlineStr">
         <is>
           <t>Double Blind Study</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I52" s="29" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I52" s="5" t="inlineStr">
         <is>
           <t>C15228</t>
         </is>
       </c>
-      <c r="J52" s="29" t="inlineStr">
+      <c r="J52" s="5" t="inlineStr">
         <is>
           <t>//www.cdisc.org</t>
         </is>
       </c>
-      <c r="K52" s="29" t="inlineStr">
+      <c r="K52" s="5" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="53" ht="72.5" customHeight="1">
-      <c r="A53" s="15" t="inlineStr">
+      <c r="A53" s="16" t="inlineStr">
         <is>
           <t>Control Type</t>
         </is>
       </c>
-      <c r="B53" s="15" t="inlineStr">
+      <c r="B53" s="16" t="inlineStr">
         <is>
           <t>TCNTRL</t>
         </is>
       </c>
-      <c r="C53" s="15" t="inlineStr">
+      <c r="C53" s="16" t="inlineStr">
         <is>
           <t>C49647</t>
         </is>
       </c>
-      <c r="D53" s="15" t="n"/>
-      <c r="E53" s="15" t="n"/>
-      <c r="F53" s="14" t="inlineStr">
+      <c r="D53" s="16" t="n"/>
+      <c r="E53" s="16" t="n"/>
+      <c r="F53" s="17" t="inlineStr">
         <is>
           <t>Intervention Control Type</t>
         </is>
       </c>
-      <c r="G53" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I53" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J53" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K53" s="34" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G53" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I53" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J53" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K53" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="54" ht="29" customHeight="1">
-      <c r="A54" s="15" t="inlineStr">
+      <c r="A54" s="16" t="inlineStr">
         <is>
           <t>Therapeutic Area</t>
         </is>
       </c>
-      <c r="B54" s="15" t="inlineStr">
+      <c r="B54" s="16" t="inlineStr">
         <is>
           <t>THERAREA</t>
         </is>
       </c>
-      <c r="C54" s="15" t="inlineStr">
+      <c r="C54" s="16" t="inlineStr">
         <is>
           <t>C101302</t>
         </is>
       </c>
-      <c r="D54" s="15" t="n"/>
-      <c r="E54" s="15" t="n"/>
-      <c r="F54" s="14" t="inlineStr">
+      <c r="D54" s="16" t="n"/>
+      <c r="E54" s="16" t="n"/>
+      <c r="F54" s="17" t="inlineStr">
         <is>
           <t>Therapeutic Area</t>
         </is>
       </c>
-      <c r="G54" s="29" t="inlineStr">
+      <c r="G54" s="5" t="inlineStr">
         <is>
           <t>"Mild to Moderate Alzheimer's Disease", "Alzheimer's disease"</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I54" s="29" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I54" s="5" t="inlineStr">
         <is>
           <t>MILD_MOD_ALZ', '26929004</t>
         </is>
       </c>
-      <c r="J54" s="29" t="inlineStr">
+      <c r="J54" s="5" t="inlineStr">
         <is>
           <t>SPONSOR', 'SNOMED</t>
         </is>
       </c>
-      <c r="K54" s="29" t="inlineStr">
+      <c r="K54" s="5" t="inlineStr">
         <is>
           <t>12', 'January 31, 2018</t>
         </is>
       </c>
     </row>
     <row r="55" ht="43.5" customHeight="1">
-      <c r="A55" s="15" t="inlineStr">
+      <c r="A55" s="16" t="inlineStr">
         <is>
           <t>Trial Intent Type</t>
         </is>
       </c>
-      <c r="B55" s="15" t="inlineStr">
+      <c r="B55" s="16" t="inlineStr">
         <is>
           <t>TINDTP</t>
         </is>
       </c>
-      <c r="C55" s="15" t="inlineStr">
+      <c r="C55" s="16" t="inlineStr">
         <is>
           <t>C49652</t>
         </is>
       </c>
-      <c r="D55" s="15" t="inlineStr">
+      <c r="D55" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">Add Unique number if more than 1 </t>
         </is>
       </c>
-      <c r="E55" s="15" t="n"/>
-      <c r="F55" s="14" t="inlineStr">
+      <c r="E55" s="16" t="n"/>
+      <c r="F55" s="17" t="inlineStr">
         <is>
           <t>Trial Intent Types</t>
         </is>
       </c>
-      <c r="G55" s="29" t="inlineStr">
+      <c r="G55" s="5" t="inlineStr">
         <is>
           <t>{'Code_152': 'Treatment Study'}</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I55" s="29" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I55" s="5" t="inlineStr">
         <is>
           <t>{'Code_152': 'C49656'}</t>
         </is>
       </c>
-      <c r="J55" s="29" t="inlineStr">
+      <c r="J55" s="5" t="inlineStr">
         <is>
           <t>{'Code_152': 'http://www.cdisc.org'}</t>
         </is>
       </c>
-      <c r="K55" s="29" t="inlineStr">
+      <c r="K55" s="5" t="inlineStr">
         <is>
           <t>{'Code_152': '2024-09-27'}</t>
         </is>
       </c>
     </row>
     <row r="56" ht="43.5" customHeight="1">
-      <c r="A56" s="15" t="inlineStr">
+      <c r="A56" s="16" t="inlineStr">
         <is>
           <t>Official Study Title; Study Title; Trial Title</t>
         </is>
       </c>
-      <c r="B56" s="15" t="inlineStr">
+      <c r="B56" s="16" t="inlineStr">
         <is>
           <t>TITLE</t>
         </is>
       </c>
-      <c r="C56" s="15" t="inlineStr">
+      <c r="C56" s="16" t="inlineStr">
         <is>
           <t>C49802</t>
         </is>
       </c>
-      <c r="D56" s="15" t="n"/>
-      <c r="E56" s="15" t="n"/>
-      <c r="F56" s="14" t="inlineStr">
+      <c r="D56" s="16" t="n"/>
+      <c r="E56" s="16" t="n"/>
+      <c r="F56" s="17" t="inlineStr">
         <is>
           <t>Full Title</t>
         </is>
       </c>
-      <c r="G56" s="29" t="inlineStr">
+      <c r="G56" s="5" t="inlineStr">
         <is>
           <t>Safety and Efficacy of the Xanomeline Transdermal Therapeutic System (TTS) in Patients with Mild to Moderate Alzheimer's Disease</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="57" ht="43.5" customHeight="1">
-      <c r="A57" s="35" t="inlineStr">
+      <c r="A57" s="16" t="inlineStr">
         <is>
           <t>Trial Phase; Trial Phase Classification</t>
         </is>
       </c>
-      <c r="B57" s="35" t="inlineStr">
+      <c r="B57" s="16" t="inlineStr">
         <is>
           <t>TPHASE</t>
         </is>
       </c>
-      <c r="C57" s="35" t="inlineStr">
+      <c r="C57" s="16" t="inlineStr">
         <is>
           <t>C48281</t>
         </is>
       </c>
-      <c r="D57" s="35" t="n"/>
-      <c r="E57" s="35" t="n"/>
-      <c r="F57" s="36" t="inlineStr">
+      <c r="D57" s="16" t="n"/>
+      <c r="E57" s="16" t="n"/>
+      <c r="F57" s="17" t="inlineStr">
         <is>
           <t>Trial Phase</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H57" s="32" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H57" s="16" t="inlineStr">
         <is>
           <t>NI</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="58" ht="30" customHeight="1">
-      <c r="A58" s="15" t="inlineStr">
+      <c r="A58" s="16" t="inlineStr">
         <is>
           <t>Investigational Therapy or Treatment</t>
         </is>
       </c>
-      <c r="B58" s="15" t="inlineStr">
+      <c r="B58" s="16" t="inlineStr">
         <is>
           <t>TRT</t>
         </is>
       </c>
-      <c r="C58" s="15" t="inlineStr">
+      <c r="C58" s="16" t="inlineStr">
         <is>
           <t>C41161</t>
         </is>
       </c>
-      <c r="D58" s="15" t="inlineStr">
+      <c r="D58" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">Add Unique number if more than 1 </t>
         </is>
       </c>
-      <c r="E58" s="15" t="inlineStr">
+      <c r="E58" s="16" t="inlineStr">
         <is>
           <t>If applicable, combine with the corresponding intervention variables by a common TSGRPID</t>
         </is>
       </c>
-      <c r="F58" s="14" t="inlineStr">
+      <c r="F58" s="17" t="inlineStr">
         <is>
           <t>Investigational Intervention</t>
         </is>
       </c>
-      <c r="G58" s="13" t="inlineStr">
+      <c r="G58" s="5" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'Xinomiline'}</t>
         </is>
       </c>
-      <c r="H58" s="32" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="H58" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="59" ht="43.5" customHeight="1">
-      <c r="A59" s="37" t="inlineStr">
+      <c r="A59" s="16" t="inlineStr">
         <is>
           <t>Trial Scope; Trial Type</t>
         </is>
       </c>
-      <c r="B59" s="37" t="inlineStr">
+      <c r="B59" s="16" t="inlineStr">
         <is>
           <t>TTYPE</t>
         </is>
       </c>
-      <c r="C59" s="37" t="inlineStr">
+      <c r="C59" s="16" t="inlineStr">
         <is>
           <t>C49660</t>
         </is>
       </c>
-      <c r="D59" s="37" t="n"/>
-      <c r="E59" s="37" t="n"/>
-      <c r="F59" s="38" t="inlineStr">
+      <c r="D59" s="16" t="n"/>
+      <c r="E59" s="16" t="n"/>
+      <c r="F59" s="17" t="inlineStr">
         <is>
           <t>Trial Type</t>
         </is>
       </c>
-      <c r="G59" s="29" t="inlineStr">
+      <c r="G59" s="5" t="inlineStr">
         <is>
           <t>{'Code_153': 'Efficacy Study', 'Code_154': 'Safety Study', 'Code_155': 'Pharmacokinetic Study'}</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I59" s="29" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I59" s="5" t="inlineStr">
         <is>
           <t>{'Code_153': 'C49666', 'Code_154': 'C49667', 'Code_155': 'C49663'}</t>
         </is>
       </c>
-      <c r="J59" s="29" t="inlineStr">
+      <c r="J59" s="5" t="inlineStr">
         <is>
           <t>{'Code_153': 'http://www.cdisc.org', 'Code_154': 'http://www.cdisc.org', 'Code_155': 'http://www.cdisc.org'}</t>
         </is>
       </c>
-      <c r="K59" s="29" t="inlineStr">
+      <c r="K59" s="5" t="inlineStr">
         <is>
           <t>{'Code_153': '2024-09-27', 'Code_154': '2024-09-27', 'Code_155': '2024-09-27'}</t>
         </is>
       </c>
     </row>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
   </sheetData>
   <autoFilter ref="A1:G59"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
